--- a/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
+++ b/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="496">
   <si>
     <t>Fecha</t>
   </si>
@@ -1493,6 +1493,12 @@
   </si>
   <si>
     <t>11/8/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:30:00 AM</t>
   </si>
   <si>
     <t>ANTIGUA GUATEMALA</t>
@@ -1853,7 +1859,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L483"/>
+  <dimension ref="A1:L485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1923,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1955,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1987,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2019,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2051,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2083,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2115,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2147,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2179,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2211,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2243,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2275,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2307,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2339,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2371,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2403,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2435,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2467,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2499,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2531,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2563,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2595,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2627,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2659,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2691,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2723,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2755,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2787,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2819,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2851,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2883,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2915,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2947,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2979,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3011,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3043,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3075,7 +3081,7 @@
         <v>0.34</v>
       </c>
       <c r="L38" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3107,7 +3113,7 @@
         <v>2.39</v>
       </c>
       <c r="L39" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3139,7 +3145,7 @@
         <v>6.46</v>
       </c>
       <c r="L40" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3171,7 +3177,7 @@
         <v>13.56</v>
       </c>
       <c r="L41" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3203,7 +3209,7 @@
         <v>26.35</v>
       </c>
       <c r="L42" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3235,7 +3241,7 @@
         <v>32.68</v>
       </c>
       <c r="L43" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3267,7 +3273,7 @@
         <v>31.84</v>
       </c>
       <c r="L44" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3299,7 +3305,7 @@
         <v>36.61</v>
       </c>
       <c r="L45" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3331,7 +3337,7 @@
         <v>48.68</v>
       </c>
       <c r="L46" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3363,7 +3369,7 @@
         <v>45.77</v>
       </c>
       <c r="L47" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3395,7 +3401,7 @@
         <v>47.9</v>
       </c>
       <c r="L48" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3427,7 +3433,7 @@
         <v>67.91</v>
       </c>
       <c r="L49" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3459,7 +3465,7 @@
         <v>50.58</v>
       </c>
       <c r="L50" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3491,7 +3497,7 @@
         <v>58.29</v>
       </c>
       <c r="L51" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3523,7 +3529,7 @@
         <v>53.55</v>
       </c>
       <c r="L52" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3555,7 +3561,7 @@
         <v>67.12</v>
       </c>
       <c r="L53" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3587,7 +3593,7 @@
         <v>67.13</v>
       </c>
       <c r="L54" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3619,7 +3625,7 @@
         <v>91.83</v>
       </c>
       <c r="L55" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3651,7 +3657,7 @@
         <v>134.23</v>
       </c>
       <c r="L56" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3683,7 +3689,7 @@
         <v>171.67</v>
       </c>
       <c r="L57" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3715,7 +3721,7 @@
         <v>173.24</v>
       </c>
       <c r="L58" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3747,7 +3753,7 @@
         <v>191.69</v>
       </c>
       <c r="L59" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3779,7 +3785,7 @@
         <v>190.66</v>
       </c>
       <c r="L60" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3811,7 +3817,7 @@
         <v>174.35</v>
       </c>
       <c r="L61" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3843,7 +3849,7 @@
         <v>166.04</v>
       </c>
       <c r="L62" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3875,7 +3881,7 @@
         <v>156.6</v>
       </c>
       <c r="L63" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3907,7 +3913,7 @@
         <v>211.86</v>
       </c>
       <c r="L64" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3939,7 +3945,7 @@
         <v>202.17</v>
       </c>
       <c r="L65" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3971,7 +3977,7 @@
         <v>167.95</v>
       </c>
       <c r="L66" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4003,7 +4009,7 @@
         <v>149.17</v>
       </c>
       <c r="L67" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4035,7 +4041,7 @@
         <v>135.42</v>
       </c>
       <c r="L68" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4067,7 +4073,7 @@
         <v>147.12</v>
       </c>
       <c r="L69" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4099,7 +4105,7 @@
         <v>190.09</v>
       </c>
       <c r="L70" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4131,7 +4137,7 @@
         <v>167.3</v>
       </c>
       <c r="L71" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4163,7 +4169,7 @@
         <v>173.27</v>
       </c>
       <c r="L72" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4195,7 +4201,7 @@
         <v>225.74</v>
       </c>
       <c r="L73" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4227,7 +4233,7 @@
         <v>183.46</v>
       </c>
       <c r="L74" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4259,7 +4265,7 @@
         <v>211.28</v>
       </c>
       <c r="L75" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4291,7 +4297,7 @@
         <v>184.59</v>
       </c>
       <c r="L76" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4323,7 +4329,7 @@
         <v>198.69</v>
       </c>
       <c r="L77" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4355,7 +4361,7 @@
         <v>270.71</v>
       </c>
       <c r="L78" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4387,7 +4393,7 @@
         <v>368.69</v>
       </c>
       <c r="L79" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4419,7 +4425,7 @@
         <v>486.95</v>
       </c>
       <c r="L80" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4451,7 +4457,7 @@
         <v>443.5</v>
       </c>
       <c r="L81" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4483,7 +4489,7 @@
         <v>355.07</v>
       </c>
       <c r="L82" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4515,7 +4521,7 @@
         <v>198.93</v>
       </c>
       <c r="L83" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4547,7 +4553,7 @@
         <v>183.51</v>
       </c>
       <c r="L84" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4579,7 +4585,7 @@
         <v>129.11</v>
       </c>
       <c r="L85" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4611,7 +4617,7 @@
         <v>154.88</v>
       </c>
       <c r="L86" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4643,7 +4649,7 @@
         <v>202.28</v>
       </c>
       <c r="L87" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4675,7 +4681,7 @@
         <v>227.98</v>
       </c>
       <c r="L88" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4707,7 +4713,7 @@
         <v>202.64</v>
       </c>
       <c r="L89" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4739,7 +4745,7 @@
         <v>162.62</v>
       </c>
       <c r="L90" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4771,7 +4777,7 @@
         <v>116.28</v>
       </c>
       <c r="L91" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4803,7 +4809,7 @@
         <v>129.18</v>
       </c>
       <c r="L92" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4835,7 +4841,7 @@
         <v>129.43</v>
       </c>
       <c r="L93" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4867,7 +4873,7 @@
         <v>78.28</v>
       </c>
       <c r="L94" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4899,7 +4905,7 @@
         <v>68.44</v>
       </c>
       <c r="L95" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4931,7 +4937,7 @@
         <v>58.79</v>
       </c>
       <c r="L96" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4963,7 +4969,7 @@
         <v>55.79</v>
       </c>
       <c r="L97" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4995,7 +5001,7 @@
         <v>60.25</v>
       </c>
       <c r="L98" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5027,7 +5033,7 @@
         <v>58.16</v>
       </c>
       <c r="L99" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5059,7 +5065,7 @@
         <v>46.67</v>
       </c>
       <c r="L100" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5091,7 +5097,7 @@
         <v>40.95</v>
       </c>
       <c r="L101" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5123,7 +5129,7 @@
         <v>28.71</v>
       </c>
       <c r="L102" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5155,7 +5161,7 @@
         <v>17.36</v>
       </c>
       <c r="L103" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5187,7 +5193,7 @@
         <v>12.13</v>
       </c>
       <c r="L104" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5219,7 +5225,7 @@
         <v>8.48</v>
       </c>
       <c r="L105" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5251,7 +5257,7 @@
         <v>3.57</v>
       </c>
       <c r="L106" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5283,7 +5289,7 @@
         <v>1.56</v>
       </c>
       <c r="L107" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5315,7 +5321,7 @@
         <v>0.12</v>
       </c>
       <c r="L108" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5347,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5379,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5411,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5443,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5475,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5507,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5539,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5571,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5603,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5635,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5667,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5699,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5731,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5763,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5795,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5827,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5859,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5891,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5923,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5955,7 +5961,7 @@
         <v>0.01</v>
       </c>
       <c r="L128" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5987,7 +5993,7 @@
         <v>0.02</v>
       </c>
       <c r="L129" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6019,7 +6025,7 @@
         <v>0.01</v>
       </c>
       <c r="L130" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6051,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6083,7 +6089,7 @@
         <v>0.02</v>
       </c>
       <c r="L132" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6115,7 +6121,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="L133" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6147,7 +6153,7 @@
         <v>0.02</v>
       </c>
       <c r="L134" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6179,7 +6185,7 @@
         <v>0.02</v>
       </c>
       <c r="L135" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6211,7 +6217,7 @@
         <v>0.01</v>
       </c>
       <c r="L136" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6243,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6275,7 +6281,7 @@
         <v>0.01</v>
       </c>
       <c r="L138" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6307,7 +6313,7 @@
         <v>0.04</v>
       </c>
       <c r="L139" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6339,7 +6345,7 @@
         <v>0.05</v>
       </c>
       <c r="L140" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6371,7 +6377,7 @@
         <v>0.03</v>
       </c>
       <c r="L141" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6403,7 +6409,7 @@
         <v>0.01</v>
       </c>
       <c r="L142" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6435,7 +6441,7 @@
         <v>0.01</v>
       </c>
       <c r="L143" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6467,7 +6473,7 @@
         <v>0.01</v>
       </c>
       <c r="L144" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6499,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6531,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6563,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6595,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6627,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6659,7 +6665,7 @@
         <v>0.02</v>
       </c>
       <c r="L150" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6691,7 +6697,7 @@
         <v>0.01</v>
       </c>
       <c r="L151" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6723,7 +6729,7 @@
         <v>0.01</v>
       </c>
       <c r="L152" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6755,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6787,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6819,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6851,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6883,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6915,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6947,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6979,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7011,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7043,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7075,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7107,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7139,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7171,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7203,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7235,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7267,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7299,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7331,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7363,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7395,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7427,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7459,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7491,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7523,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7555,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7587,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7619,7 +7625,7 @@
         <v>0.03</v>
       </c>
       <c r="L180" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7651,7 +7657,7 @@
         <v>0.08</v>
       </c>
       <c r="L181" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7683,7 +7689,7 @@
         <v>1.26</v>
       </c>
       <c r="L182" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7715,7 +7721,7 @@
         <v>2.34</v>
       </c>
       <c r="L183" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7747,7 +7753,7 @@
         <v>7.06</v>
       </c>
       <c r="L184" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7779,7 +7785,7 @@
         <v>12.62</v>
       </c>
       <c r="L185" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7811,7 +7817,7 @@
         <v>23.01</v>
       </c>
       <c r="L186" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7843,7 +7849,7 @@
         <v>35.96</v>
       </c>
       <c r="L187" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7875,7 +7881,7 @@
         <v>53.17</v>
       </c>
       <c r="L188" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -7907,7 +7913,7 @@
         <v>78.26000000000001</v>
       </c>
       <c r="L189" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -7939,7 +7945,7 @@
         <v>94.45</v>
       </c>
       <c r="L190" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7971,7 +7977,7 @@
         <v>101.95</v>
       </c>
       <c r="L191" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -8003,7 +8009,7 @@
         <v>136.99</v>
       </c>
       <c r="L192" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -8035,7 +8041,7 @@
         <v>138.69</v>
       </c>
       <c r="L193" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8067,7 +8073,7 @@
         <v>137.09</v>
       </c>
       <c r="L194" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8099,7 +8105,7 @@
         <v>143.29</v>
       </c>
       <c r="L195" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8131,7 +8137,7 @@
         <v>192.15</v>
       </c>
       <c r="L196" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8163,7 +8169,7 @@
         <v>239.95</v>
       </c>
       <c r="L197" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8195,7 +8201,7 @@
         <v>254.87</v>
       </c>
       <c r="L198" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8227,7 +8233,7 @@
         <v>247.56</v>
       </c>
       <c r="L199" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8259,7 +8265,7 @@
         <v>287.63</v>
       </c>
       <c r="L200" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8291,7 +8297,7 @@
         <v>345.87</v>
       </c>
       <c r="L201" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8323,7 +8329,7 @@
         <v>358.65</v>
       </c>
       <c r="L202" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8355,7 +8361,7 @@
         <v>287.67</v>
       </c>
       <c r="L203" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8387,7 +8393,7 @@
         <v>218.34</v>
       </c>
       <c r="L204" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -8419,7 +8425,7 @@
         <v>213.66</v>
       </c>
       <c r="L205" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -8451,7 +8457,7 @@
         <v>389.75</v>
       </c>
       <c r="L206" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8483,7 +8489,7 @@
         <v>455.41</v>
       </c>
       <c r="L207" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8515,7 +8521,7 @@
         <v>332.81</v>
       </c>
       <c r="L208" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8547,7 +8553,7 @@
         <v>329.89</v>
       </c>
       <c r="L209" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -8579,7 +8585,7 @@
         <v>473.71</v>
       </c>
       <c r="L210" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -8611,7 +8617,7 @@
         <v>528.55</v>
       </c>
       <c r="L211" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -8643,7 +8649,7 @@
         <v>411.9</v>
       </c>
       <c r="L212" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -8675,7 +8681,7 @@
         <v>305.07</v>
       </c>
       <c r="L213" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -8707,7 +8713,7 @@
         <v>301.49</v>
       </c>
       <c r="L214" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -8739,7 +8745,7 @@
         <v>281</v>
       </c>
       <c r="L215" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -8771,7 +8777,7 @@
         <v>194.03</v>
       </c>
       <c r="L216" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -8803,7 +8809,7 @@
         <v>240.57</v>
       </c>
       <c r="L217" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -8835,7 +8841,7 @@
         <v>349.31</v>
       </c>
       <c r="L218" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -8867,7 +8873,7 @@
         <v>321.88</v>
       </c>
       <c r="L219" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -8899,7 +8905,7 @@
         <v>342</v>
       </c>
       <c r="L220" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -8931,7 +8937,7 @@
         <v>387.55</v>
       </c>
       <c r="L221" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -8963,7 +8969,7 @@
         <v>338.76</v>
       </c>
       <c r="L222" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8995,7 +9001,7 @@
         <v>445.44</v>
       </c>
       <c r="L223" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -9027,7 +9033,7 @@
         <v>543.7</v>
       </c>
       <c r="L224" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -9059,7 +9065,7 @@
         <v>566.16</v>
       </c>
       <c r="L225" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -9091,7 +9097,7 @@
         <v>535.8099999999999</v>
       </c>
       <c r="L226" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -9123,7 +9129,7 @@
         <v>439.72</v>
       </c>
       <c r="L227" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -9155,7 +9161,7 @@
         <v>378.84</v>
       </c>
       <c r="L228" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -9187,7 +9193,7 @@
         <v>357.8</v>
       </c>
       <c r="L229" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -9219,7 +9225,7 @@
         <v>419.01</v>
       </c>
       <c r="L230" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -9251,7 +9257,7 @@
         <v>284.26</v>
       </c>
       <c r="L231" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -9283,7 +9289,7 @@
         <v>234.25</v>
       </c>
       <c r="L232" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -9315,7 +9321,7 @@
         <v>264.34</v>
       </c>
       <c r="L233" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -9347,7 +9353,7 @@
         <v>235.03</v>
       </c>
       <c r="L234" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -9379,7 +9385,7 @@
         <v>197.14</v>
       </c>
       <c r="L235" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -9411,7 +9417,7 @@
         <v>150.14</v>
       </c>
       <c r="L236" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9443,7 +9449,7 @@
         <v>158.5</v>
       </c>
       <c r="L237" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9475,7 +9481,7 @@
         <v>169.32</v>
       </c>
       <c r="L238" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9507,7 +9513,7 @@
         <v>142.07</v>
       </c>
       <c r="L239" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -9539,7 +9545,7 @@
         <v>71.63</v>
       </c>
       <c r="L240" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9571,7 +9577,7 @@
         <v>40.56</v>
       </c>
       <c r="L241" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9603,7 +9609,7 @@
         <v>45.69</v>
       </c>
       <c r="L242" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9635,7 +9641,7 @@
         <v>45.13</v>
       </c>
       <c r="L243" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9667,7 +9673,7 @@
         <v>46.89</v>
       </c>
       <c r="L244" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9699,7 +9705,7 @@
         <v>50.02</v>
       </c>
       <c r="L245" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9731,7 +9737,7 @@
         <v>54.83</v>
       </c>
       <c r="L246" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9763,7 +9769,7 @@
         <v>50.23</v>
       </c>
       <c r="L247" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9795,7 +9801,7 @@
         <v>27.16</v>
       </c>
       <c r="L248" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9827,7 +9833,7 @@
         <v>7.81</v>
       </c>
       <c r="L249" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9859,7 +9865,7 @@
         <v>3.78</v>
       </c>
       <c r="L250" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9891,7 +9897,7 @@
         <v>1.87</v>
       </c>
       <c r="L251" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9923,7 +9929,7 @@
         <v>0.21</v>
       </c>
       <c r="L252" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9955,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="L253" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -9987,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -10019,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -10051,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -10083,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -10115,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -10147,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10179,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10211,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -10243,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -10275,7 +10281,7 @@
         <v>0.01</v>
       </c>
       <c r="L263" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -10307,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -10339,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -10371,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -10403,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10435,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10467,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10499,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10531,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10563,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10595,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10627,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10659,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10691,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10723,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10755,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10787,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10819,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -10851,7 +10857,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -10883,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -10915,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -10947,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -10979,7 +10985,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -11011,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -11043,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -11075,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -11107,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -11139,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -11171,7 +11177,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -11203,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -11235,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -11267,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -11299,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -11331,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -11363,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -11395,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -11427,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -11459,7 +11465,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -11491,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -11523,7 +11529,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -11555,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -11587,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11619,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11651,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11683,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11715,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11747,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11779,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -11811,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -11843,7 +11849,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -11875,7 +11881,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -11907,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -11939,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -11971,7 +11977,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -12003,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -12035,7 +12041,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -12067,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -12099,7 +12105,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -12131,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -12163,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -12195,7 +12201,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -12227,7 +12233,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -12259,7 +12265,7 @@
         <v>0.17</v>
       </c>
       <c r="L325" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -12291,7 +12297,7 @@
         <v>3.23</v>
       </c>
       <c r="L326" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -12323,7 +12329,7 @@
         <v>8.68</v>
       </c>
       <c r="L327" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -12355,7 +12361,7 @@
         <v>21.57</v>
       </c>
       <c r="L328" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -12387,7 +12393,7 @@
         <v>29.14</v>
       </c>
       <c r="L329" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -12419,7 +12425,7 @@
         <v>36.4</v>
       </c>
       <c r="L330" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -12451,7 +12457,7 @@
         <v>50.4</v>
       </c>
       <c r="L331" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -12483,7 +12489,7 @@
         <v>71.63</v>
       </c>
       <c r="L332" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -12515,7 +12521,7 @@
         <v>105.26</v>
       </c>
       <c r="L333" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -12547,7 +12553,7 @@
         <v>150.88</v>
       </c>
       <c r="L334" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -12579,7 +12585,7 @@
         <v>180.94</v>
       </c>
       <c r="L335" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -12611,7 +12617,7 @@
         <v>207.09</v>
       </c>
       <c r="L336" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -12643,7 +12649,7 @@
         <v>188.99</v>
       </c>
       <c r="L337" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -12675,7 +12681,7 @@
         <v>215.59</v>
       </c>
       <c r="L338" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -12707,7 +12713,7 @@
         <v>234.95</v>
       </c>
       <c r="L339" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -12739,7 +12745,7 @@
         <v>270.32</v>
       </c>
       <c r="L340" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -12771,7 +12777,7 @@
         <v>322.36</v>
       </c>
       <c r="L341" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -12803,7 +12809,7 @@
         <v>409.2</v>
       </c>
       <c r="L342" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -12835,7 +12841,7 @@
         <v>577.24</v>
       </c>
       <c r="L343" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -12867,7 +12873,7 @@
         <v>678.58</v>
       </c>
       <c r="L344" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -12899,7 +12905,7 @@
         <v>614.7</v>
       </c>
       <c r="L345" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -12931,7 +12937,7 @@
         <v>426.66</v>
       </c>
       <c r="L346" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -12963,7 +12969,7 @@
         <v>378.23</v>
       </c>
       <c r="L347" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -12995,7 +13001,7 @@
         <v>325.61</v>
       </c>
       <c r="L348" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -13027,7 +13033,7 @@
         <v>263.44</v>
       </c>
       <c r="L349" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -13059,7 +13065,7 @@
         <v>418.7</v>
       </c>
       <c r="L350" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -13091,7 +13097,7 @@
         <v>480.07</v>
       </c>
       <c r="L351" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -13123,7 +13129,7 @@
         <v>405.86</v>
       </c>
       <c r="L352" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -13155,7 +13161,7 @@
         <v>460.04</v>
       </c>
       <c r="L353" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -13187,7 +13193,7 @@
         <v>479.08</v>
       </c>
       <c r="L354" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -13219,7 +13225,7 @@
         <v>406.5</v>
       </c>
       <c r="L355" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -13251,7 +13257,7 @@
         <v>370.42</v>
       </c>
       <c r="L356" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -13283,7 +13289,7 @@
         <v>366.09</v>
       </c>
       <c r="L357" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -13315,7 +13321,7 @@
         <v>380.52</v>
       </c>
       <c r="L358" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -13347,7 +13353,7 @@
         <v>448.3</v>
       </c>
       <c r="L359" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -13379,7 +13385,7 @@
         <v>338.47</v>
       </c>
       <c r="L360" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -13411,7 +13417,7 @@
         <v>296.95</v>
       </c>
       <c r="L361" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -13443,7 +13449,7 @@
         <v>374.49</v>
       </c>
       <c r="L362" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -13475,7 +13481,7 @@
         <v>448.56</v>
       </c>
       <c r="L363" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -13507,7 +13513,7 @@
         <v>456.68</v>
       </c>
       <c r="L364" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -13539,7 +13545,7 @@
         <v>494.33</v>
       </c>
       <c r="L365" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -13571,7 +13577,7 @@
         <v>481.14</v>
       </c>
       <c r="L366" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -13603,7 +13609,7 @@
         <v>520.4400000000001</v>
       </c>
       <c r="L367" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -13635,7 +13641,7 @@
         <v>488.57</v>
       </c>
       <c r="L368" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -13667,7 +13673,7 @@
         <v>393.7</v>
       </c>
       <c r="L369" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -13699,7 +13705,7 @@
         <v>639.71</v>
       </c>
       <c r="L370" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -13731,7 +13737,7 @@
         <v>268.2</v>
       </c>
       <c r="L371" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -13763,7 +13769,7 @@
         <v>283.57</v>
       </c>
       <c r="L372" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -13795,7 +13801,7 @@
         <v>333.71</v>
       </c>
       <c r="L373" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -13827,7 +13833,7 @@
         <v>536.62</v>
       </c>
       <c r="L374" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -13859,7 +13865,7 @@
         <v>410.1</v>
       </c>
       <c r="L375" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -13891,7 +13897,7 @@
         <v>478.29</v>
       </c>
       <c r="L376" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -13923,7 +13929,7 @@
         <v>391.68</v>
       </c>
       <c r="L377" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -13955,7 +13961,7 @@
         <v>708.15</v>
       </c>
       <c r="L378" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -13987,7 +13993,7 @@
         <v>305.43</v>
       </c>
       <c r="L379" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -14019,7 +14025,7 @@
         <v>189.91</v>
       </c>
       <c r="L380" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -14051,7 +14057,7 @@
         <v>157.18</v>
       </c>
       <c r="L381" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -14083,7 +14089,7 @@
         <v>155.98</v>
       </c>
       <c r="L382" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -14115,7 +14121,7 @@
         <v>178.96</v>
       </c>
       <c r="L383" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -14147,7 +14153,7 @@
         <v>164.04</v>
       </c>
       <c r="L384" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -14179,7 +14185,7 @@
         <v>151.99</v>
       </c>
       <c r="L385" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -14211,7 +14217,7 @@
         <v>170.59</v>
       </c>
       <c r="L386" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -14243,7 +14249,7 @@
         <v>54.65</v>
       </c>
       <c r="L387" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -14275,7 +14281,7 @@
         <v>33.59</v>
       </c>
       <c r="L388" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -14307,7 +14313,7 @@
         <v>19.28</v>
       </c>
       <c r="L389" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -14339,7 +14345,7 @@
         <v>17.1</v>
       </c>
       <c r="L390" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -14371,7 +14377,7 @@
         <v>14.15</v>
       </c>
       <c r="L391" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -14403,7 +14409,7 @@
         <v>11.56</v>
       </c>
       <c r="L392" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -14435,7 +14441,7 @@
         <v>9.42</v>
       </c>
       <c r="L393" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -14467,7 +14473,7 @@
         <v>6.51</v>
       </c>
       <c r="L394" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -14499,7 +14505,7 @@
         <v>2.87</v>
       </c>
       <c r="L395" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -14531,7 +14537,7 @@
         <v>0.58</v>
       </c>
       <c r="L396" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -14563,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="L397" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -14595,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="L398" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -14627,7 +14633,7 @@
         <v>0</v>
       </c>
       <c r="L399" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -14659,7 +14665,7 @@
         <v>0</v>
       </c>
       <c r="L400" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -14691,7 +14697,7 @@
         <v>0</v>
       </c>
       <c r="L401" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -14723,7 +14729,7 @@
         <v>0</v>
       </c>
       <c r="L402" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -14755,7 +14761,7 @@
         <v>0</v>
       </c>
       <c r="L403" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -14787,7 +14793,7 @@
         <v>0</v>
       </c>
       <c r="L404" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -14819,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="L405" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -14851,7 +14857,7 @@
         <v>0</v>
       </c>
       <c r="L406" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -14883,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="L407" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -14915,7 +14921,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -14947,7 +14953,7 @@
         <v>0</v>
       </c>
       <c r="L409" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -14979,7 +14985,7 @@
         <v>0</v>
       </c>
       <c r="L410" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -15011,7 +15017,7 @@
         <v>0</v>
       </c>
       <c r="L411" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -15043,7 +15049,7 @@
         <v>0</v>
       </c>
       <c r="L412" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -15075,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="L413" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -15107,7 +15113,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -15139,7 +15145,7 @@
         <v>0</v>
       </c>
       <c r="L415" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -15171,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="L416" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -15203,7 +15209,7 @@
         <v>0</v>
       </c>
       <c r="L417" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -15235,7 +15241,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -15267,7 +15273,7 @@
         <v>0</v>
       </c>
       <c r="L419" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -15299,7 +15305,7 @@
         <v>0</v>
       </c>
       <c r="L420" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -15331,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="L421" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -15363,7 +15369,7 @@
         <v>0</v>
       </c>
       <c r="L422" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -15395,7 +15401,7 @@
         <v>0</v>
       </c>
       <c r="L423" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -15427,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="L424" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -15459,7 +15465,7 @@
         <v>0</v>
       </c>
       <c r="L425" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -15491,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="L426" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -15523,7 +15529,7 @@
         <v>0</v>
       </c>
       <c r="L427" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -15555,7 +15561,7 @@
         <v>0</v>
       </c>
       <c r="L428" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -15587,7 +15593,7 @@
         <v>0</v>
       </c>
       <c r="L429" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -15619,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="L430" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -15651,7 +15657,7 @@
         <v>0</v>
       </c>
       <c r="L431" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -15683,7 +15689,7 @@
         <v>0</v>
       </c>
       <c r="L432" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -15715,7 +15721,7 @@
         <v>0</v>
       </c>
       <c r="L433" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -15747,7 +15753,7 @@
         <v>0</v>
       </c>
       <c r="L434" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -15779,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="L435" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -15811,7 +15817,7 @@
         <v>0</v>
       </c>
       <c r="L436" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -15843,7 +15849,7 @@
         <v>0</v>
       </c>
       <c r="L437" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -15875,7 +15881,7 @@
         <v>0</v>
       </c>
       <c r="L438" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -15907,7 +15913,7 @@
         <v>0</v>
       </c>
       <c r="L439" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -15939,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="L440" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -15971,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="L441" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -16003,7 +16009,7 @@
         <v>0</v>
       </c>
       <c r="L442" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -16035,7 +16041,7 @@
         <v>0</v>
       </c>
       <c r="L443" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -16067,7 +16073,7 @@
         <v>0</v>
       </c>
       <c r="L444" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -16099,7 +16105,7 @@
         <v>0</v>
       </c>
       <c r="L445" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -16131,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="L446" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -16163,7 +16169,7 @@
         <v>0</v>
       </c>
       <c r="L447" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -16195,7 +16201,7 @@
         <v>0</v>
       </c>
       <c r="L448" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -16227,7 +16233,7 @@
         <v>0</v>
       </c>
       <c r="L449" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -16259,7 +16265,7 @@
         <v>0</v>
       </c>
       <c r="L450" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -16291,7 +16297,7 @@
         <v>0</v>
       </c>
       <c r="L451" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -16323,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="L452" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -16355,7 +16361,7 @@
         <v>0</v>
       </c>
       <c r="L453" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -16387,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="L454" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -16419,7 +16425,7 @@
         <v>0</v>
       </c>
       <c r="L455" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -16451,7 +16457,7 @@
         <v>0</v>
       </c>
       <c r="L456" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -16483,7 +16489,7 @@
         <v>0</v>
       </c>
       <c r="L457" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -16515,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="L458" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -16547,7 +16553,7 @@
         <v>0</v>
       </c>
       <c r="L459" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -16579,7 +16585,7 @@
         <v>0</v>
       </c>
       <c r="L460" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -16611,7 +16617,7 @@
         <v>0</v>
       </c>
       <c r="L461" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -16643,7 +16649,7 @@
         <v>0</v>
       </c>
       <c r="L462" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -16675,7 +16681,7 @@
         <v>0</v>
       </c>
       <c r="L463" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -16707,7 +16713,7 @@
         <v>0</v>
       </c>
       <c r="L464" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -16739,7 +16745,7 @@
         <v>0</v>
       </c>
       <c r="L465" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -16771,7 +16777,7 @@
         <v>0</v>
       </c>
       <c r="L466" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -16803,7 +16809,7 @@
         <v>0</v>
       </c>
       <c r="L467" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -16835,7 +16841,7 @@
         <v>0</v>
       </c>
       <c r="L468" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -16867,7 +16873,7 @@
         <v>0.01</v>
       </c>
       <c r="L469" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -16899,7 +16905,7 @@
         <v>1.82</v>
       </c>
       <c r="L470" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -16931,7 +16937,7 @@
         <v>7.45</v>
       </c>
       <c r="L471" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -16963,7 +16969,7 @@
         <v>17.23</v>
       </c>
       <c r="L472" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -16995,7 +17001,7 @@
         <v>26.44</v>
       </c>
       <c r="L473" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -17027,7 +17033,7 @@
         <v>34.2</v>
       </c>
       <c r="L474" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -17059,7 +17065,7 @@
         <v>47.53</v>
       </c>
       <c r="L475" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -17091,7 +17097,7 @@
         <v>159.87</v>
       </c>
       <c r="L476" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -17123,7 +17129,7 @@
         <v>198.03</v>
       </c>
       <c r="L477" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -17155,7 +17161,7 @@
         <v>241.62</v>
       </c>
       <c r="L478" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -17187,7 +17193,7 @@
         <v>295.12</v>
       </c>
       <c r="L479" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -17219,7 +17225,7 @@
         <v>346.75</v>
       </c>
       <c r="L480" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -17251,7 +17257,7 @@
         <v>374.77</v>
       </c>
       <c r="L481" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -17283,7 +17289,7 @@
         <v>411.43</v>
       </c>
       <c r="L482" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -17293,11 +17299,75 @@
       <c r="B483" t="s">
         <v>492</v>
       </c>
+      <c r="C483">
+        <v>13.73</v>
+      </c>
+      <c r="D483">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
       <c r="F483">
         <v>23.91</v>
       </c>
+      <c r="H483">
+        <v>18.28</v>
+      </c>
+      <c r="I483">
+        <v>0.02</v>
+      </c>
+      <c r="J483">
+        <v>477.37</v>
+      </c>
       <c r="L483" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
         <v>493</v>
+      </c>
+      <c r="C484">
+        <v>13.73</v>
+      </c>
+      <c r="D484">
+        <v>68.47</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>24.03</v>
+      </c>
+      <c r="H484">
+        <v>17.84</v>
+      </c>
+      <c r="I484">
+        <v>0</v>
+      </c>
+      <c r="J484">
+        <v>505.81</v>
+      </c>
+      <c r="L484" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>494</v>
+      </c>
+      <c r="F485">
+        <v>24.26</v>
+      </c>
+      <c r="L485" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
+++ b/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="443">
   <si>
     <t>Fecha</t>
   </si>
@@ -1067,6 +1067,279 @@
   </si>
   <si>
     <t>11/8/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:40:00 PM</t>
   </si>
   <si>
     <t>ANTIGUA GUATEMALA</t>
@@ -1427,7 +1700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L341"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1497,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1529,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1561,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1593,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1625,7 +1898,7 @@
         <v>0.02</v>
       </c>
       <c r="L6" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1657,7 +1930,7 @@
         <v>0.01</v>
       </c>
       <c r="L7" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1689,7 +1962,7 @@
         <v>0.01</v>
       </c>
       <c r="L8" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1721,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1753,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1785,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1817,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1849,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1881,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1913,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1945,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1977,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2009,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2041,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2073,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2105,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2137,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2169,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2201,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2233,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2265,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2297,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2329,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2361,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2393,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2425,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2457,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2489,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2521,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2553,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2585,7 +2858,7 @@
         <v>0.03</v>
       </c>
       <c r="L36" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2617,7 +2890,7 @@
         <v>0.08</v>
       </c>
       <c r="L37" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2649,7 +2922,7 @@
         <v>1.26</v>
       </c>
       <c r="L38" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2681,7 +2954,7 @@
         <v>2.34</v>
       </c>
       <c r="L39" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2713,7 +2986,7 @@
         <v>7.06</v>
       </c>
       <c r="L40" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2745,7 +3018,7 @@
         <v>12.62</v>
       </c>
       <c r="L41" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2777,7 +3050,7 @@
         <v>23.01</v>
       </c>
       <c r="L42" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2809,7 +3082,7 @@
         <v>35.96</v>
       </c>
       <c r="L43" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2841,7 +3114,7 @@
         <v>53.17</v>
       </c>
       <c r="L44" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2873,7 +3146,7 @@
         <v>78.26000000000001</v>
       </c>
       <c r="L45" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2905,7 +3178,7 @@
         <v>94.45</v>
       </c>
       <c r="L46" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2937,7 +3210,7 @@
         <v>101.95</v>
       </c>
       <c r="L47" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2969,7 +3242,7 @@
         <v>136.99</v>
       </c>
       <c r="L48" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3001,7 +3274,7 @@
         <v>138.69</v>
       </c>
       <c r="L49" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3033,7 +3306,7 @@
         <v>137.09</v>
       </c>
       <c r="L50" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3065,7 +3338,7 @@
         <v>143.29</v>
       </c>
       <c r="L51" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3097,7 +3370,7 @@
         <v>192.15</v>
       </c>
       <c r="L52" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3129,7 +3402,7 @@
         <v>239.95</v>
       </c>
       <c r="L53" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3161,7 +3434,7 @@
         <v>254.87</v>
       </c>
       <c r="L54" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3193,7 +3466,7 @@
         <v>247.56</v>
       </c>
       <c r="L55" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3225,7 +3498,7 @@
         <v>287.63</v>
       </c>
       <c r="L56" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3257,7 +3530,7 @@
         <v>345.87</v>
       </c>
       <c r="L57" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3289,7 +3562,7 @@
         <v>358.65</v>
       </c>
       <c r="L58" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3321,7 +3594,7 @@
         <v>287.67</v>
       </c>
       <c r="L59" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3353,7 +3626,7 @@
         <v>218.34</v>
       </c>
       <c r="L60" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3385,7 +3658,7 @@
         <v>213.66</v>
       </c>
       <c r="L61" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3417,7 +3690,7 @@
         <v>389.75</v>
       </c>
       <c r="L62" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3449,7 +3722,7 @@
         <v>455.41</v>
       </c>
       <c r="L63" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3481,7 +3754,7 @@
         <v>332.81</v>
       </c>
       <c r="L64" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3513,7 +3786,7 @@
         <v>329.89</v>
       </c>
       <c r="L65" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3545,7 +3818,7 @@
         <v>473.71</v>
       </c>
       <c r="L66" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3577,7 +3850,7 @@
         <v>528.55</v>
       </c>
       <c r="L67" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3609,7 +3882,7 @@
         <v>411.9</v>
       </c>
       <c r="L68" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3641,7 +3914,7 @@
         <v>305.07</v>
       </c>
       <c r="L69" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3673,7 +3946,7 @@
         <v>301.49</v>
       </c>
       <c r="L70" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3705,7 +3978,7 @@
         <v>281</v>
       </c>
       <c r="L71" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3737,7 +4010,7 @@
         <v>194.03</v>
       </c>
       <c r="L72" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3769,7 +4042,7 @@
         <v>240.57</v>
       </c>
       <c r="L73" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3801,7 +4074,7 @@
         <v>349.31</v>
       </c>
       <c r="L74" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3833,7 +4106,7 @@
         <v>321.88</v>
       </c>
       <c r="L75" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3865,7 +4138,7 @@
         <v>342</v>
       </c>
       <c r="L76" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3897,7 +4170,7 @@
         <v>387.55</v>
       </c>
       <c r="L77" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3929,7 +4202,7 @@
         <v>338.76</v>
       </c>
       <c r="L78" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3961,7 +4234,7 @@
         <v>445.44</v>
       </c>
       <c r="L79" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3993,7 +4266,7 @@
         <v>543.7</v>
       </c>
       <c r="L80" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4025,7 +4298,7 @@
         <v>566.16</v>
       </c>
       <c r="L81" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4057,7 +4330,7 @@
         <v>535.8099999999999</v>
       </c>
       <c r="L82" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4089,7 +4362,7 @@
         <v>439.72</v>
       </c>
       <c r="L83" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4121,7 +4394,7 @@
         <v>378.84</v>
       </c>
       <c r="L84" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4153,7 +4426,7 @@
         <v>357.8</v>
       </c>
       <c r="L85" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4185,7 +4458,7 @@
         <v>419.01</v>
       </c>
       <c r="L86" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4217,7 +4490,7 @@
         <v>284.26</v>
       </c>
       <c r="L87" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4249,7 +4522,7 @@
         <v>234.25</v>
       </c>
       <c r="L88" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4281,7 +4554,7 @@
         <v>264.34</v>
       </c>
       <c r="L89" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4313,7 +4586,7 @@
         <v>235.03</v>
       </c>
       <c r="L90" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4345,7 +4618,7 @@
         <v>197.14</v>
       </c>
       <c r="L91" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4377,7 +4650,7 @@
         <v>150.14</v>
       </c>
       <c r="L92" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4409,7 +4682,7 @@
         <v>158.5</v>
       </c>
       <c r="L93" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4441,7 +4714,7 @@
         <v>169.32</v>
       </c>
       <c r="L94" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4473,7 +4746,7 @@
         <v>142.07</v>
       </c>
       <c r="L95" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4505,7 +4778,7 @@
         <v>71.63</v>
       </c>
       <c r="L96" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4537,7 +4810,7 @@
         <v>40.56</v>
       </c>
       <c r="L97" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4569,7 +4842,7 @@
         <v>45.69</v>
       </c>
       <c r="L98" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4601,7 +4874,7 @@
         <v>45.13</v>
       </c>
       <c r="L99" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4633,7 +4906,7 @@
         <v>46.89</v>
       </c>
       <c r="L100" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4665,7 +4938,7 @@
         <v>50.02</v>
       </c>
       <c r="L101" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4697,7 +4970,7 @@
         <v>54.83</v>
       </c>
       <c r="L102" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4729,7 +5002,7 @@
         <v>50.23</v>
       </c>
       <c r="L103" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4761,7 +5034,7 @@
         <v>27.16</v>
       </c>
       <c r="L104" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4793,7 +5066,7 @@
         <v>7.81</v>
       </c>
       <c r="L105" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4825,7 +5098,7 @@
         <v>3.78</v>
       </c>
       <c r="L106" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4857,7 +5130,7 @@
         <v>1.87</v>
       </c>
       <c r="L107" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -4889,7 +5162,7 @@
         <v>0.21</v>
       </c>
       <c r="L108" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -4921,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -4953,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -4985,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5017,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5049,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5081,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5113,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5145,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5177,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5209,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5241,7 +5514,7 @@
         <v>0.01</v>
       </c>
       <c r="L119" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5273,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5305,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5337,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5369,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5401,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5433,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5465,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5497,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5529,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5561,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5593,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5625,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5657,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5689,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5721,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5753,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -5785,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -5817,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -5849,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -5881,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -5913,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -5945,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -5977,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6009,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6041,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6073,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6105,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6137,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6169,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6201,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6233,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6265,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6297,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6329,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6361,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6393,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6425,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6457,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6489,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6521,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6553,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6585,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6617,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6649,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -6681,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -6713,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -6745,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -6777,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -6809,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -6841,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -6873,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -6905,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -6937,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -6969,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7001,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7033,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7065,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7097,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7129,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7161,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7193,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7225,7 +7498,7 @@
         <v>0.17</v>
       </c>
       <c r="L181" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7257,7 +7530,7 @@
         <v>3.23</v>
       </c>
       <c r="L182" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7289,7 +7562,7 @@
         <v>8.68</v>
       </c>
       <c r="L183" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7321,7 +7594,7 @@
         <v>21.57</v>
       </c>
       <c r="L184" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7353,7 +7626,7 @@
         <v>29.14</v>
       </c>
       <c r="L185" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7385,7 +7658,7 @@
         <v>36.4</v>
       </c>
       <c r="L186" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7417,7 +7690,7 @@
         <v>50.4</v>
       </c>
       <c r="L187" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7449,7 +7722,7 @@
         <v>71.63</v>
       </c>
       <c r="L188" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -7481,7 +7754,7 @@
         <v>105.26</v>
       </c>
       <c r="L189" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -7513,7 +7786,7 @@
         <v>150.88</v>
       </c>
       <c r="L190" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7545,7 +7818,7 @@
         <v>180.94</v>
       </c>
       <c r="L191" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -7577,7 +7850,7 @@
         <v>207.09</v>
       </c>
       <c r="L192" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -7609,7 +7882,7 @@
         <v>188.99</v>
       </c>
       <c r="L193" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -7641,7 +7914,7 @@
         <v>215.59</v>
       </c>
       <c r="L194" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -7673,7 +7946,7 @@
         <v>234.95</v>
       </c>
       <c r="L195" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -7705,7 +7978,7 @@
         <v>270.32</v>
       </c>
       <c r="L196" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -7737,7 +8010,7 @@
         <v>322.36</v>
       </c>
       <c r="L197" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -7769,7 +8042,7 @@
         <v>409.2</v>
       </c>
       <c r="L198" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -7801,7 +8074,7 @@
         <v>577.24</v>
       </c>
       <c r="L199" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -7833,7 +8106,7 @@
         <v>678.58</v>
       </c>
       <c r="L200" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -7865,7 +8138,7 @@
         <v>614.7</v>
       </c>
       <c r="L201" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -7897,7 +8170,7 @@
         <v>426.66</v>
       </c>
       <c r="L202" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -7929,7 +8202,7 @@
         <v>378.23</v>
       </c>
       <c r="L203" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -7961,7 +8234,7 @@
         <v>325.61</v>
       </c>
       <c r="L204" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -7993,7 +8266,7 @@
         <v>263.44</v>
       </c>
       <c r="L205" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -8025,7 +8298,7 @@
         <v>418.7</v>
       </c>
       <c r="L206" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8057,7 +8330,7 @@
         <v>480.07</v>
       </c>
       <c r="L207" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8089,7 +8362,7 @@
         <v>405.86</v>
       </c>
       <c r="L208" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8121,7 +8394,7 @@
         <v>460.04</v>
       </c>
       <c r="L209" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -8153,7 +8426,7 @@
         <v>479.08</v>
       </c>
       <c r="L210" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -8185,7 +8458,7 @@
         <v>406.5</v>
       </c>
       <c r="L211" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -8217,7 +8490,7 @@
         <v>370.42</v>
       </c>
       <c r="L212" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -8249,7 +8522,7 @@
         <v>366.09</v>
       </c>
       <c r="L213" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -8281,7 +8554,7 @@
         <v>380.52</v>
       </c>
       <c r="L214" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -8313,7 +8586,7 @@
         <v>448.3</v>
       </c>
       <c r="L215" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -8345,7 +8618,7 @@
         <v>338.47</v>
       </c>
       <c r="L216" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -8377,7 +8650,7 @@
         <v>296.95</v>
       </c>
       <c r="L217" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -8409,7 +8682,7 @@
         <v>374.49</v>
       </c>
       <c r="L218" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -8441,7 +8714,7 @@
         <v>448.56</v>
       </c>
       <c r="L219" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -8473,7 +8746,7 @@
         <v>456.68</v>
       </c>
       <c r="L220" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -8505,7 +8778,7 @@
         <v>494.33</v>
       </c>
       <c r="L221" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -8537,7 +8810,7 @@
         <v>481.14</v>
       </c>
       <c r="L222" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8569,7 +8842,7 @@
         <v>520.4400000000001</v>
       </c>
       <c r="L223" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -8601,7 +8874,7 @@
         <v>488.57</v>
       </c>
       <c r="L224" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -8633,7 +8906,7 @@
         <v>393.7</v>
       </c>
       <c r="L225" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -8665,7 +8938,7 @@
         <v>639.71</v>
       </c>
       <c r="L226" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -8697,7 +8970,7 @@
         <v>268.2</v>
       </c>
       <c r="L227" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -8729,7 +9002,7 @@
         <v>283.57</v>
       </c>
       <c r="L228" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -8761,7 +9034,7 @@
         <v>333.71</v>
       </c>
       <c r="L229" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -8793,7 +9066,7 @@
         <v>536.62</v>
       </c>
       <c r="L230" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -8825,7 +9098,7 @@
         <v>410.1</v>
       </c>
       <c r="L231" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -8857,7 +9130,7 @@
         <v>478.29</v>
       </c>
       <c r="L232" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -8889,7 +9162,7 @@
         <v>391.68</v>
       </c>
       <c r="L233" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -8921,7 +9194,7 @@
         <v>708.15</v>
       </c>
       <c r="L234" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -8953,7 +9226,7 @@
         <v>305.43</v>
       </c>
       <c r="L235" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -8985,7 +9258,7 @@
         <v>189.91</v>
       </c>
       <c r="L236" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9017,7 +9290,7 @@
         <v>157.18</v>
       </c>
       <c r="L237" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9049,7 +9322,7 @@
         <v>155.98</v>
       </c>
       <c r="L238" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9081,7 +9354,7 @@
         <v>178.96</v>
       </c>
       <c r="L239" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -9113,7 +9386,7 @@
         <v>164.04</v>
       </c>
       <c r="L240" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9145,7 +9418,7 @@
         <v>151.99</v>
       </c>
       <c r="L241" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9177,7 +9450,7 @@
         <v>170.59</v>
       </c>
       <c r="L242" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9209,7 +9482,7 @@
         <v>54.65</v>
       </c>
       <c r="L243" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9241,7 +9514,7 @@
         <v>33.59</v>
       </c>
       <c r="L244" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9273,7 +9546,7 @@
         <v>19.28</v>
       </c>
       <c r="L245" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9305,7 +9578,7 @@
         <v>17.1</v>
       </c>
       <c r="L246" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9337,7 +9610,7 @@
         <v>14.15</v>
       </c>
       <c r="L247" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9369,7 +9642,7 @@
         <v>11.56</v>
       </c>
       <c r="L248" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9401,7 +9674,7 @@
         <v>9.42</v>
       </c>
       <c r="L249" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9433,7 +9706,7 @@
         <v>6.51</v>
       </c>
       <c r="L250" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9465,7 +9738,7 @@
         <v>2.87</v>
       </c>
       <c r="L251" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9497,7 +9770,7 @@
         <v>0.58</v>
       </c>
       <c r="L252" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9529,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="L253" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -9561,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -9593,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -9625,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -9657,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -9689,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -9721,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -9753,7 +10026,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -9785,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -9817,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -9849,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -9881,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -9913,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -9945,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -9977,7 +10250,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10009,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10041,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10073,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10105,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10137,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10169,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10201,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10233,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10265,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10297,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10329,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10361,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10393,7 +10666,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -10425,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -10457,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -10489,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -10521,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -10553,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -10585,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -10617,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -10649,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -10681,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -10713,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -10745,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -10777,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -10809,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -10841,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -10873,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -10905,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -10937,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -10969,7 +11242,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -11001,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -11033,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -11065,7 +11338,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -11097,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -11129,7 +11402,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -11161,7 +11434,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11193,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11225,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11257,7 +11530,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11289,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11321,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11353,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -11385,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -11417,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -11449,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -11481,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -11513,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -11545,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -11577,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -11609,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -11641,7 +11914,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -11673,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -11705,7 +11978,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -11737,7 +12010,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -11769,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -11801,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -11833,7 +12106,7 @@
         <v>0.01</v>
       </c>
       <c r="L325" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -11865,7 +12138,7 @@
         <v>1.82</v>
       </c>
       <c r="L326" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -11897,7 +12170,7 @@
         <v>7.45</v>
       </c>
       <c r="L327" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -11929,7 +12202,7 @@
         <v>17.23</v>
       </c>
       <c r="L328" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -11961,7 +12234,7 @@
         <v>26.44</v>
       </c>
       <c r="L329" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -11993,7 +12266,7 @@
         <v>34.2</v>
       </c>
       <c r="L330" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -12025,7 +12298,7 @@
         <v>47.53</v>
       </c>
       <c r="L331" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -12057,7 +12330,7 @@
         <v>159.87</v>
       </c>
       <c r="L332" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -12089,7 +12362,7 @@
         <v>198.03</v>
       </c>
       <c r="L333" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -12121,7 +12394,7 @@
         <v>241.62</v>
       </c>
       <c r="L334" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -12153,7 +12426,7 @@
         <v>295.12</v>
       </c>
       <c r="L335" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -12185,7 +12458,7 @@
         <v>346.75</v>
       </c>
       <c r="L336" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -12217,7 +12490,7 @@
         <v>374.77</v>
       </c>
       <c r="L337" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -12249,7 +12522,7 @@
         <v>411.43</v>
       </c>
       <c r="L338" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -12281,7 +12554,7 @@
         <v>477.37</v>
       </c>
       <c r="L339" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -12313,7 +12586,7 @@
         <v>505.81</v>
       </c>
       <c r="L340" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -12323,11 +12596,2941 @@
       <c r="B341" t="s">
         <v>350</v>
       </c>
+      <c r="C341">
+        <v>13.74</v>
+      </c>
+      <c r="D341">
+        <v>67.68000000000001</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
       <c r="F341">
         <v>24.26</v>
       </c>
+      <c r="H341">
+        <v>17.88</v>
+      </c>
+      <c r="I341">
+        <v>-0.02</v>
+      </c>
+      <c r="J341">
+        <v>442.84</v>
+      </c>
       <c r="L341" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
         <v>351</v>
+      </c>
+      <c r="C342">
+        <v>13.74</v>
+      </c>
+      <c r="D342">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>24.39</v>
+      </c>
+      <c r="H342">
+        <v>17.79</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>538.5</v>
+      </c>
+      <c r="L342" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>352</v>
+      </c>
+      <c r="C343">
+        <v>13.75</v>
+      </c>
+      <c r="D343">
+        <v>65.63</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>24.48</v>
+      </c>
+      <c r="H343">
+        <v>17.6</v>
+      </c>
+      <c r="I343">
+        <v>0.02</v>
+      </c>
+      <c r="J343">
+        <v>653.71</v>
+      </c>
+      <c r="L343" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>353</v>
+      </c>
+      <c r="C344">
+        <v>13.75</v>
+      </c>
+      <c r="D344">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>24.6</v>
+      </c>
+      <c r="H344">
+        <v>17.44</v>
+      </c>
+      <c r="I344">
+        <v>0.04</v>
+      </c>
+      <c r="J344">
+        <v>672.67</v>
+      </c>
+      <c r="L344" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>354</v>
+      </c>
+      <c r="C345">
+        <v>13.75</v>
+      </c>
+      <c r="D345">
+        <v>64.48</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>24.6</v>
+      </c>
+      <c r="H345">
+        <v>17.43</v>
+      </c>
+      <c r="I345">
+        <v>-0.01</v>
+      </c>
+      <c r="J345">
+        <v>702.99</v>
+      </c>
+      <c r="L345" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>355</v>
+      </c>
+      <c r="C346">
+        <v>13.76</v>
+      </c>
+      <c r="D346">
+        <v>62.49</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>24.94</v>
+      </c>
+      <c r="H346">
+        <v>17.26</v>
+      </c>
+      <c r="I346">
+        <v>-0.03</v>
+      </c>
+      <c r="J346">
+        <v>734.72</v>
+      </c>
+      <c r="L346" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>356</v>
+      </c>
+      <c r="C347">
+        <v>13.76</v>
+      </c>
+      <c r="D347">
+        <v>61.52</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>25.05</v>
+      </c>
+      <c r="H347">
+        <v>17.11</v>
+      </c>
+      <c r="I347">
+        <v>0.02</v>
+      </c>
+      <c r="J347">
+        <v>767.28</v>
+      </c>
+      <c r="L347" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>357</v>
+      </c>
+      <c r="C348">
+        <v>13.76</v>
+      </c>
+      <c r="D348">
+        <v>58.46</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>25.41</v>
+      </c>
+      <c r="H348">
+        <v>16.65</v>
+      </c>
+      <c r="I348">
+        <v>-0.04</v>
+      </c>
+      <c r="J348">
+        <v>786.42</v>
+      </c>
+      <c r="L348" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>358</v>
+      </c>
+      <c r="C349">
+        <v>13.77</v>
+      </c>
+      <c r="D349">
+        <v>57.92</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>25.54</v>
+      </c>
+      <c r="H349">
+        <v>16.62</v>
+      </c>
+      <c r="I349">
+        <v>0.05</v>
+      </c>
+      <c r="J349">
+        <v>792.86</v>
+      </c>
+      <c r="L349" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>359</v>
+      </c>
+      <c r="C350">
+        <v>13.76</v>
+      </c>
+      <c r="D350">
+        <v>56.75</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>25.67</v>
+      </c>
+      <c r="H350">
+        <v>16.42</v>
+      </c>
+      <c r="I350">
+        <v>-0.05</v>
+      </c>
+      <c r="J350">
+        <v>781.34</v>
+      </c>
+      <c r="L350" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>360</v>
+      </c>
+      <c r="C351">
+        <v>13.77</v>
+      </c>
+      <c r="D351">
+        <v>56.4</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>25.75</v>
+      </c>
+      <c r="H351">
+        <v>16.39</v>
+      </c>
+      <c r="I351">
+        <v>-0.01</v>
+      </c>
+      <c r="J351">
+        <v>647.38</v>
+      </c>
+      <c r="L351" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>361</v>
+      </c>
+      <c r="C352">
+        <v>13.77</v>
+      </c>
+      <c r="D352">
+        <v>56.87</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>25.62</v>
+      </c>
+      <c r="H352">
+        <v>16.41</v>
+      </c>
+      <c r="I352">
+        <v>-0.05</v>
+      </c>
+      <c r="J352">
+        <v>679.51</v>
+      </c>
+      <c r="L352" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>362</v>
+      </c>
+      <c r="C353">
+        <v>13.77</v>
+      </c>
+      <c r="D353">
+        <v>55.68</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>26.06</v>
+      </c>
+      <c r="H353">
+        <v>16.48</v>
+      </c>
+      <c r="I353">
+        <v>0.02</v>
+      </c>
+      <c r="J353">
+        <v>801</v>
+      </c>
+      <c r="L353" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>363</v>
+      </c>
+      <c r="C354">
+        <v>13.77</v>
+      </c>
+      <c r="D354">
+        <v>64.8</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354">
+        <v>25.64</v>
+      </c>
+      <c r="H354">
+        <v>18.5</v>
+      </c>
+      <c r="I354">
+        <v>-0.03</v>
+      </c>
+      <c r="J354">
+        <v>776.49</v>
+      </c>
+      <c r="L354" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>364</v>
+      </c>
+      <c r="C355">
+        <v>13.77</v>
+      </c>
+      <c r="D355">
+        <v>67.41</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355">
+        <v>25.52</v>
+      </c>
+      <c r="H355">
+        <v>19.02</v>
+      </c>
+      <c r="I355">
+        <v>0.05</v>
+      </c>
+      <c r="J355">
+        <v>905.01</v>
+      </c>
+      <c r="L355" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>365</v>
+      </c>
+      <c r="C356">
+        <v>13.77</v>
+      </c>
+      <c r="D356">
+        <v>70.13</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356">
+        <v>25.15</v>
+      </c>
+      <c r="H356">
+        <v>19.3</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>898.89</v>
+      </c>
+      <c r="L356" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>366</v>
+      </c>
+      <c r="C357">
+        <v>13.77</v>
+      </c>
+      <c r="D357">
+        <v>72.43000000000001</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357">
+        <v>24.84</v>
+      </c>
+      <c r="H357">
+        <v>19.52</v>
+      </c>
+      <c r="I357">
+        <v>0.08</v>
+      </c>
+      <c r="J357">
+        <v>912.13</v>
+      </c>
+      <c r="L357" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>367</v>
+      </c>
+      <c r="C358">
+        <v>13.77</v>
+      </c>
+      <c r="D358">
+        <v>74.63</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>24.57</v>
+      </c>
+      <c r="H358">
+        <v>19.75</v>
+      </c>
+      <c r="I358">
+        <v>0.06</v>
+      </c>
+      <c r="J358">
+        <v>925.41</v>
+      </c>
+      <c r="L358" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>368</v>
+      </c>
+      <c r="C359">
+        <v>13.77</v>
+      </c>
+      <c r="D359">
+        <v>76.5</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>24.34</v>
+      </c>
+      <c r="H359">
+        <v>19.92</v>
+      </c>
+      <c r="I359">
+        <v>0.05</v>
+      </c>
+      <c r="J359">
+        <v>885.05</v>
+      </c>
+      <c r="L359" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>369</v>
+      </c>
+      <c r="C360">
+        <v>13.76</v>
+      </c>
+      <c r="D360">
+        <v>74.63</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>24.49</v>
+      </c>
+      <c r="H360">
+        <v>19.67</v>
+      </c>
+      <c r="I360">
+        <v>0.05</v>
+      </c>
+      <c r="J360">
+        <v>929.0599999999999</v>
+      </c>
+      <c r="L360" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>370</v>
+      </c>
+      <c r="C361">
+        <v>13.77</v>
+      </c>
+      <c r="D361">
+        <v>74.64</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>24.5</v>
+      </c>
+      <c r="H361">
+        <v>19.69</v>
+      </c>
+      <c r="I361">
+        <v>-0.04</v>
+      </c>
+      <c r="J361">
+        <v>959.54</v>
+      </c>
+      <c r="L361" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>371</v>
+      </c>
+      <c r="C362">
+        <v>13.76</v>
+      </c>
+      <c r="D362">
+        <v>73.44</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362">
+        <v>24.56</v>
+      </c>
+      <c r="H362">
+        <v>19.48</v>
+      </c>
+      <c r="I362">
+        <v>0.03</v>
+      </c>
+      <c r="J362">
+        <v>993.86</v>
+      </c>
+      <c r="L362" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>372</v>
+      </c>
+      <c r="C363">
+        <v>13.77</v>
+      </c>
+      <c r="D363">
+        <v>73.83</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363">
+        <v>24.54</v>
+      </c>
+      <c r="H363">
+        <v>19.54</v>
+      </c>
+      <c r="I363">
+        <v>0.01</v>
+      </c>
+      <c r="J363">
+        <v>928.62</v>
+      </c>
+      <c r="L363" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>373</v>
+      </c>
+      <c r="C364">
+        <v>13.77</v>
+      </c>
+      <c r="D364">
+        <v>74.02</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364">
+        <v>24.55</v>
+      </c>
+      <c r="H364">
+        <v>19.59</v>
+      </c>
+      <c r="I364">
+        <v>-0.02</v>
+      </c>
+      <c r="J364">
+        <v>812.08</v>
+      </c>
+      <c r="L364" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>374</v>
+      </c>
+      <c r="C365">
+        <v>13.77</v>
+      </c>
+      <c r="D365">
+        <v>77.76000000000001</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>24.14</v>
+      </c>
+      <c r="H365">
+        <v>20</v>
+      </c>
+      <c r="I365">
+        <v>-0.01</v>
+      </c>
+      <c r="J365">
+        <v>809.34</v>
+      </c>
+      <c r="L365" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>375</v>
+      </c>
+      <c r="C366">
+        <v>13.77</v>
+      </c>
+      <c r="D366">
+        <v>76.11</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <v>24.3</v>
+      </c>
+      <c r="H366">
+        <v>19.81</v>
+      </c>
+      <c r="I366">
+        <v>-0.03</v>
+      </c>
+      <c r="J366">
+        <v>811.74</v>
+      </c>
+      <c r="L366" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>376</v>
+      </c>
+      <c r="C367">
+        <v>13.77</v>
+      </c>
+      <c r="D367">
+        <v>74.20999999999999</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>24.6</v>
+      </c>
+      <c r="H367">
+        <v>19.69</v>
+      </c>
+      <c r="I367">
+        <v>-0.08</v>
+      </c>
+      <c r="J367">
+        <v>982.35</v>
+      </c>
+      <c r="L367" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>377</v>
+      </c>
+      <c r="C368">
+        <v>13.77</v>
+      </c>
+      <c r="D368">
+        <v>76.79000000000001</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368">
+        <v>24.27</v>
+      </c>
+      <c r="H368">
+        <v>19.91</v>
+      </c>
+      <c r="I368">
+        <v>0.02</v>
+      </c>
+      <c r="J368">
+        <v>665.42</v>
+      </c>
+      <c r="L368" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>378</v>
+      </c>
+      <c r="C369">
+        <v>13.77</v>
+      </c>
+      <c r="D369">
+        <v>82.17</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369">
+        <v>23.72</v>
+      </c>
+      <c r="H369">
+        <v>20.49</v>
+      </c>
+      <c r="I369">
+        <v>0.05</v>
+      </c>
+      <c r="J369">
+        <v>504.71</v>
+      </c>
+      <c r="L369" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>379</v>
+      </c>
+      <c r="C370">
+        <v>13.77</v>
+      </c>
+      <c r="D370">
+        <v>79.27</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370">
+        <v>24.1</v>
+      </c>
+      <c r="H370">
+        <v>20.27</v>
+      </c>
+      <c r="I370">
+        <v>0.02</v>
+      </c>
+      <c r="J370">
+        <v>613.53</v>
+      </c>
+      <c r="L370" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>380</v>
+      </c>
+      <c r="C371">
+        <v>13.77</v>
+      </c>
+      <c r="D371">
+        <v>79.94</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <v>23.84</v>
+      </c>
+      <c r="H371">
+        <v>20.15</v>
+      </c>
+      <c r="I371">
+        <v>0.03</v>
+      </c>
+      <c r="J371">
+        <v>430.51</v>
+      </c>
+      <c r="L371" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>381</v>
+      </c>
+      <c r="C372">
+        <v>13.76</v>
+      </c>
+      <c r="D372">
+        <v>81</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372">
+        <v>23.63</v>
+      </c>
+      <c r="H372">
+        <v>20.16</v>
+      </c>
+      <c r="I372">
+        <v>0.08</v>
+      </c>
+      <c r="J372">
+        <v>498.89</v>
+      </c>
+      <c r="L372" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>382</v>
+      </c>
+      <c r="C373">
+        <v>13.77</v>
+      </c>
+      <c r="D373">
+        <v>76.89</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>24.16</v>
+      </c>
+      <c r="H373">
+        <v>19.83</v>
+      </c>
+      <c r="I373">
+        <v>0.1</v>
+      </c>
+      <c r="J373">
+        <v>678.6</v>
+      </c>
+      <c r="L373" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>383</v>
+      </c>
+      <c r="C374">
+        <v>13.77</v>
+      </c>
+      <c r="D374">
+        <v>76.53</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="F374">
+        <v>24.16</v>
+      </c>
+      <c r="H374">
+        <v>19.75</v>
+      </c>
+      <c r="I374">
+        <v>-0.06</v>
+      </c>
+      <c r="J374">
+        <v>697.76</v>
+      </c>
+      <c r="L374" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>384</v>
+      </c>
+      <c r="C375">
+        <v>13.77</v>
+      </c>
+      <c r="D375">
+        <v>71.34</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>24.87</v>
+      </c>
+      <c r="H375">
+        <v>19.3</v>
+      </c>
+      <c r="I375">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J375">
+        <v>859.3</v>
+      </c>
+      <c r="L375" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>385</v>
+      </c>
+      <c r="C376">
+        <v>13.77</v>
+      </c>
+      <c r="D376">
+        <v>75.72</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <v>24.17</v>
+      </c>
+      <c r="H376">
+        <v>19.6</v>
+      </c>
+      <c r="I376">
+        <v>0.03</v>
+      </c>
+      <c r="J376">
+        <v>410.66</v>
+      </c>
+      <c r="L376" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>386</v>
+      </c>
+      <c r="C377">
+        <v>13.77</v>
+      </c>
+      <c r="D377">
+        <v>74.55</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>24.36</v>
+      </c>
+      <c r="H377">
+        <v>19.52</v>
+      </c>
+      <c r="I377">
+        <v>0.18</v>
+      </c>
+      <c r="J377">
+        <v>678.4400000000001</v>
+      </c>
+      <c r="L377" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>387</v>
+      </c>
+      <c r="C378">
+        <v>13.77</v>
+      </c>
+      <c r="D378">
+        <v>71.8</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>24.68</v>
+      </c>
+      <c r="H378">
+        <v>19.23</v>
+      </c>
+      <c r="I378">
+        <v>-0.09</v>
+      </c>
+      <c r="J378">
+        <v>644.2</v>
+      </c>
+      <c r="L378" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>388</v>
+      </c>
+      <c r="C379">
+        <v>13.77</v>
+      </c>
+      <c r="D379">
+        <v>73.86</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379">
+        <v>24.33</v>
+      </c>
+      <c r="H379">
+        <v>19.35</v>
+      </c>
+      <c r="I379">
+        <v>-0.1</v>
+      </c>
+      <c r="J379">
+        <v>537.14</v>
+      </c>
+      <c r="L379" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>389</v>
+      </c>
+      <c r="C380">
+        <v>13.77</v>
+      </c>
+      <c r="D380">
+        <v>73.84999999999999</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>24.33</v>
+      </c>
+      <c r="H380">
+        <v>19.34</v>
+      </c>
+      <c r="I380">
+        <v>0.03</v>
+      </c>
+      <c r="J380">
+        <v>437.82</v>
+      </c>
+      <c r="L380" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>390</v>
+      </c>
+      <c r="C381">
+        <v>13.77</v>
+      </c>
+      <c r="D381">
+        <v>73.28</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>24.33</v>
+      </c>
+      <c r="H381">
+        <v>19.22</v>
+      </c>
+      <c r="I381">
+        <v>0.11</v>
+      </c>
+      <c r="J381">
+        <v>309.9</v>
+      </c>
+      <c r="L381" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>391</v>
+      </c>
+      <c r="C382">
+        <v>13.77</v>
+      </c>
+      <c r="D382">
+        <v>74</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382">
+        <v>24.19</v>
+      </c>
+      <c r="H382">
+        <v>19.25</v>
+      </c>
+      <c r="I382">
+        <v>0.03</v>
+      </c>
+      <c r="J382">
+        <v>242.03</v>
+      </c>
+      <c r="L382" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>392</v>
+      </c>
+      <c r="C383">
+        <v>13.77</v>
+      </c>
+      <c r="D383">
+        <v>75.31</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383">
+        <v>24.1</v>
+      </c>
+      <c r="H383">
+        <v>19.44</v>
+      </c>
+      <c r="I383">
+        <v>0.14</v>
+      </c>
+      <c r="J383">
+        <v>197.87</v>
+      </c>
+      <c r="L383" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>393</v>
+      </c>
+      <c r="C384">
+        <v>13.77</v>
+      </c>
+      <c r="D384">
+        <v>77.13</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384">
+        <v>23.97</v>
+      </c>
+      <c r="H384">
+        <v>19.7</v>
+      </c>
+      <c r="I384">
+        <v>0.02</v>
+      </c>
+      <c r="J384">
+        <v>224.99</v>
+      </c>
+      <c r="L384" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>394</v>
+      </c>
+      <c r="C385">
+        <v>13.76</v>
+      </c>
+      <c r="D385">
+        <v>77.34999999999999</v>
+      </c>
+      <c r="E385">
+        <v>0</v>
+      </c>
+      <c r="F385">
+        <v>23.92</v>
+      </c>
+      <c r="H385">
+        <v>19.7</v>
+      </c>
+      <c r="I385">
+        <v>-0.08</v>
+      </c>
+      <c r="J385">
+        <v>218.77</v>
+      </c>
+      <c r="L385" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>395</v>
+      </c>
+      <c r="C386">
+        <v>13.76</v>
+      </c>
+      <c r="D386">
+        <v>79.48</v>
+      </c>
+      <c r="E386">
+        <v>0</v>
+      </c>
+      <c r="F386">
+        <v>23.7</v>
+      </c>
+      <c r="H386">
+        <v>19.93</v>
+      </c>
+      <c r="I386">
+        <v>0.13</v>
+      </c>
+      <c r="J386">
+        <v>172.38</v>
+      </c>
+      <c r="L386" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" t="s">
+        <v>396</v>
+      </c>
+      <c r="C387">
+        <v>13.76</v>
+      </c>
+      <c r="D387">
+        <v>80.34</v>
+      </c>
+      <c r="E387">
+        <v>0</v>
+      </c>
+      <c r="F387">
+        <v>23.6</v>
+      </c>
+      <c r="H387">
+        <v>20</v>
+      </c>
+      <c r="I387">
+        <v>-0.09</v>
+      </c>
+      <c r="J387">
+        <v>137.47</v>
+      </c>
+      <c r="L387" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" t="s">
+        <v>397</v>
+      </c>
+      <c r="C388">
+        <v>13.75</v>
+      </c>
+      <c r="D388">
+        <v>81.45999999999999</v>
+      </c>
+      <c r="E388">
+        <v>0</v>
+      </c>
+      <c r="F388">
+        <v>23.43</v>
+      </c>
+      <c r="H388">
+        <v>20.06</v>
+      </c>
+      <c r="I388">
+        <v>-0.14</v>
+      </c>
+      <c r="J388">
+        <v>108.95</v>
+      </c>
+      <c r="L388" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>398</v>
+      </c>
+      <c r="C389">
+        <v>13.76</v>
+      </c>
+      <c r="D389">
+        <v>81.48999999999999</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389">
+        <v>23.39</v>
+      </c>
+      <c r="H389">
+        <v>20.02</v>
+      </c>
+      <c r="I389">
+        <v>-0.04</v>
+      </c>
+      <c r="J389">
+        <v>129.92</v>
+      </c>
+      <c r="L389" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" t="s">
+        <v>399</v>
+      </c>
+      <c r="C390">
+        <v>13.75</v>
+      </c>
+      <c r="D390">
+        <v>81.15000000000001</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390">
+        <v>23.4</v>
+      </c>
+      <c r="H390">
+        <v>19.97</v>
+      </c>
+      <c r="I390">
+        <v>0.13</v>
+      </c>
+      <c r="J390">
+        <v>96.95</v>
+      </c>
+      <c r="L390" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" t="s">
+        <v>400</v>
+      </c>
+      <c r="C391">
+        <v>13.75</v>
+      </c>
+      <c r="D391">
+        <v>82.86</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>23.25</v>
+      </c>
+      <c r="H391">
+        <v>20.16</v>
+      </c>
+      <c r="I391">
+        <v>0.05</v>
+      </c>
+      <c r="J391">
+        <v>42.04</v>
+      </c>
+      <c r="L391" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>401</v>
+      </c>
+      <c r="C392">
+        <v>13.55</v>
+      </c>
+      <c r="D392">
+        <v>86.06</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392">
+        <v>22.93</v>
+      </c>
+      <c r="H392">
+        <v>20.46</v>
+      </c>
+      <c r="I392">
+        <v>-0.01</v>
+      </c>
+      <c r="J392">
+        <v>14.48</v>
+      </c>
+      <c r="L392" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" t="s">
+        <v>402</v>
+      </c>
+      <c r="C393">
+        <v>13.3</v>
+      </c>
+      <c r="D393">
+        <v>87.65000000000001</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>22.79</v>
+      </c>
+      <c r="H393">
+        <v>20.62</v>
+      </c>
+      <c r="I393">
+        <v>0.1</v>
+      </c>
+      <c r="J393">
+        <v>7.16</v>
+      </c>
+      <c r="L393" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>403</v>
+      </c>
+      <c r="C394">
+        <v>13.17</v>
+      </c>
+      <c r="D394">
+        <v>88.65000000000001</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394">
+        <v>22.74</v>
+      </c>
+      <c r="H394">
+        <v>20.76</v>
+      </c>
+      <c r="I394">
+        <v>0.06</v>
+      </c>
+      <c r="J394">
+        <v>5.16</v>
+      </c>
+      <c r="L394" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>404</v>
+      </c>
+      <c r="C395">
+        <v>13.09</v>
+      </c>
+      <c r="D395">
+        <v>90.17</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395">
+        <v>22.66</v>
+      </c>
+      <c r="H395">
+        <v>20.96</v>
+      </c>
+      <c r="I395">
+        <v>0.02</v>
+      </c>
+      <c r="J395">
+        <v>2.63</v>
+      </c>
+      <c r="L395" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>405</v>
+      </c>
+      <c r="C396">
+        <v>13.07</v>
+      </c>
+      <c r="D396">
+        <v>90.98</v>
+      </c>
+      <c r="E396">
+        <v>0</v>
+      </c>
+      <c r="F396">
+        <v>22.6</v>
+      </c>
+      <c r="H396">
+        <v>21.04</v>
+      </c>
+      <c r="I396">
+        <v>-0.05</v>
+      </c>
+      <c r="J396">
+        <v>0.49</v>
+      </c>
+      <c r="L396" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>406</v>
+      </c>
+      <c r="C397">
+        <v>13.05</v>
+      </c>
+      <c r="D397">
+        <v>90.86</v>
+      </c>
+      <c r="E397">
+        <v>0</v>
+      </c>
+      <c r="F397">
+        <v>22.62</v>
+      </c>
+      <c r="H397">
+        <v>21.04</v>
+      </c>
+      <c r="I397">
+        <v>-0.04</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="L397" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" t="s">
+        <v>407</v>
+      </c>
+      <c r="C398">
+        <v>13.04</v>
+      </c>
+      <c r="D398">
+        <v>91.22</v>
+      </c>
+      <c r="E398">
+        <v>0</v>
+      </c>
+      <c r="F398">
+        <v>22.59</v>
+      </c>
+      <c r="H398">
+        <v>21.08</v>
+      </c>
+      <c r="I398">
+        <v>0.1</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="L398" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>408</v>
+      </c>
+      <c r="C399">
+        <v>13.06</v>
+      </c>
+      <c r="D399">
+        <v>91.89</v>
+      </c>
+      <c r="E399">
+        <v>0</v>
+      </c>
+      <c r="F399">
+        <v>22.54</v>
+      </c>
+      <c r="H399">
+        <v>21.15</v>
+      </c>
+      <c r="I399">
+        <v>0.01</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="L399" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>409</v>
+      </c>
+      <c r="C400">
+        <v>13.06</v>
+      </c>
+      <c r="D400">
+        <v>92.79000000000001</v>
+      </c>
+      <c r="E400">
+        <v>0</v>
+      </c>
+      <c r="F400">
+        <v>22.47</v>
+      </c>
+      <c r="H400">
+        <v>21.24</v>
+      </c>
+      <c r="I400">
+        <v>-0.1</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="L400" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" t="s">
+        <v>410</v>
+      </c>
+      <c r="C401">
+        <v>13.05</v>
+      </c>
+      <c r="D401">
+        <v>93.52</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401">
+        <v>22.43</v>
+      </c>
+      <c r="H401">
+        <v>21.33</v>
+      </c>
+      <c r="I401">
+        <v>0.02</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="L401" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" t="s">
+        <v>411</v>
+      </c>
+      <c r="C402">
+        <v>13.05</v>
+      </c>
+      <c r="D402">
+        <v>93.5</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402">
+        <v>22.43</v>
+      </c>
+      <c r="H402">
+        <v>21.32</v>
+      </c>
+      <c r="I402">
+        <v>-0.01</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="L402" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" t="s">
+        <v>412</v>
+      </c>
+      <c r="C403">
+        <v>13.05</v>
+      </c>
+      <c r="D403">
+        <v>93.02</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403">
+        <v>22.45</v>
+      </c>
+      <c r="H403">
+        <v>21.26</v>
+      </c>
+      <c r="I403">
+        <v>0.02</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="L403" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" t="s">
+        <v>413</v>
+      </c>
+      <c r="C404">
+        <v>13.05</v>
+      </c>
+      <c r="D404">
+        <v>93.08</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404">
+        <v>22.42</v>
+      </c>
+      <c r="H404">
+        <v>21.24</v>
+      </c>
+      <c r="I404">
+        <v>0.04</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="L404" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" t="s">
+        <v>414</v>
+      </c>
+      <c r="C405">
+        <v>13.06</v>
+      </c>
+      <c r="D405">
+        <v>93.31999999999999</v>
+      </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
+      <c r="F405">
+        <v>22.42</v>
+      </c>
+      <c r="H405">
+        <v>21.28</v>
+      </c>
+      <c r="I405">
+        <v>0</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="L405" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" t="s">
+        <v>415</v>
+      </c>
+      <c r="C406">
+        <v>13.04</v>
+      </c>
+      <c r="D406">
+        <v>93.36</v>
+      </c>
+      <c r="E406">
+        <v>0</v>
+      </c>
+      <c r="F406">
+        <v>22.47</v>
+      </c>
+      <c r="H406">
+        <v>21.34</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="L406" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" t="s">
+        <v>416</v>
+      </c>
+      <c r="C407">
+        <v>13.03</v>
+      </c>
+      <c r="D407">
+        <v>92.81</v>
+      </c>
+      <c r="E407">
+        <v>0</v>
+      </c>
+      <c r="F407">
+        <v>22.5</v>
+      </c>
+      <c r="H407">
+        <v>21.27</v>
+      </c>
+      <c r="I407">
+        <v>0.02</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="L407" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>417</v>
+      </c>
+      <c r="C408">
+        <v>13.04</v>
+      </c>
+      <c r="D408">
+        <v>92.87</v>
+      </c>
+      <c r="E408">
+        <v>0</v>
+      </c>
+      <c r="F408">
+        <v>22.47</v>
+      </c>
+      <c r="H408">
+        <v>21.26</v>
+      </c>
+      <c r="I408">
+        <v>0.02</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="L408" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" t="s">
+        <v>418</v>
+      </c>
+      <c r="C409">
+        <v>13.05</v>
+      </c>
+      <c r="D409">
+        <v>92.92</v>
+      </c>
+      <c r="E409">
+        <v>0</v>
+      </c>
+      <c r="F409">
+        <v>22.51</v>
+      </c>
+      <c r="H409">
+        <v>21.3</v>
+      </c>
+      <c r="I409">
+        <v>0.04</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="L409" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" t="s">
+        <v>419</v>
+      </c>
+      <c r="C410">
+        <v>13.04</v>
+      </c>
+      <c r="D410">
+        <v>93.20999999999999</v>
+      </c>
+      <c r="E410">
+        <v>0</v>
+      </c>
+      <c r="F410">
+        <v>22.51</v>
+      </c>
+      <c r="H410">
+        <v>21.35</v>
+      </c>
+      <c r="I410">
+        <v>0.04</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="L410" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>420</v>
+      </c>
+      <c r="C411">
+        <v>13.03</v>
+      </c>
+      <c r="D411">
+        <v>92.81</v>
+      </c>
+      <c r="E411">
+        <v>0</v>
+      </c>
+      <c r="F411">
+        <v>22.51</v>
+      </c>
+      <c r="H411">
+        <v>21.28</v>
+      </c>
+      <c r="I411">
+        <v>-0.13</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="L411" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>421</v>
+      </c>
+      <c r="C412">
+        <v>13.01</v>
+      </c>
+      <c r="D412">
+        <v>93.06999999999999</v>
+      </c>
+      <c r="E412">
+        <v>0</v>
+      </c>
+      <c r="F412">
+        <v>22.48</v>
+      </c>
+      <c r="H412">
+        <v>21.29</v>
+      </c>
+      <c r="I412">
+        <v>-0.04</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="L412" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" t="s">
+        <v>422</v>
+      </c>
+      <c r="C413">
+        <v>13.05</v>
+      </c>
+      <c r="D413">
+        <v>93.38</v>
+      </c>
+      <c r="E413">
+        <v>0</v>
+      </c>
+      <c r="F413">
+        <v>22.45</v>
+      </c>
+      <c r="H413">
+        <v>21.32</v>
+      </c>
+      <c r="I413">
+        <v>0</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="L413" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" t="s">
+        <v>423</v>
+      </c>
+      <c r="C414">
+        <v>13.03</v>
+      </c>
+      <c r="D414">
+        <v>93.64</v>
+      </c>
+      <c r="E414">
+        <v>0</v>
+      </c>
+      <c r="F414">
+        <v>22.49</v>
+      </c>
+      <c r="H414">
+        <v>21.4</v>
+      </c>
+      <c r="I414">
+        <v>0</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="L414" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" t="s">
+        <v>424</v>
+      </c>
+      <c r="C415">
+        <v>13.04</v>
+      </c>
+      <c r="D415">
+        <v>93.31999999999999</v>
+      </c>
+      <c r="E415">
+        <v>0</v>
+      </c>
+      <c r="F415">
+        <v>22.48</v>
+      </c>
+      <c r="H415">
+        <v>21.34</v>
+      </c>
+      <c r="I415">
+        <v>0.05</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="L415" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416" t="s">
+        <v>425</v>
+      </c>
+      <c r="C416">
+        <v>13.03</v>
+      </c>
+      <c r="D416">
+        <v>93.22</v>
+      </c>
+      <c r="E416">
+        <v>0</v>
+      </c>
+      <c r="F416">
+        <v>22.49</v>
+      </c>
+      <c r="H416">
+        <v>21.33</v>
+      </c>
+      <c r="I416">
+        <v>-0.05</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="L416" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" t="s">
+        <v>426</v>
+      </c>
+      <c r="C417">
+        <v>13.03</v>
+      </c>
+      <c r="D417">
+        <v>93.42</v>
+      </c>
+      <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>22.46</v>
+      </c>
+      <c r="H417">
+        <v>21.33</v>
+      </c>
+      <c r="I417">
+        <v>-0.03</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="L417" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>427</v>
+      </c>
+      <c r="C418">
+        <v>13.03</v>
+      </c>
+      <c r="D418">
+        <v>93.91</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="F418">
+        <v>22.41</v>
+      </c>
+      <c r="H418">
+        <v>21.37</v>
+      </c>
+      <c r="I418">
+        <v>0.06</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="L418" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>428</v>
+      </c>
+      <c r="C419">
+        <v>13.03</v>
+      </c>
+      <c r="D419">
+        <v>93.68000000000001</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>22.39</v>
+      </c>
+      <c r="H419">
+        <v>21.32</v>
+      </c>
+      <c r="I419">
+        <v>-0.02</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="L419" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>429</v>
+      </c>
+      <c r="C420">
+        <v>13.01</v>
+      </c>
+      <c r="D420">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>22.4</v>
+      </c>
+      <c r="H420">
+        <v>21.34</v>
+      </c>
+      <c r="I420">
+        <v>0.02</v>
+      </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
+      <c r="L420" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>430</v>
+      </c>
+      <c r="C421">
+        <v>13.02</v>
+      </c>
+      <c r="D421">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="E421">
+        <v>0</v>
+      </c>
+      <c r="F421">
+        <v>22.37</v>
+      </c>
+      <c r="H421">
+        <v>21.39</v>
+      </c>
+      <c r="I421">
+        <v>0.08</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+      <c r="L421" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>431</v>
+      </c>
+      <c r="C422">
+        <v>13.02</v>
+      </c>
+      <c r="D422">
+        <v>94.48</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+      <c r="F422">
+        <v>22.34</v>
+      </c>
+      <c r="H422">
+        <v>21.41</v>
+      </c>
+      <c r="I422">
+        <v>-0.05</v>
+      </c>
+      <c r="J422">
+        <v>0</v>
+      </c>
+      <c r="L422" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>432</v>
+      </c>
+      <c r="C423">
+        <v>13.02</v>
+      </c>
+      <c r="D423">
+        <v>94.77</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>22.31</v>
+      </c>
+      <c r="H423">
+        <v>21.42</v>
+      </c>
+      <c r="I423">
+        <v>-0.06</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+      <c r="L423" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>433</v>
+      </c>
+      <c r="C424">
+        <v>13.02</v>
+      </c>
+      <c r="D424">
+        <v>95.34999999999999</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>22.23</v>
+      </c>
+      <c r="H424">
+        <v>21.45</v>
+      </c>
+      <c r="I424">
+        <v>0.01</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
+      <c r="L424" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>434</v>
+      </c>
+      <c r="C425">
+        <v>13.02</v>
+      </c>
+      <c r="D425">
+        <v>96.01000000000001</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>22.17</v>
+      </c>
+      <c r="H425">
+        <v>21.5</v>
+      </c>
+      <c r="I425">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+      <c r="L425" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>435</v>
+      </c>
+      <c r="C426">
+        <v>13.01</v>
+      </c>
+      <c r="D426">
+        <v>96.2</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>22.19</v>
+      </c>
+      <c r="H426">
+        <v>21.55</v>
+      </c>
+      <c r="I426">
+        <v>-0.01</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+      <c r="L426" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>436</v>
+      </c>
+      <c r="C427">
+        <v>13.01</v>
+      </c>
+      <c r="D427">
+        <v>96.5</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>22.15</v>
+      </c>
+      <c r="H427">
+        <v>21.56</v>
+      </c>
+      <c r="I427">
+        <v>0.03</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+      <c r="L427" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>437</v>
+      </c>
+      <c r="C428">
+        <v>12.95</v>
+      </c>
+      <c r="D428">
+        <v>96.56999999999999</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>22.11</v>
+      </c>
+      <c r="H428">
+        <v>21.53</v>
+      </c>
+      <c r="I428">
+        <v>-0.03</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="L428" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>438</v>
+      </c>
+      <c r="C429">
+        <v>12.98</v>
+      </c>
+      <c r="D429">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>22.12</v>
+      </c>
+      <c r="H429">
+        <v>21.58</v>
+      </c>
+      <c r="I429">
+        <v>0.04</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="L429" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>439</v>
+      </c>
+      <c r="C430">
+        <v>12.98</v>
+      </c>
+      <c r="D430">
+        <v>97.3</v>
+      </c>
+      <c r="E430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>22.13</v>
+      </c>
+      <c r="H430">
+        <v>21.68</v>
+      </c>
+      <c r="I430">
+        <v>0.01</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+      <c r="L430" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>440</v>
+      </c>
+      <c r="C431">
+        <v>13.02</v>
+      </c>
+      <c r="D431">
+        <v>97.26000000000001</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>21.95</v>
+      </c>
+      <c r="H431">
+        <v>21.49</v>
+      </c>
+      <c r="I431">
+        <v>0.01</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="L431" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>441</v>
+      </c>
+      <c r="C432">
+        <v>12.99</v>
+      </c>
+      <c r="D432">
+        <v>97.41</v>
+      </c>
+      <c r="E432">
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>21.92</v>
+      </c>
+      <c r="H432">
+        <v>21.48</v>
+      </c>
+      <c r="I432">
+        <v>0.1</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="L432" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
+++ b/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="454">
   <si>
     <t>Fecha</t>
   </si>
@@ -1340,6 +1340,39 @@
   </si>
   <si>
     <t>11/8/2020 11:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:30:00 AM</t>
   </si>
   <si>
     <t>ANTIGUA GUATEMALA</t>
@@ -1700,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1770,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1802,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1834,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1866,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1898,7 +1931,7 @@
         <v>0.02</v>
       </c>
       <c r="L6" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1930,7 +1963,7 @@
         <v>0.01</v>
       </c>
       <c r="L7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1962,7 +1995,7 @@
         <v>0.01</v>
       </c>
       <c r="L8" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1994,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2026,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2058,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2090,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2122,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2154,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2186,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2218,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2250,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2282,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2314,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2346,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2378,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2410,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2442,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2474,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2506,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2538,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2570,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2602,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2634,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2666,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2698,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2730,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2762,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2794,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2826,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2858,7 +2891,7 @@
         <v>0.03</v>
       </c>
       <c r="L36" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2890,7 +2923,7 @@
         <v>0.08</v>
       </c>
       <c r="L37" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2922,7 +2955,7 @@
         <v>1.26</v>
       </c>
       <c r="L38" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2954,7 +2987,7 @@
         <v>2.34</v>
       </c>
       <c r="L39" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2986,7 +3019,7 @@
         <v>7.06</v>
       </c>
       <c r="L40" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3018,7 +3051,7 @@
         <v>12.62</v>
       </c>
       <c r="L41" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3050,7 +3083,7 @@
         <v>23.01</v>
       </c>
       <c r="L42" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3082,7 +3115,7 @@
         <v>35.96</v>
       </c>
       <c r="L43" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3114,7 +3147,7 @@
         <v>53.17</v>
       </c>
       <c r="L44" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3146,7 +3179,7 @@
         <v>78.26000000000001</v>
       </c>
       <c r="L45" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3178,7 +3211,7 @@
         <v>94.45</v>
       </c>
       <c r="L46" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3210,7 +3243,7 @@
         <v>101.95</v>
       </c>
       <c r="L47" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3242,7 +3275,7 @@
         <v>136.99</v>
       </c>
       <c r="L48" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3274,7 +3307,7 @@
         <v>138.69</v>
       </c>
       <c r="L49" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3306,7 +3339,7 @@
         <v>137.09</v>
       </c>
       <c r="L50" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3338,7 +3371,7 @@
         <v>143.29</v>
       </c>
       <c r="L51" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3370,7 +3403,7 @@
         <v>192.15</v>
       </c>
       <c r="L52" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3402,7 +3435,7 @@
         <v>239.95</v>
       </c>
       <c r="L53" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3434,7 +3467,7 @@
         <v>254.87</v>
       </c>
       <c r="L54" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3466,7 +3499,7 @@
         <v>247.56</v>
       </c>
       <c r="L55" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3498,7 +3531,7 @@
         <v>287.63</v>
       </c>
       <c r="L56" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3530,7 +3563,7 @@
         <v>345.87</v>
       </c>
       <c r="L57" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3562,7 +3595,7 @@
         <v>358.65</v>
       </c>
       <c r="L58" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3594,7 +3627,7 @@
         <v>287.67</v>
       </c>
       <c r="L59" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3626,7 +3659,7 @@
         <v>218.34</v>
       </c>
       <c r="L60" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3658,7 +3691,7 @@
         <v>213.66</v>
       </c>
       <c r="L61" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3690,7 +3723,7 @@
         <v>389.75</v>
       </c>
       <c r="L62" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3722,7 +3755,7 @@
         <v>455.41</v>
       </c>
       <c r="L63" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3754,7 +3787,7 @@
         <v>332.81</v>
       </c>
       <c r="L64" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3786,7 +3819,7 @@
         <v>329.89</v>
       </c>
       <c r="L65" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3818,7 +3851,7 @@
         <v>473.71</v>
       </c>
       <c r="L66" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3850,7 +3883,7 @@
         <v>528.55</v>
       </c>
       <c r="L67" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3882,7 +3915,7 @@
         <v>411.9</v>
       </c>
       <c r="L68" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3914,7 +3947,7 @@
         <v>305.07</v>
       </c>
       <c r="L69" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3946,7 +3979,7 @@
         <v>301.49</v>
       </c>
       <c r="L70" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3978,7 +4011,7 @@
         <v>281</v>
       </c>
       <c r="L71" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4010,7 +4043,7 @@
         <v>194.03</v>
       </c>
       <c r="L72" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4042,7 +4075,7 @@
         <v>240.57</v>
       </c>
       <c r="L73" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4074,7 +4107,7 @@
         <v>349.31</v>
       </c>
       <c r="L74" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4106,7 +4139,7 @@
         <v>321.88</v>
       </c>
       <c r="L75" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4138,7 +4171,7 @@
         <v>342</v>
       </c>
       <c r="L76" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4170,7 +4203,7 @@
         <v>387.55</v>
       </c>
       <c r="L77" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4202,7 +4235,7 @@
         <v>338.76</v>
       </c>
       <c r="L78" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4234,7 +4267,7 @@
         <v>445.44</v>
       </c>
       <c r="L79" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4266,7 +4299,7 @@
         <v>543.7</v>
       </c>
       <c r="L80" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4298,7 +4331,7 @@
         <v>566.16</v>
       </c>
       <c r="L81" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4330,7 +4363,7 @@
         <v>535.8099999999999</v>
       </c>
       <c r="L82" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4362,7 +4395,7 @@
         <v>439.72</v>
       </c>
       <c r="L83" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4394,7 +4427,7 @@
         <v>378.84</v>
       </c>
       <c r="L84" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4426,7 +4459,7 @@
         <v>357.8</v>
       </c>
       <c r="L85" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4458,7 +4491,7 @@
         <v>419.01</v>
       </c>
       <c r="L86" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4490,7 +4523,7 @@
         <v>284.26</v>
       </c>
       <c r="L87" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4522,7 +4555,7 @@
         <v>234.25</v>
       </c>
       <c r="L88" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4554,7 +4587,7 @@
         <v>264.34</v>
       </c>
       <c r="L89" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4586,7 +4619,7 @@
         <v>235.03</v>
       </c>
       <c r="L90" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4618,7 +4651,7 @@
         <v>197.14</v>
       </c>
       <c r="L91" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4650,7 +4683,7 @@
         <v>150.14</v>
       </c>
       <c r="L92" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4682,7 +4715,7 @@
         <v>158.5</v>
       </c>
       <c r="L93" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4714,7 +4747,7 @@
         <v>169.32</v>
       </c>
       <c r="L94" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4746,7 +4779,7 @@
         <v>142.07</v>
       </c>
       <c r="L95" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4778,7 +4811,7 @@
         <v>71.63</v>
       </c>
       <c r="L96" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4810,7 +4843,7 @@
         <v>40.56</v>
       </c>
       <c r="L97" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4842,7 +4875,7 @@
         <v>45.69</v>
       </c>
       <c r="L98" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4874,7 +4907,7 @@
         <v>45.13</v>
       </c>
       <c r="L99" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4906,7 +4939,7 @@
         <v>46.89</v>
       </c>
       <c r="L100" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4938,7 +4971,7 @@
         <v>50.02</v>
       </c>
       <c r="L101" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4970,7 +5003,7 @@
         <v>54.83</v>
       </c>
       <c r="L102" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5002,7 +5035,7 @@
         <v>50.23</v>
       </c>
       <c r="L103" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5034,7 +5067,7 @@
         <v>27.16</v>
       </c>
       <c r="L104" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5066,7 +5099,7 @@
         <v>7.81</v>
       </c>
       <c r="L105" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5098,7 +5131,7 @@
         <v>3.78</v>
       </c>
       <c r="L106" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5130,7 +5163,7 @@
         <v>1.87</v>
       </c>
       <c r="L107" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5162,7 +5195,7 @@
         <v>0.21</v>
       </c>
       <c r="L108" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5194,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5226,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5258,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5290,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5322,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5354,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5386,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5418,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5450,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5482,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5514,7 +5547,7 @@
         <v>0.01</v>
       </c>
       <c r="L119" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5546,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5578,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5610,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5642,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5674,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5706,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5738,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5770,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5802,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5834,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5866,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5898,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5930,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5962,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5994,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6026,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6058,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6090,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6122,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6154,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6186,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6218,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6250,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6282,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6314,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6346,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6378,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6410,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6442,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6474,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6506,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6538,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6570,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6602,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6634,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6666,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6698,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6730,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6762,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6794,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6826,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6858,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6890,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6922,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -6954,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -6986,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7018,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7050,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7082,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7114,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7146,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7178,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7210,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7242,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7274,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7306,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7338,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7370,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7402,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7434,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7466,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7498,7 +7531,7 @@
         <v>0.17</v>
       </c>
       <c r="L181" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7530,7 +7563,7 @@
         <v>3.23</v>
       </c>
       <c r="L182" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7562,7 +7595,7 @@
         <v>8.68</v>
       </c>
       <c r="L183" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7594,7 +7627,7 @@
         <v>21.57</v>
       </c>
       <c r="L184" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7626,7 +7659,7 @@
         <v>29.14</v>
       </c>
       <c r="L185" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7658,7 +7691,7 @@
         <v>36.4</v>
       </c>
       <c r="L186" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7690,7 +7723,7 @@
         <v>50.4</v>
       </c>
       <c r="L187" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7722,7 +7755,7 @@
         <v>71.63</v>
       </c>
       <c r="L188" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -7754,7 +7787,7 @@
         <v>105.26</v>
       </c>
       <c r="L189" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -7786,7 +7819,7 @@
         <v>150.88</v>
       </c>
       <c r="L190" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7818,7 +7851,7 @@
         <v>180.94</v>
       </c>
       <c r="L191" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -7850,7 +7883,7 @@
         <v>207.09</v>
       </c>
       <c r="L192" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -7882,7 +7915,7 @@
         <v>188.99</v>
       </c>
       <c r="L193" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -7914,7 +7947,7 @@
         <v>215.59</v>
       </c>
       <c r="L194" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -7946,7 +7979,7 @@
         <v>234.95</v>
       </c>
       <c r="L195" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -7978,7 +8011,7 @@
         <v>270.32</v>
       </c>
       <c r="L196" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8010,7 +8043,7 @@
         <v>322.36</v>
       </c>
       <c r="L197" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8042,7 +8075,7 @@
         <v>409.2</v>
       </c>
       <c r="L198" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8074,7 +8107,7 @@
         <v>577.24</v>
       </c>
       <c r="L199" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8106,7 +8139,7 @@
         <v>678.58</v>
       </c>
       <c r="L200" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8138,7 +8171,7 @@
         <v>614.7</v>
       </c>
       <c r="L201" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8170,7 +8203,7 @@
         <v>426.66</v>
       </c>
       <c r="L202" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8202,7 +8235,7 @@
         <v>378.23</v>
       </c>
       <c r="L203" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8234,7 +8267,7 @@
         <v>325.61</v>
       </c>
       <c r="L204" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -8266,7 +8299,7 @@
         <v>263.44</v>
       </c>
       <c r="L205" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -8298,7 +8331,7 @@
         <v>418.7</v>
       </c>
       <c r="L206" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8330,7 +8363,7 @@
         <v>480.07</v>
       </c>
       <c r="L207" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8362,7 +8395,7 @@
         <v>405.86</v>
       </c>
       <c r="L208" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8394,7 +8427,7 @@
         <v>460.04</v>
       </c>
       <c r="L209" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -8426,7 +8459,7 @@
         <v>479.08</v>
       </c>
       <c r="L210" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -8458,7 +8491,7 @@
         <v>406.5</v>
       </c>
       <c r="L211" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -8490,7 +8523,7 @@
         <v>370.42</v>
       </c>
       <c r="L212" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -8522,7 +8555,7 @@
         <v>366.09</v>
       </c>
       <c r="L213" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -8554,7 +8587,7 @@
         <v>380.52</v>
       </c>
       <c r="L214" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -8586,7 +8619,7 @@
         <v>448.3</v>
       </c>
       <c r="L215" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -8618,7 +8651,7 @@
         <v>338.47</v>
       </c>
       <c r="L216" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -8650,7 +8683,7 @@
         <v>296.95</v>
       </c>
       <c r="L217" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -8682,7 +8715,7 @@
         <v>374.49</v>
       </c>
       <c r="L218" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -8714,7 +8747,7 @@
         <v>448.56</v>
       </c>
       <c r="L219" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -8746,7 +8779,7 @@
         <v>456.68</v>
       </c>
       <c r="L220" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -8778,7 +8811,7 @@
         <v>494.33</v>
       </c>
       <c r="L221" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -8810,7 +8843,7 @@
         <v>481.14</v>
       </c>
       <c r="L222" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8842,7 +8875,7 @@
         <v>520.4400000000001</v>
       </c>
       <c r="L223" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -8874,7 +8907,7 @@
         <v>488.57</v>
       </c>
       <c r="L224" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -8906,7 +8939,7 @@
         <v>393.7</v>
       </c>
       <c r="L225" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -8938,7 +8971,7 @@
         <v>639.71</v>
       </c>
       <c r="L226" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -8970,7 +9003,7 @@
         <v>268.2</v>
       </c>
       <c r="L227" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -9002,7 +9035,7 @@
         <v>283.57</v>
       </c>
       <c r="L228" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -9034,7 +9067,7 @@
         <v>333.71</v>
       </c>
       <c r="L229" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -9066,7 +9099,7 @@
         <v>536.62</v>
       </c>
       <c r="L230" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -9098,7 +9131,7 @@
         <v>410.1</v>
       </c>
       <c r="L231" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -9130,7 +9163,7 @@
         <v>478.29</v>
       </c>
       <c r="L232" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -9162,7 +9195,7 @@
         <v>391.68</v>
       </c>
       <c r="L233" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -9194,7 +9227,7 @@
         <v>708.15</v>
       </c>
       <c r="L234" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -9226,7 +9259,7 @@
         <v>305.43</v>
       </c>
       <c r="L235" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -9258,7 +9291,7 @@
         <v>189.91</v>
       </c>
       <c r="L236" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9290,7 +9323,7 @@
         <v>157.18</v>
       </c>
       <c r="L237" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9322,7 +9355,7 @@
         <v>155.98</v>
       </c>
       <c r="L238" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9354,7 +9387,7 @@
         <v>178.96</v>
       </c>
       <c r="L239" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -9386,7 +9419,7 @@
         <v>164.04</v>
       </c>
       <c r="L240" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9418,7 +9451,7 @@
         <v>151.99</v>
       </c>
       <c r="L241" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9450,7 +9483,7 @@
         <v>170.59</v>
       </c>
       <c r="L242" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9482,7 +9515,7 @@
         <v>54.65</v>
       </c>
       <c r="L243" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9514,7 +9547,7 @@
         <v>33.59</v>
       </c>
       <c r="L244" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9546,7 +9579,7 @@
         <v>19.28</v>
       </c>
       <c r="L245" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9578,7 +9611,7 @@
         <v>17.1</v>
       </c>
       <c r="L246" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9610,7 +9643,7 @@
         <v>14.15</v>
       </c>
       <c r="L247" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9642,7 +9675,7 @@
         <v>11.56</v>
       </c>
       <c r="L248" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9674,7 +9707,7 @@
         <v>9.42</v>
       </c>
       <c r="L249" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9706,7 +9739,7 @@
         <v>6.51</v>
       </c>
       <c r="L250" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9738,7 +9771,7 @@
         <v>2.87</v>
       </c>
       <c r="L251" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9770,7 +9803,7 @@
         <v>0.58</v>
       </c>
       <c r="L252" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9802,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="L253" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -9834,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -9866,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -9898,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -9930,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -9962,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -9994,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10026,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10058,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -10090,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -10122,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -10154,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -10186,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -10218,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -10250,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10282,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10314,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10346,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10378,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10410,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10442,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10474,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10506,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10538,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10570,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10602,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10634,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10666,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -10698,7 +10731,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -10730,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -10762,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -10794,7 +10827,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -10826,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -10858,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -10890,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -10922,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -10954,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -10986,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -11018,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -11050,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -11082,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -11114,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -11146,7 +11179,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -11178,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -11210,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -11242,7 +11275,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -11274,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -11306,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -11338,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -11370,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -11402,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -11434,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11466,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11498,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11530,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11562,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11594,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11626,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -11658,7 +11691,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -11690,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -11722,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -11754,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -11786,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -11818,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -11850,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -11882,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -11914,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -11946,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -11978,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -12010,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -12042,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -12074,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -12106,7 +12139,7 @@
         <v>0.01</v>
       </c>
       <c r="L325" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -12138,7 +12171,7 @@
         <v>1.82</v>
       </c>
       <c r="L326" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -12170,7 +12203,7 @@
         <v>7.45</v>
       </c>
       <c r="L327" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -12202,7 +12235,7 @@
         <v>17.23</v>
       </c>
       <c r="L328" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -12234,7 +12267,7 @@
         <v>26.44</v>
       </c>
       <c r="L329" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -12266,7 +12299,7 @@
         <v>34.2</v>
       </c>
       <c r="L330" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -12298,7 +12331,7 @@
         <v>47.53</v>
       </c>
       <c r="L331" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -12330,7 +12363,7 @@
         <v>159.87</v>
       </c>
       <c r="L332" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -12362,7 +12395,7 @@
         <v>198.03</v>
       </c>
       <c r="L333" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -12394,7 +12427,7 @@
         <v>241.62</v>
       </c>
       <c r="L334" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -12426,7 +12459,7 @@
         <v>295.12</v>
       </c>
       <c r="L335" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -12458,7 +12491,7 @@
         <v>346.75</v>
       </c>
       <c r="L336" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -12490,7 +12523,7 @@
         <v>374.77</v>
       </c>
       <c r="L337" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -12522,7 +12555,7 @@
         <v>411.43</v>
       </c>
       <c r="L338" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -12554,7 +12587,7 @@
         <v>477.37</v>
       </c>
       <c r="L339" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -12586,7 +12619,7 @@
         <v>505.81</v>
       </c>
       <c r="L340" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -12618,7 +12651,7 @@
         <v>442.84</v>
       </c>
       <c r="L341" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -12650,7 +12683,7 @@
         <v>538.5</v>
       </c>
       <c r="L342" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -12682,7 +12715,7 @@
         <v>653.71</v>
       </c>
       <c r="L343" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -12714,7 +12747,7 @@
         <v>672.67</v>
       </c>
       <c r="L344" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -12746,7 +12779,7 @@
         <v>702.99</v>
       </c>
       <c r="L345" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -12778,7 +12811,7 @@
         <v>734.72</v>
       </c>
       <c r="L346" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -12810,7 +12843,7 @@
         <v>767.28</v>
       </c>
       <c r="L347" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -12842,7 +12875,7 @@
         <v>786.42</v>
       </c>
       <c r="L348" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -12874,7 +12907,7 @@
         <v>792.86</v>
       </c>
       <c r="L349" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -12906,7 +12939,7 @@
         <v>781.34</v>
       </c>
       <c r="L350" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -12938,7 +12971,7 @@
         <v>647.38</v>
       </c>
       <c r="L351" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -12970,7 +13003,7 @@
         <v>679.51</v>
       </c>
       <c r="L352" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -13002,7 +13035,7 @@
         <v>801</v>
       </c>
       <c r="L353" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -13034,7 +13067,7 @@
         <v>776.49</v>
       </c>
       <c r="L354" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -13066,7 +13099,7 @@
         <v>905.01</v>
       </c>
       <c r="L355" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -13098,7 +13131,7 @@
         <v>898.89</v>
       </c>
       <c r="L356" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -13130,7 +13163,7 @@
         <v>912.13</v>
       </c>
       <c r="L357" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -13162,7 +13195,7 @@
         <v>925.41</v>
       </c>
       <c r="L358" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -13194,7 +13227,7 @@
         <v>885.05</v>
       </c>
       <c r="L359" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -13226,7 +13259,7 @@
         <v>929.0599999999999</v>
       </c>
       <c r="L360" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -13258,7 +13291,7 @@
         <v>959.54</v>
       </c>
       <c r="L361" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -13290,7 +13323,7 @@
         <v>993.86</v>
       </c>
       <c r="L362" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -13322,7 +13355,7 @@
         <v>928.62</v>
       </c>
       <c r="L363" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -13354,7 +13387,7 @@
         <v>812.08</v>
       </c>
       <c r="L364" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -13386,7 +13419,7 @@
         <v>809.34</v>
       </c>
       <c r="L365" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -13418,7 +13451,7 @@
         <v>811.74</v>
       </c>
       <c r="L366" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -13450,7 +13483,7 @@
         <v>982.35</v>
       </c>
       <c r="L367" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -13482,7 +13515,7 @@
         <v>665.42</v>
       </c>
       <c r="L368" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -13514,7 +13547,7 @@
         <v>504.71</v>
       </c>
       <c r="L369" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -13546,7 +13579,7 @@
         <v>613.53</v>
       </c>
       <c r="L370" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -13578,7 +13611,7 @@
         <v>430.51</v>
       </c>
       <c r="L371" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -13610,7 +13643,7 @@
         <v>498.89</v>
       </c>
       <c r="L372" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -13642,7 +13675,7 @@
         <v>678.6</v>
       </c>
       <c r="L373" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -13674,7 +13707,7 @@
         <v>697.76</v>
       </c>
       <c r="L374" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -13706,7 +13739,7 @@
         <v>859.3</v>
       </c>
       <c r="L375" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -13738,7 +13771,7 @@
         <v>410.66</v>
       </c>
       <c r="L376" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -13770,7 +13803,7 @@
         <v>678.4400000000001</v>
       </c>
       <c r="L377" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -13802,7 +13835,7 @@
         <v>644.2</v>
       </c>
       <c r="L378" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -13834,7 +13867,7 @@
         <v>537.14</v>
       </c>
       <c r="L379" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -13866,7 +13899,7 @@
         <v>437.82</v>
       </c>
       <c r="L380" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -13898,7 +13931,7 @@
         <v>309.9</v>
       </c>
       <c r="L381" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -13930,7 +13963,7 @@
         <v>242.03</v>
       </c>
       <c r="L382" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -13962,7 +13995,7 @@
         <v>197.87</v>
       </c>
       <c r="L383" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -13994,7 +14027,7 @@
         <v>224.99</v>
       </c>
       <c r="L384" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -14026,7 +14059,7 @@
         <v>218.77</v>
       </c>
       <c r="L385" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -14058,7 +14091,7 @@
         <v>172.38</v>
       </c>
       <c r="L386" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -14090,7 +14123,7 @@
         <v>137.47</v>
       </c>
       <c r="L387" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -14122,7 +14155,7 @@
         <v>108.95</v>
       </c>
       <c r="L388" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -14154,7 +14187,7 @@
         <v>129.92</v>
       </c>
       <c r="L389" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -14186,7 +14219,7 @@
         <v>96.95</v>
       </c>
       <c r="L390" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -14218,7 +14251,7 @@
         <v>42.04</v>
       </c>
       <c r="L391" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -14250,7 +14283,7 @@
         <v>14.48</v>
       </c>
       <c r="L392" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -14282,7 +14315,7 @@
         <v>7.16</v>
       </c>
       <c r="L393" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -14314,7 +14347,7 @@
         <v>5.16</v>
       </c>
       <c r="L394" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -14346,7 +14379,7 @@
         <v>2.63</v>
       </c>
       <c r="L395" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -14378,7 +14411,7 @@
         <v>0.49</v>
       </c>
       <c r="L396" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -14410,7 +14443,7 @@
         <v>0</v>
       </c>
       <c r="L397" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -14442,7 +14475,7 @@
         <v>0</v>
       </c>
       <c r="L398" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -14474,7 +14507,7 @@
         <v>0</v>
       </c>
       <c r="L399" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -14506,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="L400" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -14538,7 +14571,7 @@
         <v>0</v>
       </c>
       <c r="L401" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -14570,7 +14603,7 @@
         <v>0</v>
       </c>
       <c r="L402" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -14602,7 +14635,7 @@
         <v>0</v>
       </c>
       <c r="L403" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -14634,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="L404" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -14666,7 +14699,7 @@
         <v>0</v>
       </c>
       <c r="L405" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -14698,7 +14731,7 @@
         <v>0</v>
       </c>
       <c r="L406" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -14730,7 +14763,7 @@
         <v>0</v>
       </c>
       <c r="L407" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -14762,7 +14795,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -14794,7 +14827,7 @@
         <v>0</v>
       </c>
       <c r="L409" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -14826,7 +14859,7 @@
         <v>0</v>
       </c>
       <c r="L410" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -14858,7 +14891,7 @@
         <v>0</v>
       </c>
       <c r="L411" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -14890,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="L412" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -14922,7 +14955,7 @@
         <v>0</v>
       </c>
       <c r="L413" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -14954,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -14986,7 +15019,7 @@
         <v>0</v>
       </c>
       <c r="L415" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -15018,7 +15051,7 @@
         <v>0</v>
       </c>
       <c r="L416" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -15050,7 +15083,7 @@
         <v>0</v>
       </c>
       <c r="L417" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -15082,7 +15115,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -15114,7 +15147,7 @@
         <v>0</v>
       </c>
       <c r="L419" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -15146,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="L420" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -15178,7 +15211,7 @@
         <v>0</v>
       </c>
       <c r="L421" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -15210,7 +15243,7 @@
         <v>0</v>
       </c>
       <c r="L422" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -15242,7 +15275,7 @@
         <v>0</v>
       </c>
       <c r="L423" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -15274,7 +15307,7 @@
         <v>0</v>
       </c>
       <c r="L424" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -15306,7 +15339,7 @@
         <v>0</v>
       </c>
       <c r="L425" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -15338,7 +15371,7 @@
         <v>0</v>
       </c>
       <c r="L426" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -15370,7 +15403,7 @@
         <v>0</v>
       </c>
       <c r="L427" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -15402,7 +15435,7 @@
         <v>0</v>
       </c>
       <c r="L428" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -15434,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="L429" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -15466,7 +15499,7 @@
         <v>0</v>
       </c>
       <c r="L430" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -15498,7 +15531,7 @@
         <v>0</v>
       </c>
       <c r="L431" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -15530,7 +15563,359 @@
         <v>0</v>
       </c>
       <c r="L432" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
         <v>442</v>
+      </c>
+      <c r="C433">
+        <v>13</v>
+      </c>
+      <c r="D433">
+        <v>97.51000000000001</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="F433">
+        <v>21.9</v>
+      </c>
+      <c r="H433">
+        <v>21.48</v>
+      </c>
+      <c r="I433">
+        <v>-0.02</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="L433" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>443</v>
+      </c>
+      <c r="C434">
+        <v>13.04</v>
+      </c>
+      <c r="D434">
+        <v>98.83</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>21.96</v>
+      </c>
+      <c r="H434">
+        <v>21.76</v>
+      </c>
+      <c r="I434">
+        <v>-0.03</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="L434" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>444</v>
+      </c>
+      <c r="C435">
+        <v>13.04</v>
+      </c>
+      <c r="D435">
+        <v>99.23999999999999</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>22.08</v>
+      </c>
+      <c r="H435">
+        <v>21.96</v>
+      </c>
+      <c r="I435">
+        <v>-0.08</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="L435" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>445</v>
+      </c>
+      <c r="C436">
+        <v>12.99</v>
+      </c>
+      <c r="D436">
+        <v>99.16</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>22.14</v>
+      </c>
+      <c r="H436">
+        <v>22</v>
+      </c>
+      <c r="I436">
+        <v>-0.03</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="L436" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>446</v>
+      </c>
+      <c r="C437">
+        <v>13</v>
+      </c>
+      <c r="D437">
+        <v>98.70999999999999</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>22.09</v>
+      </c>
+      <c r="H437">
+        <v>21.88</v>
+      </c>
+      <c r="I437">
+        <v>-0.04</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="L437" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>447</v>
+      </c>
+      <c r="C438">
+        <v>13</v>
+      </c>
+      <c r="D438">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>22.05</v>
+      </c>
+      <c r="H438">
+        <v>21.76</v>
+      </c>
+      <c r="I438">
+        <v>0.02</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="L438" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>448</v>
+      </c>
+      <c r="C439">
+        <v>12.99</v>
+      </c>
+      <c r="D439">
+        <v>98.81</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>22.01</v>
+      </c>
+      <c r="H439">
+        <v>21.81</v>
+      </c>
+      <c r="I439">
+        <v>0.04</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="L439" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>449</v>
+      </c>
+      <c r="C440">
+        <v>12.99</v>
+      </c>
+      <c r="D440">
+        <v>99.19</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>22.04</v>
+      </c>
+      <c r="H440">
+        <v>21.91</v>
+      </c>
+      <c r="I440">
+        <v>0.02</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="L440" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>450</v>
+      </c>
+      <c r="C441">
+        <v>12.99</v>
+      </c>
+      <c r="D441">
+        <v>99.23999999999999</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>22.11</v>
+      </c>
+      <c r="H441">
+        <v>21.98</v>
+      </c>
+      <c r="I441">
+        <v>0.04</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="L441" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>451</v>
+      </c>
+      <c r="C442">
+        <v>12.98</v>
+      </c>
+      <c r="D442">
+        <v>99.13</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>22.06</v>
+      </c>
+      <c r="H442">
+        <v>21.91</v>
+      </c>
+      <c r="I442">
+        <v>-0.08</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="L442" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>452</v>
+      </c>
+      <c r="C443">
+        <v>12.98</v>
+      </c>
+      <c r="D443">
+        <v>98.98999999999999</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>22.01</v>
+      </c>
+      <c r="H443">
+        <v>21.84</v>
+      </c>
+      <c r="I443">
+        <v>0.32</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="L443" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
+++ b/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="461">
   <si>
     <t>Fecha</t>
   </si>
@@ -1373,6 +1373,27 @@
   </si>
   <si>
     <t>11/9/2020 1:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:40:00 AM</t>
   </si>
   <si>
     <t>ANTIGUA GUATEMALA</t>
@@ -1733,7 +1754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L443"/>
+  <dimension ref="A1:L450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1803,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1835,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1867,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1899,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1931,7 +1952,7 @@
         <v>0.02</v>
       </c>
       <c r="L6" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1963,7 +1984,7 @@
         <v>0.01</v>
       </c>
       <c r="L7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1995,7 +2016,7 @@
         <v>0.01</v>
       </c>
       <c r="L8" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2027,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2059,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2091,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2123,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2155,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2187,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2219,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2251,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2283,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2315,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2347,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2379,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2411,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2443,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2475,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2507,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2539,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2571,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2603,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2635,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2667,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2699,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2731,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2763,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2795,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2827,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2859,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2891,7 +2912,7 @@
         <v>0.03</v>
       </c>
       <c r="L36" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2923,7 +2944,7 @@
         <v>0.08</v>
       </c>
       <c r="L37" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2955,7 +2976,7 @@
         <v>1.26</v>
       </c>
       <c r="L38" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2987,7 +3008,7 @@
         <v>2.34</v>
       </c>
       <c r="L39" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3019,7 +3040,7 @@
         <v>7.06</v>
       </c>
       <c r="L40" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3051,7 +3072,7 @@
         <v>12.62</v>
       </c>
       <c r="L41" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3083,7 +3104,7 @@
         <v>23.01</v>
       </c>
       <c r="L42" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3115,7 +3136,7 @@
         <v>35.96</v>
       </c>
       <c r="L43" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3147,7 +3168,7 @@
         <v>53.17</v>
       </c>
       <c r="L44" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3179,7 +3200,7 @@
         <v>78.26000000000001</v>
       </c>
       <c r="L45" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3211,7 +3232,7 @@
         <v>94.45</v>
       </c>
       <c r="L46" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3243,7 +3264,7 @@
         <v>101.95</v>
       </c>
       <c r="L47" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3275,7 +3296,7 @@
         <v>136.99</v>
       </c>
       <c r="L48" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3307,7 +3328,7 @@
         <v>138.69</v>
       </c>
       <c r="L49" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3339,7 +3360,7 @@
         <v>137.09</v>
       </c>
       <c r="L50" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3371,7 +3392,7 @@
         <v>143.29</v>
       </c>
       <c r="L51" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3403,7 +3424,7 @@
         <v>192.15</v>
       </c>
       <c r="L52" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3435,7 +3456,7 @@
         <v>239.95</v>
       </c>
       <c r="L53" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3467,7 +3488,7 @@
         <v>254.87</v>
       </c>
       <c r="L54" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3499,7 +3520,7 @@
         <v>247.56</v>
       </c>
       <c r="L55" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3531,7 +3552,7 @@
         <v>287.63</v>
       </c>
       <c r="L56" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3563,7 +3584,7 @@
         <v>345.87</v>
       </c>
       <c r="L57" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3595,7 +3616,7 @@
         <v>358.65</v>
       </c>
       <c r="L58" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3627,7 +3648,7 @@
         <v>287.67</v>
       </c>
       <c r="L59" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3659,7 +3680,7 @@
         <v>218.34</v>
       </c>
       <c r="L60" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3691,7 +3712,7 @@
         <v>213.66</v>
       </c>
       <c r="L61" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3723,7 +3744,7 @@
         <v>389.75</v>
       </c>
       <c r="L62" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3755,7 +3776,7 @@
         <v>455.41</v>
       </c>
       <c r="L63" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3787,7 +3808,7 @@
         <v>332.81</v>
       </c>
       <c r="L64" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3819,7 +3840,7 @@
         <v>329.89</v>
       </c>
       <c r="L65" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3851,7 +3872,7 @@
         <v>473.71</v>
       </c>
       <c r="L66" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3883,7 +3904,7 @@
         <v>528.55</v>
       </c>
       <c r="L67" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3915,7 +3936,7 @@
         <v>411.9</v>
       </c>
       <c r="L68" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3947,7 +3968,7 @@
         <v>305.07</v>
       </c>
       <c r="L69" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3979,7 +4000,7 @@
         <v>301.49</v>
       </c>
       <c r="L70" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4011,7 +4032,7 @@
         <v>281</v>
       </c>
       <c r="L71" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4043,7 +4064,7 @@
         <v>194.03</v>
       </c>
       <c r="L72" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4075,7 +4096,7 @@
         <v>240.57</v>
       </c>
       <c r="L73" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4107,7 +4128,7 @@
         <v>349.31</v>
       </c>
       <c r="L74" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4139,7 +4160,7 @@
         <v>321.88</v>
       </c>
       <c r="L75" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4171,7 +4192,7 @@
         <v>342</v>
       </c>
       <c r="L76" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4203,7 +4224,7 @@
         <v>387.55</v>
       </c>
       <c r="L77" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4235,7 +4256,7 @@
         <v>338.76</v>
       </c>
       <c r="L78" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4267,7 +4288,7 @@
         <v>445.44</v>
       </c>
       <c r="L79" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4299,7 +4320,7 @@
         <v>543.7</v>
       </c>
       <c r="L80" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4331,7 +4352,7 @@
         <v>566.16</v>
       </c>
       <c r="L81" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4363,7 +4384,7 @@
         <v>535.8099999999999</v>
       </c>
       <c r="L82" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4395,7 +4416,7 @@
         <v>439.72</v>
       </c>
       <c r="L83" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4427,7 +4448,7 @@
         <v>378.84</v>
       </c>
       <c r="L84" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4459,7 +4480,7 @@
         <v>357.8</v>
       </c>
       <c r="L85" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4491,7 +4512,7 @@
         <v>419.01</v>
       </c>
       <c r="L86" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4523,7 +4544,7 @@
         <v>284.26</v>
       </c>
       <c r="L87" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4555,7 +4576,7 @@
         <v>234.25</v>
       </c>
       <c r="L88" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4587,7 +4608,7 @@
         <v>264.34</v>
       </c>
       <c r="L89" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4619,7 +4640,7 @@
         <v>235.03</v>
       </c>
       <c r="L90" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4651,7 +4672,7 @@
         <v>197.14</v>
       </c>
       <c r="L91" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4683,7 +4704,7 @@
         <v>150.14</v>
       </c>
       <c r="L92" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4715,7 +4736,7 @@
         <v>158.5</v>
       </c>
       <c r="L93" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4747,7 +4768,7 @@
         <v>169.32</v>
       </c>
       <c r="L94" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4779,7 +4800,7 @@
         <v>142.07</v>
       </c>
       <c r="L95" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4811,7 +4832,7 @@
         <v>71.63</v>
       </c>
       <c r="L96" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4843,7 +4864,7 @@
         <v>40.56</v>
       </c>
       <c r="L97" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4875,7 +4896,7 @@
         <v>45.69</v>
       </c>
       <c r="L98" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4907,7 +4928,7 @@
         <v>45.13</v>
       </c>
       <c r="L99" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4939,7 +4960,7 @@
         <v>46.89</v>
       </c>
       <c r="L100" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4971,7 +4992,7 @@
         <v>50.02</v>
       </c>
       <c r="L101" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5003,7 +5024,7 @@
         <v>54.83</v>
       </c>
       <c r="L102" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5035,7 +5056,7 @@
         <v>50.23</v>
       </c>
       <c r="L103" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5067,7 +5088,7 @@
         <v>27.16</v>
       </c>
       <c r="L104" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5099,7 +5120,7 @@
         <v>7.81</v>
       </c>
       <c r="L105" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5131,7 +5152,7 @@
         <v>3.78</v>
       </c>
       <c r="L106" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5163,7 +5184,7 @@
         <v>1.87</v>
       </c>
       <c r="L107" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5195,7 +5216,7 @@
         <v>0.21</v>
       </c>
       <c r="L108" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5227,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5259,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5291,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5323,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5355,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5387,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5419,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5451,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5483,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5515,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5547,7 +5568,7 @@
         <v>0.01</v>
       </c>
       <c r="L119" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5579,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5611,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5643,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5675,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5707,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5739,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5771,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5803,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5835,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5867,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5899,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5931,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5963,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5995,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6027,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6059,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6091,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6123,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6155,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6187,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6219,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6251,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6283,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6315,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6347,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6379,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6411,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6443,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6475,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6507,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6539,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6571,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6603,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6635,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6667,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6699,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6731,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6763,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6795,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6827,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6859,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6891,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6923,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6955,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -6987,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7019,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7051,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7083,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7115,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7147,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7179,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7211,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7243,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7275,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7307,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7339,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7371,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7403,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7435,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7467,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7499,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7531,7 +7552,7 @@
         <v>0.17</v>
       </c>
       <c r="L181" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7563,7 +7584,7 @@
         <v>3.23</v>
       </c>
       <c r="L182" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7595,7 +7616,7 @@
         <v>8.68</v>
       </c>
       <c r="L183" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7627,7 +7648,7 @@
         <v>21.57</v>
       </c>
       <c r="L184" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7659,7 +7680,7 @@
         <v>29.14</v>
       </c>
       <c r="L185" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7691,7 +7712,7 @@
         <v>36.4</v>
       </c>
       <c r="L186" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7723,7 +7744,7 @@
         <v>50.4</v>
       </c>
       <c r="L187" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7755,7 +7776,7 @@
         <v>71.63</v>
       </c>
       <c r="L188" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -7787,7 +7808,7 @@
         <v>105.26</v>
       </c>
       <c r="L189" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -7819,7 +7840,7 @@
         <v>150.88</v>
       </c>
       <c r="L190" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7851,7 +7872,7 @@
         <v>180.94</v>
       </c>
       <c r="L191" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -7883,7 +7904,7 @@
         <v>207.09</v>
       </c>
       <c r="L192" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -7915,7 +7936,7 @@
         <v>188.99</v>
       </c>
       <c r="L193" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -7947,7 +7968,7 @@
         <v>215.59</v>
       </c>
       <c r="L194" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -7979,7 +8000,7 @@
         <v>234.95</v>
       </c>
       <c r="L195" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8011,7 +8032,7 @@
         <v>270.32</v>
       </c>
       <c r="L196" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8043,7 +8064,7 @@
         <v>322.36</v>
       </c>
       <c r="L197" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8075,7 +8096,7 @@
         <v>409.2</v>
       </c>
       <c r="L198" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8107,7 +8128,7 @@
         <v>577.24</v>
       </c>
       <c r="L199" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8139,7 +8160,7 @@
         <v>678.58</v>
       </c>
       <c r="L200" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8171,7 +8192,7 @@
         <v>614.7</v>
       </c>
       <c r="L201" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8203,7 +8224,7 @@
         <v>426.66</v>
       </c>
       <c r="L202" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8235,7 +8256,7 @@
         <v>378.23</v>
       </c>
       <c r="L203" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8267,7 +8288,7 @@
         <v>325.61</v>
       </c>
       <c r="L204" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -8299,7 +8320,7 @@
         <v>263.44</v>
       </c>
       <c r="L205" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -8331,7 +8352,7 @@
         <v>418.7</v>
       </c>
       <c r="L206" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8363,7 +8384,7 @@
         <v>480.07</v>
       </c>
       <c r="L207" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8395,7 +8416,7 @@
         <v>405.86</v>
       </c>
       <c r="L208" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8427,7 +8448,7 @@
         <v>460.04</v>
       </c>
       <c r="L209" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -8459,7 +8480,7 @@
         <v>479.08</v>
       </c>
       <c r="L210" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -8491,7 +8512,7 @@
         <v>406.5</v>
       </c>
       <c r="L211" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -8523,7 +8544,7 @@
         <v>370.42</v>
       </c>
       <c r="L212" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -8555,7 +8576,7 @@
         <v>366.09</v>
       </c>
       <c r="L213" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -8587,7 +8608,7 @@
         <v>380.52</v>
       </c>
       <c r="L214" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -8619,7 +8640,7 @@
         <v>448.3</v>
       </c>
       <c r="L215" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -8651,7 +8672,7 @@
         <v>338.47</v>
       </c>
       <c r="L216" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -8683,7 +8704,7 @@
         <v>296.95</v>
       </c>
       <c r="L217" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -8715,7 +8736,7 @@
         <v>374.49</v>
       </c>
       <c r="L218" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -8747,7 +8768,7 @@
         <v>448.56</v>
       </c>
       <c r="L219" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -8779,7 +8800,7 @@
         <v>456.68</v>
       </c>
       <c r="L220" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -8811,7 +8832,7 @@
         <v>494.33</v>
       </c>
       <c r="L221" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -8843,7 +8864,7 @@
         <v>481.14</v>
       </c>
       <c r="L222" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8875,7 +8896,7 @@
         <v>520.4400000000001</v>
       </c>
       <c r="L223" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -8907,7 +8928,7 @@
         <v>488.57</v>
       </c>
       <c r="L224" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -8939,7 +8960,7 @@
         <v>393.7</v>
       </c>
       <c r="L225" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -8971,7 +8992,7 @@
         <v>639.71</v>
       </c>
       <c r="L226" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -9003,7 +9024,7 @@
         <v>268.2</v>
       </c>
       <c r="L227" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -9035,7 +9056,7 @@
         <v>283.57</v>
       </c>
       <c r="L228" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -9067,7 +9088,7 @@
         <v>333.71</v>
       </c>
       <c r="L229" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -9099,7 +9120,7 @@
         <v>536.62</v>
       </c>
       <c r="L230" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -9131,7 +9152,7 @@
         <v>410.1</v>
       </c>
       <c r="L231" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -9163,7 +9184,7 @@
         <v>478.29</v>
       </c>
       <c r="L232" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -9195,7 +9216,7 @@
         <v>391.68</v>
       </c>
       <c r="L233" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -9227,7 +9248,7 @@
         <v>708.15</v>
       </c>
       <c r="L234" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -9259,7 +9280,7 @@
         <v>305.43</v>
       </c>
       <c r="L235" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -9291,7 +9312,7 @@
         <v>189.91</v>
       </c>
       <c r="L236" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9323,7 +9344,7 @@
         <v>157.18</v>
       </c>
       <c r="L237" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9355,7 +9376,7 @@
         <v>155.98</v>
       </c>
       <c r="L238" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9387,7 +9408,7 @@
         <v>178.96</v>
       </c>
       <c r="L239" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -9419,7 +9440,7 @@
         <v>164.04</v>
       </c>
       <c r="L240" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9451,7 +9472,7 @@
         <v>151.99</v>
       </c>
       <c r="L241" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9483,7 +9504,7 @@
         <v>170.59</v>
       </c>
       <c r="L242" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9515,7 +9536,7 @@
         <v>54.65</v>
       </c>
       <c r="L243" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9547,7 +9568,7 @@
         <v>33.59</v>
       </c>
       <c r="L244" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9579,7 +9600,7 @@
         <v>19.28</v>
       </c>
       <c r="L245" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9611,7 +9632,7 @@
         <v>17.1</v>
       </c>
       <c r="L246" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9643,7 +9664,7 @@
         <v>14.15</v>
       </c>
       <c r="L247" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9675,7 +9696,7 @@
         <v>11.56</v>
       </c>
       <c r="L248" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9707,7 +9728,7 @@
         <v>9.42</v>
       </c>
       <c r="L249" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9739,7 +9760,7 @@
         <v>6.51</v>
       </c>
       <c r="L250" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9771,7 +9792,7 @@
         <v>2.87</v>
       </c>
       <c r="L251" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9803,7 +9824,7 @@
         <v>0.58</v>
       </c>
       <c r="L252" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9835,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="L253" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -9867,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -9899,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -9931,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -9963,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -9995,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -10027,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10059,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10091,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -10123,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -10155,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -10187,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -10219,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -10251,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -10283,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10315,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10347,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10379,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10411,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10443,7 +10464,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10475,7 +10496,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10507,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10539,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10571,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10603,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10635,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10667,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10699,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -10731,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -10763,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -10795,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -10827,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -10859,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -10891,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -10923,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -10955,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -10987,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -11019,7 +11040,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -11051,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -11083,7 +11104,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -11115,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -11147,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -11179,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -11211,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -11243,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -11275,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -11307,7 +11328,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -11339,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -11371,7 +11392,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -11403,7 +11424,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -11435,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -11467,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11499,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11531,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11563,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11595,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11627,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11659,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -11691,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -11723,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -11755,7 +11776,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -11787,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -11819,7 +11840,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -11851,7 +11872,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -11883,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -11915,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -11947,7 +11968,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -11979,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -12011,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -12043,7 +12064,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -12075,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -12107,7 +12128,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -12139,7 +12160,7 @@
         <v>0.01</v>
       </c>
       <c r="L325" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -12171,7 +12192,7 @@
         <v>1.82</v>
       </c>
       <c r="L326" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -12203,7 +12224,7 @@
         <v>7.45</v>
       </c>
       <c r="L327" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -12235,7 +12256,7 @@
         <v>17.23</v>
       </c>
       <c r="L328" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -12267,7 +12288,7 @@
         <v>26.44</v>
       </c>
       <c r="L329" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -12299,7 +12320,7 @@
         <v>34.2</v>
       </c>
       <c r="L330" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -12331,7 +12352,7 @@
         <v>47.53</v>
       </c>
       <c r="L331" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -12363,7 +12384,7 @@
         <v>159.87</v>
       </c>
       <c r="L332" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -12395,7 +12416,7 @@
         <v>198.03</v>
       </c>
       <c r="L333" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -12427,7 +12448,7 @@
         <v>241.62</v>
       </c>
       <c r="L334" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -12459,7 +12480,7 @@
         <v>295.12</v>
       </c>
       <c r="L335" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -12491,7 +12512,7 @@
         <v>346.75</v>
       </c>
       <c r="L336" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -12523,7 +12544,7 @@
         <v>374.77</v>
       </c>
       <c r="L337" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -12555,7 +12576,7 @@
         <v>411.43</v>
       </c>
       <c r="L338" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -12587,7 +12608,7 @@
         <v>477.37</v>
       </c>
       <c r="L339" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -12619,7 +12640,7 @@
         <v>505.81</v>
       </c>
       <c r="L340" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -12651,7 +12672,7 @@
         <v>442.84</v>
       </c>
       <c r="L341" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -12683,7 +12704,7 @@
         <v>538.5</v>
       </c>
       <c r="L342" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -12715,7 +12736,7 @@
         <v>653.71</v>
       </c>
       <c r="L343" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -12747,7 +12768,7 @@
         <v>672.67</v>
       </c>
       <c r="L344" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -12779,7 +12800,7 @@
         <v>702.99</v>
       </c>
       <c r="L345" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -12811,7 +12832,7 @@
         <v>734.72</v>
       </c>
       <c r="L346" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -12843,7 +12864,7 @@
         <v>767.28</v>
       </c>
       <c r="L347" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -12875,7 +12896,7 @@
         <v>786.42</v>
       </c>
       <c r="L348" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -12907,7 +12928,7 @@
         <v>792.86</v>
       </c>
       <c r="L349" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -12939,7 +12960,7 @@
         <v>781.34</v>
       </c>
       <c r="L350" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -12971,7 +12992,7 @@
         <v>647.38</v>
       </c>
       <c r="L351" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -13003,7 +13024,7 @@
         <v>679.51</v>
       </c>
       <c r="L352" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -13035,7 +13056,7 @@
         <v>801</v>
       </c>
       <c r="L353" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -13067,7 +13088,7 @@
         <v>776.49</v>
       </c>
       <c r="L354" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -13099,7 +13120,7 @@
         <v>905.01</v>
       </c>
       <c r="L355" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -13131,7 +13152,7 @@
         <v>898.89</v>
       </c>
       <c r="L356" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -13163,7 +13184,7 @@
         <v>912.13</v>
       </c>
       <c r="L357" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -13195,7 +13216,7 @@
         <v>925.41</v>
       </c>
       <c r="L358" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -13227,7 +13248,7 @@
         <v>885.05</v>
       </c>
       <c r="L359" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -13259,7 +13280,7 @@
         <v>929.0599999999999</v>
       </c>
       <c r="L360" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -13291,7 +13312,7 @@
         <v>959.54</v>
       </c>
       <c r="L361" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -13323,7 +13344,7 @@
         <v>993.86</v>
       </c>
       <c r="L362" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -13355,7 +13376,7 @@
         <v>928.62</v>
       </c>
       <c r="L363" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -13387,7 +13408,7 @@
         <v>812.08</v>
       </c>
       <c r="L364" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -13419,7 +13440,7 @@
         <v>809.34</v>
       </c>
       <c r="L365" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -13451,7 +13472,7 @@
         <v>811.74</v>
       </c>
       <c r="L366" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -13483,7 +13504,7 @@
         <v>982.35</v>
       </c>
       <c r="L367" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -13515,7 +13536,7 @@
         <v>665.42</v>
       </c>
       <c r="L368" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -13547,7 +13568,7 @@
         <v>504.71</v>
       </c>
       <c r="L369" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -13579,7 +13600,7 @@
         <v>613.53</v>
       </c>
       <c r="L370" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -13611,7 +13632,7 @@
         <v>430.51</v>
       </c>
       <c r="L371" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -13643,7 +13664,7 @@
         <v>498.89</v>
       </c>
       <c r="L372" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -13675,7 +13696,7 @@
         <v>678.6</v>
       </c>
       <c r="L373" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -13707,7 +13728,7 @@
         <v>697.76</v>
       </c>
       <c r="L374" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -13739,7 +13760,7 @@
         <v>859.3</v>
       </c>
       <c r="L375" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -13771,7 +13792,7 @@
         <v>410.66</v>
       </c>
       <c r="L376" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -13803,7 +13824,7 @@
         <v>678.4400000000001</v>
       </c>
       <c r="L377" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -13835,7 +13856,7 @@
         <v>644.2</v>
       </c>
       <c r="L378" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -13867,7 +13888,7 @@
         <v>537.14</v>
       </c>
       <c r="L379" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -13899,7 +13920,7 @@
         <v>437.82</v>
       </c>
       <c r="L380" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -13931,7 +13952,7 @@
         <v>309.9</v>
       </c>
       <c r="L381" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -13963,7 +13984,7 @@
         <v>242.03</v>
       </c>
       <c r="L382" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -13995,7 +14016,7 @@
         <v>197.87</v>
       </c>
       <c r="L383" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -14027,7 +14048,7 @@
         <v>224.99</v>
       </c>
       <c r="L384" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -14059,7 +14080,7 @@
         <v>218.77</v>
       </c>
       <c r="L385" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -14091,7 +14112,7 @@
         <v>172.38</v>
       </c>
       <c r="L386" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -14123,7 +14144,7 @@
         <v>137.47</v>
       </c>
       <c r="L387" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -14155,7 +14176,7 @@
         <v>108.95</v>
       </c>
       <c r="L388" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -14187,7 +14208,7 @@
         <v>129.92</v>
       </c>
       <c r="L389" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -14219,7 +14240,7 @@
         <v>96.95</v>
       </c>
       <c r="L390" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -14251,7 +14272,7 @@
         <v>42.04</v>
       </c>
       <c r="L391" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -14283,7 +14304,7 @@
         <v>14.48</v>
       </c>
       <c r="L392" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -14315,7 +14336,7 @@
         <v>7.16</v>
       </c>
       <c r="L393" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -14347,7 +14368,7 @@
         <v>5.16</v>
       </c>
       <c r="L394" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -14379,7 +14400,7 @@
         <v>2.63</v>
       </c>
       <c r="L395" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -14411,7 +14432,7 @@
         <v>0.49</v>
       </c>
       <c r="L396" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -14443,7 +14464,7 @@
         <v>0</v>
       </c>
       <c r="L397" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -14475,7 +14496,7 @@
         <v>0</v>
       </c>
       <c r="L398" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -14507,7 +14528,7 @@
         <v>0</v>
       </c>
       <c r="L399" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -14539,7 +14560,7 @@
         <v>0</v>
       </c>
       <c r="L400" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -14571,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="L401" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -14603,7 +14624,7 @@
         <v>0</v>
       </c>
       <c r="L402" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -14635,7 +14656,7 @@
         <v>0</v>
       </c>
       <c r="L403" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -14667,7 +14688,7 @@
         <v>0</v>
       </c>
       <c r="L404" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -14699,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="L405" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -14731,7 +14752,7 @@
         <v>0</v>
       </c>
       <c r="L406" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -14763,7 +14784,7 @@
         <v>0</v>
       </c>
       <c r="L407" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -14795,7 +14816,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -14827,7 +14848,7 @@
         <v>0</v>
       </c>
       <c r="L409" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -14859,7 +14880,7 @@
         <v>0</v>
       </c>
       <c r="L410" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -14891,7 +14912,7 @@
         <v>0</v>
       </c>
       <c r="L411" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -14923,7 +14944,7 @@
         <v>0</v>
       </c>
       <c r="L412" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -14955,7 +14976,7 @@
         <v>0</v>
       </c>
       <c r="L413" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -14987,7 +15008,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -15019,7 +15040,7 @@
         <v>0</v>
       </c>
       <c r="L415" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -15051,7 +15072,7 @@
         <v>0</v>
       </c>
       <c r="L416" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -15083,7 +15104,7 @@
         <v>0</v>
       </c>
       <c r="L417" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -15115,7 +15136,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -15147,7 +15168,7 @@
         <v>0</v>
       </c>
       <c r="L419" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -15179,7 +15200,7 @@
         <v>0</v>
       </c>
       <c r="L420" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -15211,7 +15232,7 @@
         <v>0</v>
       </c>
       <c r="L421" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -15243,7 +15264,7 @@
         <v>0</v>
       </c>
       <c r="L422" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -15275,7 +15296,7 @@
         <v>0</v>
       </c>
       <c r="L423" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -15307,7 +15328,7 @@
         <v>0</v>
       </c>
       <c r="L424" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -15339,7 +15360,7 @@
         <v>0</v>
       </c>
       <c r="L425" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -15371,7 +15392,7 @@
         <v>0</v>
       </c>
       <c r="L426" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -15403,7 +15424,7 @@
         <v>0</v>
       </c>
       <c r="L427" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -15435,7 +15456,7 @@
         <v>0</v>
       </c>
       <c r="L428" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -15467,7 +15488,7 @@
         <v>0</v>
       </c>
       <c r="L429" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -15499,7 +15520,7 @@
         <v>0</v>
       </c>
       <c r="L430" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -15531,7 +15552,7 @@
         <v>0</v>
       </c>
       <c r="L431" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -15563,7 +15584,7 @@
         <v>0</v>
       </c>
       <c r="L432" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -15595,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="L433" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -15627,7 +15648,7 @@
         <v>0</v>
       </c>
       <c r="L434" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -15659,7 +15680,7 @@
         <v>0</v>
       </c>
       <c r="L435" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -15691,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="L436" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -15723,7 +15744,7 @@
         <v>0</v>
       </c>
       <c r="L437" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -15755,7 +15776,7 @@
         <v>0</v>
       </c>
       <c r="L438" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -15787,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="L439" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -15819,7 +15840,7 @@
         <v>0</v>
       </c>
       <c r="L440" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -15851,7 +15872,7 @@
         <v>0</v>
       </c>
       <c r="L441" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -15883,7 +15904,7 @@
         <v>0</v>
       </c>
       <c r="L442" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -15915,7 +15936,231 @@
         <v>0</v>
       </c>
       <c r="L443" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
         <v>453</v>
+      </c>
+      <c r="C444">
+        <v>12.98</v>
+      </c>
+      <c r="D444">
+        <v>99.19</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>21.99</v>
+      </c>
+      <c r="H444">
+        <v>21.86</v>
+      </c>
+      <c r="I444">
+        <v>-0.01</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="L444" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>454</v>
+      </c>
+      <c r="C445">
+        <v>12.98</v>
+      </c>
+      <c r="D445">
+        <v>98.31</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>21.78</v>
+      </c>
+      <c r="H445">
+        <v>21.5</v>
+      </c>
+      <c r="I445">
+        <v>0.05</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="L445" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>455</v>
+      </c>
+      <c r="C446">
+        <v>12.97</v>
+      </c>
+      <c r="D446">
+        <v>98.38</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>21.7</v>
+      </c>
+      <c r="H446">
+        <v>21.44</v>
+      </c>
+      <c r="I446">
+        <v>0</v>
+      </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
+      <c r="L446" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>456</v>
+      </c>
+      <c r="C447">
+        <v>12.95</v>
+      </c>
+      <c r="D447">
+        <v>99.28</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>21.72</v>
+      </c>
+      <c r="H447">
+        <v>21.6</v>
+      </c>
+      <c r="I447">
+        <v>0</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="L447" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>457</v>
+      </c>
+      <c r="C448">
+        <v>12.96</v>
+      </c>
+      <c r="D448">
+        <v>99.29000000000001</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>21.78</v>
+      </c>
+      <c r="H448">
+        <v>21.66</v>
+      </c>
+      <c r="I448">
+        <v>0.04</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="L448" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>458</v>
+      </c>
+      <c r="C449">
+        <v>12.97</v>
+      </c>
+      <c r="D449">
+        <v>99.29000000000001</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>21.89</v>
+      </c>
+      <c r="H449">
+        <v>21.77</v>
+      </c>
+      <c r="I449">
+        <v>0.12</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="L449" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>459</v>
+      </c>
+      <c r="C450">
+        <v>12.94</v>
+      </c>
+      <c r="D450">
+        <v>99.29000000000001</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>21.75</v>
+      </c>
+      <c r="H450">
+        <v>21.63</v>
+      </c>
+      <c r="I450">
+        <v>-0.04</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="L450" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
+++ b/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="472">
   <si>
     <t>Fecha</t>
   </si>
@@ -1394,6 +1394,39 @@
   </si>
   <si>
     <t>11/9/2020 2:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:30:00 AM</t>
   </si>
   <si>
     <t>ANTIGUA GUATEMALA</t>
@@ -1754,7 +1787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L450"/>
+  <dimension ref="A1:L461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1824,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1856,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1888,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1920,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1952,7 +1985,7 @@
         <v>0.02</v>
       </c>
       <c r="L6" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1984,7 +2017,7 @@
         <v>0.01</v>
       </c>
       <c r="L7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2016,7 +2049,7 @@
         <v>0.01</v>
       </c>
       <c r="L8" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2048,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2080,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2112,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2144,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2176,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2208,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2240,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2272,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2304,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2336,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2368,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2400,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2432,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2464,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2496,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2528,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2560,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2592,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2624,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2656,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2688,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2720,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2752,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2784,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2816,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2848,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2880,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2912,7 +2945,7 @@
         <v>0.03</v>
       </c>
       <c r="L36" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2944,7 +2977,7 @@
         <v>0.08</v>
       </c>
       <c r="L37" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2976,7 +3009,7 @@
         <v>1.26</v>
       </c>
       <c r="L38" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3008,7 +3041,7 @@
         <v>2.34</v>
       </c>
       <c r="L39" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3040,7 +3073,7 @@
         <v>7.06</v>
       </c>
       <c r="L40" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3072,7 +3105,7 @@
         <v>12.62</v>
       </c>
       <c r="L41" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3104,7 +3137,7 @@
         <v>23.01</v>
       </c>
       <c r="L42" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3136,7 +3169,7 @@
         <v>35.96</v>
       </c>
       <c r="L43" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3168,7 +3201,7 @@
         <v>53.17</v>
       </c>
       <c r="L44" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3200,7 +3233,7 @@
         <v>78.26000000000001</v>
       </c>
       <c r="L45" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3232,7 +3265,7 @@
         <v>94.45</v>
       </c>
       <c r="L46" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3264,7 +3297,7 @@
         <v>101.95</v>
       </c>
       <c r="L47" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3296,7 +3329,7 @@
         <v>136.99</v>
       </c>
       <c r="L48" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3328,7 +3361,7 @@
         <v>138.69</v>
       </c>
       <c r="L49" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3360,7 +3393,7 @@
         <v>137.09</v>
       </c>
       <c r="L50" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3392,7 +3425,7 @@
         <v>143.29</v>
       </c>
       <c r="L51" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3424,7 +3457,7 @@
         <v>192.15</v>
       </c>
       <c r="L52" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3456,7 +3489,7 @@
         <v>239.95</v>
       </c>
       <c r="L53" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3488,7 +3521,7 @@
         <v>254.87</v>
       </c>
       <c r="L54" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3520,7 +3553,7 @@
         <v>247.56</v>
       </c>
       <c r="L55" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3552,7 +3585,7 @@
         <v>287.63</v>
       </c>
       <c r="L56" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3584,7 +3617,7 @@
         <v>345.87</v>
       </c>
       <c r="L57" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3616,7 +3649,7 @@
         <v>358.65</v>
       </c>
       <c r="L58" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3648,7 +3681,7 @@
         <v>287.67</v>
       </c>
       <c r="L59" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3680,7 +3713,7 @@
         <v>218.34</v>
       </c>
       <c r="L60" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3712,7 +3745,7 @@
         <v>213.66</v>
       </c>
       <c r="L61" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3744,7 +3777,7 @@
         <v>389.75</v>
       </c>
       <c r="L62" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3776,7 +3809,7 @@
         <v>455.41</v>
       </c>
       <c r="L63" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3808,7 +3841,7 @@
         <v>332.81</v>
       </c>
       <c r="L64" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3840,7 +3873,7 @@
         <v>329.89</v>
       </c>
       <c r="L65" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3872,7 +3905,7 @@
         <v>473.71</v>
       </c>
       <c r="L66" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3904,7 +3937,7 @@
         <v>528.55</v>
       </c>
       <c r="L67" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3936,7 +3969,7 @@
         <v>411.9</v>
       </c>
       <c r="L68" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3968,7 +4001,7 @@
         <v>305.07</v>
       </c>
       <c r="L69" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4000,7 +4033,7 @@
         <v>301.49</v>
       </c>
       <c r="L70" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4032,7 +4065,7 @@
         <v>281</v>
       </c>
       <c r="L71" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4064,7 +4097,7 @@
         <v>194.03</v>
       </c>
       <c r="L72" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4096,7 +4129,7 @@
         <v>240.57</v>
       </c>
       <c r="L73" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4128,7 +4161,7 @@
         <v>349.31</v>
       </c>
       <c r="L74" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4160,7 +4193,7 @@
         <v>321.88</v>
       </c>
       <c r="L75" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4192,7 +4225,7 @@
         <v>342</v>
       </c>
       <c r="L76" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4224,7 +4257,7 @@
         <v>387.55</v>
       </c>
       <c r="L77" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4256,7 +4289,7 @@
         <v>338.76</v>
       </c>
       <c r="L78" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4288,7 +4321,7 @@
         <v>445.44</v>
       </c>
       <c r="L79" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4320,7 +4353,7 @@
         <v>543.7</v>
       </c>
       <c r="L80" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4352,7 +4385,7 @@
         <v>566.16</v>
       </c>
       <c r="L81" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4384,7 +4417,7 @@
         <v>535.8099999999999</v>
       </c>
       <c r="L82" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4416,7 +4449,7 @@
         <v>439.72</v>
       </c>
       <c r="L83" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4448,7 +4481,7 @@
         <v>378.84</v>
       </c>
       <c r="L84" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4480,7 +4513,7 @@
         <v>357.8</v>
       </c>
       <c r="L85" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4512,7 +4545,7 @@
         <v>419.01</v>
       </c>
       <c r="L86" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4544,7 +4577,7 @@
         <v>284.26</v>
       </c>
       <c r="L87" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4576,7 +4609,7 @@
         <v>234.25</v>
       </c>
       <c r="L88" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4608,7 +4641,7 @@
         <v>264.34</v>
       </c>
       <c r="L89" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4640,7 +4673,7 @@
         <v>235.03</v>
       </c>
       <c r="L90" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4672,7 +4705,7 @@
         <v>197.14</v>
       </c>
       <c r="L91" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4704,7 +4737,7 @@
         <v>150.14</v>
       </c>
       <c r="L92" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4736,7 +4769,7 @@
         <v>158.5</v>
       </c>
       <c r="L93" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4768,7 +4801,7 @@
         <v>169.32</v>
       </c>
       <c r="L94" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4800,7 +4833,7 @@
         <v>142.07</v>
       </c>
       <c r="L95" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4832,7 +4865,7 @@
         <v>71.63</v>
       </c>
       <c r="L96" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4864,7 +4897,7 @@
         <v>40.56</v>
       </c>
       <c r="L97" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4896,7 +4929,7 @@
         <v>45.69</v>
       </c>
       <c r="L98" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4928,7 +4961,7 @@
         <v>45.13</v>
       </c>
       <c r="L99" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4960,7 +4993,7 @@
         <v>46.89</v>
       </c>
       <c r="L100" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4992,7 +5025,7 @@
         <v>50.02</v>
       </c>
       <c r="L101" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5024,7 +5057,7 @@
         <v>54.83</v>
       </c>
       <c r="L102" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5056,7 +5089,7 @@
         <v>50.23</v>
       </c>
       <c r="L103" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5088,7 +5121,7 @@
         <v>27.16</v>
       </c>
       <c r="L104" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5120,7 +5153,7 @@
         <v>7.81</v>
       </c>
       <c r="L105" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5152,7 +5185,7 @@
         <v>3.78</v>
       </c>
       <c r="L106" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5184,7 +5217,7 @@
         <v>1.87</v>
       </c>
       <c r="L107" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5216,7 +5249,7 @@
         <v>0.21</v>
       </c>
       <c r="L108" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5248,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5280,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5312,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5344,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5376,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5408,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5440,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5472,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5504,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5536,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5568,7 +5601,7 @@
         <v>0.01</v>
       </c>
       <c r="L119" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5600,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5632,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5664,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5696,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5728,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5760,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5792,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5824,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5856,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5888,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5920,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5952,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5984,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6016,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6048,7 +6081,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6080,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6112,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6144,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6176,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6208,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6240,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6272,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6304,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6336,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6368,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6400,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6432,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6464,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6496,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6528,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6560,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6592,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6624,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6656,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6688,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6720,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6752,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6784,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6816,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6848,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6880,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6912,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6944,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6976,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7008,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7040,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7072,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7104,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7136,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7168,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7200,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7232,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7264,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7296,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7328,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7360,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7392,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7424,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7456,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7488,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7520,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7552,7 +7585,7 @@
         <v>0.17</v>
       </c>
       <c r="L181" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7584,7 +7617,7 @@
         <v>3.23</v>
       </c>
       <c r="L182" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7616,7 +7649,7 @@
         <v>8.68</v>
       </c>
       <c r="L183" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7648,7 +7681,7 @@
         <v>21.57</v>
       </c>
       <c r="L184" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7680,7 +7713,7 @@
         <v>29.14</v>
       </c>
       <c r="L185" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7712,7 +7745,7 @@
         <v>36.4</v>
       </c>
       <c r="L186" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7744,7 +7777,7 @@
         <v>50.4</v>
       </c>
       <c r="L187" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7776,7 +7809,7 @@
         <v>71.63</v>
       </c>
       <c r="L188" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -7808,7 +7841,7 @@
         <v>105.26</v>
       </c>
       <c r="L189" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -7840,7 +7873,7 @@
         <v>150.88</v>
       </c>
       <c r="L190" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7872,7 +7905,7 @@
         <v>180.94</v>
       </c>
       <c r="L191" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -7904,7 +7937,7 @@
         <v>207.09</v>
       </c>
       <c r="L192" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -7936,7 +7969,7 @@
         <v>188.99</v>
       </c>
       <c r="L193" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -7968,7 +8001,7 @@
         <v>215.59</v>
       </c>
       <c r="L194" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8000,7 +8033,7 @@
         <v>234.95</v>
       </c>
       <c r="L195" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8032,7 +8065,7 @@
         <v>270.32</v>
       </c>
       <c r="L196" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8064,7 +8097,7 @@
         <v>322.36</v>
       </c>
       <c r="L197" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8096,7 +8129,7 @@
         <v>409.2</v>
       </c>
       <c r="L198" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8128,7 +8161,7 @@
         <v>577.24</v>
       </c>
       <c r="L199" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8160,7 +8193,7 @@
         <v>678.58</v>
       </c>
       <c r="L200" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8192,7 +8225,7 @@
         <v>614.7</v>
       </c>
       <c r="L201" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8224,7 +8257,7 @@
         <v>426.66</v>
       </c>
       <c r="L202" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8256,7 +8289,7 @@
         <v>378.23</v>
       </c>
       <c r="L203" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8288,7 +8321,7 @@
         <v>325.61</v>
       </c>
       <c r="L204" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -8320,7 +8353,7 @@
         <v>263.44</v>
       </c>
       <c r="L205" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -8352,7 +8385,7 @@
         <v>418.7</v>
       </c>
       <c r="L206" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8384,7 +8417,7 @@
         <v>480.07</v>
       </c>
       <c r="L207" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8416,7 +8449,7 @@
         <v>405.86</v>
       </c>
       <c r="L208" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8448,7 +8481,7 @@
         <v>460.04</v>
       </c>
       <c r="L209" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -8480,7 +8513,7 @@
         <v>479.08</v>
       </c>
       <c r="L210" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -8512,7 +8545,7 @@
         <v>406.5</v>
       </c>
       <c r="L211" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -8544,7 +8577,7 @@
         <v>370.42</v>
       </c>
       <c r="L212" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -8576,7 +8609,7 @@
         <v>366.09</v>
       </c>
       <c r="L213" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -8608,7 +8641,7 @@
         <v>380.52</v>
       </c>
       <c r="L214" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -8640,7 +8673,7 @@
         <v>448.3</v>
       </c>
       <c r="L215" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -8672,7 +8705,7 @@
         <v>338.47</v>
       </c>
       <c r="L216" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -8704,7 +8737,7 @@
         <v>296.95</v>
       </c>
       <c r="L217" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -8736,7 +8769,7 @@
         <v>374.49</v>
       </c>
       <c r="L218" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -8768,7 +8801,7 @@
         <v>448.56</v>
       </c>
       <c r="L219" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -8800,7 +8833,7 @@
         <v>456.68</v>
       </c>
       <c r="L220" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -8832,7 +8865,7 @@
         <v>494.33</v>
       </c>
       <c r="L221" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -8864,7 +8897,7 @@
         <v>481.14</v>
       </c>
       <c r="L222" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8896,7 +8929,7 @@
         <v>520.4400000000001</v>
       </c>
       <c r="L223" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -8928,7 +8961,7 @@
         <v>488.57</v>
       </c>
       <c r="L224" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -8960,7 +8993,7 @@
         <v>393.7</v>
       </c>
       <c r="L225" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -8992,7 +9025,7 @@
         <v>639.71</v>
       </c>
       <c r="L226" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -9024,7 +9057,7 @@
         <v>268.2</v>
       </c>
       <c r="L227" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -9056,7 +9089,7 @@
         <v>283.57</v>
       </c>
       <c r="L228" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -9088,7 +9121,7 @@
         <v>333.71</v>
       </c>
       <c r="L229" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -9120,7 +9153,7 @@
         <v>536.62</v>
       </c>
       <c r="L230" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -9152,7 +9185,7 @@
         <v>410.1</v>
       </c>
       <c r="L231" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -9184,7 +9217,7 @@
         <v>478.29</v>
       </c>
       <c r="L232" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -9216,7 +9249,7 @@
         <v>391.68</v>
       </c>
       <c r="L233" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -9248,7 +9281,7 @@
         <v>708.15</v>
       </c>
       <c r="L234" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -9280,7 +9313,7 @@
         <v>305.43</v>
       </c>
       <c r="L235" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -9312,7 +9345,7 @@
         <v>189.91</v>
       </c>
       <c r="L236" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9344,7 +9377,7 @@
         <v>157.18</v>
       </c>
       <c r="L237" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9376,7 +9409,7 @@
         <v>155.98</v>
       </c>
       <c r="L238" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9408,7 +9441,7 @@
         <v>178.96</v>
       </c>
       <c r="L239" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -9440,7 +9473,7 @@
         <v>164.04</v>
       </c>
       <c r="L240" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9472,7 +9505,7 @@
         <v>151.99</v>
       </c>
       <c r="L241" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9504,7 +9537,7 @@
         <v>170.59</v>
       </c>
       <c r="L242" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9536,7 +9569,7 @@
         <v>54.65</v>
       </c>
       <c r="L243" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9568,7 +9601,7 @@
         <v>33.59</v>
       </c>
       <c r="L244" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9600,7 +9633,7 @@
         <v>19.28</v>
       </c>
       <c r="L245" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9632,7 +9665,7 @@
         <v>17.1</v>
       </c>
       <c r="L246" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9664,7 +9697,7 @@
         <v>14.15</v>
       </c>
       <c r="L247" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9696,7 +9729,7 @@
         <v>11.56</v>
       </c>
       <c r="L248" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9728,7 +9761,7 @@
         <v>9.42</v>
       </c>
       <c r="L249" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9760,7 +9793,7 @@
         <v>6.51</v>
       </c>
       <c r="L250" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9792,7 +9825,7 @@
         <v>2.87</v>
       </c>
       <c r="L251" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9824,7 +9857,7 @@
         <v>0.58</v>
       </c>
       <c r="L252" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9856,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="L253" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -9888,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -9920,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -9952,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -9984,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -10016,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -10048,7 +10081,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10080,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10112,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -10144,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -10176,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -10208,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -10240,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -10272,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -10304,7 +10337,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10336,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10368,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10400,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10432,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10464,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10496,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10528,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10560,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10592,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10624,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10656,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10688,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10720,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -10752,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -10784,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -10816,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -10848,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -10880,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -10912,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -10944,7 +10977,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -10976,7 +11009,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -11008,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -11040,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -11072,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -11104,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -11136,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -11168,7 +11201,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -11200,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -11232,7 +11265,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -11264,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -11296,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -11328,7 +11361,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -11360,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -11392,7 +11425,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -11424,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -11456,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -11488,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11520,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11552,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11584,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11616,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11648,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11680,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -11712,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -11744,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -11776,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -11808,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -11840,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -11872,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -11904,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -11936,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -11968,7 +12001,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -12000,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -12032,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -12064,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -12096,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -12128,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -12160,7 +12193,7 @@
         <v>0.01</v>
       </c>
       <c r="L325" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -12192,7 +12225,7 @@
         <v>1.82</v>
       </c>
       <c r="L326" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -12224,7 +12257,7 @@
         <v>7.45</v>
       </c>
       <c r="L327" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -12256,7 +12289,7 @@
         <v>17.23</v>
       </c>
       <c r="L328" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -12288,7 +12321,7 @@
         <v>26.44</v>
       </c>
       <c r="L329" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -12320,7 +12353,7 @@
         <v>34.2</v>
       </c>
       <c r="L330" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -12352,7 +12385,7 @@
         <v>47.53</v>
       </c>
       <c r="L331" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -12384,7 +12417,7 @@
         <v>159.87</v>
       </c>
       <c r="L332" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -12416,7 +12449,7 @@
         <v>198.03</v>
       </c>
       <c r="L333" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -12448,7 +12481,7 @@
         <v>241.62</v>
       </c>
       <c r="L334" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -12480,7 +12513,7 @@
         <v>295.12</v>
       </c>
       <c r="L335" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -12512,7 +12545,7 @@
         <v>346.75</v>
       </c>
       <c r="L336" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -12544,7 +12577,7 @@
         <v>374.77</v>
       </c>
       <c r="L337" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -12576,7 +12609,7 @@
         <v>411.43</v>
       </c>
       <c r="L338" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -12608,7 +12641,7 @@
         <v>477.37</v>
       </c>
       <c r="L339" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -12640,7 +12673,7 @@
         <v>505.81</v>
       </c>
       <c r="L340" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -12672,7 +12705,7 @@
         <v>442.84</v>
       </c>
       <c r="L341" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -12704,7 +12737,7 @@
         <v>538.5</v>
       </c>
       <c r="L342" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -12736,7 +12769,7 @@
         <v>653.71</v>
       </c>
       <c r="L343" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -12768,7 +12801,7 @@
         <v>672.67</v>
       </c>
       <c r="L344" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -12800,7 +12833,7 @@
         <v>702.99</v>
       </c>
       <c r="L345" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -12832,7 +12865,7 @@
         <v>734.72</v>
       </c>
       <c r="L346" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -12864,7 +12897,7 @@
         <v>767.28</v>
       </c>
       <c r="L347" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -12896,7 +12929,7 @@
         <v>786.42</v>
       </c>
       <c r="L348" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -12928,7 +12961,7 @@
         <v>792.86</v>
       </c>
       <c r="L349" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -12960,7 +12993,7 @@
         <v>781.34</v>
       </c>
       <c r="L350" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -12992,7 +13025,7 @@
         <v>647.38</v>
       </c>
       <c r="L351" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -13024,7 +13057,7 @@
         <v>679.51</v>
       </c>
       <c r="L352" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -13056,7 +13089,7 @@
         <v>801</v>
       </c>
       <c r="L353" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -13088,7 +13121,7 @@
         <v>776.49</v>
       </c>
       <c r="L354" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -13120,7 +13153,7 @@
         <v>905.01</v>
       </c>
       <c r="L355" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -13152,7 +13185,7 @@
         <v>898.89</v>
       </c>
       <c r="L356" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -13184,7 +13217,7 @@
         <v>912.13</v>
       </c>
       <c r="L357" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -13216,7 +13249,7 @@
         <v>925.41</v>
       </c>
       <c r="L358" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -13248,7 +13281,7 @@
         <v>885.05</v>
       </c>
       <c r="L359" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -13280,7 +13313,7 @@
         <v>929.0599999999999</v>
       </c>
       <c r="L360" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -13312,7 +13345,7 @@
         <v>959.54</v>
       </c>
       <c r="L361" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -13344,7 +13377,7 @@
         <v>993.86</v>
       </c>
       <c r="L362" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -13376,7 +13409,7 @@
         <v>928.62</v>
       </c>
       <c r="L363" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -13408,7 +13441,7 @@
         <v>812.08</v>
       </c>
       <c r="L364" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -13440,7 +13473,7 @@
         <v>809.34</v>
       </c>
       <c r="L365" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -13472,7 +13505,7 @@
         <v>811.74</v>
       </c>
       <c r="L366" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -13504,7 +13537,7 @@
         <v>982.35</v>
       </c>
       <c r="L367" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -13536,7 +13569,7 @@
         <v>665.42</v>
       </c>
       <c r="L368" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -13568,7 +13601,7 @@
         <v>504.71</v>
       </c>
       <c r="L369" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -13600,7 +13633,7 @@
         <v>613.53</v>
       </c>
       <c r="L370" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -13632,7 +13665,7 @@
         <v>430.51</v>
       </c>
       <c r="L371" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -13664,7 +13697,7 @@
         <v>498.89</v>
       </c>
       <c r="L372" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -13696,7 +13729,7 @@
         <v>678.6</v>
       </c>
       <c r="L373" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -13728,7 +13761,7 @@
         <v>697.76</v>
       </c>
       <c r="L374" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -13760,7 +13793,7 @@
         <v>859.3</v>
       </c>
       <c r="L375" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -13792,7 +13825,7 @@
         <v>410.66</v>
       </c>
       <c r="L376" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -13824,7 +13857,7 @@
         <v>678.4400000000001</v>
       </c>
       <c r="L377" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -13856,7 +13889,7 @@
         <v>644.2</v>
       </c>
       <c r="L378" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -13888,7 +13921,7 @@
         <v>537.14</v>
       </c>
       <c r="L379" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -13920,7 +13953,7 @@
         <v>437.82</v>
       </c>
       <c r="L380" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -13952,7 +13985,7 @@
         <v>309.9</v>
       </c>
       <c r="L381" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -13984,7 +14017,7 @@
         <v>242.03</v>
       </c>
       <c r="L382" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -14016,7 +14049,7 @@
         <v>197.87</v>
       </c>
       <c r="L383" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -14048,7 +14081,7 @@
         <v>224.99</v>
       </c>
       <c r="L384" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -14080,7 +14113,7 @@
         <v>218.77</v>
       </c>
       <c r="L385" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -14112,7 +14145,7 @@
         <v>172.38</v>
       </c>
       <c r="L386" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -14144,7 +14177,7 @@
         <v>137.47</v>
       </c>
       <c r="L387" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -14176,7 +14209,7 @@
         <v>108.95</v>
       </c>
       <c r="L388" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -14208,7 +14241,7 @@
         <v>129.92</v>
       </c>
       <c r="L389" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -14240,7 +14273,7 @@
         <v>96.95</v>
       </c>
       <c r="L390" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -14272,7 +14305,7 @@
         <v>42.04</v>
       </c>
       <c r="L391" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -14304,7 +14337,7 @@
         <v>14.48</v>
       </c>
       <c r="L392" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -14336,7 +14369,7 @@
         <v>7.16</v>
       </c>
       <c r="L393" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -14368,7 +14401,7 @@
         <v>5.16</v>
       </c>
       <c r="L394" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -14400,7 +14433,7 @@
         <v>2.63</v>
       </c>
       <c r="L395" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -14432,7 +14465,7 @@
         <v>0.49</v>
       </c>
       <c r="L396" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -14464,7 +14497,7 @@
         <v>0</v>
       </c>
       <c r="L397" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -14496,7 +14529,7 @@
         <v>0</v>
       </c>
       <c r="L398" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -14528,7 +14561,7 @@
         <v>0</v>
       </c>
       <c r="L399" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -14560,7 +14593,7 @@
         <v>0</v>
       </c>
       <c r="L400" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -14592,7 +14625,7 @@
         <v>0</v>
       </c>
       <c r="L401" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -14624,7 +14657,7 @@
         <v>0</v>
       </c>
       <c r="L402" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -14656,7 +14689,7 @@
         <v>0</v>
       </c>
       <c r="L403" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -14688,7 +14721,7 @@
         <v>0</v>
       </c>
       <c r="L404" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -14720,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="L405" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -14752,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="L406" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -14784,7 +14817,7 @@
         <v>0</v>
       </c>
       <c r="L407" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -14816,7 +14849,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -14848,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="L409" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -14880,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="L410" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -14912,7 +14945,7 @@
         <v>0</v>
       </c>
       <c r="L411" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -14944,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="L412" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -14976,7 +15009,7 @@
         <v>0</v>
       </c>
       <c r="L413" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -15008,7 +15041,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -15040,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="L415" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -15072,7 +15105,7 @@
         <v>0</v>
       </c>
       <c r="L416" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -15104,7 +15137,7 @@
         <v>0</v>
       </c>
       <c r="L417" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -15136,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -15168,7 +15201,7 @@
         <v>0</v>
       </c>
       <c r="L419" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -15200,7 +15233,7 @@
         <v>0</v>
       </c>
       <c r="L420" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -15232,7 +15265,7 @@
         <v>0</v>
       </c>
       <c r="L421" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -15264,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="L422" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -15296,7 +15329,7 @@
         <v>0</v>
       </c>
       <c r="L423" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -15328,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="L424" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -15360,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="L425" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -15392,7 +15425,7 @@
         <v>0</v>
       </c>
       <c r="L426" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -15424,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="L427" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -15456,7 +15489,7 @@
         <v>0</v>
       </c>
       <c r="L428" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -15488,7 +15521,7 @@
         <v>0</v>
       </c>
       <c r="L429" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -15520,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="L430" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -15552,7 +15585,7 @@
         <v>0</v>
       </c>
       <c r="L431" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -15584,7 +15617,7 @@
         <v>0</v>
       </c>
       <c r="L432" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -15616,7 +15649,7 @@
         <v>0</v>
       </c>
       <c r="L433" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -15648,7 +15681,7 @@
         <v>0</v>
       </c>
       <c r="L434" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -15680,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="L435" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -15712,7 +15745,7 @@
         <v>0</v>
       </c>
       <c r="L436" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -15744,7 +15777,7 @@
         <v>0</v>
       </c>
       <c r="L437" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -15776,7 +15809,7 @@
         <v>0</v>
       </c>
       <c r="L438" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -15808,7 +15841,7 @@
         <v>0</v>
       </c>
       <c r="L439" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -15840,7 +15873,7 @@
         <v>0</v>
       </c>
       <c r="L440" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -15872,7 +15905,7 @@
         <v>0</v>
       </c>
       <c r="L441" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -15904,7 +15937,7 @@
         <v>0</v>
       </c>
       <c r="L442" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -15936,7 +15969,7 @@
         <v>0</v>
       </c>
       <c r="L443" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -15968,7 +16001,7 @@
         <v>0</v>
       </c>
       <c r="L444" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -16000,7 +16033,7 @@
         <v>0</v>
       </c>
       <c r="L445" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -16032,7 +16065,7 @@
         <v>0</v>
       </c>
       <c r="L446" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -16064,7 +16097,7 @@
         <v>0</v>
       </c>
       <c r="L447" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -16096,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="L448" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -16128,7 +16161,7 @@
         <v>0</v>
       </c>
       <c r="L449" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -16160,7 +16193,359 @@
         <v>0</v>
       </c>
       <c r="L450" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
         <v>460</v>
+      </c>
+      <c r="C451">
+        <v>12.95</v>
+      </c>
+      <c r="D451">
+        <v>99.29000000000001</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>21.7</v>
+      </c>
+      <c r="H451">
+        <v>21.58</v>
+      </c>
+      <c r="I451">
+        <v>0.02</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="L451" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>461</v>
+      </c>
+      <c r="C452">
+        <v>12.95</v>
+      </c>
+      <c r="D452">
+        <v>99.29000000000001</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>21.74</v>
+      </c>
+      <c r="H452">
+        <v>21.62</v>
+      </c>
+      <c r="I452">
+        <v>0.01</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="L452" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>462</v>
+      </c>
+      <c r="C453">
+        <v>12.93</v>
+      </c>
+      <c r="D453">
+        <v>99.3</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>21.73</v>
+      </c>
+      <c r="H453">
+        <v>21.61</v>
+      </c>
+      <c r="I453">
+        <v>-0.02</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="L453" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>463</v>
+      </c>
+      <c r="C454">
+        <v>12.94</v>
+      </c>
+      <c r="D454">
+        <v>99.3</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+      <c r="F454">
+        <v>21.58</v>
+      </c>
+      <c r="H454">
+        <v>21.46</v>
+      </c>
+      <c r="I454">
+        <v>0.01</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="L454" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>464</v>
+      </c>
+      <c r="C455">
+        <v>12.94</v>
+      </c>
+      <c r="D455">
+        <v>99.16</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>21.42</v>
+      </c>
+      <c r="H455">
+        <v>21.28</v>
+      </c>
+      <c r="I455">
+        <v>0.01</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="L455" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>465</v>
+      </c>
+      <c r="C456">
+        <v>12.93</v>
+      </c>
+      <c r="D456">
+        <v>99.12</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+      <c r="F456">
+        <v>21.3</v>
+      </c>
+      <c r="H456">
+        <v>21.16</v>
+      </c>
+      <c r="I456">
+        <v>-0.03</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="L456" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>466</v>
+      </c>
+      <c r="C457">
+        <v>12.93</v>
+      </c>
+      <c r="D457">
+        <v>98.92</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>21.17</v>
+      </c>
+      <c r="H457">
+        <v>20.99</v>
+      </c>
+      <c r="I457">
+        <v>-0.01</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="L457" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>467</v>
+      </c>
+      <c r="C458">
+        <v>12.91</v>
+      </c>
+      <c r="D458">
+        <v>99.06999999999999</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>20.97</v>
+      </c>
+      <c r="H458">
+        <v>20.81</v>
+      </c>
+      <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="L458" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>468</v>
+      </c>
+      <c r="C459">
+        <v>12.92</v>
+      </c>
+      <c r="D459">
+        <v>99.3</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>20.87</v>
+      </c>
+      <c r="H459">
+        <v>20.76</v>
+      </c>
+      <c r="I459">
+        <v>0.02</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="L459" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>469</v>
+      </c>
+      <c r="C460">
+        <v>12.92</v>
+      </c>
+      <c r="D460">
+        <v>99.3</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>20.88</v>
+      </c>
+      <c r="H460">
+        <v>20.76</v>
+      </c>
+      <c r="I460">
+        <v>-0.02</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="L460" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>470</v>
+      </c>
+      <c r="C461">
+        <v>12.89</v>
+      </c>
+      <c r="D461">
+        <v>99.3</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>20.79</v>
+      </c>
+      <c r="H461">
+        <v>20.68</v>
+      </c>
+      <c r="I461">
+        <v>0.05</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="L461" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
+++ b/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="482">
   <si>
     <t>Fecha</t>
   </si>
@@ -1427,6 +1427,36 @@
   </si>
   <si>
     <t>11/9/2020 4:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:10:00 AM</t>
   </si>
   <si>
     <t>ANTIGUA GUATEMALA</t>
@@ -1787,7 +1817,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L461"/>
+  <dimension ref="A1:L471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1857,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1889,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1921,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1953,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1985,7 +2015,7 @@
         <v>0.02</v>
       </c>
       <c r="L6" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2017,7 +2047,7 @@
         <v>0.01</v>
       </c>
       <c r="L7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2049,7 +2079,7 @@
         <v>0.01</v>
       </c>
       <c r="L8" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2081,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2113,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2145,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2177,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2209,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2241,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2273,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2305,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2337,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2369,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2401,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2433,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2465,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2497,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2529,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2561,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2593,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2625,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2657,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2689,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2721,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2753,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2785,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2817,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2849,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2881,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2913,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2945,7 +2975,7 @@
         <v>0.03</v>
       </c>
       <c r="L36" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2977,7 +3007,7 @@
         <v>0.08</v>
       </c>
       <c r="L37" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3009,7 +3039,7 @@
         <v>1.26</v>
       </c>
       <c r="L38" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3041,7 +3071,7 @@
         <v>2.34</v>
       </c>
       <c r="L39" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3073,7 +3103,7 @@
         <v>7.06</v>
       </c>
       <c r="L40" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3105,7 +3135,7 @@
         <v>12.62</v>
       </c>
       <c r="L41" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3137,7 +3167,7 @@
         <v>23.01</v>
       </c>
       <c r="L42" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3169,7 +3199,7 @@
         <v>35.96</v>
       </c>
       <c r="L43" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3201,7 +3231,7 @@
         <v>53.17</v>
       </c>
       <c r="L44" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3233,7 +3263,7 @@
         <v>78.26000000000001</v>
       </c>
       <c r="L45" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3265,7 +3295,7 @@
         <v>94.45</v>
       </c>
       <c r="L46" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3297,7 +3327,7 @@
         <v>101.95</v>
       </c>
       <c r="L47" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3329,7 +3359,7 @@
         <v>136.99</v>
       </c>
       <c r="L48" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3361,7 +3391,7 @@
         <v>138.69</v>
       </c>
       <c r="L49" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3393,7 +3423,7 @@
         <v>137.09</v>
       </c>
       <c r="L50" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3425,7 +3455,7 @@
         <v>143.29</v>
       </c>
       <c r="L51" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3457,7 +3487,7 @@
         <v>192.15</v>
       </c>
       <c r="L52" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3489,7 +3519,7 @@
         <v>239.95</v>
       </c>
       <c r="L53" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3521,7 +3551,7 @@
         <v>254.87</v>
       </c>
       <c r="L54" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3553,7 +3583,7 @@
         <v>247.56</v>
       </c>
       <c r="L55" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3585,7 +3615,7 @@
         <v>287.63</v>
       </c>
       <c r="L56" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3617,7 +3647,7 @@
         <v>345.87</v>
       </c>
       <c r="L57" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3649,7 +3679,7 @@
         <v>358.65</v>
       </c>
       <c r="L58" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3681,7 +3711,7 @@
         <v>287.67</v>
       </c>
       <c r="L59" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3713,7 +3743,7 @@
         <v>218.34</v>
       </c>
       <c r="L60" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3745,7 +3775,7 @@
         <v>213.66</v>
       </c>
       <c r="L61" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3777,7 +3807,7 @@
         <v>389.75</v>
       </c>
       <c r="L62" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3809,7 +3839,7 @@
         <v>455.41</v>
       </c>
       <c r="L63" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3841,7 +3871,7 @@
         <v>332.81</v>
       </c>
       <c r="L64" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3873,7 +3903,7 @@
         <v>329.89</v>
       </c>
       <c r="L65" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3905,7 +3935,7 @@
         <v>473.71</v>
       </c>
       <c r="L66" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3937,7 +3967,7 @@
         <v>528.55</v>
       </c>
       <c r="L67" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3969,7 +3999,7 @@
         <v>411.9</v>
       </c>
       <c r="L68" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4001,7 +4031,7 @@
         <v>305.07</v>
       </c>
       <c r="L69" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4033,7 +4063,7 @@
         <v>301.49</v>
       </c>
       <c r="L70" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4065,7 +4095,7 @@
         <v>281</v>
       </c>
       <c r="L71" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4097,7 +4127,7 @@
         <v>194.03</v>
       </c>
       <c r="L72" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4129,7 +4159,7 @@
         <v>240.57</v>
       </c>
       <c r="L73" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4161,7 +4191,7 @@
         <v>349.31</v>
       </c>
       <c r="L74" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4193,7 +4223,7 @@
         <v>321.88</v>
       </c>
       <c r="L75" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4225,7 +4255,7 @@
         <v>342</v>
       </c>
       <c r="L76" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4257,7 +4287,7 @@
         <v>387.55</v>
       </c>
       <c r="L77" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4289,7 +4319,7 @@
         <v>338.76</v>
       </c>
       <c r="L78" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4321,7 +4351,7 @@
         <v>445.44</v>
       </c>
       <c r="L79" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4353,7 +4383,7 @@
         <v>543.7</v>
       </c>
       <c r="L80" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4385,7 +4415,7 @@
         <v>566.16</v>
       </c>
       <c r="L81" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4417,7 +4447,7 @@
         <v>535.8099999999999</v>
       </c>
       <c r="L82" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4449,7 +4479,7 @@
         <v>439.72</v>
       </c>
       <c r="L83" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4481,7 +4511,7 @@
         <v>378.84</v>
       </c>
       <c r="L84" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4513,7 +4543,7 @@
         <v>357.8</v>
       </c>
       <c r="L85" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4545,7 +4575,7 @@
         <v>419.01</v>
       </c>
       <c r="L86" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4577,7 +4607,7 @@
         <v>284.26</v>
       </c>
       <c r="L87" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4609,7 +4639,7 @@
         <v>234.25</v>
       </c>
       <c r="L88" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4641,7 +4671,7 @@
         <v>264.34</v>
       </c>
       <c r="L89" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4673,7 +4703,7 @@
         <v>235.03</v>
       </c>
       <c r="L90" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4705,7 +4735,7 @@
         <v>197.14</v>
       </c>
       <c r="L91" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4737,7 +4767,7 @@
         <v>150.14</v>
       </c>
       <c r="L92" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4769,7 +4799,7 @@
         <v>158.5</v>
       </c>
       <c r="L93" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4801,7 +4831,7 @@
         <v>169.32</v>
       </c>
       <c r="L94" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4833,7 +4863,7 @@
         <v>142.07</v>
       </c>
       <c r="L95" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4865,7 +4895,7 @@
         <v>71.63</v>
       </c>
       <c r="L96" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4897,7 +4927,7 @@
         <v>40.56</v>
       </c>
       <c r="L97" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4929,7 +4959,7 @@
         <v>45.69</v>
       </c>
       <c r="L98" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4961,7 +4991,7 @@
         <v>45.13</v>
       </c>
       <c r="L99" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4993,7 +5023,7 @@
         <v>46.89</v>
       </c>
       <c r="L100" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5025,7 +5055,7 @@
         <v>50.02</v>
       </c>
       <c r="L101" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5057,7 +5087,7 @@
         <v>54.83</v>
       </c>
       <c r="L102" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5089,7 +5119,7 @@
         <v>50.23</v>
       </c>
       <c r="L103" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5121,7 +5151,7 @@
         <v>27.16</v>
       </c>
       <c r="L104" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5153,7 +5183,7 @@
         <v>7.81</v>
       </c>
       <c r="L105" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5185,7 +5215,7 @@
         <v>3.78</v>
       </c>
       <c r="L106" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5217,7 +5247,7 @@
         <v>1.87</v>
       </c>
       <c r="L107" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5249,7 +5279,7 @@
         <v>0.21</v>
       </c>
       <c r="L108" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5281,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5313,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5345,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5377,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5409,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5441,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5473,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5505,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5537,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5569,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5601,7 +5631,7 @@
         <v>0.01</v>
       </c>
       <c r="L119" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5633,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5665,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5697,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5729,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5761,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5793,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5825,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5857,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5889,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5921,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5953,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5985,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6017,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6049,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6081,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6113,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6145,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6177,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6209,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6241,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6273,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6305,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6337,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6369,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6401,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6433,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6465,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6497,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6529,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6561,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6593,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6625,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6657,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6689,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6721,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6753,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6785,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6817,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6849,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6881,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6913,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6945,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6977,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7009,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7041,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7073,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7105,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7137,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7169,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7201,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7233,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7265,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7297,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7329,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7361,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7393,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7425,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7457,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7489,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7521,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7553,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7585,7 +7615,7 @@
         <v>0.17</v>
       </c>
       <c r="L181" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7617,7 +7647,7 @@
         <v>3.23</v>
       </c>
       <c r="L182" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7649,7 +7679,7 @@
         <v>8.68</v>
       </c>
       <c r="L183" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7681,7 +7711,7 @@
         <v>21.57</v>
       </c>
       <c r="L184" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7713,7 +7743,7 @@
         <v>29.14</v>
       </c>
       <c r="L185" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7745,7 +7775,7 @@
         <v>36.4</v>
       </c>
       <c r="L186" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7777,7 +7807,7 @@
         <v>50.4</v>
       </c>
       <c r="L187" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7809,7 +7839,7 @@
         <v>71.63</v>
       </c>
       <c r="L188" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -7841,7 +7871,7 @@
         <v>105.26</v>
       </c>
       <c r="L189" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -7873,7 +7903,7 @@
         <v>150.88</v>
       </c>
       <c r="L190" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7905,7 +7935,7 @@
         <v>180.94</v>
       </c>
       <c r="L191" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -7937,7 +7967,7 @@
         <v>207.09</v>
       </c>
       <c r="L192" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -7969,7 +7999,7 @@
         <v>188.99</v>
       </c>
       <c r="L193" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8001,7 +8031,7 @@
         <v>215.59</v>
       </c>
       <c r="L194" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8033,7 +8063,7 @@
         <v>234.95</v>
       </c>
       <c r="L195" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8065,7 +8095,7 @@
         <v>270.32</v>
       </c>
       <c r="L196" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8097,7 +8127,7 @@
         <v>322.36</v>
       </c>
       <c r="L197" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8129,7 +8159,7 @@
         <v>409.2</v>
       </c>
       <c r="L198" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8161,7 +8191,7 @@
         <v>577.24</v>
       </c>
       <c r="L199" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8193,7 +8223,7 @@
         <v>678.58</v>
       </c>
       <c r="L200" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8225,7 +8255,7 @@
         <v>614.7</v>
       </c>
       <c r="L201" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8257,7 +8287,7 @@
         <v>426.66</v>
       </c>
       <c r="L202" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8289,7 +8319,7 @@
         <v>378.23</v>
       </c>
       <c r="L203" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8321,7 +8351,7 @@
         <v>325.61</v>
       </c>
       <c r="L204" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -8353,7 +8383,7 @@
         <v>263.44</v>
       </c>
       <c r="L205" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -8385,7 +8415,7 @@
         <v>418.7</v>
       </c>
       <c r="L206" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8417,7 +8447,7 @@
         <v>480.07</v>
       </c>
       <c r="L207" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8449,7 +8479,7 @@
         <v>405.86</v>
       </c>
       <c r="L208" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8481,7 +8511,7 @@
         <v>460.04</v>
       </c>
       <c r="L209" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -8513,7 +8543,7 @@
         <v>479.08</v>
       </c>
       <c r="L210" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -8545,7 +8575,7 @@
         <v>406.5</v>
       </c>
       <c r="L211" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -8577,7 +8607,7 @@
         <v>370.42</v>
       </c>
       <c r="L212" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -8609,7 +8639,7 @@
         <v>366.09</v>
       </c>
       <c r="L213" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -8641,7 +8671,7 @@
         <v>380.52</v>
       </c>
       <c r="L214" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -8673,7 +8703,7 @@
         <v>448.3</v>
       </c>
       <c r="L215" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -8705,7 +8735,7 @@
         <v>338.47</v>
       </c>
       <c r="L216" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -8737,7 +8767,7 @@
         <v>296.95</v>
       </c>
       <c r="L217" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -8769,7 +8799,7 @@
         <v>374.49</v>
       </c>
       <c r="L218" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -8801,7 +8831,7 @@
         <v>448.56</v>
       </c>
       <c r="L219" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -8833,7 +8863,7 @@
         <v>456.68</v>
       </c>
       <c r="L220" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -8865,7 +8895,7 @@
         <v>494.33</v>
       </c>
       <c r="L221" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -8897,7 +8927,7 @@
         <v>481.14</v>
       </c>
       <c r="L222" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8929,7 +8959,7 @@
         <v>520.4400000000001</v>
       </c>
       <c r="L223" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -8961,7 +8991,7 @@
         <v>488.57</v>
       </c>
       <c r="L224" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -8993,7 +9023,7 @@
         <v>393.7</v>
       </c>
       <c r="L225" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -9025,7 +9055,7 @@
         <v>639.71</v>
       </c>
       <c r="L226" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -9057,7 +9087,7 @@
         <v>268.2</v>
       </c>
       <c r="L227" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -9089,7 +9119,7 @@
         <v>283.57</v>
       </c>
       <c r="L228" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -9121,7 +9151,7 @@
         <v>333.71</v>
       </c>
       <c r="L229" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -9153,7 +9183,7 @@
         <v>536.62</v>
       </c>
       <c r="L230" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -9185,7 +9215,7 @@
         <v>410.1</v>
       </c>
       <c r="L231" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -9217,7 +9247,7 @@
         <v>478.29</v>
       </c>
       <c r="L232" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -9249,7 +9279,7 @@
         <v>391.68</v>
       </c>
       <c r="L233" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -9281,7 +9311,7 @@
         <v>708.15</v>
       </c>
       <c r="L234" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -9313,7 +9343,7 @@
         <v>305.43</v>
       </c>
       <c r="L235" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -9345,7 +9375,7 @@
         <v>189.91</v>
       </c>
       <c r="L236" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9377,7 +9407,7 @@
         <v>157.18</v>
       </c>
       <c r="L237" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9409,7 +9439,7 @@
         <v>155.98</v>
       </c>
       <c r="L238" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9441,7 +9471,7 @@
         <v>178.96</v>
       </c>
       <c r="L239" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -9473,7 +9503,7 @@
         <v>164.04</v>
       </c>
       <c r="L240" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9505,7 +9535,7 @@
         <v>151.99</v>
       </c>
       <c r="L241" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9537,7 +9567,7 @@
         <v>170.59</v>
       </c>
       <c r="L242" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9569,7 +9599,7 @@
         <v>54.65</v>
       </c>
       <c r="L243" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9601,7 +9631,7 @@
         <v>33.59</v>
       </c>
       <c r="L244" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9633,7 +9663,7 @@
         <v>19.28</v>
       </c>
       <c r="L245" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9665,7 +9695,7 @@
         <v>17.1</v>
       </c>
       <c r="L246" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9697,7 +9727,7 @@
         <v>14.15</v>
       </c>
       <c r="L247" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9729,7 +9759,7 @@
         <v>11.56</v>
       </c>
       <c r="L248" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9761,7 +9791,7 @@
         <v>9.42</v>
       </c>
       <c r="L249" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9793,7 +9823,7 @@
         <v>6.51</v>
       </c>
       <c r="L250" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9825,7 +9855,7 @@
         <v>2.87</v>
       </c>
       <c r="L251" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9857,7 +9887,7 @@
         <v>0.58</v>
       </c>
       <c r="L252" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9889,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="L253" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -9921,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -9953,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -9985,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -10017,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -10049,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -10081,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10113,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10145,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -10177,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -10209,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -10241,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -10273,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -10305,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -10337,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10369,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10401,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10433,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10465,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10497,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10529,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10561,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10593,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10625,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10657,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10689,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10721,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10753,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -10785,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -10817,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -10849,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -10881,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -10913,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -10945,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -10977,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -11009,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -11041,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -11073,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -11105,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -11137,7 +11167,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -11169,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -11201,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -11233,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -11265,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -11297,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -11329,7 +11359,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -11361,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -11393,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -11425,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -11457,7 +11487,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -11489,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -11521,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11553,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11585,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11617,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11649,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11681,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11713,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -11745,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -11777,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -11809,7 +11839,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -11841,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -11873,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -11905,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -11937,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -11969,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -12001,7 +12031,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -12033,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -12065,7 +12095,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -12097,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -12129,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -12161,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -12193,7 +12223,7 @@
         <v>0.01</v>
       </c>
       <c r="L325" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -12225,7 +12255,7 @@
         <v>1.82</v>
       </c>
       <c r="L326" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -12257,7 +12287,7 @@
         <v>7.45</v>
       </c>
       <c r="L327" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -12289,7 +12319,7 @@
         <v>17.23</v>
       </c>
       <c r="L328" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -12321,7 +12351,7 @@
         <v>26.44</v>
       </c>
       <c r="L329" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -12353,7 +12383,7 @@
         <v>34.2</v>
       </c>
       <c r="L330" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -12385,7 +12415,7 @@
         <v>47.53</v>
       </c>
       <c r="L331" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -12417,7 +12447,7 @@
         <v>159.87</v>
       </c>
       <c r="L332" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -12449,7 +12479,7 @@
         <v>198.03</v>
       </c>
       <c r="L333" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -12481,7 +12511,7 @@
         <v>241.62</v>
       </c>
       <c r="L334" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -12513,7 +12543,7 @@
         <v>295.12</v>
       </c>
       <c r="L335" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -12545,7 +12575,7 @@
         <v>346.75</v>
       </c>
       <c r="L336" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -12577,7 +12607,7 @@
         <v>374.77</v>
       </c>
       <c r="L337" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -12609,7 +12639,7 @@
         <v>411.43</v>
       </c>
       <c r="L338" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -12641,7 +12671,7 @@
         <v>477.37</v>
       </c>
       <c r="L339" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -12673,7 +12703,7 @@
         <v>505.81</v>
       </c>
       <c r="L340" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -12705,7 +12735,7 @@
         <v>442.84</v>
       </c>
       <c r="L341" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -12737,7 +12767,7 @@
         <v>538.5</v>
       </c>
       <c r="L342" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -12769,7 +12799,7 @@
         <v>653.71</v>
       </c>
       <c r="L343" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -12801,7 +12831,7 @@
         <v>672.67</v>
       </c>
       <c r="L344" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -12833,7 +12863,7 @@
         <v>702.99</v>
       </c>
       <c r="L345" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -12865,7 +12895,7 @@
         <v>734.72</v>
       </c>
       <c r="L346" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -12897,7 +12927,7 @@
         <v>767.28</v>
       </c>
       <c r="L347" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -12929,7 +12959,7 @@
         <v>786.42</v>
       </c>
       <c r="L348" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -12961,7 +12991,7 @@
         <v>792.86</v>
       </c>
       <c r="L349" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -12993,7 +13023,7 @@
         <v>781.34</v>
       </c>
       <c r="L350" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -13025,7 +13055,7 @@
         <v>647.38</v>
       </c>
       <c r="L351" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -13057,7 +13087,7 @@
         <v>679.51</v>
       </c>
       <c r="L352" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -13089,7 +13119,7 @@
         <v>801</v>
       </c>
       <c r="L353" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -13121,7 +13151,7 @@
         <v>776.49</v>
       </c>
       <c r="L354" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -13153,7 +13183,7 @@
         <v>905.01</v>
       </c>
       <c r="L355" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -13185,7 +13215,7 @@
         <v>898.89</v>
       </c>
       <c r="L356" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -13217,7 +13247,7 @@
         <v>912.13</v>
       </c>
       <c r="L357" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -13249,7 +13279,7 @@
         <v>925.41</v>
       </c>
       <c r="L358" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -13281,7 +13311,7 @@
         <v>885.05</v>
       </c>
       <c r="L359" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -13313,7 +13343,7 @@
         <v>929.0599999999999</v>
       </c>
       <c r="L360" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -13345,7 +13375,7 @@
         <v>959.54</v>
       </c>
       <c r="L361" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -13377,7 +13407,7 @@
         <v>993.86</v>
       </c>
       <c r="L362" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -13409,7 +13439,7 @@
         <v>928.62</v>
       </c>
       <c r="L363" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -13441,7 +13471,7 @@
         <v>812.08</v>
       </c>
       <c r="L364" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -13473,7 +13503,7 @@
         <v>809.34</v>
       </c>
       <c r="L365" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -13505,7 +13535,7 @@
         <v>811.74</v>
       </c>
       <c r="L366" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -13537,7 +13567,7 @@
         <v>982.35</v>
       </c>
       <c r="L367" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -13569,7 +13599,7 @@
         <v>665.42</v>
       </c>
       <c r="L368" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -13601,7 +13631,7 @@
         <v>504.71</v>
       </c>
       <c r="L369" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -13633,7 +13663,7 @@
         <v>613.53</v>
       </c>
       <c r="L370" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -13665,7 +13695,7 @@
         <v>430.51</v>
       </c>
       <c r="L371" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -13697,7 +13727,7 @@
         <v>498.89</v>
       </c>
       <c r="L372" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -13729,7 +13759,7 @@
         <v>678.6</v>
       </c>
       <c r="L373" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -13761,7 +13791,7 @@
         <v>697.76</v>
       </c>
       <c r="L374" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -13793,7 +13823,7 @@
         <v>859.3</v>
       </c>
       <c r="L375" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -13825,7 +13855,7 @@
         <v>410.66</v>
       </c>
       <c r="L376" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -13857,7 +13887,7 @@
         <v>678.4400000000001</v>
       </c>
       <c r="L377" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -13889,7 +13919,7 @@
         <v>644.2</v>
       </c>
       <c r="L378" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -13921,7 +13951,7 @@
         <v>537.14</v>
       </c>
       <c r="L379" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -13953,7 +13983,7 @@
         <v>437.82</v>
       </c>
       <c r="L380" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -13985,7 +14015,7 @@
         <v>309.9</v>
       </c>
       <c r="L381" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -14017,7 +14047,7 @@
         <v>242.03</v>
       </c>
       <c r="L382" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -14049,7 +14079,7 @@
         <v>197.87</v>
       </c>
       <c r="L383" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -14081,7 +14111,7 @@
         <v>224.99</v>
       </c>
       <c r="L384" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -14113,7 +14143,7 @@
         <v>218.77</v>
       </c>
       <c r="L385" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -14145,7 +14175,7 @@
         <v>172.38</v>
       </c>
       <c r="L386" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -14177,7 +14207,7 @@
         <v>137.47</v>
       </c>
       <c r="L387" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -14209,7 +14239,7 @@
         <v>108.95</v>
       </c>
       <c r="L388" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -14241,7 +14271,7 @@
         <v>129.92</v>
       </c>
       <c r="L389" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -14273,7 +14303,7 @@
         <v>96.95</v>
       </c>
       <c r="L390" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -14305,7 +14335,7 @@
         <v>42.04</v>
       </c>
       <c r="L391" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -14337,7 +14367,7 @@
         <v>14.48</v>
       </c>
       <c r="L392" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -14369,7 +14399,7 @@
         <v>7.16</v>
       </c>
       <c r="L393" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -14401,7 +14431,7 @@
         <v>5.16</v>
       </c>
       <c r="L394" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -14433,7 +14463,7 @@
         <v>2.63</v>
       </c>
       <c r="L395" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -14465,7 +14495,7 @@
         <v>0.49</v>
       </c>
       <c r="L396" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -14497,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="L397" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -14529,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="L398" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -14561,7 +14591,7 @@
         <v>0</v>
       </c>
       <c r="L399" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -14593,7 +14623,7 @@
         <v>0</v>
       </c>
       <c r="L400" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -14625,7 +14655,7 @@
         <v>0</v>
       </c>
       <c r="L401" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -14657,7 +14687,7 @@
         <v>0</v>
       </c>
       <c r="L402" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -14689,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="L403" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -14721,7 +14751,7 @@
         <v>0</v>
       </c>
       <c r="L404" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -14753,7 +14783,7 @@
         <v>0</v>
       </c>
       <c r="L405" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -14785,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="L406" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -14817,7 +14847,7 @@
         <v>0</v>
       </c>
       <c r="L407" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -14849,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -14881,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="L409" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -14913,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="L410" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -14945,7 +14975,7 @@
         <v>0</v>
       </c>
       <c r="L411" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -14977,7 +15007,7 @@
         <v>0</v>
       </c>
       <c r="L412" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -15009,7 +15039,7 @@
         <v>0</v>
       </c>
       <c r="L413" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -15041,7 +15071,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -15073,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="L415" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -15105,7 +15135,7 @@
         <v>0</v>
       </c>
       <c r="L416" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -15137,7 +15167,7 @@
         <v>0</v>
       </c>
       <c r="L417" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -15169,7 +15199,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -15201,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="L419" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -15233,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="L420" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -15265,7 +15295,7 @@
         <v>0</v>
       </c>
       <c r="L421" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -15297,7 +15327,7 @@
         <v>0</v>
       </c>
       <c r="L422" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -15329,7 +15359,7 @@
         <v>0</v>
       </c>
       <c r="L423" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -15361,7 +15391,7 @@
         <v>0</v>
       </c>
       <c r="L424" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -15393,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="L425" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -15425,7 +15455,7 @@
         <v>0</v>
       </c>
       <c r="L426" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -15457,7 +15487,7 @@
         <v>0</v>
       </c>
       <c r="L427" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -15489,7 +15519,7 @@
         <v>0</v>
       </c>
       <c r="L428" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -15521,7 +15551,7 @@
         <v>0</v>
       </c>
       <c r="L429" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -15553,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="L430" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -15585,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="L431" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -15617,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="L432" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -15649,7 +15679,7 @@
         <v>0</v>
       </c>
       <c r="L433" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -15681,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="L434" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -15713,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="L435" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -15745,7 +15775,7 @@
         <v>0</v>
       </c>
       <c r="L436" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -15777,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="L437" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -15809,7 +15839,7 @@
         <v>0</v>
       </c>
       <c r="L438" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -15841,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="L439" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -15873,7 +15903,7 @@
         <v>0</v>
       </c>
       <c r="L440" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -15905,7 +15935,7 @@
         <v>0</v>
       </c>
       <c r="L441" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -15937,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="L442" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -15969,7 +15999,7 @@
         <v>0</v>
       </c>
       <c r="L443" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -16001,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="L444" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -16033,7 +16063,7 @@
         <v>0</v>
       </c>
       <c r="L445" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -16065,7 +16095,7 @@
         <v>0</v>
       </c>
       <c r="L446" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -16097,7 +16127,7 @@
         <v>0</v>
       </c>
       <c r="L447" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -16129,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="L448" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -16161,7 +16191,7 @@
         <v>0</v>
       </c>
       <c r="L449" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -16193,7 +16223,7 @@
         <v>0</v>
       </c>
       <c r="L450" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -16225,7 +16255,7 @@
         <v>0</v>
       </c>
       <c r="L451" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -16257,7 +16287,7 @@
         <v>0</v>
       </c>
       <c r="L452" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -16289,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="L453" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -16321,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="L454" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -16353,7 +16383,7 @@
         <v>0</v>
       </c>
       <c r="L455" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -16385,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="L456" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -16417,7 +16447,7 @@
         <v>0</v>
       </c>
       <c r="L457" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -16449,7 +16479,7 @@
         <v>0</v>
       </c>
       <c r="L458" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -16481,7 +16511,7 @@
         <v>0</v>
       </c>
       <c r="L459" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -16513,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="L460" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -16545,7 +16575,324 @@
         <v>0</v>
       </c>
       <c r="L461" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
         <v>471</v>
+      </c>
+      <c r="C462">
+        <v>12.9</v>
+      </c>
+      <c r="D462">
+        <v>99.3</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>20.69</v>
+      </c>
+      <c r="H462">
+        <v>20.58</v>
+      </c>
+      <c r="I462">
+        <v>0.27</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="L462" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>472</v>
+      </c>
+      <c r="C463">
+        <v>12.9</v>
+      </c>
+      <c r="D463">
+        <v>99.31</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>20.81</v>
+      </c>
+      <c r="H463">
+        <v>20.7</v>
+      </c>
+      <c r="I463">
+        <v>0.01</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="L463" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>473</v>
+      </c>
+      <c r="C464">
+        <v>12.9</v>
+      </c>
+      <c r="D464">
+        <v>99.31</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+      <c r="F464">
+        <v>20.91</v>
+      </c>
+      <c r="H464">
+        <v>20.79</v>
+      </c>
+      <c r="I464">
+        <v>-0.08</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="L464" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>474</v>
+      </c>
+      <c r="C465">
+        <v>12.87</v>
+      </c>
+      <c r="D465">
+        <v>99.31</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+      <c r="F465">
+        <v>20.98</v>
+      </c>
+      <c r="H465">
+        <v>20.87</v>
+      </c>
+      <c r="I465">
+        <v>-0.04</v>
+      </c>
+      <c r="J465">
+        <v>0</v>
+      </c>
+      <c r="L465" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>475</v>
+      </c>
+      <c r="C466">
+        <v>12.88</v>
+      </c>
+      <c r="D466">
+        <v>99.31</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>21.05</v>
+      </c>
+      <c r="H466">
+        <v>20.94</v>
+      </c>
+      <c r="I466">
+        <v>-0.02</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="L466" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>476</v>
+      </c>
+      <c r="C467">
+        <v>12.89</v>
+      </c>
+      <c r="D467">
+        <v>99.31</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>21.08</v>
+      </c>
+      <c r="H467">
+        <v>20.96</v>
+      </c>
+      <c r="I467">
+        <v>-0.03</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="L467" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>477</v>
+      </c>
+      <c r="C468">
+        <v>12.88</v>
+      </c>
+      <c r="D468">
+        <v>99.31</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>21.14</v>
+      </c>
+      <c r="H468">
+        <v>21.02</v>
+      </c>
+      <c r="I468">
+        <v>0.02</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="L468" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>478</v>
+      </c>
+      <c r="C469">
+        <v>12.88</v>
+      </c>
+      <c r="D469">
+        <v>99.31</v>
+      </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>21.19</v>
+      </c>
+      <c r="H469">
+        <v>21.07</v>
+      </c>
+      <c r="I469">
+        <v>-0.12</v>
+      </c>
+      <c r="J469">
+        <v>0.01</v>
+      </c>
+      <c r="L469" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>479</v>
+      </c>
+      <c r="C470">
+        <v>12.88</v>
+      </c>
+      <c r="D470">
+        <v>99.3</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>21.21</v>
+      </c>
+      <c r="H470">
+        <v>21.09</v>
+      </c>
+      <c r="I470">
+        <v>0.01</v>
+      </c>
+      <c r="J470">
+        <v>0.36</v>
+      </c>
+      <c r="L470" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>480</v>
+      </c>
+      <c r="D471">
+        <v>99.3</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>21.23</v>
+      </c>
+      <c r="H471">
+        <v>21.11</v>
+      </c>
+      <c r="I471">
+        <v>0.02</v>
+      </c>
+      <c r="J471">
+        <v>1.48</v>
+      </c>
+      <c r="L471" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
+++ b/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="491">
   <si>
     <t>Fecha</t>
   </si>
@@ -1457,6 +1457,33 @@
   </si>
   <si>
     <t>11/9/2020 6:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:40:00 AM</t>
   </si>
   <si>
     <t>ANTIGUA GUATEMALA</t>
@@ -1817,7 +1844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L471"/>
+  <dimension ref="A1:L480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1887,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1919,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1951,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1983,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2015,7 +2042,7 @@
         <v>0.02</v>
       </c>
       <c r="L6" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2047,7 +2074,7 @@
         <v>0.01</v>
       </c>
       <c r="L7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2079,7 +2106,7 @@
         <v>0.01</v>
       </c>
       <c r="L8" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2111,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2143,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2175,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2207,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2239,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2271,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2303,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2335,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2367,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2399,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2431,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2463,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2495,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2527,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2559,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2591,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2623,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2655,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2687,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2719,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2751,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2783,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2815,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2847,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2879,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2911,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2943,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2975,7 +3002,7 @@
         <v>0.03</v>
       </c>
       <c r="L36" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3007,7 +3034,7 @@
         <v>0.08</v>
       </c>
       <c r="L37" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3039,7 +3066,7 @@
         <v>1.26</v>
       </c>
       <c r="L38" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3071,7 +3098,7 @@
         <v>2.34</v>
       </c>
       <c r="L39" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3103,7 +3130,7 @@
         <v>7.06</v>
       </c>
       <c r="L40" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3135,7 +3162,7 @@
         <v>12.62</v>
       </c>
       <c r="L41" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3167,7 +3194,7 @@
         <v>23.01</v>
       </c>
       <c r="L42" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3199,7 +3226,7 @@
         <v>35.96</v>
       </c>
       <c r="L43" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3231,7 +3258,7 @@
         <v>53.17</v>
       </c>
       <c r="L44" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3263,7 +3290,7 @@
         <v>78.26000000000001</v>
       </c>
       <c r="L45" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3295,7 +3322,7 @@
         <v>94.45</v>
       </c>
       <c r="L46" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3327,7 +3354,7 @@
         <v>101.95</v>
       </c>
       <c r="L47" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3359,7 +3386,7 @@
         <v>136.99</v>
       </c>
       <c r="L48" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3391,7 +3418,7 @@
         <v>138.69</v>
       </c>
       <c r="L49" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3423,7 +3450,7 @@
         <v>137.09</v>
       </c>
       <c r="L50" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3455,7 +3482,7 @@
         <v>143.29</v>
       </c>
       <c r="L51" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3487,7 +3514,7 @@
         <v>192.15</v>
       </c>
       <c r="L52" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3519,7 +3546,7 @@
         <v>239.95</v>
       </c>
       <c r="L53" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3551,7 +3578,7 @@
         <v>254.87</v>
       </c>
       <c r="L54" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3583,7 +3610,7 @@
         <v>247.56</v>
       </c>
       <c r="L55" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3615,7 +3642,7 @@
         <v>287.63</v>
       </c>
       <c r="L56" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3647,7 +3674,7 @@
         <v>345.87</v>
       </c>
       <c r="L57" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3679,7 +3706,7 @@
         <v>358.65</v>
       </c>
       <c r="L58" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3711,7 +3738,7 @@
         <v>287.67</v>
       </c>
       <c r="L59" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3743,7 +3770,7 @@
         <v>218.34</v>
       </c>
       <c r="L60" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3775,7 +3802,7 @@
         <v>213.66</v>
       </c>
       <c r="L61" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3807,7 +3834,7 @@
         <v>389.75</v>
       </c>
       <c r="L62" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3839,7 +3866,7 @@
         <v>455.41</v>
       </c>
       <c r="L63" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3871,7 +3898,7 @@
         <v>332.81</v>
       </c>
       <c r="L64" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3903,7 +3930,7 @@
         <v>329.89</v>
       </c>
       <c r="L65" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3935,7 +3962,7 @@
         <v>473.71</v>
       </c>
       <c r="L66" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3967,7 +3994,7 @@
         <v>528.55</v>
       </c>
       <c r="L67" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3999,7 +4026,7 @@
         <v>411.9</v>
       </c>
       <c r="L68" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4031,7 +4058,7 @@
         <v>305.07</v>
       </c>
       <c r="L69" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4063,7 +4090,7 @@
         <v>301.49</v>
       </c>
       <c r="L70" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4095,7 +4122,7 @@
         <v>281</v>
       </c>
       <c r="L71" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4127,7 +4154,7 @@
         <v>194.03</v>
       </c>
       <c r="L72" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4159,7 +4186,7 @@
         <v>240.57</v>
       </c>
       <c r="L73" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4191,7 +4218,7 @@
         <v>349.31</v>
       </c>
       <c r="L74" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4223,7 +4250,7 @@
         <v>321.88</v>
       </c>
       <c r="L75" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4255,7 +4282,7 @@
         <v>342</v>
       </c>
       <c r="L76" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4287,7 +4314,7 @@
         <v>387.55</v>
       </c>
       <c r="L77" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4319,7 +4346,7 @@
         <v>338.76</v>
       </c>
       <c r="L78" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4351,7 +4378,7 @@
         <v>445.44</v>
       </c>
       <c r="L79" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4383,7 +4410,7 @@
         <v>543.7</v>
       </c>
       <c r="L80" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4415,7 +4442,7 @@
         <v>566.16</v>
       </c>
       <c r="L81" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4447,7 +4474,7 @@
         <v>535.8099999999999</v>
       </c>
       <c r="L82" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4479,7 +4506,7 @@
         <v>439.72</v>
       </c>
       <c r="L83" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4511,7 +4538,7 @@
         <v>378.84</v>
       </c>
       <c r="L84" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4543,7 +4570,7 @@
         <v>357.8</v>
       </c>
       <c r="L85" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4575,7 +4602,7 @@
         <v>419.01</v>
       </c>
       <c r="L86" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4607,7 +4634,7 @@
         <v>284.26</v>
       </c>
       <c r="L87" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4639,7 +4666,7 @@
         <v>234.25</v>
       </c>
       <c r="L88" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4671,7 +4698,7 @@
         <v>264.34</v>
       </c>
       <c r="L89" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4703,7 +4730,7 @@
         <v>235.03</v>
       </c>
       <c r="L90" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4735,7 +4762,7 @@
         <v>197.14</v>
       </c>
       <c r="L91" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4767,7 +4794,7 @@
         <v>150.14</v>
       </c>
       <c r="L92" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4799,7 +4826,7 @@
         <v>158.5</v>
       </c>
       <c r="L93" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4831,7 +4858,7 @@
         <v>169.32</v>
       </c>
       <c r="L94" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4863,7 +4890,7 @@
         <v>142.07</v>
       </c>
       <c r="L95" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4895,7 +4922,7 @@
         <v>71.63</v>
       </c>
       <c r="L96" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4927,7 +4954,7 @@
         <v>40.56</v>
       </c>
       <c r="L97" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4959,7 +4986,7 @@
         <v>45.69</v>
       </c>
       <c r="L98" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4991,7 +5018,7 @@
         <v>45.13</v>
       </c>
       <c r="L99" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5023,7 +5050,7 @@
         <v>46.89</v>
       </c>
       <c r="L100" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5055,7 +5082,7 @@
         <v>50.02</v>
       </c>
       <c r="L101" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5087,7 +5114,7 @@
         <v>54.83</v>
       </c>
       <c r="L102" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5119,7 +5146,7 @@
         <v>50.23</v>
       </c>
       <c r="L103" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5151,7 +5178,7 @@
         <v>27.16</v>
       </c>
       <c r="L104" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5183,7 +5210,7 @@
         <v>7.81</v>
       </c>
       <c r="L105" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5215,7 +5242,7 @@
         <v>3.78</v>
       </c>
       <c r="L106" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5247,7 +5274,7 @@
         <v>1.87</v>
       </c>
       <c r="L107" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5279,7 +5306,7 @@
         <v>0.21</v>
       </c>
       <c r="L108" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5311,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5343,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5375,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5407,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5439,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5471,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5503,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5535,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5567,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5599,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5631,7 +5658,7 @@
         <v>0.01</v>
       </c>
       <c r="L119" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5663,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5695,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5727,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5759,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5791,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5823,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5855,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5887,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5919,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5951,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5983,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6015,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6047,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6079,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6111,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6143,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6175,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6207,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6239,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6271,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6303,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6335,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6367,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6399,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6431,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6463,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6495,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6527,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6559,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6591,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6623,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6655,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6687,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6719,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6751,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6783,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6815,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6847,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6879,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6911,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6943,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6975,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7007,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7039,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7071,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7103,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7135,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7167,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7199,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7231,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7263,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7295,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7327,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7359,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7391,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7423,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7455,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7487,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7519,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7551,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7583,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7615,7 +7642,7 @@
         <v>0.17</v>
       </c>
       <c r="L181" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7647,7 +7674,7 @@
         <v>3.23</v>
       </c>
       <c r="L182" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7679,7 +7706,7 @@
         <v>8.68</v>
       </c>
       <c r="L183" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7711,7 +7738,7 @@
         <v>21.57</v>
       </c>
       <c r="L184" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7743,7 +7770,7 @@
         <v>29.14</v>
       </c>
       <c r="L185" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7775,7 +7802,7 @@
         <v>36.4</v>
       </c>
       <c r="L186" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7807,7 +7834,7 @@
         <v>50.4</v>
       </c>
       <c r="L187" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7839,7 +7866,7 @@
         <v>71.63</v>
       </c>
       <c r="L188" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -7871,7 +7898,7 @@
         <v>105.26</v>
       </c>
       <c r="L189" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -7903,7 +7930,7 @@
         <v>150.88</v>
       </c>
       <c r="L190" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7935,7 +7962,7 @@
         <v>180.94</v>
       </c>
       <c r="L191" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -7967,7 +7994,7 @@
         <v>207.09</v>
       </c>
       <c r="L192" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -7999,7 +8026,7 @@
         <v>188.99</v>
       </c>
       <c r="L193" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8031,7 +8058,7 @@
         <v>215.59</v>
       </c>
       <c r="L194" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8063,7 +8090,7 @@
         <v>234.95</v>
       </c>
       <c r="L195" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8095,7 +8122,7 @@
         <v>270.32</v>
       </c>
       <c r="L196" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8127,7 +8154,7 @@
         <v>322.36</v>
       </c>
       <c r="L197" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8159,7 +8186,7 @@
         <v>409.2</v>
       </c>
       <c r="L198" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8191,7 +8218,7 @@
         <v>577.24</v>
       </c>
       <c r="L199" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8223,7 +8250,7 @@
         <v>678.58</v>
       </c>
       <c r="L200" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8255,7 +8282,7 @@
         <v>614.7</v>
       </c>
       <c r="L201" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8287,7 +8314,7 @@
         <v>426.66</v>
       </c>
       <c r="L202" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8319,7 +8346,7 @@
         <v>378.23</v>
       </c>
       <c r="L203" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8351,7 +8378,7 @@
         <v>325.61</v>
       </c>
       <c r="L204" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -8383,7 +8410,7 @@
         <v>263.44</v>
       </c>
       <c r="L205" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -8415,7 +8442,7 @@
         <v>418.7</v>
       </c>
       <c r="L206" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8447,7 +8474,7 @@
         <v>480.07</v>
       </c>
       <c r="L207" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8479,7 +8506,7 @@
         <v>405.86</v>
       </c>
       <c r="L208" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8511,7 +8538,7 @@
         <v>460.04</v>
       </c>
       <c r="L209" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -8543,7 +8570,7 @@
         <v>479.08</v>
       </c>
       <c r="L210" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -8575,7 +8602,7 @@
         <v>406.5</v>
       </c>
       <c r="L211" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -8607,7 +8634,7 @@
         <v>370.42</v>
       </c>
       <c r="L212" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -8639,7 +8666,7 @@
         <v>366.09</v>
       </c>
       <c r="L213" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -8671,7 +8698,7 @@
         <v>380.52</v>
       </c>
       <c r="L214" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -8703,7 +8730,7 @@
         <v>448.3</v>
       </c>
       <c r="L215" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -8735,7 +8762,7 @@
         <v>338.47</v>
       </c>
       <c r="L216" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -8767,7 +8794,7 @@
         <v>296.95</v>
       </c>
       <c r="L217" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -8799,7 +8826,7 @@
         <v>374.49</v>
       </c>
       <c r="L218" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -8831,7 +8858,7 @@
         <v>448.56</v>
       </c>
       <c r="L219" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -8863,7 +8890,7 @@
         <v>456.68</v>
       </c>
       <c r="L220" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -8895,7 +8922,7 @@
         <v>494.33</v>
       </c>
       <c r="L221" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -8927,7 +8954,7 @@
         <v>481.14</v>
       </c>
       <c r="L222" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8959,7 +8986,7 @@
         <v>520.4400000000001</v>
       </c>
       <c r="L223" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -8991,7 +9018,7 @@
         <v>488.57</v>
       </c>
       <c r="L224" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -9023,7 +9050,7 @@
         <v>393.7</v>
       </c>
       <c r="L225" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -9055,7 +9082,7 @@
         <v>639.71</v>
       </c>
       <c r="L226" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -9087,7 +9114,7 @@
         <v>268.2</v>
       </c>
       <c r="L227" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -9119,7 +9146,7 @@
         <v>283.57</v>
       </c>
       <c r="L228" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -9151,7 +9178,7 @@
         <v>333.71</v>
       </c>
       <c r="L229" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -9183,7 +9210,7 @@
         <v>536.62</v>
       </c>
       <c r="L230" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -9215,7 +9242,7 @@
         <v>410.1</v>
       </c>
       <c r="L231" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -9247,7 +9274,7 @@
         <v>478.29</v>
       </c>
       <c r="L232" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -9279,7 +9306,7 @@
         <v>391.68</v>
       </c>
       <c r="L233" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -9311,7 +9338,7 @@
         <v>708.15</v>
       </c>
       <c r="L234" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -9343,7 +9370,7 @@
         <v>305.43</v>
       </c>
       <c r="L235" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -9375,7 +9402,7 @@
         <v>189.91</v>
       </c>
       <c r="L236" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9407,7 +9434,7 @@
         <v>157.18</v>
       </c>
       <c r="L237" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9439,7 +9466,7 @@
         <v>155.98</v>
       </c>
       <c r="L238" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9471,7 +9498,7 @@
         <v>178.96</v>
       </c>
       <c r="L239" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -9503,7 +9530,7 @@
         <v>164.04</v>
       </c>
       <c r="L240" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9535,7 +9562,7 @@
         <v>151.99</v>
       </c>
       <c r="L241" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9567,7 +9594,7 @@
         <v>170.59</v>
       </c>
       <c r="L242" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9599,7 +9626,7 @@
         <v>54.65</v>
       </c>
       <c r="L243" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9631,7 +9658,7 @@
         <v>33.59</v>
       </c>
       <c r="L244" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9663,7 +9690,7 @@
         <v>19.28</v>
       </c>
       <c r="L245" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9695,7 +9722,7 @@
         <v>17.1</v>
       </c>
       <c r="L246" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9727,7 +9754,7 @@
         <v>14.15</v>
       </c>
       <c r="L247" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9759,7 +9786,7 @@
         <v>11.56</v>
       </c>
       <c r="L248" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9791,7 +9818,7 @@
         <v>9.42</v>
       </c>
       <c r="L249" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9823,7 +9850,7 @@
         <v>6.51</v>
       </c>
       <c r="L250" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9855,7 +9882,7 @@
         <v>2.87</v>
       </c>
       <c r="L251" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9887,7 +9914,7 @@
         <v>0.58</v>
       </c>
       <c r="L252" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9919,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="L253" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -9951,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -9983,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -10015,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -10047,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -10079,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -10111,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10143,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10175,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -10207,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -10239,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -10271,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -10303,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -10335,7 +10362,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -10367,7 +10394,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10399,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10431,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10463,7 +10490,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10495,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10527,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10559,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10591,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10623,7 +10650,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10655,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10687,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10719,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10751,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10783,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -10815,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -10847,7 +10874,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -10879,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -10911,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -10943,7 +10970,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -10975,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -11007,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -11039,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -11071,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -11103,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -11135,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -11167,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -11199,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -11231,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -11263,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -11295,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -11327,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -11359,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -11391,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -11423,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -11455,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -11487,7 +11514,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -11519,7 +11546,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -11551,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11583,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11615,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11647,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11679,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11711,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11743,7 +11770,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -11775,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -11807,7 +11834,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -11839,7 +11866,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -11871,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -11903,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -11935,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -11967,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -11999,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -12031,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -12063,7 +12090,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -12095,7 +12122,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -12127,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -12159,7 +12186,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -12191,7 +12218,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -12223,7 +12250,7 @@
         <v>0.01</v>
       </c>
       <c r="L325" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -12255,7 +12282,7 @@
         <v>1.82</v>
       </c>
       <c r="L326" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -12287,7 +12314,7 @@
         <v>7.45</v>
       </c>
       <c r="L327" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -12319,7 +12346,7 @@
         <v>17.23</v>
       </c>
       <c r="L328" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -12351,7 +12378,7 @@
         <v>26.44</v>
       </c>
       <c r="L329" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -12383,7 +12410,7 @@
         <v>34.2</v>
       </c>
       <c r="L330" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -12415,7 +12442,7 @@
         <v>47.53</v>
       </c>
       <c r="L331" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -12447,7 +12474,7 @@
         <v>159.87</v>
       </c>
       <c r="L332" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -12479,7 +12506,7 @@
         <v>198.03</v>
       </c>
       <c r="L333" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -12511,7 +12538,7 @@
         <v>241.62</v>
       </c>
       <c r="L334" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -12543,7 +12570,7 @@
         <v>295.12</v>
       </c>
       <c r="L335" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -12575,7 +12602,7 @@
         <v>346.75</v>
       </c>
       <c r="L336" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -12607,7 +12634,7 @@
         <v>374.77</v>
       </c>
       <c r="L337" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -12639,7 +12666,7 @@
         <v>411.43</v>
       </c>
       <c r="L338" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -12671,7 +12698,7 @@
         <v>477.37</v>
       </c>
       <c r="L339" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -12703,7 +12730,7 @@
         <v>505.81</v>
       </c>
       <c r="L340" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -12735,7 +12762,7 @@
         <v>442.84</v>
       </c>
       <c r="L341" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -12767,7 +12794,7 @@
         <v>538.5</v>
       </c>
       <c r="L342" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -12799,7 +12826,7 @@
         <v>653.71</v>
       </c>
       <c r="L343" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -12831,7 +12858,7 @@
         <v>672.67</v>
       </c>
       <c r="L344" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -12863,7 +12890,7 @@
         <v>702.99</v>
       </c>
       <c r="L345" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -12895,7 +12922,7 @@
         <v>734.72</v>
       </c>
       <c r="L346" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -12927,7 +12954,7 @@
         <v>767.28</v>
       </c>
       <c r="L347" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -12959,7 +12986,7 @@
         <v>786.42</v>
       </c>
       <c r="L348" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -12991,7 +13018,7 @@
         <v>792.86</v>
       </c>
       <c r="L349" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -13023,7 +13050,7 @@
         <v>781.34</v>
       </c>
       <c r="L350" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -13055,7 +13082,7 @@
         <v>647.38</v>
       </c>
       <c r="L351" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -13087,7 +13114,7 @@
         <v>679.51</v>
       </c>
       <c r="L352" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -13119,7 +13146,7 @@
         <v>801</v>
       </c>
       <c r="L353" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -13151,7 +13178,7 @@
         <v>776.49</v>
       </c>
       <c r="L354" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -13183,7 +13210,7 @@
         <v>905.01</v>
       </c>
       <c r="L355" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -13215,7 +13242,7 @@
         <v>898.89</v>
       </c>
       <c r="L356" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -13247,7 +13274,7 @@
         <v>912.13</v>
       </c>
       <c r="L357" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -13279,7 +13306,7 @@
         <v>925.41</v>
       </c>
       <c r="L358" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -13311,7 +13338,7 @@
         <v>885.05</v>
       </c>
       <c r="L359" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -13343,7 +13370,7 @@
         <v>929.0599999999999</v>
       </c>
       <c r="L360" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -13375,7 +13402,7 @@
         <v>959.54</v>
       </c>
       <c r="L361" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -13407,7 +13434,7 @@
         <v>993.86</v>
       </c>
       <c r="L362" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -13439,7 +13466,7 @@
         <v>928.62</v>
       </c>
       <c r="L363" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -13471,7 +13498,7 @@
         <v>812.08</v>
       </c>
       <c r="L364" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -13503,7 +13530,7 @@
         <v>809.34</v>
       </c>
       <c r="L365" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -13535,7 +13562,7 @@
         <v>811.74</v>
       </c>
       <c r="L366" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -13567,7 +13594,7 @@
         <v>982.35</v>
       </c>
       <c r="L367" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -13599,7 +13626,7 @@
         <v>665.42</v>
       </c>
       <c r="L368" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -13631,7 +13658,7 @@
         <v>504.71</v>
       </c>
       <c r="L369" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -13663,7 +13690,7 @@
         <v>613.53</v>
       </c>
       <c r="L370" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -13695,7 +13722,7 @@
         <v>430.51</v>
       </c>
       <c r="L371" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -13727,7 +13754,7 @@
         <v>498.89</v>
       </c>
       <c r="L372" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -13759,7 +13786,7 @@
         <v>678.6</v>
       </c>
       <c r="L373" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -13791,7 +13818,7 @@
         <v>697.76</v>
       </c>
       <c r="L374" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -13823,7 +13850,7 @@
         <v>859.3</v>
       </c>
       <c r="L375" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -13855,7 +13882,7 @@
         <v>410.66</v>
       </c>
       <c r="L376" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -13887,7 +13914,7 @@
         <v>678.4400000000001</v>
       </c>
       <c r="L377" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -13919,7 +13946,7 @@
         <v>644.2</v>
       </c>
       <c r="L378" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -13951,7 +13978,7 @@
         <v>537.14</v>
       </c>
       <c r="L379" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -13983,7 +14010,7 @@
         <v>437.82</v>
       </c>
       <c r="L380" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -14015,7 +14042,7 @@
         <v>309.9</v>
       </c>
       <c r="L381" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -14047,7 +14074,7 @@
         <v>242.03</v>
       </c>
       <c r="L382" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -14079,7 +14106,7 @@
         <v>197.87</v>
       </c>
       <c r="L383" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -14111,7 +14138,7 @@
         <v>224.99</v>
       </c>
       <c r="L384" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -14143,7 +14170,7 @@
         <v>218.77</v>
       </c>
       <c r="L385" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -14175,7 +14202,7 @@
         <v>172.38</v>
       </c>
       <c r="L386" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -14207,7 +14234,7 @@
         <v>137.47</v>
       </c>
       <c r="L387" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -14239,7 +14266,7 @@
         <v>108.95</v>
       </c>
       <c r="L388" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -14271,7 +14298,7 @@
         <v>129.92</v>
       </c>
       <c r="L389" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -14303,7 +14330,7 @@
         <v>96.95</v>
       </c>
       <c r="L390" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -14335,7 +14362,7 @@
         <v>42.04</v>
       </c>
       <c r="L391" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -14367,7 +14394,7 @@
         <v>14.48</v>
       </c>
       <c r="L392" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -14399,7 +14426,7 @@
         <v>7.16</v>
       </c>
       <c r="L393" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -14431,7 +14458,7 @@
         <v>5.16</v>
       </c>
       <c r="L394" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -14463,7 +14490,7 @@
         <v>2.63</v>
       </c>
       <c r="L395" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -14495,7 +14522,7 @@
         <v>0.49</v>
       </c>
       <c r="L396" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -14527,7 +14554,7 @@
         <v>0</v>
       </c>
       <c r="L397" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -14559,7 +14586,7 @@
         <v>0</v>
       </c>
       <c r="L398" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -14591,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="L399" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -14623,7 +14650,7 @@
         <v>0</v>
       </c>
       <c r="L400" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -14655,7 +14682,7 @@
         <v>0</v>
       </c>
       <c r="L401" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -14687,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="L402" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -14719,7 +14746,7 @@
         <v>0</v>
       </c>
       <c r="L403" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -14751,7 +14778,7 @@
         <v>0</v>
       </c>
       <c r="L404" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -14783,7 +14810,7 @@
         <v>0</v>
       </c>
       <c r="L405" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -14815,7 +14842,7 @@
         <v>0</v>
       </c>
       <c r="L406" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -14847,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="L407" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -14879,7 +14906,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -14911,7 +14938,7 @@
         <v>0</v>
       </c>
       <c r="L409" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -14943,7 +14970,7 @@
         <v>0</v>
       </c>
       <c r="L410" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -14975,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="L411" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -15007,7 +15034,7 @@
         <v>0</v>
       </c>
       <c r="L412" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -15039,7 +15066,7 @@
         <v>0</v>
       </c>
       <c r="L413" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -15071,7 +15098,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -15103,7 +15130,7 @@
         <v>0</v>
       </c>
       <c r="L415" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -15135,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="L416" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -15167,7 +15194,7 @@
         <v>0</v>
       </c>
       <c r="L417" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -15199,7 +15226,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -15231,7 +15258,7 @@
         <v>0</v>
       </c>
       <c r="L419" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -15263,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="L420" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -15295,7 +15322,7 @@
         <v>0</v>
       </c>
       <c r="L421" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -15327,7 +15354,7 @@
         <v>0</v>
       </c>
       <c r="L422" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -15359,7 +15386,7 @@
         <v>0</v>
       </c>
       <c r="L423" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -15391,7 +15418,7 @@
         <v>0</v>
       </c>
       <c r="L424" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -15423,7 +15450,7 @@
         <v>0</v>
       </c>
       <c r="L425" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -15455,7 +15482,7 @@
         <v>0</v>
       </c>
       <c r="L426" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -15487,7 +15514,7 @@
         <v>0</v>
       </c>
       <c r="L427" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -15519,7 +15546,7 @@
         <v>0</v>
       </c>
       <c r="L428" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -15551,7 +15578,7 @@
         <v>0</v>
       </c>
       <c r="L429" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -15583,7 +15610,7 @@
         <v>0</v>
       </c>
       <c r="L430" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -15615,7 +15642,7 @@
         <v>0</v>
       </c>
       <c r="L431" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -15647,7 +15674,7 @@
         <v>0</v>
       </c>
       <c r="L432" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -15679,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="L433" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -15711,7 +15738,7 @@
         <v>0</v>
       </c>
       <c r="L434" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -15743,7 +15770,7 @@
         <v>0</v>
       </c>
       <c r="L435" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -15775,7 +15802,7 @@
         <v>0</v>
       </c>
       <c r="L436" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -15807,7 +15834,7 @@
         <v>0</v>
       </c>
       <c r="L437" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -15839,7 +15866,7 @@
         <v>0</v>
       </c>
       <c r="L438" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -15871,7 +15898,7 @@
         <v>0</v>
       </c>
       <c r="L439" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -15903,7 +15930,7 @@
         <v>0</v>
       </c>
       <c r="L440" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -15935,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="L441" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -15967,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="L442" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -15999,7 +16026,7 @@
         <v>0</v>
       </c>
       <c r="L443" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -16031,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="L444" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -16063,7 +16090,7 @@
         <v>0</v>
       </c>
       <c r="L445" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -16095,7 +16122,7 @@
         <v>0</v>
       </c>
       <c r="L446" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -16127,7 +16154,7 @@
         <v>0</v>
       </c>
       <c r="L447" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -16159,7 +16186,7 @@
         <v>0</v>
       </c>
       <c r="L448" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -16191,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="L449" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -16223,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="L450" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -16255,7 +16282,7 @@
         <v>0</v>
       </c>
       <c r="L451" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -16287,7 +16314,7 @@
         <v>0</v>
       </c>
       <c r="L452" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -16319,7 +16346,7 @@
         <v>0</v>
       </c>
       <c r="L453" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -16351,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="L454" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -16383,7 +16410,7 @@
         <v>0</v>
       </c>
       <c r="L455" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -16415,7 +16442,7 @@
         <v>0</v>
       </c>
       <c r="L456" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -16447,7 +16474,7 @@
         <v>0</v>
       </c>
       <c r="L457" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -16479,7 +16506,7 @@
         <v>0</v>
       </c>
       <c r="L458" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -16511,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="L459" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -16543,7 +16570,7 @@
         <v>0</v>
       </c>
       <c r="L460" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -16575,7 +16602,7 @@
         <v>0</v>
       </c>
       <c r="L461" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -16607,7 +16634,7 @@
         <v>0</v>
       </c>
       <c r="L462" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -16639,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="L463" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -16671,7 +16698,7 @@
         <v>0</v>
       </c>
       <c r="L464" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -16703,7 +16730,7 @@
         <v>0</v>
       </c>
       <c r="L465" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -16735,7 +16762,7 @@
         <v>0</v>
       </c>
       <c r="L466" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -16767,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="L467" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -16799,7 +16826,7 @@
         <v>0</v>
       </c>
       <c r="L468" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -16831,7 +16858,7 @@
         <v>0.01</v>
       </c>
       <c r="L469" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -16863,7 +16890,7 @@
         <v>0.36</v>
       </c>
       <c r="L470" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -16873,6 +16900,9 @@
       <c r="B471" t="s">
         <v>480</v>
       </c>
+      <c r="C471">
+        <v>12.85</v>
+      </c>
       <c r="D471">
         <v>99.3</v>
       </c>
@@ -16892,7 +16922,295 @@
         <v>1.48</v>
       </c>
       <c r="L471" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
         <v>481</v>
+      </c>
+      <c r="C472">
+        <v>12.87</v>
+      </c>
+      <c r="D472">
+        <v>99.27</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>21.25</v>
+      </c>
+      <c r="H472">
+        <v>21.13</v>
+      </c>
+      <c r="I472">
+        <v>-0.04</v>
+      </c>
+      <c r="J472">
+        <v>4.44</v>
+      </c>
+      <c r="L472" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>482</v>
+      </c>
+      <c r="C473">
+        <v>12.93</v>
+      </c>
+      <c r="D473">
+        <v>98.33</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>21.29</v>
+      </c>
+      <c r="H473">
+        <v>21.02</v>
+      </c>
+      <c r="I473">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="J473">
+        <v>12.72</v>
+      </c>
+      <c r="L473" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>483</v>
+      </c>
+      <c r="C474">
+        <v>13.08</v>
+      </c>
+      <c r="D474">
+        <v>96.67</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>21.38</v>
+      </c>
+      <c r="H474">
+        <v>20.82</v>
+      </c>
+      <c r="I474">
+        <v>0.04</v>
+      </c>
+      <c r="J474">
+        <v>24.33</v>
+      </c>
+      <c r="L474" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>484</v>
+      </c>
+      <c r="C475">
+        <v>13.32</v>
+      </c>
+      <c r="D475">
+        <v>95.18000000000001</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>21.51</v>
+      </c>
+      <c r="H475">
+        <v>20.7</v>
+      </c>
+      <c r="I475">
+        <v>0.02</v>
+      </c>
+      <c r="J475">
+        <v>37.46</v>
+      </c>
+      <c r="L475" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>485</v>
+      </c>
+      <c r="C476">
+        <v>13.52</v>
+      </c>
+      <c r="D476">
+        <v>94.87</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>21.61</v>
+      </c>
+      <c r="H476">
+        <v>20.75</v>
+      </c>
+      <c r="I476">
+        <v>-0.04</v>
+      </c>
+      <c r="J476">
+        <v>39.94</v>
+      </c>
+      <c r="L476" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>486</v>
+      </c>
+      <c r="C477">
+        <v>13.55</v>
+      </c>
+      <c r="D477">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>21.7</v>
+      </c>
+      <c r="H477">
+        <v>20.62</v>
+      </c>
+      <c r="I477">
+        <v>0.02</v>
+      </c>
+      <c r="J477">
+        <v>40.13</v>
+      </c>
+      <c r="L477" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>487</v>
+      </c>
+      <c r="C478">
+        <v>13.68</v>
+      </c>
+      <c r="D478">
+        <v>92.41</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>21.81</v>
+      </c>
+      <c r="H478">
+        <v>20.51</v>
+      </c>
+      <c r="I478">
+        <v>0</v>
+      </c>
+      <c r="J478">
+        <v>59.36</v>
+      </c>
+      <c r="L478" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>488</v>
+      </c>
+      <c r="C479">
+        <v>13.67</v>
+      </c>
+      <c r="D479">
+        <v>90.88</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>21.88</v>
+      </c>
+      <c r="H479">
+        <v>20.31</v>
+      </c>
+      <c r="I479">
+        <v>-0.08</v>
+      </c>
+      <c r="J479">
+        <v>53.31</v>
+      </c>
+      <c r="L479" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>489</v>
+      </c>
+      <c r="C480">
+        <v>13.67</v>
+      </c>
+      <c r="D480">
+        <v>91.78</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>21.91</v>
+      </c>
+      <c r="H480">
+        <v>20.5</v>
+      </c>
+      <c r="I480">
+        <v>0</v>
+      </c>
+      <c r="J480">
+        <v>49.5</v>
+      </c>
+      <c r="L480" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
+++ b/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="500">
   <si>
     <t>Fecha</t>
   </si>
@@ -1484,6 +1484,33 @@
   </si>
   <si>
     <t>11/9/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:10:00 AM</t>
   </si>
   <si>
     <t>ANTIGUA GUATEMALA</t>
@@ -1844,7 +1871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L480"/>
+  <dimension ref="A1:L489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1914,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1946,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1978,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2010,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2042,7 +2069,7 @@
         <v>0.02</v>
       </c>
       <c r="L6" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2074,7 +2101,7 @@
         <v>0.01</v>
       </c>
       <c r="L7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2106,7 +2133,7 @@
         <v>0.01</v>
       </c>
       <c r="L8" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2138,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2170,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2202,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2234,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2266,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2298,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2330,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2362,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2394,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2426,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2458,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2490,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2522,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2554,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2586,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2618,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2650,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2682,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2714,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2746,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2778,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2810,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2842,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2874,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2906,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2938,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2970,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3002,7 +3029,7 @@
         <v>0.03</v>
       </c>
       <c r="L36" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3034,7 +3061,7 @@
         <v>0.08</v>
       </c>
       <c r="L37" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3066,7 +3093,7 @@
         <v>1.26</v>
       </c>
       <c r="L38" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3098,7 +3125,7 @@
         <v>2.34</v>
       </c>
       <c r="L39" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3130,7 +3157,7 @@
         <v>7.06</v>
       </c>
       <c r="L40" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3162,7 +3189,7 @@
         <v>12.62</v>
       </c>
       <c r="L41" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3194,7 +3221,7 @@
         <v>23.01</v>
       </c>
       <c r="L42" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3226,7 +3253,7 @@
         <v>35.96</v>
       </c>
       <c r="L43" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3258,7 +3285,7 @@
         <v>53.17</v>
       </c>
       <c r="L44" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3290,7 +3317,7 @@
         <v>78.26000000000001</v>
       </c>
       <c r="L45" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3322,7 +3349,7 @@
         <v>94.45</v>
       </c>
       <c r="L46" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3354,7 +3381,7 @@
         <v>101.95</v>
       </c>
       <c r="L47" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3386,7 +3413,7 @@
         <v>136.99</v>
       </c>
       <c r="L48" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3418,7 +3445,7 @@
         <v>138.69</v>
       </c>
       <c r="L49" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3450,7 +3477,7 @@
         <v>137.09</v>
       </c>
       <c r="L50" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3482,7 +3509,7 @@
         <v>143.29</v>
       </c>
       <c r="L51" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3514,7 +3541,7 @@
         <v>192.15</v>
       </c>
       <c r="L52" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3546,7 +3573,7 @@
         <v>239.95</v>
       </c>
       <c r="L53" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3578,7 +3605,7 @@
         <v>254.87</v>
       </c>
       <c r="L54" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3610,7 +3637,7 @@
         <v>247.56</v>
       </c>
       <c r="L55" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3642,7 +3669,7 @@
         <v>287.63</v>
       </c>
       <c r="L56" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3674,7 +3701,7 @@
         <v>345.87</v>
       </c>
       <c r="L57" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3706,7 +3733,7 @@
         <v>358.65</v>
       </c>
       <c r="L58" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3738,7 +3765,7 @@
         <v>287.67</v>
       </c>
       <c r="L59" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3770,7 +3797,7 @@
         <v>218.34</v>
       </c>
       <c r="L60" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3802,7 +3829,7 @@
         <v>213.66</v>
       </c>
       <c r="L61" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3834,7 +3861,7 @@
         <v>389.75</v>
       </c>
       <c r="L62" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3866,7 +3893,7 @@
         <v>455.41</v>
       </c>
       <c r="L63" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3898,7 +3925,7 @@
         <v>332.81</v>
       </c>
       <c r="L64" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3930,7 +3957,7 @@
         <v>329.89</v>
       </c>
       <c r="L65" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3962,7 +3989,7 @@
         <v>473.71</v>
       </c>
       <c r="L66" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3994,7 +4021,7 @@
         <v>528.55</v>
       </c>
       <c r="L67" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4026,7 +4053,7 @@
         <v>411.9</v>
       </c>
       <c r="L68" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4058,7 +4085,7 @@
         <v>305.07</v>
       </c>
       <c r="L69" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4090,7 +4117,7 @@
         <v>301.49</v>
       </c>
       <c r="L70" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4122,7 +4149,7 @@
         <v>281</v>
       </c>
       <c r="L71" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4154,7 +4181,7 @@
         <v>194.03</v>
       </c>
       <c r="L72" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4186,7 +4213,7 @@
         <v>240.57</v>
       </c>
       <c r="L73" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4218,7 +4245,7 @@
         <v>349.31</v>
       </c>
       <c r="L74" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4250,7 +4277,7 @@
         <v>321.88</v>
       </c>
       <c r="L75" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4282,7 +4309,7 @@
         <v>342</v>
       </c>
       <c r="L76" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4314,7 +4341,7 @@
         <v>387.55</v>
       </c>
       <c r="L77" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4346,7 +4373,7 @@
         <v>338.76</v>
       </c>
       <c r="L78" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4378,7 +4405,7 @@
         <v>445.44</v>
       </c>
       <c r="L79" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4410,7 +4437,7 @@
         <v>543.7</v>
       </c>
       <c r="L80" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4442,7 +4469,7 @@
         <v>566.16</v>
       </c>
       <c r="L81" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4474,7 +4501,7 @@
         <v>535.8099999999999</v>
       </c>
       <c r="L82" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4506,7 +4533,7 @@
         <v>439.72</v>
       </c>
       <c r="L83" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4538,7 +4565,7 @@
         <v>378.84</v>
       </c>
       <c r="L84" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4570,7 +4597,7 @@
         <v>357.8</v>
       </c>
       <c r="L85" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4602,7 +4629,7 @@
         <v>419.01</v>
       </c>
       <c r="L86" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4634,7 +4661,7 @@
         <v>284.26</v>
       </c>
       <c r="L87" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4666,7 +4693,7 @@
         <v>234.25</v>
       </c>
       <c r="L88" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4698,7 +4725,7 @@
         <v>264.34</v>
       </c>
       <c r="L89" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4730,7 +4757,7 @@
         <v>235.03</v>
       </c>
       <c r="L90" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4762,7 +4789,7 @@
         <v>197.14</v>
       </c>
       <c r="L91" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4794,7 +4821,7 @@
         <v>150.14</v>
       </c>
       <c r="L92" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4826,7 +4853,7 @@
         <v>158.5</v>
       </c>
       <c r="L93" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4858,7 +4885,7 @@
         <v>169.32</v>
       </c>
       <c r="L94" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4890,7 +4917,7 @@
         <v>142.07</v>
       </c>
       <c r="L95" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4922,7 +4949,7 @@
         <v>71.63</v>
       </c>
       <c r="L96" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4954,7 +4981,7 @@
         <v>40.56</v>
       </c>
       <c r="L97" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4986,7 +5013,7 @@
         <v>45.69</v>
       </c>
       <c r="L98" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5018,7 +5045,7 @@
         <v>45.13</v>
       </c>
       <c r="L99" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5050,7 +5077,7 @@
         <v>46.89</v>
       </c>
       <c r="L100" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5082,7 +5109,7 @@
         <v>50.02</v>
       </c>
       <c r="L101" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5114,7 +5141,7 @@
         <v>54.83</v>
       </c>
       <c r="L102" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5146,7 +5173,7 @@
         <v>50.23</v>
       </c>
       <c r="L103" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5178,7 +5205,7 @@
         <v>27.16</v>
       </c>
       <c r="L104" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5210,7 +5237,7 @@
         <v>7.81</v>
       </c>
       <c r="L105" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5242,7 +5269,7 @@
         <v>3.78</v>
       </c>
       <c r="L106" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5274,7 +5301,7 @@
         <v>1.87</v>
       </c>
       <c r="L107" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5306,7 +5333,7 @@
         <v>0.21</v>
       </c>
       <c r="L108" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5338,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5370,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5402,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5434,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5466,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5498,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5530,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5562,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5594,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5626,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5658,7 +5685,7 @@
         <v>0.01</v>
       </c>
       <c r="L119" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5690,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5722,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5754,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5786,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5818,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5850,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5882,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5914,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5946,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5978,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6010,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6042,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6074,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6106,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6138,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6170,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6202,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6234,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6266,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6298,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6330,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6362,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6394,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6426,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6458,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6490,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6522,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6554,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6586,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6618,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6650,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6682,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6714,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6746,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6778,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6810,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6842,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6874,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6906,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6938,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6970,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7002,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7034,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7066,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7098,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7130,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7162,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7194,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7226,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7258,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7290,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7322,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7354,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7386,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7418,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7450,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7482,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7514,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7546,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7578,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7610,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7642,7 +7669,7 @@
         <v>0.17</v>
       </c>
       <c r="L181" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7674,7 +7701,7 @@
         <v>3.23</v>
       </c>
       <c r="L182" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7706,7 +7733,7 @@
         <v>8.68</v>
       </c>
       <c r="L183" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7738,7 +7765,7 @@
         <v>21.57</v>
       </c>
       <c r="L184" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7770,7 +7797,7 @@
         <v>29.14</v>
       </c>
       <c r="L185" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7802,7 +7829,7 @@
         <v>36.4</v>
       </c>
       <c r="L186" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7834,7 +7861,7 @@
         <v>50.4</v>
       </c>
       <c r="L187" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7866,7 +7893,7 @@
         <v>71.63</v>
       </c>
       <c r="L188" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -7898,7 +7925,7 @@
         <v>105.26</v>
       </c>
       <c r="L189" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -7930,7 +7957,7 @@
         <v>150.88</v>
       </c>
       <c r="L190" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7962,7 +7989,7 @@
         <v>180.94</v>
       </c>
       <c r="L191" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -7994,7 +8021,7 @@
         <v>207.09</v>
       </c>
       <c r="L192" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -8026,7 +8053,7 @@
         <v>188.99</v>
       </c>
       <c r="L193" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8058,7 +8085,7 @@
         <v>215.59</v>
       </c>
       <c r="L194" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8090,7 +8117,7 @@
         <v>234.95</v>
       </c>
       <c r="L195" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8122,7 +8149,7 @@
         <v>270.32</v>
       </c>
       <c r="L196" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8154,7 +8181,7 @@
         <v>322.36</v>
       </c>
       <c r="L197" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8186,7 +8213,7 @@
         <v>409.2</v>
       </c>
       <c r="L198" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8218,7 +8245,7 @@
         <v>577.24</v>
       </c>
       <c r="L199" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8250,7 +8277,7 @@
         <v>678.58</v>
       </c>
       <c r="L200" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8282,7 +8309,7 @@
         <v>614.7</v>
       </c>
       <c r="L201" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8314,7 +8341,7 @@
         <v>426.66</v>
       </c>
       <c r="L202" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8346,7 +8373,7 @@
         <v>378.23</v>
       </c>
       <c r="L203" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8378,7 +8405,7 @@
         <v>325.61</v>
       </c>
       <c r="L204" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -8410,7 +8437,7 @@
         <v>263.44</v>
       </c>
       <c r="L205" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -8442,7 +8469,7 @@
         <v>418.7</v>
       </c>
       <c r="L206" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8474,7 +8501,7 @@
         <v>480.07</v>
       </c>
       <c r="L207" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8506,7 +8533,7 @@
         <v>405.86</v>
       </c>
       <c r="L208" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8538,7 +8565,7 @@
         <v>460.04</v>
       </c>
       <c r="L209" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -8570,7 +8597,7 @@
         <v>479.08</v>
       </c>
       <c r="L210" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -8602,7 +8629,7 @@
         <v>406.5</v>
       </c>
       <c r="L211" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -8634,7 +8661,7 @@
         <v>370.42</v>
       </c>
       <c r="L212" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -8666,7 +8693,7 @@
         <v>366.09</v>
       </c>
       <c r="L213" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -8698,7 +8725,7 @@
         <v>380.52</v>
       </c>
       <c r="L214" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -8730,7 +8757,7 @@
         <v>448.3</v>
       </c>
       <c r="L215" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -8762,7 +8789,7 @@
         <v>338.47</v>
       </c>
       <c r="L216" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -8794,7 +8821,7 @@
         <v>296.95</v>
       </c>
       <c r="L217" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -8826,7 +8853,7 @@
         <v>374.49</v>
       </c>
       <c r="L218" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -8858,7 +8885,7 @@
         <v>448.56</v>
       </c>
       <c r="L219" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -8890,7 +8917,7 @@
         <v>456.68</v>
       </c>
       <c r="L220" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -8922,7 +8949,7 @@
         <v>494.33</v>
       </c>
       <c r="L221" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -8954,7 +8981,7 @@
         <v>481.14</v>
       </c>
       <c r="L222" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8986,7 +9013,7 @@
         <v>520.4400000000001</v>
       </c>
       <c r="L223" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -9018,7 +9045,7 @@
         <v>488.57</v>
       </c>
       <c r="L224" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -9050,7 +9077,7 @@
         <v>393.7</v>
       </c>
       <c r="L225" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -9082,7 +9109,7 @@
         <v>639.71</v>
       </c>
       <c r="L226" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -9114,7 +9141,7 @@
         <v>268.2</v>
       </c>
       <c r="L227" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -9146,7 +9173,7 @@
         <v>283.57</v>
       </c>
       <c r="L228" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -9178,7 +9205,7 @@
         <v>333.71</v>
       </c>
       <c r="L229" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -9210,7 +9237,7 @@
         <v>536.62</v>
       </c>
       <c r="L230" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -9242,7 +9269,7 @@
         <v>410.1</v>
       </c>
       <c r="L231" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -9274,7 +9301,7 @@
         <v>478.29</v>
       </c>
       <c r="L232" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -9306,7 +9333,7 @@
         <v>391.68</v>
       </c>
       <c r="L233" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -9338,7 +9365,7 @@
         <v>708.15</v>
       </c>
       <c r="L234" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -9370,7 +9397,7 @@
         <v>305.43</v>
       </c>
       <c r="L235" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -9402,7 +9429,7 @@
         <v>189.91</v>
       </c>
       <c r="L236" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9434,7 +9461,7 @@
         <v>157.18</v>
       </c>
       <c r="L237" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9466,7 +9493,7 @@
         <v>155.98</v>
       </c>
       <c r="L238" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9498,7 +9525,7 @@
         <v>178.96</v>
       </c>
       <c r="L239" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -9530,7 +9557,7 @@
         <v>164.04</v>
       </c>
       <c r="L240" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9562,7 +9589,7 @@
         <v>151.99</v>
       </c>
       <c r="L241" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9594,7 +9621,7 @@
         <v>170.59</v>
       </c>
       <c r="L242" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9626,7 +9653,7 @@
         <v>54.65</v>
       </c>
       <c r="L243" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9658,7 +9685,7 @@
         <v>33.59</v>
       </c>
       <c r="L244" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9690,7 +9717,7 @@
         <v>19.28</v>
       </c>
       <c r="L245" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9722,7 +9749,7 @@
         <v>17.1</v>
       </c>
       <c r="L246" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9754,7 +9781,7 @@
         <v>14.15</v>
       </c>
       <c r="L247" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9786,7 +9813,7 @@
         <v>11.56</v>
       </c>
       <c r="L248" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9818,7 +9845,7 @@
         <v>9.42</v>
       </c>
       <c r="L249" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9850,7 +9877,7 @@
         <v>6.51</v>
       </c>
       <c r="L250" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9882,7 +9909,7 @@
         <v>2.87</v>
       </c>
       <c r="L251" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9914,7 +9941,7 @@
         <v>0.58</v>
       </c>
       <c r="L252" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9946,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="L253" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -9978,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -10010,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -10042,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -10074,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -10106,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -10138,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10170,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10202,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -10234,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -10266,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -10298,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -10330,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -10362,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -10394,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10426,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10458,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10490,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10522,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10554,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10586,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10618,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10650,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10682,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10714,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10746,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10778,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10810,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -10842,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -10874,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -10906,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -10938,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -10970,7 +10997,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -11002,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -11034,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -11066,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -11098,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -11130,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -11162,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -11194,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -11226,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -11258,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -11290,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -11322,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -11354,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -11386,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -11418,7 +11445,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -11450,7 +11477,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -11482,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -11514,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -11546,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -11578,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11610,7 +11637,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11642,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11674,7 +11701,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11706,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11738,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11770,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -11802,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -11834,7 +11861,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -11866,7 +11893,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -11898,7 +11925,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -11930,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -11962,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -11994,7 +12021,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -12026,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -12058,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -12090,7 +12117,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -12122,7 +12149,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -12154,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -12186,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -12218,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -12250,7 +12277,7 @@
         <v>0.01</v>
       </c>
       <c r="L325" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -12282,7 +12309,7 @@
         <v>1.82</v>
       </c>
       <c r="L326" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -12314,7 +12341,7 @@
         <v>7.45</v>
       </c>
       <c r="L327" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -12346,7 +12373,7 @@
         <v>17.23</v>
       </c>
       <c r="L328" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -12378,7 +12405,7 @@
         <v>26.44</v>
       </c>
       <c r="L329" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -12410,7 +12437,7 @@
         <v>34.2</v>
       </c>
       <c r="L330" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -12442,7 +12469,7 @@
         <v>47.53</v>
       </c>
       <c r="L331" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -12474,7 +12501,7 @@
         <v>159.87</v>
       </c>
       <c r="L332" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -12506,7 +12533,7 @@
         <v>198.03</v>
       </c>
       <c r="L333" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -12538,7 +12565,7 @@
         <v>241.62</v>
       </c>
       <c r="L334" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -12570,7 +12597,7 @@
         <v>295.12</v>
       </c>
       <c r="L335" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -12602,7 +12629,7 @@
         <v>346.75</v>
       </c>
       <c r="L336" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -12634,7 +12661,7 @@
         <v>374.77</v>
       </c>
       <c r="L337" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -12666,7 +12693,7 @@
         <v>411.43</v>
       </c>
       <c r="L338" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -12698,7 +12725,7 @@
         <v>477.37</v>
       </c>
       <c r="L339" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -12730,7 +12757,7 @@
         <v>505.81</v>
       </c>
       <c r="L340" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -12762,7 +12789,7 @@
         <v>442.84</v>
       </c>
       <c r="L341" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -12794,7 +12821,7 @@
         <v>538.5</v>
       </c>
       <c r="L342" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -12826,7 +12853,7 @@
         <v>653.71</v>
       </c>
       <c r="L343" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -12858,7 +12885,7 @@
         <v>672.67</v>
       </c>
       <c r="L344" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -12890,7 +12917,7 @@
         <v>702.99</v>
       </c>
       <c r="L345" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -12922,7 +12949,7 @@
         <v>734.72</v>
       </c>
       <c r="L346" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -12954,7 +12981,7 @@
         <v>767.28</v>
       </c>
       <c r="L347" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -12986,7 +13013,7 @@
         <v>786.42</v>
       </c>
       <c r="L348" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -13018,7 +13045,7 @@
         <v>792.86</v>
       </c>
       <c r="L349" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -13050,7 +13077,7 @@
         <v>781.34</v>
       </c>
       <c r="L350" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -13082,7 +13109,7 @@
         <v>647.38</v>
       </c>
       <c r="L351" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -13114,7 +13141,7 @@
         <v>679.51</v>
       </c>
       <c r="L352" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -13146,7 +13173,7 @@
         <v>801</v>
       </c>
       <c r="L353" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -13178,7 +13205,7 @@
         <v>776.49</v>
       </c>
       <c r="L354" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -13210,7 +13237,7 @@
         <v>905.01</v>
       </c>
       <c r="L355" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -13242,7 +13269,7 @@
         <v>898.89</v>
       </c>
       <c r="L356" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -13274,7 +13301,7 @@
         <v>912.13</v>
       </c>
       <c r="L357" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -13306,7 +13333,7 @@
         <v>925.41</v>
       </c>
       <c r="L358" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -13338,7 +13365,7 @@
         <v>885.05</v>
       </c>
       <c r="L359" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -13370,7 +13397,7 @@
         <v>929.0599999999999</v>
       </c>
       <c r="L360" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -13402,7 +13429,7 @@
         <v>959.54</v>
       </c>
       <c r="L361" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -13434,7 +13461,7 @@
         <v>993.86</v>
       </c>
       <c r="L362" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -13466,7 +13493,7 @@
         <v>928.62</v>
       </c>
       <c r="L363" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -13498,7 +13525,7 @@
         <v>812.08</v>
       </c>
       <c r="L364" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -13530,7 +13557,7 @@
         <v>809.34</v>
       </c>
       <c r="L365" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -13562,7 +13589,7 @@
         <v>811.74</v>
       </c>
       <c r="L366" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -13594,7 +13621,7 @@
         <v>982.35</v>
       </c>
       <c r="L367" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -13626,7 +13653,7 @@
         <v>665.42</v>
       </c>
       <c r="L368" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -13658,7 +13685,7 @@
         <v>504.71</v>
       </c>
       <c r="L369" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -13690,7 +13717,7 @@
         <v>613.53</v>
       </c>
       <c r="L370" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -13722,7 +13749,7 @@
         <v>430.51</v>
       </c>
       <c r="L371" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -13754,7 +13781,7 @@
         <v>498.89</v>
       </c>
       <c r="L372" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -13786,7 +13813,7 @@
         <v>678.6</v>
       </c>
       <c r="L373" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -13818,7 +13845,7 @@
         <v>697.76</v>
       </c>
       <c r="L374" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -13850,7 +13877,7 @@
         <v>859.3</v>
       </c>
       <c r="L375" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -13882,7 +13909,7 @@
         <v>410.66</v>
       </c>
       <c r="L376" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -13914,7 +13941,7 @@
         <v>678.4400000000001</v>
       </c>
       <c r="L377" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -13946,7 +13973,7 @@
         <v>644.2</v>
       </c>
       <c r="L378" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -13978,7 +14005,7 @@
         <v>537.14</v>
       </c>
       <c r="L379" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -14010,7 +14037,7 @@
         <v>437.82</v>
       </c>
       <c r="L380" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -14042,7 +14069,7 @@
         <v>309.9</v>
       </c>
       <c r="L381" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -14074,7 +14101,7 @@
         <v>242.03</v>
       </c>
       <c r="L382" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -14106,7 +14133,7 @@
         <v>197.87</v>
       </c>
       <c r="L383" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -14138,7 +14165,7 @@
         <v>224.99</v>
       </c>
       <c r="L384" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -14170,7 +14197,7 @@
         <v>218.77</v>
       </c>
       <c r="L385" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -14202,7 +14229,7 @@
         <v>172.38</v>
       </c>
       <c r="L386" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -14234,7 +14261,7 @@
         <v>137.47</v>
       </c>
       <c r="L387" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -14266,7 +14293,7 @@
         <v>108.95</v>
       </c>
       <c r="L388" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -14298,7 +14325,7 @@
         <v>129.92</v>
       </c>
       <c r="L389" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -14330,7 +14357,7 @@
         <v>96.95</v>
       </c>
       <c r="L390" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -14362,7 +14389,7 @@
         <v>42.04</v>
       </c>
       <c r="L391" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -14394,7 +14421,7 @@
         <v>14.48</v>
       </c>
       <c r="L392" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -14426,7 +14453,7 @@
         <v>7.16</v>
       </c>
       <c r="L393" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -14458,7 +14485,7 @@
         <v>5.16</v>
       </c>
       <c r="L394" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -14490,7 +14517,7 @@
         <v>2.63</v>
       </c>
       <c r="L395" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -14522,7 +14549,7 @@
         <v>0.49</v>
       </c>
       <c r="L396" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -14554,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="L397" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -14586,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="L398" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -14618,7 +14645,7 @@
         <v>0</v>
       </c>
       <c r="L399" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -14650,7 +14677,7 @@
         <v>0</v>
       </c>
       <c r="L400" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -14682,7 +14709,7 @@
         <v>0</v>
       </c>
       <c r="L401" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -14714,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="L402" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -14746,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="L403" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -14778,7 +14805,7 @@
         <v>0</v>
       </c>
       <c r="L404" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -14810,7 +14837,7 @@
         <v>0</v>
       </c>
       <c r="L405" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -14842,7 +14869,7 @@
         <v>0</v>
       </c>
       <c r="L406" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -14874,7 +14901,7 @@
         <v>0</v>
       </c>
       <c r="L407" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -14906,7 +14933,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -14938,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="L409" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -14970,7 +14997,7 @@
         <v>0</v>
       </c>
       <c r="L410" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -15002,7 +15029,7 @@
         <v>0</v>
       </c>
       <c r="L411" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -15034,7 +15061,7 @@
         <v>0</v>
       </c>
       <c r="L412" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -15066,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="L413" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -15098,7 +15125,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -15130,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="L415" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -15162,7 +15189,7 @@
         <v>0</v>
       </c>
       <c r="L416" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -15194,7 +15221,7 @@
         <v>0</v>
       </c>
       <c r="L417" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -15226,7 +15253,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -15258,7 +15285,7 @@
         <v>0</v>
       </c>
       <c r="L419" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -15290,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="L420" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -15322,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="L421" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -15354,7 +15381,7 @@
         <v>0</v>
       </c>
       <c r="L422" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -15386,7 +15413,7 @@
         <v>0</v>
       </c>
       <c r="L423" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -15418,7 +15445,7 @@
         <v>0</v>
       </c>
       <c r="L424" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -15450,7 +15477,7 @@
         <v>0</v>
       </c>
       <c r="L425" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -15482,7 +15509,7 @@
         <v>0</v>
       </c>
       <c r="L426" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -15514,7 +15541,7 @@
         <v>0</v>
       </c>
       <c r="L427" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -15546,7 +15573,7 @@
         <v>0</v>
       </c>
       <c r="L428" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -15578,7 +15605,7 @@
         <v>0</v>
       </c>
       <c r="L429" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -15610,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="L430" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -15642,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="L431" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -15674,7 +15701,7 @@
         <v>0</v>
       </c>
       <c r="L432" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -15706,7 +15733,7 @@
         <v>0</v>
       </c>
       <c r="L433" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -15738,7 +15765,7 @@
         <v>0</v>
       </c>
       <c r="L434" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -15770,7 +15797,7 @@
         <v>0</v>
       </c>
       <c r="L435" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -15802,7 +15829,7 @@
         <v>0</v>
       </c>
       <c r="L436" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -15834,7 +15861,7 @@
         <v>0</v>
       </c>
       <c r="L437" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -15866,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="L438" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -15898,7 +15925,7 @@
         <v>0</v>
       </c>
       <c r="L439" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -15930,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="L440" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -15962,7 +15989,7 @@
         <v>0</v>
       </c>
       <c r="L441" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -15994,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="L442" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -16026,7 +16053,7 @@
         <v>0</v>
       </c>
       <c r="L443" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -16058,7 +16085,7 @@
         <v>0</v>
       </c>
       <c r="L444" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -16090,7 +16117,7 @@
         <v>0</v>
       </c>
       <c r="L445" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -16122,7 +16149,7 @@
         <v>0</v>
       </c>
       <c r="L446" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -16154,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="L447" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -16186,7 +16213,7 @@
         <v>0</v>
       </c>
       <c r="L448" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -16218,7 +16245,7 @@
         <v>0</v>
       </c>
       <c r="L449" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -16250,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="L450" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -16282,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="L451" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -16314,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="L452" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -16346,7 +16373,7 @@
         <v>0</v>
       </c>
       <c r="L453" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -16378,7 +16405,7 @@
         <v>0</v>
       </c>
       <c r="L454" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -16410,7 +16437,7 @@
         <v>0</v>
       </c>
       <c r="L455" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -16442,7 +16469,7 @@
         <v>0</v>
       </c>
       <c r="L456" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -16474,7 +16501,7 @@
         <v>0</v>
       </c>
       <c r="L457" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -16506,7 +16533,7 @@
         <v>0</v>
       </c>
       <c r="L458" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -16538,7 +16565,7 @@
         <v>0</v>
       </c>
       <c r="L459" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -16570,7 +16597,7 @@
         <v>0</v>
       </c>
       <c r="L460" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -16602,7 +16629,7 @@
         <v>0</v>
       </c>
       <c r="L461" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -16634,7 +16661,7 @@
         <v>0</v>
       </c>
       <c r="L462" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -16666,7 +16693,7 @@
         <v>0</v>
       </c>
       <c r="L463" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -16698,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="L464" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -16730,7 +16757,7 @@
         <v>0</v>
       </c>
       <c r="L465" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -16762,7 +16789,7 @@
         <v>0</v>
       </c>
       <c r="L466" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -16794,7 +16821,7 @@
         <v>0</v>
       </c>
       <c r="L467" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -16826,7 +16853,7 @@
         <v>0</v>
       </c>
       <c r="L468" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -16858,7 +16885,7 @@
         <v>0.01</v>
       </c>
       <c r="L469" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -16890,7 +16917,7 @@
         <v>0.36</v>
       </c>
       <c r="L470" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -16922,7 +16949,7 @@
         <v>1.48</v>
       </c>
       <c r="L471" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -16954,7 +16981,7 @@
         <v>4.44</v>
       </c>
       <c r="L472" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -16986,7 +17013,7 @@
         <v>12.72</v>
       </c>
       <c r="L473" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -17018,7 +17045,7 @@
         <v>24.33</v>
       </c>
       <c r="L474" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -17050,7 +17077,7 @@
         <v>37.46</v>
       </c>
       <c r="L475" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -17082,7 +17109,7 @@
         <v>39.94</v>
       </c>
       <c r="L476" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -17114,7 +17141,7 @@
         <v>40.13</v>
       </c>
       <c r="L477" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -17146,7 +17173,7 @@
         <v>59.36</v>
       </c>
       <c r="L478" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -17178,7 +17205,7 @@
         <v>53.31</v>
       </c>
       <c r="L479" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -17210,7 +17237,292 @@
         <v>49.5</v>
       </c>
       <c r="L480" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
         <v>490</v>
+      </c>
+      <c r="C481">
+        <v>13.7</v>
+      </c>
+      <c r="D481">
+        <v>90.94</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481">
+        <v>22</v>
+      </c>
+      <c r="H481">
+        <v>20.44</v>
+      </c>
+      <c r="I481">
+        <v>0.06</v>
+      </c>
+      <c r="J481">
+        <v>58.35</v>
+      </c>
+      <c r="L481" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>491</v>
+      </c>
+      <c r="C482">
+        <v>13.7</v>
+      </c>
+      <c r="D482">
+        <v>90.43000000000001</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>22.06</v>
+      </c>
+      <c r="H482">
+        <v>20.41</v>
+      </c>
+      <c r="I482">
+        <v>0.06</v>
+      </c>
+      <c r="J482">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="L482" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>492</v>
+      </c>
+      <c r="C483">
+        <v>13.71</v>
+      </c>
+      <c r="D483">
+        <v>87.48</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>22.23</v>
+      </c>
+      <c r="H483">
+        <v>20.03</v>
+      </c>
+      <c r="I483">
+        <v>-0.09</v>
+      </c>
+      <c r="J483">
+        <v>133.8</v>
+      </c>
+      <c r="L483" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>493</v>
+      </c>
+      <c r="C484">
+        <v>13.71</v>
+      </c>
+      <c r="D484">
+        <v>84.68000000000001</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>22.43</v>
+      </c>
+      <c r="H484">
+        <v>19.71</v>
+      </c>
+      <c r="I484">
+        <v>0.09</v>
+      </c>
+      <c r="J484">
+        <v>165.76</v>
+      </c>
+      <c r="L484" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>494</v>
+      </c>
+      <c r="C485">
+        <v>13.72</v>
+      </c>
+      <c r="D485">
+        <v>82.3</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>22.69</v>
+      </c>
+      <c r="H485">
+        <v>19.51</v>
+      </c>
+      <c r="I485">
+        <v>-0.01</v>
+      </c>
+      <c r="J485">
+        <v>199.47</v>
+      </c>
+      <c r="L485" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>495</v>
+      </c>
+      <c r="C486">
+        <v>13.72</v>
+      </c>
+      <c r="D486">
+        <v>80.22</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>22.89</v>
+      </c>
+      <c r="H486">
+        <v>19.29</v>
+      </c>
+      <c r="I486">
+        <v>-0.05</v>
+      </c>
+      <c r="J486">
+        <v>250.79</v>
+      </c>
+      <c r="L486" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>496</v>
+      </c>
+      <c r="C487">
+        <v>13.72</v>
+      </c>
+      <c r="D487">
+        <v>75.73999999999999</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>23.44</v>
+      </c>
+      <c r="H487">
+        <v>18.89</v>
+      </c>
+      <c r="I487">
+        <v>-0.06</v>
+      </c>
+      <c r="J487">
+        <v>534.13</v>
+      </c>
+      <c r="L487" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>497</v>
+      </c>
+      <c r="C488">
+        <v>13.73</v>
+      </c>
+      <c r="D488">
+        <v>70.26000000000001</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>24.16</v>
+      </c>
+      <c r="H488">
+        <v>18.37</v>
+      </c>
+      <c r="I488">
+        <v>0.01</v>
+      </c>
+      <c r="J488">
+        <v>590.78</v>
+      </c>
+      <c r="L488" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>498</v>
+      </c>
+      <c r="D489">
+        <v>67.67</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>24.52</v>
+      </c>
+      <c r="H489">
+        <v>18.13</v>
+      </c>
+      <c r="I489">
+        <v>0.02</v>
+      </c>
+      <c r="J489">
+        <v>695.4299999999999</v>
+      </c>
+      <c r="L489" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
+++ b/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="551">
   <si>
     <t>Fecha</t>
   </si>
@@ -1652,6 +1652,18 @@
   </si>
   <si>
     <t>11/13/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:40:00 PM</t>
   </si>
   <si>
     <t>ANTIGUA GUATEMALA</t>
@@ -2012,7 +2024,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L536"/>
+  <dimension ref="A1:L540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2082,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2114,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2146,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2178,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2210,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2242,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2274,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2306,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2338,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2370,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2402,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2434,7 +2446,7 @@
         <v>0.32</v>
       </c>
       <c r="L13" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2466,7 +2478,7 @@
         <v>0.24</v>
       </c>
       <c r="L14" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2498,7 +2510,7 @@
         <v>0.76</v>
       </c>
       <c r="L15" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2530,7 +2542,7 @@
         <v>0.52</v>
       </c>
       <c r="L16" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2562,7 +2574,7 @@
         <v>0.08</v>
       </c>
       <c r="L17" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2594,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2626,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2658,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2690,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2722,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2754,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2786,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2818,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2850,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2882,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2914,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2946,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2978,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3010,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3042,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3074,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3106,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3138,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3170,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3202,7 +3214,7 @@
         <v>0.01</v>
       </c>
       <c r="L37" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3234,7 +3246,7 @@
         <v>1.34</v>
       </c>
       <c r="L38" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3266,7 +3278,7 @@
         <v>4.6</v>
       </c>
       <c r="L39" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3298,7 +3310,7 @@
         <v>12.46</v>
       </c>
       <c r="L40" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3330,7 +3342,7 @@
         <v>20.12</v>
       </c>
       <c r="L41" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3362,7 +3374,7 @@
         <v>35.11</v>
       </c>
       <c r="L42" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3394,7 +3406,7 @@
         <v>51.43</v>
       </c>
       <c r="L43" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3426,7 +3438,7 @@
         <v>103.98</v>
       </c>
       <c r="L44" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3458,7 +3470,7 @@
         <v>130.12</v>
       </c>
       <c r="L45" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3490,7 +3502,7 @@
         <v>284.09</v>
       </c>
       <c r="L46" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3522,7 +3534,7 @@
         <v>307.33</v>
       </c>
       <c r="L47" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3554,7 +3566,7 @@
         <v>229.18</v>
       </c>
       <c r="L48" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3586,7 +3598,7 @@
         <v>415.77</v>
       </c>
       <c r="L49" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3618,7 +3630,7 @@
         <v>471.32</v>
       </c>
       <c r="L50" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3650,7 +3662,7 @@
         <v>508.92</v>
       </c>
       <c r="L51" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3682,7 +3694,7 @@
         <v>481.29</v>
       </c>
       <c r="L52" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3714,7 +3726,7 @@
         <v>497.28</v>
       </c>
       <c r="L53" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3746,7 +3758,7 @@
         <v>734.14</v>
       </c>
       <c r="L54" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3778,7 +3790,7 @@
         <v>781.09</v>
       </c>
       <c r="L55" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3810,7 +3822,7 @@
         <v>781.84</v>
       </c>
       <c r="L56" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3842,7 +3854,7 @@
         <v>738.4</v>
       </c>
       <c r="L57" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3874,7 +3886,7 @@
         <v>808.5599999999999</v>
       </c>
       <c r="L58" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3906,7 +3918,7 @@
         <v>281.12</v>
       </c>
       <c r="L59" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3938,7 +3950,7 @@
         <v>437.94</v>
       </c>
       <c r="L60" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3970,7 +3982,7 @@
         <v>724.29</v>
       </c>
       <c r="L61" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4002,7 +4014,7 @@
         <v>916.55</v>
       </c>
       <c r="L62" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4034,7 +4046,7 @@
         <v>908.72</v>
       </c>
       <c r="L63" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4066,7 +4078,7 @@
         <v>916.23</v>
       </c>
       <c r="L64" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4098,7 +4110,7 @@
         <v>884.6799999999999</v>
       </c>
       <c r="L65" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4130,7 +4142,7 @@
         <v>789.8099999999999</v>
       </c>
       <c r="L66" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4162,7 +4174,7 @@
         <v>900.85</v>
       </c>
       <c r="L67" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4194,7 +4206,7 @@
         <v>919.45</v>
       </c>
       <c r="L68" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4226,7 +4238,7 @@
         <v>933.71</v>
       </c>
       <c r="L69" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4258,7 +4270,7 @@
         <v>939.45</v>
       </c>
       <c r="L70" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4290,7 +4302,7 @@
         <v>957.64</v>
       </c>
       <c r="L71" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4322,7 +4334,7 @@
         <v>962.1</v>
       </c>
       <c r="L72" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4354,7 +4366,7 @@
         <v>921.1</v>
       </c>
       <c r="L73" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4386,7 +4398,7 @@
         <v>966.2</v>
       </c>
       <c r="L74" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4418,7 +4430,7 @@
         <v>953.33</v>
       </c>
       <c r="L75" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4450,7 +4462,7 @@
         <v>952.97</v>
       </c>
       <c r="L76" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4482,7 +4494,7 @@
         <v>945.8099999999999</v>
       </c>
       <c r="L77" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4514,7 +4526,7 @@
         <v>936.46</v>
       </c>
       <c r="L78" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4546,7 +4558,7 @@
         <v>908.71</v>
       </c>
       <c r="L79" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4578,7 +4590,7 @@
         <v>895.55</v>
       </c>
       <c r="L80" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4610,7 +4622,7 @@
         <v>882.29</v>
       </c>
       <c r="L81" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4642,7 +4654,7 @@
         <v>868.86</v>
       </c>
       <c r="L82" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4674,7 +4686,7 @@
         <v>845.4299999999999</v>
       </c>
       <c r="L83" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4706,7 +4718,7 @@
         <v>823.88</v>
       </c>
       <c r="L84" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4738,7 +4750,7 @@
         <v>795.72</v>
       </c>
       <c r="L85" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4770,7 +4782,7 @@
         <v>745.76</v>
       </c>
       <c r="L86" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4802,7 +4814,7 @@
         <v>738.23</v>
       </c>
       <c r="L87" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4834,7 +4846,7 @@
         <v>690.17</v>
       </c>
       <c r="L88" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4866,7 +4878,7 @@
         <v>699.6900000000001</v>
       </c>
       <c r="L89" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4898,7 +4910,7 @@
         <v>680.22</v>
       </c>
       <c r="L90" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4930,7 +4942,7 @@
         <v>574.03</v>
       </c>
       <c r="L91" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4962,7 +4974,7 @@
         <v>565.38</v>
       </c>
       <c r="L92" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4994,7 +5006,7 @@
         <v>572.95</v>
       </c>
       <c r="L93" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5026,7 +5038,7 @@
         <v>528.2</v>
       </c>
       <c r="L94" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5058,7 +5070,7 @@
         <v>470.31</v>
       </c>
       <c r="L95" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5090,7 +5102,7 @@
         <v>310.52</v>
       </c>
       <c r="L96" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5122,7 +5134,7 @@
         <v>251.89</v>
       </c>
       <c r="L97" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5154,7 +5166,7 @@
         <v>215.5</v>
       </c>
       <c r="L98" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5186,7 +5198,7 @@
         <v>206.41</v>
       </c>
       <c r="L99" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5218,7 +5230,7 @@
         <v>123.5</v>
       </c>
       <c r="L100" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5250,7 +5262,7 @@
         <v>155.65</v>
       </c>
       <c r="L101" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5282,7 +5294,7 @@
         <v>179.91</v>
       </c>
       <c r="L102" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5314,7 +5326,7 @@
         <v>76.15000000000001</v>
       </c>
       <c r="L103" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5346,7 +5358,7 @@
         <v>54.24</v>
       </c>
       <c r="L104" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5378,7 +5390,7 @@
         <v>28.77</v>
       </c>
       <c r="L105" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5410,7 +5422,7 @@
         <v>16.97</v>
       </c>
       <c r="L106" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5442,7 +5454,7 @@
         <v>7.08</v>
       </c>
       <c r="L107" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5474,7 +5486,7 @@
         <v>1.42</v>
       </c>
       <c r="L108" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5506,7 +5518,7 @@
         <v>0.01</v>
       </c>
       <c r="L109" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5538,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5570,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5602,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5634,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5666,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5698,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5730,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5762,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5794,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5826,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5858,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5890,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5922,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5954,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5986,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6018,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6050,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6082,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6114,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6146,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6178,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6210,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6242,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6274,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6306,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6338,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6370,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6402,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6434,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6466,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6498,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6530,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6562,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6594,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6626,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6658,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6690,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6722,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6754,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6786,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6818,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6850,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6882,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6914,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6946,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6978,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7010,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7042,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7074,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7106,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7138,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7170,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7202,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7234,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7266,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7298,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7330,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7362,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7394,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7426,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7458,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7490,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7522,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7554,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7586,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7618,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7650,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7682,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7714,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7746,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7778,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7810,7 +7822,7 @@
         <v>0.04</v>
       </c>
       <c r="L181" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7842,7 +7854,7 @@
         <v>0.96</v>
       </c>
       <c r="L182" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7874,7 +7886,7 @@
         <v>4.68</v>
       </c>
       <c r="L183" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7906,7 +7918,7 @@
         <v>11.85</v>
       </c>
       <c r="L184" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7938,7 +7950,7 @@
         <v>20.3</v>
       </c>
       <c r="L185" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7970,7 +7982,7 @@
         <v>35.49</v>
       </c>
       <c r="L186" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8002,7 +8014,7 @@
         <v>49.9</v>
       </c>
       <c r="L187" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8034,7 +8046,7 @@
         <v>114.74</v>
       </c>
       <c r="L188" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8066,7 +8078,7 @@
         <v>177.15</v>
       </c>
       <c r="L189" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8098,7 +8110,7 @@
         <v>209.22</v>
       </c>
       <c r="L190" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8130,7 +8142,7 @@
         <v>274.31</v>
       </c>
       <c r="L191" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -8162,7 +8174,7 @@
         <v>322.93</v>
       </c>
       <c r="L192" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -8194,7 +8206,7 @@
         <v>374.4</v>
       </c>
       <c r="L193" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8226,7 +8238,7 @@
         <v>425.31</v>
       </c>
       <c r="L194" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8258,7 +8270,7 @@
         <v>478.31</v>
       </c>
       <c r="L195" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8290,7 +8302,7 @@
         <v>492.31</v>
       </c>
       <c r="L196" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8322,7 +8334,7 @@
         <v>389.87</v>
       </c>
       <c r="L197" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8354,7 +8366,7 @@
         <v>574.51</v>
       </c>
       <c r="L198" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8386,7 +8398,7 @@
         <v>582.28</v>
       </c>
       <c r="L199" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8418,7 +8430,7 @@
         <v>644.4400000000001</v>
       </c>
       <c r="L200" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8450,7 +8462,7 @@
         <v>670.27</v>
       </c>
       <c r="L201" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8482,7 +8494,7 @@
         <v>722.38</v>
       </c>
       <c r="L202" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8514,7 +8526,7 @@
         <v>751.52</v>
       </c>
       <c r="L203" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8546,7 +8558,7 @@
         <v>762.71</v>
       </c>
       <c r="L204" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -8578,7 +8590,7 @@
         <v>794.13</v>
       </c>
       <c r="L205" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -8610,7 +8622,7 @@
         <v>824.9</v>
       </c>
       <c r="L206" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8642,7 +8654,7 @@
         <v>845.41</v>
       </c>
       <c r="L207" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8674,7 +8686,7 @@
         <v>863.99</v>
       </c>
       <c r="L208" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8706,7 +8718,7 @@
         <v>763.84</v>
       </c>
       <c r="L209" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -8738,7 +8750,7 @@
         <v>614.8200000000001</v>
       </c>
       <c r="L210" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -8770,7 +8782,7 @@
         <v>445.23</v>
       </c>
       <c r="L211" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -8802,7 +8814,7 @@
         <v>1002.88</v>
       </c>
       <c r="L212" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -8834,7 +8846,7 @@
         <v>648.12</v>
       </c>
       <c r="L213" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -8866,7 +8878,7 @@
         <v>767.35</v>
       </c>
       <c r="L214" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -8898,7 +8910,7 @@
         <v>968.79</v>
       </c>
       <c r="L215" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -8930,7 +8942,7 @@
         <v>985.6799999999999</v>
       </c>
       <c r="L216" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -8962,7 +8974,7 @@
         <v>984.89</v>
       </c>
       <c r="L217" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -8994,7 +9006,7 @@
         <v>969.05</v>
       </c>
       <c r="L218" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -9026,7 +9038,7 @@
         <v>971.14</v>
       </c>
       <c r="L219" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -9058,7 +9070,7 @@
         <v>958.51</v>
       </c>
       <c r="L220" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -9090,7 +9102,7 @@
         <v>946.71</v>
       </c>
       <c r="L221" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -9122,7 +9134,7 @@
         <v>946.62</v>
       </c>
       <c r="L222" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -9154,7 +9166,7 @@
         <v>928.41</v>
       </c>
       <c r="L223" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -9186,7 +9198,7 @@
         <v>911.03</v>
       </c>
       <c r="L224" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -9218,7 +9230,7 @@
         <v>894.41</v>
       </c>
       <c r="L225" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -9250,7 +9262,7 @@
         <v>867.71</v>
       </c>
       <c r="L226" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -9282,7 +9294,7 @@
         <v>859.88</v>
       </c>
       <c r="L227" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -9314,7 +9326,7 @@
         <v>850.51</v>
       </c>
       <c r="L228" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -9346,7 +9358,7 @@
         <v>487.06</v>
       </c>
       <c r="L229" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -9378,7 +9390,7 @@
         <v>434.71</v>
       </c>
       <c r="L230" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -9410,7 +9422,7 @@
         <v>396.05</v>
       </c>
       <c r="L231" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -9442,7 +9454,7 @@
         <v>715.8200000000001</v>
       </c>
       <c r="L232" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -9474,7 +9486,7 @@
         <v>673.46</v>
       </c>
       <c r="L233" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -9506,7 +9518,7 @@
         <v>601.2</v>
       </c>
       <c r="L234" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -9538,7 +9550,7 @@
         <v>410.66</v>
       </c>
       <c r="L235" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -9570,7 +9582,7 @@
         <v>312.8</v>
       </c>
       <c r="L236" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9602,7 +9614,7 @@
         <v>377.58</v>
       </c>
       <c r="L237" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9634,7 +9646,7 @@
         <v>552.5</v>
       </c>
       <c r="L238" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9666,7 +9678,7 @@
         <v>480.2</v>
       </c>
       <c r="L239" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -9698,7 +9710,7 @@
         <v>476.42</v>
       </c>
       <c r="L240" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9730,7 +9742,7 @@
         <v>278.96</v>
       </c>
       <c r="L241" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9762,7 +9774,7 @@
         <v>203.85</v>
       </c>
       <c r="L242" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9794,7 +9806,7 @@
         <v>214.18</v>
       </c>
       <c r="L243" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9826,7 +9838,7 @@
         <v>145.52</v>
       </c>
       <c r="L244" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9858,7 +9870,7 @@
         <v>97.95999999999999</v>
       </c>
       <c r="L245" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9890,7 +9902,7 @@
         <v>57.06</v>
       </c>
       <c r="L246" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9922,7 +9934,7 @@
         <v>21.33</v>
       </c>
       <c r="L247" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9954,7 +9966,7 @@
         <v>19.44</v>
       </c>
       <c r="L248" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9986,7 +9998,7 @@
         <v>21.44</v>
       </c>
       <c r="L249" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -10018,7 +10030,7 @@
         <v>10.59</v>
       </c>
       <c r="L250" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -10050,7 +10062,7 @@
         <v>4.52</v>
       </c>
       <c r="L251" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -10082,7 +10094,7 @@
         <v>0.97</v>
       </c>
       <c r="L252" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -10114,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="L253" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -10146,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -10178,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -10210,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -10242,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -10274,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -10306,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10338,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10370,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -10402,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -10434,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -10466,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -10498,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -10530,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -10562,7 +10574,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10594,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10626,7 +10638,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10658,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10690,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10722,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10754,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10786,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10818,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10850,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10882,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10914,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10946,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10978,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -11010,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -11042,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -11074,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -11106,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -11138,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -11170,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -11202,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -11234,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -11266,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -11298,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -11330,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -11362,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -11394,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -11426,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -11458,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -11490,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -11522,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -11554,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -11586,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -11618,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -11650,7 +11662,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -11682,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -11714,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -11746,7 +11758,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11778,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11810,7 +11822,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11842,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11874,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11906,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11938,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -11970,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -12002,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -12034,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -12066,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -12098,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -12130,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -12162,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -12194,7 +12206,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -12226,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -12258,7 +12270,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -12290,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -12322,7 +12334,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -12354,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -12386,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -12418,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="L325" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -12450,7 +12462,7 @@
         <v>0.86</v>
       </c>
       <c r="L326" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -12482,7 +12494,7 @@
         <v>6.4</v>
       </c>
       <c r="L327" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -12514,7 +12526,7 @@
         <v>16.07</v>
       </c>
       <c r="L328" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -12546,7 +12558,7 @@
         <v>25.44</v>
       </c>
       <c r="L329" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -12578,7 +12590,7 @@
         <v>34.16</v>
       </c>
       <c r="L330" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -12610,7 +12622,7 @@
         <v>46.76</v>
       </c>
       <c r="L331" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -12642,7 +12654,7 @@
         <v>118.33</v>
       </c>
       <c r="L332" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -12674,7 +12686,7 @@
         <v>168.5</v>
       </c>
       <c r="L333" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -12706,7 +12718,7 @@
         <v>232.61</v>
       </c>
       <c r="L334" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -12738,7 +12750,7 @@
         <v>288.46</v>
       </c>
       <c r="L335" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -12770,7 +12782,7 @@
         <v>338.6</v>
       </c>
       <c r="L336" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -12802,7 +12814,7 @@
         <v>381.26</v>
       </c>
       <c r="L337" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -12834,7 +12846,7 @@
         <v>422.79</v>
       </c>
       <c r="L338" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -12866,7 +12878,7 @@
         <v>461.78</v>
       </c>
       <c r="L339" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -12898,7 +12910,7 @@
         <v>463.12</v>
       </c>
       <c r="L340" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -12930,7 +12942,7 @@
         <v>405.71</v>
       </c>
       <c r="L341" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -12962,7 +12974,7 @@
         <v>573.83</v>
       </c>
       <c r="L342" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -12994,7 +13006,7 @@
         <v>607.8</v>
       </c>
       <c r="L343" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -13026,7 +13038,7 @@
         <v>647.26</v>
       </c>
       <c r="L344" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -13058,7 +13070,7 @@
         <v>678.3</v>
       </c>
       <c r="L345" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -13090,7 +13102,7 @@
         <v>713.53</v>
       </c>
       <c r="L346" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -13122,7 +13134,7 @@
         <v>739.12</v>
       </c>
       <c r="L347" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -13154,7 +13166,7 @@
         <v>761.24</v>
       </c>
       <c r="L348" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -13186,7 +13198,7 @@
         <v>785.12</v>
       </c>
       <c r="L349" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -13218,7 +13230,7 @@
         <v>811.4</v>
       </c>
       <c r="L350" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -13250,7 +13262,7 @@
         <v>837.8200000000001</v>
       </c>
       <c r="L351" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -13282,7 +13294,7 @@
         <v>859.64</v>
       </c>
       <c r="L352" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -13314,7 +13326,7 @@
         <v>872.03</v>
       </c>
       <c r="L353" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -13346,7 +13358,7 @@
         <v>889.67</v>
       </c>
       <c r="L354" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -13378,7 +13390,7 @@
         <v>898.98</v>
       </c>
       <c r="L355" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -13410,7 +13422,7 @@
         <v>901.21</v>
       </c>
       <c r="L356" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -13442,7 +13454,7 @@
         <v>913.5599999999999</v>
       </c>
       <c r="L357" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -13474,7 +13486,7 @@
         <v>924.92</v>
       </c>
       <c r="L358" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -13506,7 +13518,7 @@
         <v>925.42</v>
       </c>
       <c r="L359" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -13538,7 +13550,7 @@
         <v>933.91</v>
       </c>
       <c r="L360" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -13570,7 +13582,7 @@
         <v>932.0700000000001</v>
       </c>
       <c r="L361" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -13602,7 +13614,7 @@
         <v>927.65</v>
       </c>
       <c r="L362" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -13634,7 +13646,7 @@
         <v>924.52</v>
       </c>
       <c r="L363" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -13666,7 +13678,7 @@
         <v>904.54</v>
       </c>
       <c r="L364" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -13698,7 +13710,7 @@
         <v>910.37</v>
       </c>
       <c r="L365" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -13730,7 +13742,7 @@
         <v>897.96</v>
       </c>
       <c r="L366" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -13762,7 +13774,7 @@
         <v>897.34</v>
       </c>
       <c r="L367" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -13794,7 +13806,7 @@
         <v>850.22</v>
       </c>
       <c r="L368" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -13826,7 +13838,7 @@
         <v>821.89</v>
       </c>
       <c r="L369" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -13858,7 +13870,7 @@
         <v>827.58</v>
       </c>
       <c r="L370" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -13890,7 +13902,7 @@
         <v>808.55</v>
       </c>
       <c r="L371" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -13922,7 +13934,7 @@
         <v>793.96</v>
       </c>
       <c r="L372" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -13954,7 +13966,7 @@
         <v>777.9299999999999</v>
       </c>
       <c r="L373" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -13986,7 +13998,7 @@
         <v>760.61</v>
       </c>
       <c r="L374" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -14018,7 +14030,7 @@
         <v>738</v>
       </c>
       <c r="L375" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -14050,7 +14062,7 @@
         <v>718.28</v>
       </c>
       <c r="L376" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -14082,7 +14094,7 @@
         <v>693.65</v>
       </c>
       <c r="L377" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -14114,7 +14126,7 @@
         <v>663.5599999999999</v>
       </c>
       <c r="L378" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -14146,7 +14158,7 @@
         <v>625.51</v>
       </c>
       <c r="L379" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -14178,7 +14190,7 @@
         <v>587.35</v>
       </c>
       <c r="L380" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -14210,7 +14222,7 @@
         <v>533.12</v>
       </c>
       <c r="L381" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -14242,7 +14254,7 @@
         <v>477.06</v>
       </c>
       <c r="L382" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -14274,7 +14286,7 @@
         <v>406.89</v>
       </c>
       <c r="L383" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -14306,7 +14318,7 @@
         <v>409.25</v>
       </c>
       <c r="L384" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -14338,7 +14350,7 @@
         <v>348.14</v>
       </c>
       <c r="L385" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -14370,7 +14382,7 @@
         <v>303.96</v>
       </c>
       <c r="L386" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -14402,7 +14414,7 @@
         <v>251.19</v>
       </c>
       <c r="L387" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -14434,7 +14446,7 @@
         <v>222.31</v>
       </c>
       <c r="L388" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -14466,7 +14478,7 @@
         <v>192.25</v>
       </c>
       <c r="L389" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -14498,7 +14510,7 @@
         <v>106.59</v>
       </c>
       <c r="L390" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -14530,7 +14542,7 @@
         <v>68.34</v>
       </c>
       <c r="L391" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -14562,7 +14574,7 @@
         <v>70.81</v>
       </c>
       <c r="L392" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -14594,7 +14606,7 @@
         <v>25.75</v>
       </c>
       <c r="L393" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -14626,7 +14638,7 @@
         <v>15.16</v>
       </c>
       <c r="L394" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -14658,7 +14670,7 @@
         <v>7.16</v>
       </c>
       <c r="L395" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -14690,7 +14702,7 @@
         <v>1.69</v>
       </c>
       <c r="L396" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -14722,7 +14734,7 @@
         <v>0</v>
       </c>
       <c r="L397" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -14754,7 +14766,7 @@
         <v>0</v>
       </c>
       <c r="L398" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -14786,7 +14798,7 @@
         <v>0</v>
       </c>
       <c r="L399" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -14818,7 +14830,7 @@
         <v>0</v>
       </c>
       <c r="L400" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -14850,7 +14862,7 @@
         <v>0</v>
       </c>
       <c r="L401" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -14882,7 +14894,7 @@
         <v>0</v>
       </c>
       <c r="L402" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -14914,7 +14926,7 @@
         <v>0</v>
       </c>
       <c r="L403" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -14946,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="L404" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -14978,7 +14990,7 @@
         <v>0</v>
       </c>
       <c r="L405" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -15010,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="L406" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -15042,7 +15054,7 @@
         <v>0</v>
       </c>
       <c r="L407" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -15074,7 +15086,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -15106,7 +15118,7 @@
         <v>0</v>
       </c>
       <c r="L409" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -15138,7 +15150,7 @@
         <v>0</v>
       </c>
       <c r="L410" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -15170,7 +15182,7 @@
         <v>0</v>
       </c>
       <c r="L411" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -15202,7 +15214,7 @@
         <v>0</v>
       </c>
       <c r="L412" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -15234,7 +15246,7 @@
         <v>0</v>
       </c>
       <c r="L413" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -15266,7 +15278,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -15298,7 +15310,7 @@
         <v>0</v>
       </c>
       <c r="L415" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -15330,7 +15342,7 @@
         <v>0</v>
       </c>
       <c r="L416" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -15362,7 +15374,7 @@
         <v>0</v>
       </c>
       <c r="L417" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -15394,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -15426,7 +15438,7 @@
         <v>0</v>
       </c>
       <c r="L419" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -15458,7 +15470,7 @@
         <v>0</v>
       </c>
       <c r="L420" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -15490,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="L421" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -15522,7 +15534,7 @@
         <v>0</v>
       </c>
       <c r="L422" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -15554,7 +15566,7 @@
         <v>0</v>
       </c>
       <c r="L423" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -15586,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="L424" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -15618,7 +15630,7 @@
         <v>0</v>
       </c>
       <c r="L425" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -15650,7 +15662,7 @@
         <v>0</v>
       </c>
       <c r="L426" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -15682,7 +15694,7 @@
         <v>0</v>
       </c>
       <c r="L427" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -15714,7 +15726,7 @@
         <v>0</v>
       </c>
       <c r="L428" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -15746,7 +15758,7 @@
         <v>0</v>
       </c>
       <c r="L429" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -15778,7 +15790,7 @@
         <v>0</v>
       </c>
       <c r="L430" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -15810,7 +15822,7 @@
         <v>0</v>
       </c>
       <c r="L431" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -15842,7 +15854,7 @@
         <v>0</v>
       </c>
       <c r="L432" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -15874,7 +15886,7 @@
         <v>0</v>
       </c>
       <c r="L433" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -15906,7 +15918,7 @@
         <v>0</v>
       </c>
       <c r="L434" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -15938,7 +15950,7 @@
         <v>0</v>
       </c>
       <c r="L435" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -15970,7 +15982,7 @@
         <v>0</v>
       </c>
       <c r="L436" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -16002,7 +16014,7 @@
         <v>0</v>
       </c>
       <c r="L437" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -16034,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="L438" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -16066,7 +16078,7 @@
         <v>0</v>
       </c>
       <c r="L439" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -16098,7 +16110,7 @@
         <v>0</v>
       </c>
       <c r="L440" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -16130,7 +16142,7 @@
         <v>0</v>
       </c>
       <c r="L441" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -16162,7 +16174,7 @@
         <v>0</v>
       </c>
       <c r="L442" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -16194,7 +16206,7 @@
         <v>0</v>
       </c>
       <c r="L443" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -16226,7 +16238,7 @@
         <v>0</v>
       </c>
       <c r="L444" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -16258,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="L445" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -16290,7 +16302,7 @@
         <v>0</v>
       </c>
       <c r="L446" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -16322,7 +16334,7 @@
         <v>0</v>
       </c>
       <c r="L447" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -16354,7 +16366,7 @@
         <v>0</v>
       </c>
       <c r="L448" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -16386,7 +16398,7 @@
         <v>0</v>
       </c>
       <c r="L449" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -16418,7 +16430,7 @@
         <v>0.02</v>
       </c>
       <c r="L450" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -16450,7 +16462,7 @@
         <v>0</v>
       </c>
       <c r="L451" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -16482,7 +16494,7 @@
         <v>0</v>
       </c>
       <c r="L452" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -16514,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="L453" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -16546,7 +16558,7 @@
         <v>0</v>
       </c>
       <c r="L454" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -16578,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="L455" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -16610,7 +16622,7 @@
         <v>0</v>
       </c>
       <c r="L456" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -16642,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="L457" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -16674,7 +16686,7 @@
         <v>0</v>
       </c>
       <c r="L458" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -16706,7 +16718,7 @@
         <v>0</v>
       </c>
       <c r="L459" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -16738,7 +16750,7 @@
         <v>0</v>
       </c>
       <c r="L460" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -16770,7 +16782,7 @@
         <v>0</v>
       </c>
       <c r="L461" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -16802,7 +16814,7 @@
         <v>0</v>
       </c>
       <c r="L462" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -16834,7 +16846,7 @@
         <v>0</v>
       </c>
       <c r="L463" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -16866,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="L464" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -16898,7 +16910,7 @@
         <v>0</v>
       </c>
       <c r="L465" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -16930,7 +16942,7 @@
         <v>0</v>
       </c>
       <c r="L466" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -16962,7 +16974,7 @@
         <v>0</v>
       </c>
       <c r="L467" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -16994,7 +17006,7 @@
         <v>0</v>
       </c>
       <c r="L468" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -17026,7 +17038,7 @@
         <v>0</v>
       </c>
       <c r="L469" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -17058,7 +17070,7 @@
         <v>0.86</v>
       </c>
       <c r="L470" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -17090,7 +17102,7 @@
         <v>5.2</v>
       </c>
       <c r="L471" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -17122,7 +17134,7 @@
         <v>12.08</v>
       </c>
       <c r="L472" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -17154,7 +17166,7 @@
         <v>21.07</v>
       </c>
       <c r="L473" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -17186,7 +17198,7 @@
         <v>30.76</v>
       </c>
       <c r="L474" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -17218,7 +17230,7 @@
         <v>42.19</v>
       </c>
       <c r="L475" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -17250,7 +17262,7 @@
         <v>89.12</v>
       </c>
       <c r="L476" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -17282,7 +17294,7 @@
         <v>158.12</v>
       </c>
       <c r="L477" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -17314,7 +17326,7 @@
         <v>219.92</v>
       </c>
       <c r="L478" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -17346,7 +17358,7 @@
         <v>271.55</v>
       </c>
       <c r="L479" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -17378,7 +17390,7 @@
         <v>321.09</v>
       </c>
       <c r="L480" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -17410,7 +17422,7 @@
         <v>365.53</v>
       </c>
       <c r="L481" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -17442,7 +17454,7 @@
         <v>398.09</v>
       </c>
       <c r="L482" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -17474,7 +17486,7 @@
         <v>441.63</v>
       </c>
       <c r="L483" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -17506,7 +17518,7 @@
         <v>423.75</v>
       </c>
       <c r="L484" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -17538,7 +17550,7 @@
         <v>433.09</v>
       </c>
       <c r="L485" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -17570,7 +17582,7 @@
         <v>565.8</v>
       </c>
       <c r="L486" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -17602,7 +17614,7 @@
         <v>587.51</v>
       </c>
       <c r="L487" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -17634,7 +17646,7 @@
         <v>640.13</v>
       </c>
       <c r="L488" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -17666,7 +17678,7 @@
         <v>676.16</v>
       </c>
       <c r="L489" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -17698,7 +17710,7 @@
         <v>698.71</v>
       </c>
       <c r="L490" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -17730,7 +17742,7 @@
         <v>723.4400000000001</v>
       </c>
       <c r="L491" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -17762,7 +17774,7 @@
         <v>751.92</v>
       </c>
       <c r="L492" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -17794,7 +17806,7 @@
         <v>775.84</v>
       </c>
       <c r="L493" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -17826,7 +17838,7 @@
         <v>801.4299999999999</v>
       </c>
       <c r="L494" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -17858,7 +17870,7 @@
         <v>826.84</v>
       </c>
       <c r="L495" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="496" spans="1:12">
@@ -17890,7 +17902,7 @@
         <v>848.87</v>
       </c>
       <c r="L496" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="497" spans="1:12">
@@ -17922,7 +17934,7 @@
         <v>865.33</v>
       </c>
       <c r="L497" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -17954,7 +17966,7 @@
         <v>882.66</v>
       </c>
       <c r="L498" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -17986,7 +17998,7 @@
         <v>899.65</v>
       </c>
       <c r="L499" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="500" spans="1:12">
@@ -18018,7 +18030,7 @@
         <v>910.4</v>
       </c>
       <c r="L500" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -18050,7 +18062,7 @@
         <v>923.04</v>
       </c>
       <c r="L501" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -18082,7 +18094,7 @@
         <v>927.42</v>
       </c>
       <c r="L502" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -18114,7 +18126,7 @@
         <v>933.17</v>
       </c>
       <c r="L503" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -18146,7 +18158,7 @@
         <v>931.5599999999999</v>
       </c>
       <c r="L504" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="505" spans="1:12">
@@ -18178,7 +18190,7 @@
         <v>936.75</v>
       </c>
       <c r="L505" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -18210,7 +18222,7 @@
         <v>938.8200000000001</v>
       </c>
       <c r="L506" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="507" spans="1:12">
@@ -18242,7 +18254,7 @@
         <v>927.12</v>
       </c>
       <c r="L507" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -18274,7 +18286,7 @@
         <v>928.42</v>
       </c>
       <c r="L508" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -18306,7 +18318,7 @@
         <v>921.08</v>
       </c>
       <c r="L509" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -18338,7 +18350,7 @@
         <v>940.47</v>
       </c>
       <c r="L510" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="511" spans="1:12">
@@ -18370,7 +18382,7 @@
         <v>926.74</v>
       </c>
       <c r="L511" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -18402,7 +18414,7 @@
         <v>925.66</v>
       </c>
       <c r="L512" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -18434,7 +18446,7 @@
         <v>916.28</v>
       </c>
       <c r="L513" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -18466,7 +18478,7 @@
         <v>899.76</v>
       </c>
       <c r="L514" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -18498,7 +18510,7 @@
         <v>863.1900000000001</v>
       </c>
       <c r="L515" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -18530,7 +18542,7 @@
         <v>802.12</v>
       </c>
       <c r="L516" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -18562,7 +18574,7 @@
         <v>716.28</v>
       </c>
       <c r="L517" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -18594,7 +18606,7 @@
         <v>791.47</v>
       </c>
       <c r="L518" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -18626,7 +18638,7 @@
         <v>781.62</v>
       </c>
       <c r="L519" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -18658,7 +18670,7 @@
         <v>762.1</v>
       </c>
       <c r="L520" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="521" spans="1:12">
@@ -18690,7 +18702,7 @@
         <v>721.55</v>
       </c>
       <c r="L521" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="522" spans="1:12">
@@ -18722,7 +18734,7 @@
         <v>667.3099999999999</v>
       </c>
       <c r="L522" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -18754,7 +18766,7 @@
         <v>589.03</v>
       </c>
       <c r="L523" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -18786,7 +18798,7 @@
         <v>496.87</v>
       </c>
       <c r="L524" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -18818,7 +18830,7 @@
         <v>539</v>
       </c>
       <c r="L525" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -18850,7 +18862,7 @@
         <v>519.01</v>
       </c>
       <c r="L526" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -18882,7 +18894,7 @@
         <v>443.21</v>
       </c>
       <c r="L527" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="528" spans="1:12">
@@ -18914,7 +18926,7 @@
         <v>214.51</v>
       </c>
       <c r="L528" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="529" spans="1:12">
@@ -18946,7 +18958,7 @@
         <v>142.26</v>
       </c>
       <c r="L529" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -18978,7 +18990,7 @@
         <v>273.33</v>
       </c>
       <c r="L530" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -19010,7 +19022,7 @@
         <v>236.19</v>
       </c>
       <c r="L531" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="532" spans="1:12">
@@ -19042,7 +19054,7 @@
         <v>163.31</v>
       </c>
       <c r="L532" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -19074,7 +19086,7 @@
         <v>155.64</v>
       </c>
       <c r="L533" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -19106,7 +19118,7 @@
         <v>138.08</v>
       </c>
       <c r="L534" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -19138,7 +19150,7 @@
         <v>97.92</v>
       </c>
       <c r="L535" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="536" spans="1:12">
@@ -19170,7 +19182,117 @@
         <v>54.87</v>
       </c>
       <c r="L536" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
         <v>546</v>
+      </c>
+      <c r="C537">
+        <v>13.75</v>
+      </c>
+      <c r="D537">
+        <v>84.67</v>
+      </c>
+      <c r="E537">
+        <v>0</v>
+      </c>
+      <c r="F537">
+        <v>23.1</v>
+      </c>
+      <c r="H537">
+        <v>20.36</v>
+      </c>
+      <c r="I537">
+        <v>0.01</v>
+      </c>
+      <c r="J537">
+        <v>22.53</v>
+      </c>
+      <c r="L537" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538" t="s">
+        <v>547</v>
+      </c>
+      <c r="C538">
+        <v>13.67</v>
+      </c>
+      <c r="D538">
+        <v>87.34999999999999</v>
+      </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
+      <c r="F538">
+        <v>22.86</v>
+      </c>
+      <c r="H538">
+        <v>20.64</v>
+      </c>
+      <c r="I538">
+        <v>0.2</v>
+      </c>
+      <c r="J538">
+        <v>12.64</v>
+      </c>
+      <c r="L538" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539" t="s">
+        <v>548</v>
+      </c>
+      <c r="C539">
+        <v>13.45</v>
+      </c>
+      <c r="D539">
+        <v>88.87</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+      <c r="F539">
+        <v>22.6</v>
+      </c>
+      <c r="H539">
+        <v>20.66</v>
+      </c>
+      <c r="I539">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J539">
+        <v>6.11</v>
+      </c>
+      <c r="L539" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540" t="s">
+        <v>549</v>
+      </c>
+      <c r="F540">
+        <v>22.3</v>
+      </c>
+      <c r="L540" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
+++ b/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="554">
   <si>
     <t>Fecha</t>
   </si>
@@ -1664,6 +1664,15 @@
   </si>
   <si>
     <t>11/13/2020 5:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:10:00 PM</t>
   </si>
   <si>
     <t>ANTIGUA GUATEMALA</t>
@@ -2024,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L540"/>
+  <dimension ref="A1:L543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2094,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2126,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2158,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2190,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2222,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2254,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2286,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2318,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2350,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2382,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2414,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2446,7 +2455,7 @@
         <v>0.32</v>
       </c>
       <c r="L13" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2478,7 +2487,7 @@
         <v>0.24</v>
       </c>
       <c r="L14" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2510,7 +2519,7 @@
         <v>0.76</v>
       </c>
       <c r="L15" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2542,7 +2551,7 @@
         <v>0.52</v>
       </c>
       <c r="L16" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2574,7 +2583,7 @@
         <v>0.08</v>
       </c>
       <c r="L17" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2606,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2638,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2670,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2702,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2734,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2766,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2798,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2830,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2862,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2894,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2926,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2958,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2990,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3022,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3054,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3086,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3118,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3150,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3182,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3214,7 +3223,7 @@
         <v>0.01</v>
       </c>
       <c r="L37" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3246,7 +3255,7 @@
         <v>1.34</v>
       </c>
       <c r="L38" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3278,7 +3287,7 @@
         <v>4.6</v>
       </c>
       <c r="L39" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3310,7 +3319,7 @@
         <v>12.46</v>
       </c>
       <c r="L40" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3342,7 +3351,7 @@
         <v>20.12</v>
       </c>
       <c r="L41" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3374,7 +3383,7 @@
         <v>35.11</v>
       </c>
       <c r="L42" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3406,7 +3415,7 @@
         <v>51.43</v>
       </c>
       <c r="L43" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3438,7 +3447,7 @@
         <v>103.98</v>
       </c>
       <c r="L44" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3470,7 +3479,7 @@
         <v>130.12</v>
       </c>
       <c r="L45" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3502,7 +3511,7 @@
         <v>284.09</v>
       </c>
       <c r="L46" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3534,7 +3543,7 @@
         <v>307.33</v>
       </c>
       <c r="L47" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3566,7 +3575,7 @@
         <v>229.18</v>
       </c>
       <c r="L48" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3598,7 +3607,7 @@
         <v>415.77</v>
       </c>
       <c r="L49" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3630,7 +3639,7 @@
         <v>471.32</v>
       </c>
       <c r="L50" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3662,7 +3671,7 @@
         <v>508.92</v>
       </c>
       <c r="L51" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3694,7 +3703,7 @@
         <v>481.29</v>
       </c>
       <c r="L52" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3726,7 +3735,7 @@
         <v>497.28</v>
       </c>
       <c r="L53" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3758,7 +3767,7 @@
         <v>734.14</v>
       </c>
       <c r="L54" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3790,7 +3799,7 @@
         <v>781.09</v>
       </c>
       <c r="L55" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3822,7 +3831,7 @@
         <v>781.84</v>
       </c>
       <c r="L56" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3854,7 +3863,7 @@
         <v>738.4</v>
       </c>
       <c r="L57" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3886,7 +3895,7 @@
         <v>808.5599999999999</v>
       </c>
       <c r="L58" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3918,7 +3927,7 @@
         <v>281.12</v>
       </c>
       <c r="L59" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3950,7 +3959,7 @@
         <v>437.94</v>
       </c>
       <c r="L60" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3982,7 +3991,7 @@
         <v>724.29</v>
       </c>
       <c r="L61" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4014,7 +4023,7 @@
         <v>916.55</v>
       </c>
       <c r="L62" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4046,7 +4055,7 @@
         <v>908.72</v>
       </c>
       <c r="L63" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4078,7 +4087,7 @@
         <v>916.23</v>
       </c>
       <c r="L64" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4110,7 +4119,7 @@
         <v>884.6799999999999</v>
       </c>
       <c r="L65" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4142,7 +4151,7 @@
         <v>789.8099999999999</v>
       </c>
       <c r="L66" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4174,7 +4183,7 @@
         <v>900.85</v>
       </c>
       <c r="L67" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4206,7 +4215,7 @@
         <v>919.45</v>
       </c>
       <c r="L68" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4238,7 +4247,7 @@
         <v>933.71</v>
       </c>
       <c r="L69" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4270,7 +4279,7 @@
         <v>939.45</v>
       </c>
       <c r="L70" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4302,7 +4311,7 @@
         <v>957.64</v>
       </c>
       <c r="L71" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4334,7 +4343,7 @@
         <v>962.1</v>
       </c>
       <c r="L72" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4366,7 +4375,7 @@
         <v>921.1</v>
       </c>
       <c r="L73" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4398,7 +4407,7 @@
         <v>966.2</v>
       </c>
       <c r="L74" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4430,7 +4439,7 @@
         <v>953.33</v>
       </c>
       <c r="L75" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4462,7 +4471,7 @@
         <v>952.97</v>
       </c>
       <c r="L76" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4494,7 +4503,7 @@
         <v>945.8099999999999</v>
       </c>
       <c r="L77" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4526,7 +4535,7 @@
         <v>936.46</v>
       </c>
       <c r="L78" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4558,7 +4567,7 @@
         <v>908.71</v>
       </c>
       <c r="L79" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4590,7 +4599,7 @@
         <v>895.55</v>
       </c>
       <c r="L80" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4622,7 +4631,7 @@
         <v>882.29</v>
       </c>
       <c r="L81" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4654,7 +4663,7 @@
         <v>868.86</v>
       </c>
       <c r="L82" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4686,7 +4695,7 @@
         <v>845.4299999999999</v>
       </c>
       <c r="L83" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4718,7 +4727,7 @@
         <v>823.88</v>
       </c>
       <c r="L84" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4750,7 +4759,7 @@
         <v>795.72</v>
       </c>
       <c r="L85" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4782,7 +4791,7 @@
         <v>745.76</v>
       </c>
       <c r="L86" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4814,7 +4823,7 @@
         <v>738.23</v>
       </c>
       <c r="L87" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4846,7 +4855,7 @@
         <v>690.17</v>
       </c>
       <c r="L88" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4878,7 +4887,7 @@
         <v>699.6900000000001</v>
       </c>
       <c r="L89" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4910,7 +4919,7 @@
         <v>680.22</v>
       </c>
       <c r="L90" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4942,7 +4951,7 @@
         <v>574.03</v>
       </c>
       <c r="L91" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4974,7 +4983,7 @@
         <v>565.38</v>
       </c>
       <c r="L92" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5006,7 +5015,7 @@
         <v>572.95</v>
       </c>
       <c r="L93" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5038,7 +5047,7 @@
         <v>528.2</v>
       </c>
       <c r="L94" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5070,7 +5079,7 @@
         <v>470.31</v>
       </c>
       <c r="L95" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5102,7 +5111,7 @@
         <v>310.52</v>
       </c>
       <c r="L96" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5134,7 +5143,7 @@
         <v>251.89</v>
       </c>
       <c r="L97" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5166,7 +5175,7 @@
         <v>215.5</v>
       </c>
       <c r="L98" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5198,7 +5207,7 @@
         <v>206.41</v>
       </c>
       <c r="L99" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5230,7 +5239,7 @@
         <v>123.5</v>
       </c>
       <c r="L100" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5262,7 +5271,7 @@
         <v>155.65</v>
       </c>
       <c r="L101" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5294,7 +5303,7 @@
         <v>179.91</v>
       </c>
       <c r="L102" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5326,7 +5335,7 @@
         <v>76.15000000000001</v>
       </c>
       <c r="L103" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5358,7 +5367,7 @@
         <v>54.24</v>
       </c>
       <c r="L104" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5390,7 +5399,7 @@
         <v>28.77</v>
       </c>
       <c r="L105" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5422,7 +5431,7 @@
         <v>16.97</v>
       </c>
       <c r="L106" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5454,7 +5463,7 @@
         <v>7.08</v>
       </c>
       <c r="L107" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5486,7 +5495,7 @@
         <v>1.42</v>
       </c>
       <c r="L108" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5518,7 +5527,7 @@
         <v>0.01</v>
       </c>
       <c r="L109" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5550,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5582,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5614,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5646,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5678,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5710,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5742,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5774,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5806,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5838,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5870,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5902,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5934,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5966,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5998,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6030,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6062,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6094,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6126,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6158,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6190,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6222,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6254,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6286,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6318,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6350,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6382,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6414,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6446,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6478,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6510,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6542,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6574,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6606,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6638,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6670,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6702,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6734,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6766,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6798,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6830,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6862,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6894,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6926,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6958,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6990,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7022,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7054,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7086,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7118,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7150,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7182,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7214,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7246,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7278,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7310,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7342,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7374,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7406,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7438,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7470,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7502,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7534,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7566,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7598,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7630,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7662,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7694,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7726,7 +7735,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7758,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7790,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7822,7 +7831,7 @@
         <v>0.04</v>
       </c>
       <c r="L181" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7854,7 +7863,7 @@
         <v>0.96</v>
       </c>
       <c r="L182" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7886,7 +7895,7 @@
         <v>4.68</v>
       </c>
       <c r="L183" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7918,7 +7927,7 @@
         <v>11.85</v>
       </c>
       <c r="L184" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7950,7 +7959,7 @@
         <v>20.3</v>
       </c>
       <c r="L185" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7982,7 +7991,7 @@
         <v>35.49</v>
       </c>
       <c r="L186" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8014,7 +8023,7 @@
         <v>49.9</v>
       </c>
       <c r="L187" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8046,7 +8055,7 @@
         <v>114.74</v>
       </c>
       <c r="L188" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8078,7 +8087,7 @@
         <v>177.15</v>
       </c>
       <c r="L189" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8110,7 +8119,7 @@
         <v>209.22</v>
       </c>
       <c r="L190" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8142,7 +8151,7 @@
         <v>274.31</v>
       </c>
       <c r="L191" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -8174,7 +8183,7 @@
         <v>322.93</v>
       </c>
       <c r="L192" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -8206,7 +8215,7 @@
         <v>374.4</v>
       </c>
       <c r="L193" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8238,7 +8247,7 @@
         <v>425.31</v>
       </c>
       <c r="L194" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8270,7 +8279,7 @@
         <v>478.31</v>
       </c>
       <c r="L195" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8302,7 +8311,7 @@
         <v>492.31</v>
       </c>
       <c r="L196" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8334,7 +8343,7 @@
         <v>389.87</v>
       </c>
       <c r="L197" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8366,7 +8375,7 @@
         <v>574.51</v>
       </c>
       <c r="L198" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8398,7 +8407,7 @@
         <v>582.28</v>
       </c>
       <c r="L199" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8430,7 +8439,7 @@
         <v>644.4400000000001</v>
       </c>
       <c r="L200" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8462,7 +8471,7 @@
         <v>670.27</v>
       </c>
       <c r="L201" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8494,7 +8503,7 @@
         <v>722.38</v>
       </c>
       <c r="L202" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8526,7 +8535,7 @@
         <v>751.52</v>
       </c>
       <c r="L203" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8558,7 +8567,7 @@
         <v>762.71</v>
       </c>
       <c r="L204" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -8590,7 +8599,7 @@
         <v>794.13</v>
       </c>
       <c r="L205" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -8622,7 +8631,7 @@
         <v>824.9</v>
       </c>
       <c r="L206" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8654,7 +8663,7 @@
         <v>845.41</v>
       </c>
       <c r="L207" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8686,7 +8695,7 @@
         <v>863.99</v>
       </c>
       <c r="L208" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8718,7 +8727,7 @@
         <v>763.84</v>
       </c>
       <c r="L209" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -8750,7 +8759,7 @@
         <v>614.8200000000001</v>
       </c>
       <c r="L210" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -8782,7 +8791,7 @@
         <v>445.23</v>
       </c>
       <c r="L211" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -8814,7 +8823,7 @@
         <v>1002.88</v>
       </c>
       <c r="L212" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -8846,7 +8855,7 @@
         <v>648.12</v>
       </c>
       <c r="L213" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -8878,7 +8887,7 @@
         <v>767.35</v>
       </c>
       <c r="L214" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -8910,7 +8919,7 @@
         <v>968.79</v>
       </c>
       <c r="L215" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -8942,7 +8951,7 @@
         <v>985.6799999999999</v>
       </c>
       <c r="L216" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -8974,7 +8983,7 @@
         <v>984.89</v>
       </c>
       <c r="L217" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -9006,7 +9015,7 @@
         <v>969.05</v>
       </c>
       <c r="L218" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -9038,7 +9047,7 @@
         <v>971.14</v>
       </c>
       <c r="L219" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -9070,7 +9079,7 @@
         <v>958.51</v>
       </c>
       <c r="L220" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -9102,7 +9111,7 @@
         <v>946.71</v>
       </c>
       <c r="L221" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -9134,7 +9143,7 @@
         <v>946.62</v>
       </c>
       <c r="L222" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -9166,7 +9175,7 @@
         <v>928.41</v>
       </c>
       <c r="L223" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -9198,7 +9207,7 @@
         <v>911.03</v>
       </c>
       <c r="L224" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -9230,7 +9239,7 @@
         <v>894.41</v>
       </c>
       <c r="L225" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -9262,7 +9271,7 @@
         <v>867.71</v>
       </c>
       <c r="L226" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -9294,7 +9303,7 @@
         <v>859.88</v>
       </c>
       <c r="L227" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -9326,7 +9335,7 @@
         <v>850.51</v>
       </c>
       <c r="L228" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -9358,7 +9367,7 @@
         <v>487.06</v>
       </c>
       <c r="L229" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -9390,7 +9399,7 @@
         <v>434.71</v>
       </c>
       <c r="L230" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -9422,7 +9431,7 @@
         <v>396.05</v>
       </c>
       <c r="L231" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -9454,7 +9463,7 @@
         <v>715.8200000000001</v>
       </c>
       <c r="L232" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -9486,7 +9495,7 @@
         <v>673.46</v>
       </c>
       <c r="L233" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -9518,7 +9527,7 @@
         <v>601.2</v>
       </c>
       <c r="L234" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -9550,7 +9559,7 @@
         <v>410.66</v>
       </c>
       <c r="L235" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -9582,7 +9591,7 @@
         <v>312.8</v>
       </c>
       <c r="L236" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9614,7 +9623,7 @@
         <v>377.58</v>
       </c>
       <c r="L237" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9646,7 +9655,7 @@
         <v>552.5</v>
       </c>
       <c r="L238" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9678,7 +9687,7 @@
         <v>480.2</v>
       </c>
       <c r="L239" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -9710,7 +9719,7 @@
         <v>476.42</v>
       </c>
       <c r="L240" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9742,7 +9751,7 @@
         <v>278.96</v>
       </c>
       <c r="L241" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9774,7 +9783,7 @@
         <v>203.85</v>
       </c>
       <c r="L242" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9806,7 +9815,7 @@
         <v>214.18</v>
       </c>
       <c r="L243" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9838,7 +9847,7 @@
         <v>145.52</v>
       </c>
       <c r="L244" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9870,7 +9879,7 @@
         <v>97.95999999999999</v>
       </c>
       <c r="L245" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9902,7 +9911,7 @@
         <v>57.06</v>
       </c>
       <c r="L246" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9934,7 +9943,7 @@
         <v>21.33</v>
       </c>
       <c r="L247" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9966,7 +9975,7 @@
         <v>19.44</v>
       </c>
       <c r="L248" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9998,7 +10007,7 @@
         <v>21.44</v>
       </c>
       <c r="L249" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -10030,7 +10039,7 @@
         <v>10.59</v>
       </c>
       <c r="L250" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -10062,7 +10071,7 @@
         <v>4.52</v>
       </c>
       <c r="L251" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -10094,7 +10103,7 @@
         <v>0.97</v>
       </c>
       <c r="L252" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -10126,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="L253" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -10158,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -10190,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -10222,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -10254,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -10286,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -10318,7 +10327,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10350,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10382,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -10414,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -10446,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -10478,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -10510,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -10542,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -10574,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10606,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10638,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10670,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10702,7 +10711,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10734,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10766,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10798,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10830,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10862,7 +10871,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10894,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10926,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10958,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10990,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -11022,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -11054,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -11086,7 +11095,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -11118,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -11150,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -11182,7 +11191,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -11214,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -11246,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -11278,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -11310,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -11342,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -11374,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -11406,7 +11415,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -11438,7 +11447,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -11470,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -11502,7 +11511,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -11534,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -11566,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -11598,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -11630,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -11662,7 +11671,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -11694,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -11726,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -11758,7 +11767,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11790,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11822,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11854,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11886,7 +11895,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11918,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11950,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -11982,7 +11991,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -12014,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -12046,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -12078,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -12110,7 +12119,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -12142,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -12174,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -12206,7 +12215,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -12238,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -12270,7 +12279,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -12302,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -12334,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -12366,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -12398,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -12430,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="L325" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -12462,7 +12471,7 @@
         <v>0.86</v>
       </c>
       <c r="L326" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -12494,7 +12503,7 @@
         <v>6.4</v>
       </c>
       <c r="L327" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -12526,7 +12535,7 @@
         <v>16.07</v>
       </c>
       <c r="L328" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -12558,7 +12567,7 @@
         <v>25.44</v>
       </c>
       <c r="L329" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -12590,7 +12599,7 @@
         <v>34.16</v>
       </c>
       <c r="L330" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -12622,7 +12631,7 @@
         <v>46.76</v>
       </c>
       <c r="L331" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -12654,7 +12663,7 @@
         <v>118.33</v>
       </c>
       <c r="L332" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -12686,7 +12695,7 @@
         <v>168.5</v>
       </c>
       <c r="L333" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -12718,7 +12727,7 @@
         <v>232.61</v>
       </c>
       <c r="L334" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -12750,7 +12759,7 @@
         <v>288.46</v>
       </c>
       <c r="L335" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -12782,7 +12791,7 @@
         <v>338.6</v>
       </c>
       <c r="L336" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -12814,7 +12823,7 @@
         <v>381.26</v>
       </c>
       <c r="L337" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -12846,7 +12855,7 @@
         <v>422.79</v>
       </c>
       <c r="L338" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -12878,7 +12887,7 @@
         <v>461.78</v>
       </c>
       <c r="L339" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -12910,7 +12919,7 @@
         <v>463.12</v>
       </c>
       <c r="L340" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -12942,7 +12951,7 @@
         <v>405.71</v>
       </c>
       <c r="L341" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -12974,7 +12983,7 @@
         <v>573.83</v>
       </c>
       <c r="L342" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -13006,7 +13015,7 @@
         <v>607.8</v>
       </c>
       <c r="L343" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -13038,7 +13047,7 @@
         <v>647.26</v>
       </c>
       <c r="L344" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -13070,7 +13079,7 @@
         <v>678.3</v>
       </c>
       <c r="L345" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -13102,7 +13111,7 @@
         <v>713.53</v>
       </c>
       <c r="L346" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -13134,7 +13143,7 @@
         <v>739.12</v>
       </c>
       <c r="L347" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -13166,7 +13175,7 @@
         <v>761.24</v>
       </c>
       <c r="L348" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -13198,7 +13207,7 @@
         <v>785.12</v>
       </c>
       <c r="L349" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -13230,7 +13239,7 @@
         <v>811.4</v>
       </c>
       <c r="L350" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -13262,7 +13271,7 @@
         <v>837.8200000000001</v>
       </c>
       <c r="L351" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -13294,7 +13303,7 @@
         <v>859.64</v>
       </c>
       <c r="L352" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -13326,7 +13335,7 @@
         <v>872.03</v>
       </c>
       <c r="L353" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -13358,7 +13367,7 @@
         <v>889.67</v>
       </c>
       <c r="L354" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -13390,7 +13399,7 @@
         <v>898.98</v>
       </c>
       <c r="L355" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -13422,7 +13431,7 @@
         <v>901.21</v>
       </c>
       <c r="L356" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -13454,7 +13463,7 @@
         <v>913.5599999999999</v>
       </c>
       <c r="L357" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -13486,7 +13495,7 @@
         <v>924.92</v>
       </c>
       <c r="L358" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -13518,7 +13527,7 @@
         <v>925.42</v>
       </c>
       <c r="L359" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -13550,7 +13559,7 @@
         <v>933.91</v>
       </c>
       <c r="L360" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -13582,7 +13591,7 @@
         <v>932.0700000000001</v>
       </c>
       <c r="L361" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -13614,7 +13623,7 @@
         <v>927.65</v>
       </c>
       <c r="L362" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -13646,7 +13655,7 @@
         <v>924.52</v>
       </c>
       <c r="L363" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -13678,7 +13687,7 @@
         <v>904.54</v>
       </c>
       <c r="L364" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -13710,7 +13719,7 @@
         <v>910.37</v>
       </c>
       <c r="L365" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -13742,7 +13751,7 @@
         <v>897.96</v>
       </c>
       <c r="L366" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -13774,7 +13783,7 @@
         <v>897.34</v>
       </c>
       <c r="L367" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -13806,7 +13815,7 @@
         <v>850.22</v>
       </c>
       <c r="L368" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -13838,7 +13847,7 @@
         <v>821.89</v>
       </c>
       <c r="L369" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -13870,7 +13879,7 @@
         <v>827.58</v>
       </c>
       <c r="L370" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -13902,7 +13911,7 @@
         <v>808.55</v>
       </c>
       <c r="L371" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -13934,7 +13943,7 @@
         <v>793.96</v>
       </c>
       <c r="L372" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -13966,7 +13975,7 @@
         <v>777.9299999999999</v>
       </c>
       <c r="L373" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -13998,7 +14007,7 @@
         <v>760.61</v>
       </c>
       <c r="L374" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -14030,7 +14039,7 @@
         <v>738</v>
       </c>
       <c r="L375" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -14062,7 +14071,7 @@
         <v>718.28</v>
       </c>
       <c r="L376" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -14094,7 +14103,7 @@
         <v>693.65</v>
       </c>
       <c r="L377" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -14126,7 +14135,7 @@
         <v>663.5599999999999</v>
       </c>
       <c r="L378" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -14158,7 +14167,7 @@
         <v>625.51</v>
       </c>
       <c r="L379" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -14190,7 +14199,7 @@
         <v>587.35</v>
       </c>
       <c r="L380" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -14222,7 +14231,7 @@
         <v>533.12</v>
       </c>
       <c r="L381" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -14254,7 +14263,7 @@
         <v>477.06</v>
       </c>
       <c r="L382" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -14286,7 +14295,7 @@
         <v>406.89</v>
       </c>
       <c r="L383" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -14318,7 +14327,7 @@
         <v>409.25</v>
       </c>
       <c r="L384" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -14350,7 +14359,7 @@
         <v>348.14</v>
       </c>
       <c r="L385" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -14382,7 +14391,7 @@
         <v>303.96</v>
       </c>
       <c r="L386" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -14414,7 +14423,7 @@
         <v>251.19</v>
       </c>
       <c r="L387" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -14446,7 +14455,7 @@
         <v>222.31</v>
       </c>
       <c r="L388" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -14478,7 +14487,7 @@
         <v>192.25</v>
       </c>
       <c r="L389" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -14510,7 +14519,7 @@
         <v>106.59</v>
       </c>
       <c r="L390" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -14542,7 +14551,7 @@
         <v>68.34</v>
       </c>
       <c r="L391" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -14574,7 +14583,7 @@
         <v>70.81</v>
       </c>
       <c r="L392" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -14606,7 +14615,7 @@
         <v>25.75</v>
       </c>
       <c r="L393" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -14638,7 +14647,7 @@
         <v>15.16</v>
       </c>
       <c r="L394" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -14670,7 +14679,7 @@
         <v>7.16</v>
       </c>
       <c r="L395" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -14702,7 +14711,7 @@
         <v>1.69</v>
       </c>
       <c r="L396" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -14734,7 +14743,7 @@
         <v>0</v>
       </c>
       <c r="L397" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -14766,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="L398" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -14798,7 +14807,7 @@
         <v>0</v>
       </c>
       <c r="L399" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -14830,7 +14839,7 @@
         <v>0</v>
       </c>
       <c r="L400" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -14862,7 +14871,7 @@
         <v>0</v>
       </c>
       <c r="L401" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -14894,7 +14903,7 @@
         <v>0</v>
       </c>
       <c r="L402" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -14926,7 +14935,7 @@
         <v>0</v>
       </c>
       <c r="L403" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -14958,7 +14967,7 @@
         <v>0</v>
       </c>
       <c r="L404" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -14990,7 +14999,7 @@
         <v>0</v>
       </c>
       <c r="L405" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -15022,7 +15031,7 @@
         <v>0</v>
       </c>
       <c r="L406" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -15054,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="L407" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -15086,7 +15095,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -15118,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="L409" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -15150,7 +15159,7 @@
         <v>0</v>
       </c>
       <c r="L410" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -15182,7 +15191,7 @@
         <v>0</v>
       </c>
       <c r="L411" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -15214,7 +15223,7 @@
         <v>0</v>
       </c>
       <c r="L412" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -15246,7 +15255,7 @@
         <v>0</v>
       </c>
       <c r="L413" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -15278,7 +15287,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -15310,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="L415" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -15342,7 +15351,7 @@
         <v>0</v>
       </c>
       <c r="L416" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -15374,7 +15383,7 @@
         <v>0</v>
       </c>
       <c r="L417" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -15406,7 +15415,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -15438,7 +15447,7 @@
         <v>0</v>
       </c>
       <c r="L419" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -15470,7 +15479,7 @@
         <v>0</v>
       </c>
       <c r="L420" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -15502,7 +15511,7 @@
         <v>0</v>
       </c>
       <c r="L421" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -15534,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="L422" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -15566,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="L423" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -15598,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="L424" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -15630,7 +15639,7 @@
         <v>0</v>
       </c>
       <c r="L425" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -15662,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="L426" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -15694,7 +15703,7 @@
         <v>0</v>
       </c>
       <c r="L427" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -15726,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="L428" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -15758,7 +15767,7 @@
         <v>0</v>
       </c>
       <c r="L429" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -15790,7 +15799,7 @@
         <v>0</v>
       </c>
       <c r="L430" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -15822,7 +15831,7 @@
         <v>0</v>
       </c>
       <c r="L431" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -15854,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="L432" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -15886,7 +15895,7 @@
         <v>0</v>
       </c>
       <c r="L433" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -15918,7 +15927,7 @@
         <v>0</v>
       </c>
       <c r="L434" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -15950,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="L435" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -15982,7 +15991,7 @@
         <v>0</v>
       </c>
       <c r="L436" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -16014,7 +16023,7 @@
         <v>0</v>
       </c>
       <c r="L437" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -16046,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="L438" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -16078,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="L439" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -16110,7 +16119,7 @@
         <v>0</v>
       </c>
       <c r="L440" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -16142,7 +16151,7 @@
         <v>0</v>
       </c>
       <c r="L441" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -16174,7 +16183,7 @@
         <v>0</v>
       </c>
       <c r="L442" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -16206,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="L443" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -16238,7 +16247,7 @@
         <v>0</v>
       </c>
       <c r="L444" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -16270,7 +16279,7 @@
         <v>0</v>
       </c>
       <c r="L445" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -16302,7 +16311,7 @@
         <v>0</v>
       </c>
       <c r="L446" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -16334,7 +16343,7 @@
         <v>0</v>
       </c>
       <c r="L447" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -16366,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="L448" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -16398,7 +16407,7 @@
         <v>0</v>
       </c>
       <c r="L449" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -16430,7 +16439,7 @@
         <v>0.02</v>
       </c>
       <c r="L450" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -16462,7 +16471,7 @@
         <v>0</v>
       </c>
       <c r="L451" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -16494,7 +16503,7 @@
         <v>0</v>
       </c>
       <c r="L452" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -16526,7 +16535,7 @@
         <v>0</v>
       </c>
       <c r="L453" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -16558,7 +16567,7 @@
         <v>0</v>
       </c>
       <c r="L454" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -16590,7 +16599,7 @@
         <v>0</v>
       </c>
       <c r="L455" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -16622,7 +16631,7 @@
         <v>0</v>
       </c>
       <c r="L456" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -16654,7 +16663,7 @@
         <v>0</v>
       </c>
       <c r="L457" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -16686,7 +16695,7 @@
         <v>0</v>
       </c>
       <c r="L458" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -16718,7 +16727,7 @@
         <v>0</v>
       </c>
       <c r="L459" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -16750,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="L460" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -16782,7 +16791,7 @@
         <v>0</v>
       </c>
       <c r="L461" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -16814,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="L462" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -16846,7 +16855,7 @@
         <v>0</v>
       </c>
       <c r="L463" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -16878,7 +16887,7 @@
         <v>0</v>
       </c>
       <c r="L464" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -16910,7 +16919,7 @@
         <v>0</v>
       </c>
       <c r="L465" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -16942,7 +16951,7 @@
         <v>0</v>
       </c>
       <c r="L466" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -16974,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="L467" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -17006,7 +17015,7 @@
         <v>0</v>
       </c>
       <c r="L468" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -17038,7 +17047,7 @@
         <v>0</v>
       </c>
       <c r="L469" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -17070,7 +17079,7 @@
         <v>0.86</v>
       </c>
       <c r="L470" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -17102,7 +17111,7 @@
         <v>5.2</v>
       </c>
       <c r="L471" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -17134,7 +17143,7 @@
         <v>12.08</v>
       </c>
       <c r="L472" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -17166,7 +17175,7 @@
         <v>21.07</v>
       </c>
       <c r="L473" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -17198,7 +17207,7 @@
         <v>30.76</v>
       </c>
       <c r="L474" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -17230,7 +17239,7 @@
         <v>42.19</v>
       </c>
       <c r="L475" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -17262,7 +17271,7 @@
         <v>89.12</v>
       </c>
       <c r="L476" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -17294,7 +17303,7 @@
         <v>158.12</v>
       </c>
       <c r="L477" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -17326,7 +17335,7 @@
         <v>219.92</v>
       </c>
       <c r="L478" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -17358,7 +17367,7 @@
         <v>271.55</v>
       </c>
       <c r="L479" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -17390,7 +17399,7 @@
         <v>321.09</v>
       </c>
       <c r="L480" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -17422,7 +17431,7 @@
         <v>365.53</v>
       </c>
       <c r="L481" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -17454,7 +17463,7 @@
         <v>398.09</v>
       </c>
       <c r="L482" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -17486,7 +17495,7 @@
         <v>441.63</v>
       </c>
       <c r="L483" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -17518,7 +17527,7 @@
         <v>423.75</v>
       </c>
       <c r="L484" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -17550,7 +17559,7 @@
         <v>433.09</v>
       </c>
       <c r="L485" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -17582,7 +17591,7 @@
         <v>565.8</v>
       </c>
       <c r="L486" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -17614,7 +17623,7 @@
         <v>587.51</v>
       </c>
       <c r="L487" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -17646,7 +17655,7 @@
         <v>640.13</v>
       </c>
       <c r="L488" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -17678,7 +17687,7 @@
         <v>676.16</v>
       </c>
       <c r="L489" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -17710,7 +17719,7 @@
         <v>698.71</v>
       </c>
       <c r="L490" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -17742,7 +17751,7 @@
         <v>723.4400000000001</v>
       </c>
       <c r="L491" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -17774,7 +17783,7 @@
         <v>751.92</v>
       </c>
       <c r="L492" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -17806,7 +17815,7 @@
         <v>775.84</v>
       </c>
       <c r="L493" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -17838,7 +17847,7 @@
         <v>801.4299999999999</v>
       </c>
       <c r="L494" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -17870,7 +17879,7 @@
         <v>826.84</v>
       </c>
       <c r="L495" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="496" spans="1:12">
@@ -17902,7 +17911,7 @@
         <v>848.87</v>
       </c>
       <c r="L496" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="497" spans="1:12">
@@ -17934,7 +17943,7 @@
         <v>865.33</v>
       </c>
       <c r="L497" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -17966,7 +17975,7 @@
         <v>882.66</v>
       </c>
       <c r="L498" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -17998,7 +18007,7 @@
         <v>899.65</v>
       </c>
       <c r="L499" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="500" spans="1:12">
@@ -18030,7 +18039,7 @@
         <v>910.4</v>
       </c>
       <c r="L500" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -18062,7 +18071,7 @@
         <v>923.04</v>
       </c>
       <c r="L501" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -18094,7 +18103,7 @@
         <v>927.42</v>
       </c>
       <c r="L502" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -18126,7 +18135,7 @@
         <v>933.17</v>
       </c>
       <c r="L503" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -18158,7 +18167,7 @@
         <v>931.5599999999999</v>
       </c>
       <c r="L504" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="505" spans="1:12">
@@ -18190,7 +18199,7 @@
         <v>936.75</v>
       </c>
       <c r="L505" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -18222,7 +18231,7 @@
         <v>938.8200000000001</v>
       </c>
       <c r="L506" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="507" spans="1:12">
@@ -18254,7 +18263,7 @@
         <v>927.12</v>
       </c>
       <c r="L507" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -18286,7 +18295,7 @@
         <v>928.42</v>
       </c>
       <c r="L508" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -18318,7 +18327,7 @@
         <v>921.08</v>
       </c>
       <c r="L509" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -18350,7 +18359,7 @@
         <v>940.47</v>
       </c>
       <c r="L510" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="511" spans="1:12">
@@ -18382,7 +18391,7 @@
         <v>926.74</v>
       </c>
       <c r="L511" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -18414,7 +18423,7 @@
         <v>925.66</v>
       </c>
       <c r="L512" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -18446,7 +18455,7 @@
         <v>916.28</v>
       </c>
       <c r="L513" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -18478,7 +18487,7 @@
         <v>899.76</v>
       </c>
       <c r="L514" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -18510,7 +18519,7 @@
         <v>863.1900000000001</v>
       </c>
       <c r="L515" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -18542,7 +18551,7 @@
         <v>802.12</v>
       </c>
       <c r="L516" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -18574,7 +18583,7 @@
         <v>716.28</v>
       </c>
       <c r="L517" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -18606,7 +18615,7 @@
         <v>791.47</v>
       </c>
       <c r="L518" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -18638,7 +18647,7 @@
         <v>781.62</v>
       </c>
       <c r="L519" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -18670,7 +18679,7 @@
         <v>762.1</v>
       </c>
       <c r="L520" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="521" spans="1:12">
@@ -18702,7 +18711,7 @@
         <v>721.55</v>
       </c>
       <c r="L521" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="522" spans="1:12">
@@ -18734,7 +18743,7 @@
         <v>667.3099999999999</v>
       </c>
       <c r="L522" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -18766,7 +18775,7 @@
         <v>589.03</v>
       </c>
       <c r="L523" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -18798,7 +18807,7 @@
         <v>496.87</v>
       </c>
       <c r="L524" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -18830,7 +18839,7 @@
         <v>539</v>
       </c>
       <c r="L525" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -18862,7 +18871,7 @@
         <v>519.01</v>
       </c>
       <c r="L526" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -18894,7 +18903,7 @@
         <v>443.21</v>
       </c>
       <c r="L527" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="528" spans="1:12">
@@ -18926,7 +18935,7 @@
         <v>214.51</v>
       </c>
       <c r="L528" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="529" spans="1:12">
@@ -18958,7 +18967,7 @@
         <v>142.26</v>
       </c>
       <c r="L529" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -18990,7 +18999,7 @@
         <v>273.33</v>
       </c>
       <c r="L530" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -19022,7 +19031,7 @@
         <v>236.19</v>
       </c>
       <c r="L531" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="532" spans="1:12">
@@ -19054,7 +19063,7 @@
         <v>163.31</v>
       </c>
       <c r="L532" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -19086,7 +19095,7 @@
         <v>155.64</v>
       </c>
       <c r="L533" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -19118,7 +19127,7 @@
         <v>138.08</v>
       </c>
       <c r="L534" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -19150,7 +19159,7 @@
         <v>97.92</v>
       </c>
       <c r="L535" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="536" spans="1:12">
@@ -19182,7 +19191,7 @@
         <v>54.87</v>
       </c>
       <c r="L536" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="537" spans="1:12">
@@ -19214,7 +19223,7 @@
         <v>22.53</v>
       </c>
       <c r="L537" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="538" spans="1:12">
@@ -19246,7 +19255,7 @@
         <v>12.64</v>
       </c>
       <c r="L538" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="539" spans="1:12">
@@ -19278,7 +19287,7 @@
         <v>6.11</v>
       </c>
       <c r="L539" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="540" spans="1:12">
@@ -19288,11 +19297,125 @@
       <c r="B540" t="s">
         <v>549</v>
       </c>
+      <c r="C540">
+        <v>13.23</v>
+      </c>
+      <c r="D540">
+        <v>90.36</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
       <c r="F540">
         <v>22.3</v>
       </c>
+      <c r="H540">
+        <v>20.63</v>
+      </c>
+      <c r="I540">
+        <v>-0.02</v>
+      </c>
+      <c r="J540">
+        <v>1.62</v>
+      </c>
       <c r="L540" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541" t="s">
         <v>550</v>
+      </c>
+      <c r="C541">
+        <v>13.08</v>
+      </c>
+      <c r="D541">
+        <v>93.31999999999999</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541">
+        <v>21.77</v>
+      </c>
+      <c r="H541">
+        <v>20.63</v>
+      </c>
+      <c r="I541">
+        <v>-0.1</v>
+      </c>
+      <c r="J541">
+        <v>0</v>
+      </c>
+      <c r="L541" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542" t="s">
+        <v>551</v>
+      </c>
+      <c r="C542">
+        <v>13.06</v>
+      </c>
+      <c r="D542">
+        <v>93.64</v>
+      </c>
+      <c r="E542">
+        <v>0</v>
+      </c>
+      <c r="F542">
+        <v>21.62</v>
+      </c>
+      <c r="H542">
+        <v>20.55</v>
+      </c>
+      <c r="I542">
+        <v>0.06</v>
+      </c>
+      <c r="J542">
+        <v>0</v>
+      </c>
+      <c r="L542" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543" t="s">
+        <v>552</v>
+      </c>
+      <c r="C543">
+        <v>13.04</v>
+      </c>
+      <c r="D543">
+        <v>90.03</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>21.5</v>
+      </c>
+      <c r="H543">
+        <v>19.79</v>
+      </c>
+      <c r="I543">
+        <v>0.15</v>
+      </c>
+      <c r="J543">
+        <v>0</v>
+      </c>
+      <c r="L543" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
+++ b/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="455">
   <si>
     <t>Fecha</t>
   </si>
@@ -1349,6 +1349,33 @@
   </si>
   <si>
     <t>11/17/2020 12:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 12:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 12:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 12:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 12:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:40:00 AM</t>
   </si>
   <si>
     <t>ANTIGUA GUATEMALA</t>
@@ -1709,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L435"/>
+  <dimension ref="A1:L444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1779,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1811,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1843,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1875,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1907,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1939,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1971,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2003,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2035,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2067,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2099,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2131,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2163,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2195,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2227,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2259,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2291,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2323,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2355,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2387,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2419,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2451,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2483,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2515,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2547,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2579,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2611,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2643,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2675,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2707,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2739,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2771,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2803,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2835,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2867,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2899,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2931,7 +2958,7 @@
         <v>0.95</v>
       </c>
       <c r="L38" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2963,7 +2990,7 @@
         <v>5.29</v>
       </c>
       <c r="L39" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2995,7 +3022,7 @@
         <v>12.48</v>
       </c>
       <c r="L40" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3027,7 +3054,7 @@
         <v>20.11</v>
       </c>
       <c r="L41" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3059,7 +3086,7 @@
         <v>28.44</v>
       </c>
       <c r="L42" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3091,7 +3118,7 @@
         <v>38.38</v>
       </c>
       <c r="L43" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3123,7 +3150,7 @@
         <v>95.87</v>
       </c>
       <c r="L44" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3155,7 +3182,7 @@
         <v>196.71</v>
       </c>
       <c r="L45" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3187,7 +3214,7 @@
         <v>246.93</v>
       </c>
       <c r="L46" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3219,7 +3246,7 @@
         <v>289.17</v>
       </c>
       <c r="L47" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3251,7 +3278,7 @@
         <v>321.93</v>
       </c>
       <c r="L48" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3283,7 +3310,7 @@
         <v>358.4</v>
       </c>
       <c r="L49" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3315,7 +3342,7 @@
         <v>403.91</v>
       </c>
       <c r="L50" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3347,7 +3374,7 @@
         <v>448.97</v>
       </c>
       <c r="L51" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3379,7 +3406,7 @@
         <v>383.21</v>
       </c>
       <c r="L52" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3411,7 +3438,7 @@
         <v>469.81</v>
       </c>
       <c r="L53" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3443,7 +3470,7 @@
         <v>566.09</v>
       </c>
       <c r="L54" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3475,7 +3502,7 @@
         <v>600.95</v>
       </c>
       <c r="L55" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3507,7 +3534,7 @@
         <v>636.4400000000001</v>
       </c>
       <c r="L56" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3539,7 +3566,7 @@
         <v>672.87</v>
       </c>
       <c r="L57" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3571,7 +3598,7 @@
         <v>701.8</v>
       </c>
       <c r="L58" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3603,7 +3630,7 @@
         <v>732.86</v>
       </c>
       <c r="L59" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3635,7 +3662,7 @@
         <v>755.4400000000001</v>
       </c>
       <c r="L60" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3667,7 +3694,7 @@
         <v>781.85</v>
       </c>
       <c r="L61" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3699,7 +3726,7 @@
         <v>843.09</v>
       </c>
       <c r="L62" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3731,7 +3758,7 @@
         <v>891.74</v>
       </c>
       <c r="L63" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3763,7 +3790,7 @@
         <v>824.09</v>
       </c>
       <c r="L64" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3795,7 +3822,7 @@
         <v>574.41</v>
       </c>
       <c r="L65" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3827,7 +3854,7 @@
         <v>255.46</v>
       </c>
       <c r="L66" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3859,7 +3886,7 @@
         <v>794.48</v>
       </c>
       <c r="L67" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3891,7 +3918,7 @@
         <v>952.9400000000001</v>
       </c>
       <c r="L68" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3923,7 +3950,7 @@
         <v>969.95</v>
       </c>
       <c r="L69" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3955,7 +3982,7 @@
         <v>1007.3</v>
       </c>
       <c r="L70" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3987,7 +4014,7 @@
         <v>981.14</v>
       </c>
       <c r="L71" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4019,7 +4046,7 @@
         <v>807.54</v>
       </c>
       <c r="L72" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4051,7 +4078,7 @@
         <v>295.56</v>
       </c>
       <c r="L73" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4083,7 +4110,7 @@
         <v>551.98</v>
       </c>
       <c r="L74" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4115,7 +4142,7 @@
         <v>897.27</v>
       </c>
       <c r="L75" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4147,7 +4174,7 @@
         <v>795.14</v>
       </c>
       <c r="L76" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4179,7 +4206,7 @@
         <v>526.13</v>
       </c>
       <c r="L77" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4211,7 +4238,7 @@
         <v>242.31</v>
       </c>
       <c r="L78" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4243,7 +4270,7 @@
         <v>319.02</v>
       </c>
       <c r="L79" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4275,7 +4302,7 @@
         <v>886.34</v>
       </c>
       <c r="L80" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4307,7 +4334,7 @@
         <v>938.83</v>
       </c>
       <c r="L81" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4339,7 +4366,7 @@
         <v>870.4299999999999</v>
       </c>
       <c r="L82" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4371,7 +4398,7 @@
         <v>835.27</v>
       </c>
       <c r="L83" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4403,7 +4430,7 @@
         <v>846.5599999999999</v>
       </c>
       <c r="L84" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4435,7 +4462,7 @@
         <v>819.45</v>
       </c>
       <c r="L85" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4467,7 +4494,7 @@
         <v>796.08</v>
       </c>
       <c r="L86" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4499,7 +4526,7 @@
         <v>784.38</v>
       </c>
       <c r="L87" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4531,7 +4558,7 @@
         <v>764.2</v>
       </c>
       <c r="L88" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4563,7 +4590,7 @@
         <v>564.12</v>
       </c>
       <c r="L89" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4595,7 +4622,7 @@
         <v>646.97</v>
       </c>
       <c r="L90" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4627,7 +4654,7 @@
         <v>230.3</v>
       </c>
       <c r="L91" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4659,7 +4686,7 @@
         <v>99.84999999999999</v>
       </c>
       <c r="L92" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4691,7 +4718,7 @@
         <v>101.17</v>
       </c>
       <c r="L93" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4723,7 +4750,7 @@
         <v>106.93</v>
       </c>
       <c r="L94" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4755,7 +4782,7 @@
         <v>82</v>
       </c>
       <c r="L95" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4787,7 +4814,7 @@
         <v>89.70999999999999</v>
       </c>
       <c r="L96" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4819,7 +4846,7 @@
         <v>108.74</v>
       </c>
       <c r="L97" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4851,7 +4878,7 @@
         <v>129.87</v>
       </c>
       <c r="L98" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4883,7 +4910,7 @@
         <v>131.37</v>
       </c>
       <c r="L99" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4915,7 +4942,7 @@
         <v>101.26</v>
       </c>
       <c r="L100" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4947,7 +4974,7 @@
         <v>106.07</v>
       </c>
       <c r="L101" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4979,7 +5006,7 @@
         <v>87.97</v>
       </c>
       <c r="L102" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5011,7 +5038,7 @@
         <v>30.01</v>
       </c>
       <c r="L103" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5043,7 +5070,7 @@
         <v>15.95</v>
       </c>
       <c r="L104" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5075,7 +5102,7 @@
         <v>10.4</v>
       </c>
       <c r="L105" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5107,7 +5134,7 @@
         <v>6.59</v>
       </c>
       <c r="L106" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5139,7 +5166,7 @@
         <v>3.05</v>
       </c>
       <c r="L107" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5171,7 +5198,7 @@
         <v>0.46</v>
       </c>
       <c r="L108" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5203,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5235,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5267,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5299,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5331,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5363,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5395,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5427,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5459,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5491,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5523,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5555,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5587,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5619,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5651,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5683,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5715,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5747,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5779,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5811,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5843,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5875,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5907,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5939,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5971,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6003,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6035,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6067,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6099,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6131,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6163,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6195,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6227,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6259,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6291,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6323,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6355,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6387,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6419,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6451,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6483,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6515,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6547,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6579,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6611,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6643,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6675,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6707,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6739,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6771,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6803,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6835,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6867,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6899,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6931,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -6963,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -6995,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7027,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7059,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7091,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7123,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7155,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7187,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7219,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7251,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7283,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7315,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7347,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7379,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7411,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7443,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7475,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7507,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7539,7 +7566,7 @@
         <v>0.87</v>
       </c>
       <c r="L182" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7571,7 +7598,7 @@
         <v>4.68</v>
       </c>
       <c r="L183" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7603,7 +7630,7 @@
         <v>12.62</v>
       </c>
       <c r="L184" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7635,7 +7662,7 @@
         <v>22.44</v>
       </c>
       <c r="L185" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7667,7 +7694,7 @@
         <v>33.09</v>
       </c>
       <c r="L186" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7699,7 +7726,7 @@
         <v>43.42</v>
       </c>
       <c r="L187" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7731,7 +7758,7 @@
         <v>76.92</v>
       </c>
       <c r="L188" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -7763,7 +7790,7 @@
         <v>147</v>
       </c>
       <c r="L189" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -7795,7 +7822,7 @@
         <v>195.58</v>
       </c>
       <c r="L190" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7827,7 +7854,7 @@
         <v>240.17</v>
       </c>
       <c r="L191" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -7859,7 +7886,7 @@
         <v>279.83</v>
       </c>
       <c r="L192" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -7891,7 +7918,7 @@
         <v>327.68</v>
       </c>
       <c r="L193" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -7923,7 +7950,7 @@
         <v>378.09</v>
       </c>
       <c r="L194" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -7955,7 +7982,7 @@
         <v>432.09</v>
       </c>
       <c r="L195" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -7987,7 +8014,7 @@
         <v>353.59</v>
       </c>
       <c r="L196" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8019,7 +8046,7 @@
         <v>485.58</v>
       </c>
       <c r="L197" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8051,7 +8078,7 @@
         <v>535.52</v>
       </c>
       <c r="L198" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8083,7 +8110,7 @@
         <v>578.05</v>
       </c>
       <c r="L199" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8115,7 +8142,7 @@
         <v>607.88</v>
       </c>
       <c r="L200" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8147,7 +8174,7 @@
         <v>636.3200000000001</v>
       </c>
       <c r="L201" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8179,7 +8206,7 @@
         <v>672.75</v>
       </c>
       <c r="L202" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8211,7 +8238,7 @@
         <v>696.15</v>
       </c>
       <c r="L203" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8243,7 +8270,7 @@
         <v>720.6799999999999</v>
       </c>
       <c r="L204" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -8275,7 +8302,7 @@
         <v>758.4400000000001</v>
       </c>
       <c r="L205" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -8307,7 +8334,7 @@
         <v>783.58</v>
       </c>
       <c r="L206" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8339,7 +8366,7 @@
         <v>804.48</v>
       </c>
       <c r="L207" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8371,7 +8398,7 @@
         <v>839.86</v>
       </c>
       <c r="L208" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8403,7 +8430,7 @@
         <v>778.2</v>
       </c>
       <c r="L209" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -8435,7 +8462,7 @@
         <v>785.15</v>
       </c>
       <c r="L210" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -8467,7 +8494,7 @@
         <v>847.27</v>
       </c>
       <c r="L211" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -8499,7 +8526,7 @@
         <v>840.4400000000001</v>
       </c>
       <c r="L212" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -8531,7 +8558,7 @@
         <v>948.87</v>
       </c>
       <c r="L213" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -8563,7 +8590,7 @@
         <v>656.5599999999999</v>
       </c>
       <c r="L214" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -8595,7 +8622,7 @@
         <v>865.53</v>
       </c>
       <c r="L215" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -8627,7 +8654,7 @@
         <v>946.83</v>
       </c>
       <c r="L216" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -8659,7 +8686,7 @@
         <v>695.91</v>
       </c>
       <c r="L217" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -8691,7 +8718,7 @@
         <v>825.52</v>
       </c>
       <c r="L218" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -8723,7 +8750,7 @@
         <v>576.63</v>
       </c>
       <c r="L219" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -8755,7 +8782,7 @@
         <v>571.11</v>
       </c>
       <c r="L220" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -8787,7 +8814,7 @@
         <v>803.71</v>
       </c>
       <c r="L221" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -8819,7 +8846,7 @@
         <v>672.0700000000001</v>
       </c>
       <c r="L222" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8851,7 +8878,7 @@
         <v>749.97</v>
       </c>
       <c r="L223" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -8883,7 +8910,7 @@
         <v>591.75</v>
       </c>
       <c r="L224" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -8915,7 +8942,7 @@
         <v>634.12</v>
       </c>
       <c r="L225" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -8947,7 +8974,7 @@
         <v>298.12</v>
       </c>
       <c r="L226" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -8979,7 +9006,7 @@
         <v>127.07</v>
       </c>
       <c r="L227" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -9011,7 +9038,7 @@
         <v>80.23</v>
       </c>
       <c r="L228" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -9043,7 +9070,7 @@
         <v>61.93</v>
       </c>
       <c r="L229" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -9075,7 +9102,7 @@
         <v>65.86</v>
       </c>
       <c r="L230" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -9107,7 +9134,7 @@
         <v>79.79000000000001</v>
       </c>
       <c r="L231" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -9139,7 +9166,7 @@
         <v>144.32</v>
       </c>
       <c r="L232" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -9171,7 +9198,7 @@
         <v>258.86</v>
       </c>
       <c r="L233" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -9203,7 +9230,7 @@
         <v>224.9</v>
       </c>
       <c r="L234" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -9235,7 +9262,7 @@
         <v>257.49</v>
       </c>
       <c r="L235" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -9267,7 +9294,7 @@
         <v>224.31</v>
       </c>
       <c r="L236" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9299,7 +9326,7 @@
         <v>122.31</v>
       </c>
       <c r="L237" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9331,7 +9358,7 @@
         <v>116.56</v>
       </c>
       <c r="L238" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9363,7 +9390,7 @@
         <v>193.67</v>
       </c>
       <c r="L239" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -9395,7 +9422,7 @@
         <v>337.23</v>
       </c>
       <c r="L240" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9427,7 +9454,7 @@
         <v>396.38</v>
       </c>
       <c r="L241" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9459,7 +9486,7 @@
         <v>363.34</v>
       </c>
       <c r="L242" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9491,7 +9518,7 @@
         <v>339.02</v>
       </c>
       <c r="L243" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9523,7 +9550,7 @@
         <v>254.54</v>
       </c>
       <c r="L244" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9555,7 +9582,7 @@
         <v>215.3</v>
       </c>
       <c r="L245" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9587,7 +9614,7 @@
         <v>175.78</v>
       </c>
       <c r="L246" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9619,7 +9646,7 @@
         <v>122.15</v>
       </c>
       <c r="L247" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9651,7 +9678,7 @@
         <v>81.73999999999999</v>
       </c>
       <c r="L248" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9683,7 +9710,7 @@
         <v>38.8</v>
       </c>
       <c r="L249" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9715,7 +9742,7 @@
         <v>26.35</v>
       </c>
       <c r="L250" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9747,7 +9774,7 @@
         <v>14.53</v>
       </c>
       <c r="L251" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9779,7 +9806,7 @@
         <v>5.59</v>
       </c>
       <c r="L252" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9811,7 +9838,7 @@
         <v>0.5</v>
       </c>
       <c r="L253" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -9843,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -9875,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -9907,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -9939,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -9971,7 +9998,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -10003,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10035,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10067,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -10099,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -10131,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -10163,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -10195,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -10227,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -10259,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10291,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10323,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10355,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10387,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10419,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10451,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10483,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10515,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10547,7 +10574,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10579,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10611,7 +10638,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10643,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10675,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -10707,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -10739,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -10771,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -10803,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -10835,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -10867,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -10899,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -10931,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -10963,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -10995,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -11027,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -11059,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -11091,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -11123,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -11155,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -11187,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -11219,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -11251,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -11283,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -11315,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -11347,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -11379,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -11411,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -11443,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11475,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11507,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11539,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11571,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11603,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11635,7 +11662,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -11667,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -11699,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -11731,7 +11758,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -11763,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -11795,7 +11822,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -11827,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -11859,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -11891,7 +11918,7 @@
         <v>0.02</v>
       </c>
       <c r="L318" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -11923,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -11955,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -11987,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -12019,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -12051,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -12083,7 +12110,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -12115,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="L325" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -12147,7 +12174,7 @@
         <v>0.16</v>
       </c>
       <c r="L326" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -12179,7 +12206,7 @@
         <v>2.72</v>
       </c>
       <c r="L327" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -12211,7 +12238,7 @@
         <v>7.97</v>
       </c>
       <c r="L328" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -12243,7 +12270,7 @@
         <v>16.43</v>
       </c>
       <c r="L329" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -12275,7 +12302,7 @@
         <v>29.57</v>
       </c>
       <c r="L330" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -12307,7 +12334,7 @@
         <v>49.31</v>
       </c>
       <c r="L331" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -12339,7 +12366,7 @@
         <v>56.77</v>
       </c>
       <c r="L332" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -12371,7 +12398,7 @@
         <v>74.65000000000001</v>
       </c>
       <c r="L333" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -12403,7 +12430,7 @@
         <v>89.79000000000001</v>
       </c>
       <c r="L334" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -12435,7 +12462,7 @@
         <v>132.61</v>
       </c>
       <c r="L335" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -12467,7 +12494,7 @@
         <v>183.45</v>
       </c>
       <c r="L336" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -12499,7 +12526,7 @@
         <v>285.93</v>
       </c>
       <c r="L337" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -12531,7 +12558,7 @@
         <v>289.84</v>
       </c>
       <c r="L338" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -12563,7 +12590,7 @@
         <v>276.9</v>
       </c>
       <c r="L339" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -12595,7 +12622,7 @@
         <v>260.09</v>
       </c>
       <c r="L340" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -12627,7 +12654,7 @@
         <v>283.28</v>
       </c>
       <c r="L341" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -12659,7 +12686,7 @@
         <v>328.52</v>
       </c>
       <c r="L342" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -12691,7 +12718,7 @@
         <v>266.12</v>
       </c>
       <c r="L343" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -12723,7 +12750,7 @@
         <v>390.5</v>
       </c>
       <c r="L344" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -12755,7 +12782,7 @@
         <v>673.77</v>
       </c>
       <c r="L345" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -12787,7 +12814,7 @@
         <v>711.9</v>
       </c>
       <c r="L346" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -12819,7 +12846,7 @@
         <v>739.46</v>
       </c>
       <c r="L347" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -12851,7 +12878,7 @@
         <v>775.8099999999999</v>
       </c>
       <c r="L348" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -12883,7 +12910,7 @@
         <v>808.3200000000001</v>
       </c>
       <c r="L349" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -12915,7 +12942,7 @@
         <v>804.04</v>
       </c>
       <c r="L350" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -12947,7 +12974,7 @@
         <v>854.51</v>
       </c>
       <c r="L351" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -12979,7 +13006,7 @@
         <v>792.17</v>
       </c>
       <c r="L352" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -13011,7 +13038,7 @@
         <v>504.18</v>
       </c>
       <c r="L353" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -13043,7 +13070,7 @@
         <v>370.77</v>
       </c>
       <c r="L354" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -13075,7 +13102,7 @@
         <v>352.5</v>
       </c>
       <c r="L355" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -13107,7 +13134,7 @@
         <v>323.36</v>
       </c>
       <c r="L356" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -13139,7 +13166,7 @@
         <v>283.18</v>
       </c>
       <c r="L357" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -13171,7 +13198,7 @@
         <v>356.01</v>
       </c>
       <c r="L358" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -13203,7 +13230,7 @@
         <v>525.59</v>
       </c>
       <c r="L359" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -13235,7 +13262,7 @@
         <v>742.11</v>
       </c>
       <c r="L360" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -13267,7 +13294,7 @@
         <v>1052.22</v>
       </c>
       <c r="L361" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -13299,7 +13326,7 @@
         <v>833.59</v>
       </c>
       <c r="L362" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -13331,7 +13358,7 @@
         <v>996.8099999999999</v>
       </c>
       <c r="L363" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -13363,7 +13390,7 @@
         <v>925.02</v>
       </c>
       <c r="L364" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -13395,7 +13422,7 @@
         <v>1002.57</v>
       </c>
       <c r="L365" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -13427,7 +13454,7 @@
         <v>789.84</v>
       </c>
       <c r="L366" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -13459,7 +13486,7 @@
         <v>619.3</v>
       </c>
       <c r="L367" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -13491,7 +13518,7 @@
         <v>494.59</v>
       </c>
       <c r="L368" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -13523,7 +13550,7 @@
         <v>843.3099999999999</v>
       </c>
       <c r="L369" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -13555,7 +13582,7 @@
         <v>863.73</v>
       </c>
       <c r="L370" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -13587,7 +13614,7 @@
         <v>923.96</v>
       </c>
       <c r="L371" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -13619,7 +13646,7 @@
         <v>875.39</v>
       </c>
       <c r="L372" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -13651,7 +13678,7 @@
         <v>673.11</v>
       </c>
       <c r="L373" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -13683,7 +13710,7 @@
         <v>749.1900000000001</v>
       </c>
       <c r="L374" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -13715,7 +13742,7 @@
         <v>367.41</v>
       </c>
       <c r="L375" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -13747,7 +13774,7 @@
         <v>160.58</v>
       </c>
       <c r="L376" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -13779,7 +13806,7 @@
         <v>193.86</v>
       </c>
       <c r="L377" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -13811,7 +13838,7 @@
         <v>247.32</v>
       </c>
       <c r="L378" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -13843,7 +13870,7 @@
         <v>488.15</v>
       </c>
       <c r="L379" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -13875,7 +13902,7 @@
         <v>532.72</v>
       </c>
       <c r="L380" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -13907,7 +13934,7 @@
         <v>394.36</v>
       </c>
       <c r="L381" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -13939,7 +13966,7 @@
         <v>357.79</v>
       </c>
       <c r="L382" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -13971,7 +13998,7 @@
         <v>316.3</v>
       </c>
       <c r="L383" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -14003,7 +14030,7 @@
         <v>399.92</v>
       </c>
       <c r="L384" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -14035,7 +14062,7 @@
         <v>345.58</v>
       </c>
       <c r="L385" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -14067,7 +14094,7 @@
         <v>310.09</v>
       </c>
       <c r="L386" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -14099,7 +14126,7 @@
         <v>225.21</v>
       </c>
       <c r="L387" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -14131,7 +14158,7 @@
         <v>149.3</v>
       </c>
       <c r="L388" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -14163,7 +14190,7 @@
         <v>109.35</v>
       </c>
       <c r="L389" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -14195,7 +14222,7 @@
         <v>66.45999999999999</v>
       </c>
       <c r="L390" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -14227,7 +14254,7 @@
         <v>50.73</v>
       </c>
       <c r="L391" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -14259,7 +14286,7 @@
         <v>36.24</v>
       </c>
       <c r="L392" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -14291,7 +14318,7 @@
         <v>30.44</v>
       </c>
       <c r="L393" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -14323,7 +14350,7 @@
         <v>27.33</v>
       </c>
       <c r="L394" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -14355,7 +14382,7 @@
         <v>9.6</v>
       </c>
       <c r="L395" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -14387,7 +14414,7 @@
         <v>0.96</v>
       </c>
       <c r="L396" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -14419,7 +14446,7 @@
         <v>0.23</v>
       </c>
       <c r="L397" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -14451,7 +14478,7 @@
         <v>0</v>
       </c>
       <c r="L398" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -14483,7 +14510,7 @@
         <v>0</v>
       </c>
       <c r="L399" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -14515,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="L400" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -14547,7 +14574,7 @@
         <v>0</v>
       </c>
       <c r="L401" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -14579,7 +14606,7 @@
         <v>0</v>
       </c>
       <c r="L402" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -14611,7 +14638,7 @@
         <v>0</v>
       </c>
       <c r="L403" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -14643,7 +14670,7 @@
         <v>0</v>
       </c>
       <c r="L404" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -14675,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="L405" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -14707,7 +14734,7 @@
         <v>0</v>
       </c>
       <c r="L406" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -14739,7 +14766,7 @@
         <v>0</v>
       </c>
       <c r="L407" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -14771,7 +14798,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -14803,7 +14830,7 @@
         <v>0</v>
       </c>
       <c r="L409" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -14835,7 +14862,7 @@
         <v>0</v>
       </c>
       <c r="L410" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -14867,7 +14894,7 @@
         <v>0</v>
       </c>
       <c r="L411" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -14899,7 +14926,7 @@
         <v>0</v>
       </c>
       <c r="L412" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -14931,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="L413" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -14963,7 +14990,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -14995,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="L415" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -15027,7 +15054,7 @@
         <v>0</v>
       </c>
       <c r="L416" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -15059,7 +15086,7 @@
         <v>0</v>
       </c>
       <c r="L417" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -15091,7 +15118,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -15123,7 +15150,7 @@
         <v>0</v>
       </c>
       <c r="L419" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -15155,7 +15182,7 @@
         <v>0</v>
       </c>
       <c r="L420" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -15187,7 +15214,7 @@
         <v>0</v>
       </c>
       <c r="L421" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -15219,7 +15246,7 @@
         <v>0</v>
       </c>
       <c r="L422" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -15251,7 +15278,7 @@
         <v>0</v>
       </c>
       <c r="L423" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -15283,7 +15310,7 @@
         <v>0</v>
       </c>
       <c r="L424" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -15315,7 +15342,7 @@
         <v>0</v>
       </c>
       <c r="L425" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -15347,7 +15374,7 @@
         <v>0</v>
       </c>
       <c r="L426" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -15379,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="L427" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -15411,7 +15438,7 @@
         <v>0</v>
       </c>
       <c r="L428" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -15443,7 +15470,7 @@
         <v>0</v>
       </c>
       <c r="L429" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -15475,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="L430" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -15507,7 +15534,7 @@
         <v>0</v>
       </c>
       <c r="L431" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -15539,7 +15566,7 @@
         <v>0</v>
       </c>
       <c r="L432" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -15571,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="L433" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -15603,7 +15630,7 @@
         <v>0</v>
       </c>
       <c r="L434" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -15635,7 +15662,295 @@
         <v>0</v>
       </c>
       <c r="L435" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
         <v>445</v>
+      </c>
+      <c r="C436">
+        <v>12.99</v>
+      </c>
+      <c r="D436">
+        <v>78.08</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>21.57</v>
+      </c>
+      <c r="H436">
+        <v>17.56</v>
+      </c>
+      <c r="I436">
+        <v>0.06</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="L436" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>446</v>
+      </c>
+      <c r="C437">
+        <v>12.99</v>
+      </c>
+      <c r="D437">
+        <v>77.15000000000001</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>21.65</v>
+      </c>
+      <c r="H437">
+        <v>17.45</v>
+      </c>
+      <c r="I437">
+        <v>0.03</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="L437" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>447</v>
+      </c>
+      <c r="C438">
+        <v>12.97</v>
+      </c>
+      <c r="D438">
+        <v>77.58</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>21.65</v>
+      </c>
+      <c r="H438">
+        <v>17.54</v>
+      </c>
+      <c r="I438">
+        <v>-0.01</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="L438" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>448</v>
+      </c>
+      <c r="C439">
+        <v>12.99</v>
+      </c>
+      <c r="D439">
+        <v>78.69</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>21.56</v>
+      </c>
+      <c r="H439">
+        <v>17.68</v>
+      </c>
+      <c r="I439">
+        <v>-0.01</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="L439" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>449</v>
+      </c>
+      <c r="C440">
+        <v>12.99</v>
+      </c>
+      <c r="D440">
+        <v>80.02</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>21.46</v>
+      </c>
+      <c r="H440">
+        <v>17.85</v>
+      </c>
+      <c r="I440">
+        <v>0</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="L440" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>450</v>
+      </c>
+      <c r="C441">
+        <v>12.97</v>
+      </c>
+      <c r="D441">
+        <v>79.19</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>21.51</v>
+      </c>
+      <c r="H441">
+        <v>17.73</v>
+      </c>
+      <c r="I441">
+        <v>0.01</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="L441" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>451</v>
+      </c>
+      <c r="C442">
+        <v>12.98</v>
+      </c>
+      <c r="D442">
+        <v>78.44</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>21.57</v>
+      </c>
+      <c r="H442">
+        <v>17.63</v>
+      </c>
+      <c r="I442">
+        <v>-0.01</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="L442" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>452</v>
+      </c>
+      <c r="C443">
+        <v>12.98</v>
+      </c>
+      <c r="D443">
+        <v>77.81</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>21.6</v>
+      </c>
+      <c r="H443">
+        <v>17.54</v>
+      </c>
+      <c r="I443">
+        <v>-0.02</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="L443" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>453</v>
+      </c>
+      <c r="C444">
+        <v>12.96</v>
+      </c>
+      <c r="D444">
+        <v>78.78</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>21.55</v>
+      </c>
+      <c r="H444">
+        <v>17.68</v>
+      </c>
+      <c r="I444">
+        <v>-0.05</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="L444" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
+++ b/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="466">
   <si>
     <t>Fecha</t>
   </si>
@@ -1376,6 +1376,39 @@
   </si>
   <si>
     <t>11/17/2020 1:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:30:00 AM</t>
   </si>
   <si>
     <t>ANTIGUA GUATEMALA</t>
@@ -1736,7 +1769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L444"/>
+  <dimension ref="A1:L455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1806,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1838,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1870,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1902,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1934,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1966,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1998,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2030,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2062,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2094,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2126,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2158,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2190,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2222,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2254,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2286,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2318,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2350,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2382,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2414,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2446,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2478,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2510,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2542,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2574,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2606,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2638,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2670,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2702,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2734,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2766,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2798,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2830,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2862,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2894,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2926,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2958,7 +2991,7 @@
         <v>0.95</v>
       </c>
       <c r="L38" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2990,7 +3023,7 @@
         <v>5.29</v>
       </c>
       <c r="L39" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3022,7 +3055,7 @@
         <v>12.48</v>
       </c>
       <c r="L40" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3054,7 +3087,7 @@
         <v>20.11</v>
       </c>
       <c r="L41" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3086,7 +3119,7 @@
         <v>28.44</v>
       </c>
       <c r="L42" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3118,7 +3151,7 @@
         <v>38.38</v>
       </c>
       <c r="L43" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3150,7 +3183,7 @@
         <v>95.87</v>
       </c>
       <c r="L44" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3182,7 +3215,7 @@
         <v>196.71</v>
       </c>
       <c r="L45" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3214,7 +3247,7 @@
         <v>246.93</v>
       </c>
       <c r="L46" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3246,7 +3279,7 @@
         <v>289.17</v>
       </c>
       <c r="L47" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3278,7 +3311,7 @@
         <v>321.93</v>
       </c>
       <c r="L48" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3310,7 +3343,7 @@
         <v>358.4</v>
       </c>
       <c r="L49" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3342,7 +3375,7 @@
         <v>403.91</v>
       </c>
       <c r="L50" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3374,7 +3407,7 @@
         <v>448.97</v>
       </c>
       <c r="L51" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3406,7 +3439,7 @@
         <v>383.21</v>
       </c>
       <c r="L52" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3438,7 +3471,7 @@
         <v>469.81</v>
       </c>
       <c r="L53" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3470,7 +3503,7 @@
         <v>566.09</v>
       </c>
       <c r="L54" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3502,7 +3535,7 @@
         <v>600.95</v>
       </c>
       <c r="L55" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3534,7 +3567,7 @@
         <v>636.4400000000001</v>
       </c>
       <c r="L56" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3566,7 +3599,7 @@
         <v>672.87</v>
       </c>
       <c r="L57" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3598,7 +3631,7 @@
         <v>701.8</v>
       </c>
       <c r="L58" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3630,7 +3663,7 @@
         <v>732.86</v>
       </c>
       <c r="L59" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3662,7 +3695,7 @@
         <v>755.4400000000001</v>
       </c>
       <c r="L60" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3694,7 +3727,7 @@
         <v>781.85</v>
       </c>
       <c r="L61" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3726,7 +3759,7 @@
         <v>843.09</v>
       </c>
       <c r="L62" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3758,7 +3791,7 @@
         <v>891.74</v>
       </c>
       <c r="L63" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3790,7 +3823,7 @@
         <v>824.09</v>
       </c>
       <c r="L64" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3822,7 +3855,7 @@
         <v>574.41</v>
       </c>
       <c r="L65" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3854,7 +3887,7 @@
         <v>255.46</v>
       </c>
       <c r="L66" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3886,7 +3919,7 @@
         <v>794.48</v>
       </c>
       <c r="L67" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3918,7 +3951,7 @@
         <v>952.9400000000001</v>
       </c>
       <c r="L68" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3950,7 +3983,7 @@
         <v>969.95</v>
       </c>
       <c r="L69" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3982,7 +4015,7 @@
         <v>1007.3</v>
       </c>
       <c r="L70" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4014,7 +4047,7 @@
         <v>981.14</v>
       </c>
       <c r="L71" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4046,7 +4079,7 @@
         <v>807.54</v>
       </c>
       <c r="L72" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4078,7 +4111,7 @@
         <v>295.56</v>
       </c>
       <c r="L73" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4110,7 +4143,7 @@
         <v>551.98</v>
       </c>
       <c r="L74" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4142,7 +4175,7 @@
         <v>897.27</v>
       </c>
       <c r="L75" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4174,7 +4207,7 @@
         <v>795.14</v>
       </c>
       <c r="L76" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4206,7 +4239,7 @@
         <v>526.13</v>
       </c>
       <c r="L77" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4238,7 +4271,7 @@
         <v>242.31</v>
       </c>
       <c r="L78" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4270,7 +4303,7 @@
         <v>319.02</v>
       </c>
       <c r="L79" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4302,7 +4335,7 @@
         <v>886.34</v>
       </c>
       <c r="L80" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4334,7 +4367,7 @@
         <v>938.83</v>
       </c>
       <c r="L81" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4366,7 +4399,7 @@
         <v>870.4299999999999</v>
       </c>
       <c r="L82" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4398,7 +4431,7 @@
         <v>835.27</v>
       </c>
       <c r="L83" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4430,7 +4463,7 @@
         <v>846.5599999999999</v>
       </c>
       <c r="L84" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4462,7 +4495,7 @@
         <v>819.45</v>
       </c>
       <c r="L85" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4494,7 +4527,7 @@
         <v>796.08</v>
       </c>
       <c r="L86" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4526,7 +4559,7 @@
         <v>784.38</v>
       </c>
       <c r="L87" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4558,7 +4591,7 @@
         <v>764.2</v>
       </c>
       <c r="L88" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4590,7 +4623,7 @@
         <v>564.12</v>
       </c>
       <c r="L89" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4622,7 +4655,7 @@
         <v>646.97</v>
       </c>
       <c r="L90" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4654,7 +4687,7 @@
         <v>230.3</v>
       </c>
       <c r="L91" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4686,7 +4719,7 @@
         <v>99.84999999999999</v>
       </c>
       <c r="L92" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4718,7 +4751,7 @@
         <v>101.17</v>
       </c>
       <c r="L93" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4750,7 +4783,7 @@
         <v>106.93</v>
       </c>
       <c r="L94" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4782,7 +4815,7 @@
         <v>82</v>
       </c>
       <c r="L95" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4814,7 +4847,7 @@
         <v>89.70999999999999</v>
       </c>
       <c r="L96" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4846,7 +4879,7 @@
         <v>108.74</v>
       </c>
       <c r="L97" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4878,7 +4911,7 @@
         <v>129.87</v>
       </c>
       <c r="L98" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4910,7 +4943,7 @@
         <v>131.37</v>
       </c>
       <c r="L99" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4942,7 +4975,7 @@
         <v>101.26</v>
       </c>
       <c r="L100" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4974,7 +5007,7 @@
         <v>106.07</v>
       </c>
       <c r="L101" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5006,7 +5039,7 @@
         <v>87.97</v>
       </c>
       <c r="L102" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5038,7 +5071,7 @@
         <v>30.01</v>
       </c>
       <c r="L103" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5070,7 +5103,7 @@
         <v>15.95</v>
       </c>
       <c r="L104" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5102,7 +5135,7 @@
         <v>10.4</v>
       </c>
       <c r="L105" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5134,7 +5167,7 @@
         <v>6.59</v>
       </c>
       <c r="L106" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5166,7 +5199,7 @@
         <v>3.05</v>
       </c>
       <c r="L107" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5198,7 +5231,7 @@
         <v>0.46</v>
       </c>
       <c r="L108" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5230,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5262,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5294,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5326,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5358,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5390,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5422,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5454,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5486,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5518,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5550,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5582,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5614,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5646,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5678,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5710,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5742,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5774,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5806,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5838,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5870,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5902,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5934,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5966,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -5998,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6030,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6062,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6094,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6126,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6158,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6190,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6222,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6254,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6286,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6318,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6350,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6382,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6414,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6446,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6478,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6510,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6542,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6574,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6606,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6638,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6670,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6702,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6734,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6766,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6798,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6830,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6862,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6894,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6926,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6958,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -6990,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7022,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7054,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7086,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7118,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7150,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7182,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7214,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7246,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7278,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7310,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7342,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7374,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7406,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7438,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7470,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7502,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7534,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7566,7 +7599,7 @@
         <v>0.87</v>
       </c>
       <c r="L182" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7598,7 +7631,7 @@
         <v>4.68</v>
       </c>
       <c r="L183" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7630,7 +7663,7 @@
         <v>12.62</v>
       </c>
       <c r="L184" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7662,7 +7695,7 @@
         <v>22.44</v>
       </c>
       <c r="L185" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7694,7 +7727,7 @@
         <v>33.09</v>
       </c>
       <c r="L186" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7726,7 +7759,7 @@
         <v>43.42</v>
       </c>
       <c r="L187" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7758,7 +7791,7 @@
         <v>76.92</v>
       </c>
       <c r="L188" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -7790,7 +7823,7 @@
         <v>147</v>
       </c>
       <c r="L189" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -7822,7 +7855,7 @@
         <v>195.58</v>
       </c>
       <c r="L190" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7854,7 +7887,7 @@
         <v>240.17</v>
       </c>
       <c r="L191" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -7886,7 +7919,7 @@
         <v>279.83</v>
       </c>
       <c r="L192" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -7918,7 +7951,7 @@
         <v>327.68</v>
       </c>
       <c r="L193" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -7950,7 +7983,7 @@
         <v>378.09</v>
       </c>
       <c r="L194" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -7982,7 +8015,7 @@
         <v>432.09</v>
       </c>
       <c r="L195" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8014,7 +8047,7 @@
         <v>353.59</v>
       </c>
       <c r="L196" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8046,7 +8079,7 @@
         <v>485.58</v>
       </c>
       <c r="L197" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8078,7 +8111,7 @@
         <v>535.52</v>
       </c>
       <c r="L198" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8110,7 +8143,7 @@
         <v>578.05</v>
       </c>
       <c r="L199" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8142,7 +8175,7 @@
         <v>607.88</v>
       </c>
       <c r="L200" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8174,7 +8207,7 @@
         <v>636.3200000000001</v>
       </c>
       <c r="L201" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8206,7 +8239,7 @@
         <v>672.75</v>
       </c>
       <c r="L202" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8238,7 +8271,7 @@
         <v>696.15</v>
       </c>
       <c r="L203" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8270,7 +8303,7 @@
         <v>720.6799999999999</v>
       </c>
       <c r="L204" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -8302,7 +8335,7 @@
         <v>758.4400000000001</v>
       </c>
       <c r="L205" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -8334,7 +8367,7 @@
         <v>783.58</v>
       </c>
       <c r="L206" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8366,7 +8399,7 @@
         <v>804.48</v>
       </c>
       <c r="L207" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8398,7 +8431,7 @@
         <v>839.86</v>
       </c>
       <c r="L208" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8430,7 +8463,7 @@
         <v>778.2</v>
       </c>
       <c r="L209" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -8462,7 +8495,7 @@
         <v>785.15</v>
       </c>
       <c r="L210" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -8494,7 +8527,7 @@
         <v>847.27</v>
       </c>
       <c r="L211" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -8526,7 +8559,7 @@
         <v>840.4400000000001</v>
       </c>
       <c r="L212" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -8558,7 +8591,7 @@
         <v>948.87</v>
       </c>
       <c r="L213" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -8590,7 +8623,7 @@
         <v>656.5599999999999</v>
       </c>
       <c r="L214" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -8622,7 +8655,7 @@
         <v>865.53</v>
       </c>
       <c r="L215" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -8654,7 +8687,7 @@
         <v>946.83</v>
       </c>
       <c r="L216" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -8686,7 +8719,7 @@
         <v>695.91</v>
       </c>
       <c r="L217" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -8718,7 +8751,7 @@
         <v>825.52</v>
       </c>
       <c r="L218" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -8750,7 +8783,7 @@
         <v>576.63</v>
       </c>
       <c r="L219" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -8782,7 +8815,7 @@
         <v>571.11</v>
       </c>
       <c r="L220" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -8814,7 +8847,7 @@
         <v>803.71</v>
       </c>
       <c r="L221" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -8846,7 +8879,7 @@
         <v>672.0700000000001</v>
       </c>
       <c r="L222" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8878,7 +8911,7 @@
         <v>749.97</v>
       </c>
       <c r="L223" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -8910,7 +8943,7 @@
         <v>591.75</v>
       </c>
       <c r="L224" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -8942,7 +8975,7 @@
         <v>634.12</v>
       </c>
       <c r="L225" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -8974,7 +9007,7 @@
         <v>298.12</v>
       </c>
       <c r="L226" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -9006,7 +9039,7 @@
         <v>127.07</v>
       </c>
       <c r="L227" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -9038,7 +9071,7 @@
         <v>80.23</v>
       </c>
       <c r="L228" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -9070,7 +9103,7 @@
         <v>61.93</v>
       </c>
       <c r="L229" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -9102,7 +9135,7 @@
         <v>65.86</v>
       </c>
       <c r="L230" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -9134,7 +9167,7 @@
         <v>79.79000000000001</v>
       </c>
       <c r="L231" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -9166,7 +9199,7 @@
         <v>144.32</v>
       </c>
       <c r="L232" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -9198,7 +9231,7 @@
         <v>258.86</v>
       </c>
       <c r="L233" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -9230,7 +9263,7 @@
         <v>224.9</v>
       </c>
       <c r="L234" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -9262,7 +9295,7 @@
         <v>257.49</v>
       </c>
       <c r="L235" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -9294,7 +9327,7 @@
         <v>224.31</v>
       </c>
       <c r="L236" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9326,7 +9359,7 @@
         <v>122.31</v>
       </c>
       <c r="L237" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9358,7 +9391,7 @@
         <v>116.56</v>
       </c>
       <c r="L238" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9390,7 +9423,7 @@
         <v>193.67</v>
       </c>
       <c r="L239" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -9422,7 +9455,7 @@
         <v>337.23</v>
       </c>
       <c r="L240" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9454,7 +9487,7 @@
         <v>396.38</v>
       </c>
       <c r="L241" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9486,7 +9519,7 @@
         <v>363.34</v>
       </c>
       <c r="L242" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9518,7 +9551,7 @@
         <v>339.02</v>
       </c>
       <c r="L243" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9550,7 +9583,7 @@
         <v>254.54</v>
       </c>
       <c r="L244" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9582,7 +9615,7 @@
         <v>215.3</v>
       </c>
       <c r="L245" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9614,7 +9647,7 @@
         <v>175.78</v>
       </c>
       <c r="L246" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9646,7 +9679,7 @@
         <v>122.15</v>
       </c>
       <c r="L247" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9678,7 +9711,7 @@
         <v>81.73999999999999</v>
       </c>
       <c r="L248" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9710,7 +9743,7 @@
         <v>38.8</v>
       </c>
       <c r="L249" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9742,7 +9775,7 @@
         <v>26.35</v>
       </c>
       <c r="L250" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9774,7 +9807,7 @@
         <v>14.53</v>
       </c>
       <c r="L251" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9806,7 +9839,7 @@
         <v>5.59</v>
       </c>
       <c r="L252" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9838,7 +9871,7 @@
         <v>0.5</v>
       </c>
       <c r="L253" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -9870,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -9902,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -9934,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -9966,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -9998,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -10030,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10062,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10094,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -10126,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -10158,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -10190,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -10222,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -10254,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -10286,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10318,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10350,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10382,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10414,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10446,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10478,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10510,7 +10543,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10542,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10574,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10606,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10638,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10670,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10702,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -10734,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -10766,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -10798,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -10830,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -10862,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -10894,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -10926,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -10958,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -10990,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -11022,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -11054,7 +11087,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -11086,7 +11119,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -11118,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -11150,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -11182,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -11214,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -11246,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -11278,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -11310,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -11342,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -11374,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -11406,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -11438,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -11470,7 +11503,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11502,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11534,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11566,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11598,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11630,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11662,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -11694,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -11726,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -11758,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -11790,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -11822,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -11854,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -11886,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -11918,7 +11951,7 @@
         <v>0.02</v>
       </c>
       <c r="L318" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -11950,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -11982,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -12014,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -12046,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -12078,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -12110,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -12142,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="L325" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -12174,7 +12207,7 @@
         <v>0.16</v>
       </c>
       <c r="L326" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -12206,7 +12239,7 @@
         <v>2.72</v>
       </c>
       <c r="L327" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -12238,7 +12271,7 @@
         <v>7.97</v>
       </c>
       <c r="L328" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -12270,7 +12303,7 @@
         <v>16.43</v>
       </c>
       <c r="L329" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -12302,7 +12335,7 @@
         <v>29.57</v>
       </c>
       <c r="L330" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -12334,7 +12367,7 @@
         <v>49.31</v>
       </c>
       <c r="L331" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -12366,7 +12399,7 @@
         <v>56.77</v>
       </c>
       <c r="L332" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -12398,7 +12431,7 @@
         <v>74.65000000000001</v>
       </c>
       <c r="L333" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -12430,7 +12463,7 @@
         <v>89.79000000000001</v>
       </c>
       <c r="L334" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -12462,7 +12495,7 @@
         <v>132.61</v>
       </c>
       <c r="L335" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -12494,7 +12527,7 @@
         <v>183.45</v>
       </c>
       <c r="L336" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -12526,7 +12559,7 @@
         <v>285.93</v>
       </c>
       <c r="L337" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -12558,7 +12591,7 @@
         <v>289.84</v>
       </c>
       <c r="L338" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -12590,7 +12623,7 @@
         <v>276.9</v>
       </c>
       <c r="L339" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -12622,7 +12655,7 @@
         <v>260.09</v>
       </c>
       <c r="L340" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -12654,7 +12687,7 @@
         <v>283.28</v>
       </c>
       <c r="L341" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -12686,7 +12719,7 @@
         <v>328.52</v>
       </c>
       <c r="L342" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -12718,7 +12751,7 @@
         <v>266.12</v>
       </c>
       <c r="L343" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -12750,7 +12783,7 @@
         <v>390.5</v>
       </c>
       <c r="L344" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -12782,7 +12815,7 @@
         <v>673.77</v>
       </c>
       <c r="L345" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -12814,7 +12847,7 @@
         <v>711.9</v>
       </c>
       <c r="L346" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -12846,7 +12879,7 @@
         <v>739.46</v>
       </c>
       <c r="L347" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -12878,7 +12911,7 @@
         <v>775.8099999999999</v>
       </c>
       <c r="L348" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -12910,7 +12943,7 @@
         <v>808.3200000000001</v>
       </c>
       <c r="L349" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -12942,7 +12975,7 @@
         <v>804.04</v>
       </c>
       <c r="L350" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -12974,7 +13007,7 @@
         <v>854.51</v>
       </c>
       <c r="L351" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -13006,7 +13039,7 @@
         <v>792.17</v>
       </c>
       <c r="L352" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -13038,7 +13071,7 @@
         <v>504.18</v>
       </c>
       <c r="L353" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -13070,7 +13103,7 @@
         <v>370.77</v>
       </c>
       <c r="L354" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -13102,7 +13135,7 @@
         <v>352.5</v>
       </c>
       <c r="L355" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -13134,7 +13167,7 @@
         <v>323.36</v>
       </c>
       <c r="L356" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -13166,7 +13199,7 @@
         <v>283.18</v>
       </c>
       <c r="L357" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -13198,7 +13231,7 @@
         <v>356.01</v>
       </c>
       <c r="L358" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -13230,7 +13263,7 @@
         <v>525.59</v>
       </c>
       <c r="L359" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -13262,7 +13295,7 @@
         <v>742.11</v>
       </c>
       <c r="L360" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -13294,7 +13327,7 @@
         <v>1052.22</v>
       </c>
       <c r="L361" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -13326,7 +13359,7 @@
         <v>833.59</v>
       </c>
       <c r="L362" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -13358,7 +13391,7 @@
         <v>996.8099999999999</v>
       </c>
       <c r="L363" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -13390,7 +13423,7 @@
         <v>925.02</v>
       </c>
       <c r="L364" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -13422,7 +13455,7 @@
         <v>1002.57</v>
       </c>
       <c r="L365" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -13454,7 +13487,7 @@
         <v>789.84</v>
       </c>
       <c r="L366" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -13486,7 +13519,7 @@
         <v>619.3</v>
       </c>
       <c r="L367" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -13518,7 +13551,7 @@
         <v>494.59</v>
       </c>
       <c r="L368" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -13550,7 +13583,7 @@
         <v>843.3099999999999</v>
       </c>
       <c r="L369" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -13582,7 +13615,7 @@
         <v>863.73</v>
       </c>
       <c r="L370" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -13614,7 +13647,7 @@
         <v>923.96</v>
       </c>
       <c r="L371" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -13646,7 +13679,7 @@
         <v>875.39</v>
       </c>
       <c r="L372" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -13678,7 +13711,7 @@
         <v>673.11</v>
       </c>
       <c r="L373" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -13710,7 +13743,7 @@
         <v>749.1900000000001</v>
       </c>
       <c r="L374" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -13742,7 +13775,7 @@
         <v>367.41</v>
       </c>
       <c r="L375" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -13774,7 +13807,7 @@
         <v>160.58</v>
       </c>
       <c r="L376" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -13806,7 +13839,7 @@
         <v>193.86</v>
       </c>
       <c r="L377" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -13838,7 +13871,7 @@
         <v>247.32</v>
       </c>
       <c r="L378" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -13870,7 +13903,7 @@
         <v>488.15</v>
       </c>
       <c r="L379" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -13902,7 +13935,7 @@
         <v>532.72</v>
       </c>
       <c r="L380" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -13934,7 +13967,7 @@
         <v>394.36</v>
       </c>
       <c r="L381" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -13966,7 +13999,7 @@
         <v>357.79</v>
       </c>
       <c r="L382" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -13998,7 +14031,7 @@
         <v>316.3</v>
       </c>
       <c r="L383" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -14030,7 +14063,7 @@
         <v>399.92</v>
       </c>
       <c r="L384" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -14062,7 +14095,7 @@
         <v>345.58</v>
       </c>
       <c r="L385" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -14094,7 +14127,7 @@
         <v>310.09</v>
       </c>
       <c r="L386" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -14126,7 +14159,7 @@
         <v>225.21</v>
       </c>
       <c r="L387" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -14158,7 +14191,7 @@
         <v>149.3</v>
       </c>
       <c r="L388" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -14190,7 +14223,7 @@
         <v>109.35</v>
       </c>
       <c r="L389" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -14222,7 +14255,7 @@
         <v>66.45999999999999</v>
       </c>
       <c r="L390" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -14254,7 +14287,7 @@
         <v>50.73</v>
       </c>
       <c r="L391" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -14286,7 +14319,7 @@
         <v>36.24</v>
       </c>
       <c r="L392" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -14318,7 +14351,7 @@
         <v>30.44</v>
       </c>
       <c r="L393" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -14350,7 +14383,7 @@
         <v>27.33</v>
       </c>
       <c r="L394" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -14382,7 +14415,7 @@
         <v>9.6</v>
       </c>
       <c r="L395" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -14414,7 +14447,7 @@
         <v>0.96</v>
       </c>
       <c r="L396" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -14446,7 +14479,7 @@
         <v>0.23</v>
       </c>
       <c r="L397" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -14478,7 +14511,7 @@
         <v>0</v>
       </c>
       <c r="L398" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -14510,7 +14543,7 @@
         <v>0</v>
       </c>
       <c r="L399" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -14542,7 +14575,7 @@
         <v>0</v>
       </c>
       <c r="L400" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -14574,7 +14607,7 @@
         <v>0</v>
       </c>
       <c r="L401" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -14606,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="L402" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -14638,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="L403" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -14670,7 +14703,7 @@
         <v>0</v>
       </c>
       <c r="L404" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -14702,7 +14735,7 @@
         <v>0</v>
       </c>
       <c r="L405" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -14734,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="L406" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -14766,7 +14799,7 @@
         <v>0</v>
       </c>
       <c r="L407" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -14798,7 +14831,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -14830,7 +14863,7 @@
         <v>0</v>
       </c>
       <c r="L409" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -14862,7 +14895,7 @@
         <v>0</v>
       </c>
       <c r="L410" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -14894,7 +14927,7 @@
         <v>0</v>
       </c>
       <c r="L411" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -14926,7 +14959,7 @@
         <v>0</v>
       </c>
       <c r="L412" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -14958,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="L413" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -14990,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -15022,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="L415" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -15054,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="L416" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -15086,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="L417" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -15118,7 +15151,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -15150,7 +15183,7 @@
         <v>0</v>
       </c>
       <c r="L419" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -15182,7 +15215,7 @@
         <v>0</v>
       </c>
       <c r="L420" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -15214,7 +15247,7 @@
         <v>0</v>
       </c>
       <c r="L421" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -15246,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="L422" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -15278,7 +15311,7 @@
         <v>0</v>
       </c>
       <c r="L423" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -15310,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="L424" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -15342,7 +15375,7 @@
         <v>0</v>
       </c>
       <c r="L425" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -15374,7 +15407,7 @@
         <v>0</v>
       </c>
       <c r="L426" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -15406,7 +15439,7 @@
         <v>0</v>
       </c>
       <c r="L427" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -15438,7 +15471,7 @@
         <v>0</v>
       </c>
       <c r="L428" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -15470,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="L429" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -15502,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="L430" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -15534,7 +15567,7 @@
         <v>0</v>
       </c>
       <c r="L431" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -15566,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="L432" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -15598,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="L433" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -15630,7 +15663,7 @@
         <v>0</v>
       </c>
       <c r="L434" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -15662,7 +15695,7 @@
         <v>0</v>
       </c>
       <c r="L435" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -15694,7 +15727,7 @@
         <v>0</v>
       </c>
       <c r="L436" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -15726,7 +15759,7 @@
         <v>0</v>
       </c>
       <c r="L437" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -15758,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="L438" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -15790,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="L439" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -15822,7 +15855,7 @@
         <v>0</v>
       </c>
       <c r="L440" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -15854,7 +15887,7 @@
         <v>0</v>
       </c>
       <c r="L441" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -15886,7 +15919,7 @@
         <v>0</v>
       </c>
       <c r="L442" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -15918,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="L443" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -15950,7 +15983,359 @@
         <v>0</v>
       </c>
       <c r="L444" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
         <v>454</v>
+      </c>
+      <c r="C445">
+        <v>12.97</v>
+      </c>
+      <c r="D445">
+        <v>79.5</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>21.47</v>
+      </c>
+      <c r="H445">
+        <v>17.75</v>
+      </c>
+      <c r="I445">
+        <v>-0.04</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="L445" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>455</v>
+      </c>
+      <c r="C446">
+        <v>12.98</v>
+      </c>
+      <c r="D446">
+        <v>81.76000000000001</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>21.2</v>
+      </c>
+      <c r="H446">
+        <v>17.93</v>
+      </c>
+      <c r="I446">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
+      <c r="L446" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>456</v>
+      </c>
+      <c r="C447">
+        <v>12.95</v>
+      </c>
+      <c r="D447">
+        <v>83.39</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>20.98</v>
+      </c>
+      <c r="H447">
+        <v>18.04</v>
+      </c>
+      <c r="I447">
+        <v>0.13</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="L447" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>457</v>
+      </c>
+      <c r="C448">
+        <v>12.96</v>
+      </c>
+      <c r="D448">
+        <v>85.93000000000001</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>20.64</v>
+      </c>
+      <c r="H448">
+        <v>18.19</v>
+      </c>
+      <c r="I448">
+        <v>0.04</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="L448" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>458</v>
+      </c>
+      <c r="C449">
+        <v>12.97</v>
+      </c>
+      <c r="D449">
+        <v>88.66</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>20.36</v>
+      </c>
+      <c r="H449">
+        <v>18.41</v>
+      </c>
+      <c r="I449">
+        <v>0.11</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="L449" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>459</v>
+      </c>
+      <c r="C450">
+        <v>12.94</v>
+      </c>
+      <c r="D450">
+        <v>89.18000000000001</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>20.27</v>
+      </c>
+      <c r="H450">
+        <v>18.42</v>
+      </c>
+      <c r="I450">
+        <v>-0.01</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="L450" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>460</v>
+      </c>
+      <c r="C451">
+        <v>12.95</v>
+      </c>
+      <c r="D451">
+        <v>90.87</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>20.13</v>
+      </c>
+      <c r="H451">
+        <v>18.58</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="L451" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>461</v>
+      </c>
+      <c r="C452">
+        <v>12.95</v>
+      </c>
+      <c r="D452">
+        <v>90.95999999999999</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>20.22</v>
+      </c>
+      <c r="H452">
+        <v>18.69</v>
+      </c>
+      <c r="I452">
+        <v>-0.06</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="L452" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>462</v>
+      </c>
+      <c r="C453">
+        <v>12.94</v>
+      </c>
+      <c r="D453">
+        <v>91.56999999999999</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>20.19</v>
+      </c>
+      <c r="H453">
+        <v>18.76</v>
+      </c>
+      <c r="I453">
+        <v>-0.03</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="L453" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>463</v>
+      </c>
+      <c r="C454">
+        <v>12.94</v>
+      </c>
+      <c r="D454">
+        <v>90.95</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+      <c r="F454">
+        <v>20.19</v>
+      </c>
+      <c r="H454">
+        <v>18.65</v>
+      </c>
+      <c r="I454">
+        <v>-0.01</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="L454" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>464</v>
+      </c>
+      <c r="C455">
+        <v>12.94</v>
+      </c>
+      <c r="D455">
+        <v>90.86</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>20.08</v>
+      </c>
+      <c r="H455">
+        <v>18.53</v>
+      </c>
+      <c r="I455">
+        <v>-0.03</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="L455" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
+++ b/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="476">
   <si>
     <t>Fecha</t>
   </si>
@@ -1409,6 +1409,36 @@
   </si>
   <si>
     <t>11/17/2020 3:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:10:00 AM</t>
   </si>
   <si>
     <t>ANTIGUA GUATEMALA</t>
@@ -1769,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L455"/>
+  <dimension ref="A1:L465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1839,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1871,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1903,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1935,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1967,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1999,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2031,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2063,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2095,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2127,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2159,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2191,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2223,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2255,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2287,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2319,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2351,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2383,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2415,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2447,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2479,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2511,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2543,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2575,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2607,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2639,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2671,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2703,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2735,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2767,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2799,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2831,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2863,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2895,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2927,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2959,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2991,7 +3021,7 @@
         <v>0.95</v>
       </c>
       <c r="L38" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3023,7 +3053,7 @@
         <v>5.29</v>
       </c>
       <c r="L39" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3055,7 +3085,7 @@
         <v>12.48</v>
       </c>
       <c r="L40" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3087,7 +3117,7 @@
         <v>20.11</v>
       </c>
       <c r="L41" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3119,7 +3149,7 @@
         <v>28.44</v>
       </c>
       <c r="L42" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3151,7 +3181,7 @@
         <v>38.38</v>
       </c>
       <c r="L43" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3183,7 +3213,7 @@
         <v>95.87</v>
       </c>
       <c r="L44" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3215,7 +3245,7 @@
         <v>196.71</v>
       </c>
       <c r="L45" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3247,7 +3277,7 @@
         <v>246.93</v>
       </c>
       <c r="L46" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3279,7 +3309,7 @@
         <v>289.17</v>
       </c>
       <c r="L47" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3311,7 +3341,7 @@
         <v>321.93</v>
       </c>
       <c r="L48" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3343,7 +3373,7 @@
         <v>358.4</v>
       </c>
       <c r="L49" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3375,7 +3405,7 @@
         <v>403.91</v>
       </c>
       <c r="L50" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3407,7 +3437,7 @@
         <v>448.97</v>
       </c>
       <c r="L51" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3439,7 +3469,7 @@
         <v>383.21</v>
       </c>
       <c r="L52" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3471,7 +3501,7 @@
         <v>469.81</v>
       </c>
       <c r="L53" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3503,7 +3533,7 @@
         <v>566.09</v>
       </c>
       <c r="L54" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3535,7 +3565,7 @@
         <v>600.95</v>
       </c>
       <c r="L55" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3567,7 +3597,7 @@
         <v>636.4400000000001</v>
       </c>
       <c r="L56" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3599,7 +3629,7 @@
         <v>672.87</v>
       </c>
       <c r="L57" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3631,7 +3661,7 @@
         <v>701.8</v>
       </c>
       <c r="L58" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3663,7 +3693,7 @@
         <v>732.86</v>
       </c>
       <c r="L59" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3695,7 +3725,7 @@
         <v>755.4400000000001</v>
       </c>
       <c r="L60" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3727,7 +3757,7 @@
         <v>781.85</v>
       </c>
       <c r="L61" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3759,7 +3789,7 @@
         <v>843.09</v>
       </c>
       <c r="L62" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3791,7 +3821,7 @@
         <v>891.74</v>
       </c>
       <c r="L63" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3823,7 +3853,7 @@
         <v>824.09</v>
       </c>
       <c r="L64" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3855,7 +3885,7 @@
         <v>574.41</v>
       </c>
       <c r="L65" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3887,7 +3917,7 @@
         <v>255.46</v>
       </c>
       <c r="L66" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3919,7 +3949,7 @@
         <v>794.48</v>
       </c>
       <c r="L67" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3951,7 +3981,7 @@
         <v>952.9400000000001</v>
       </c>
       <c r="L68" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3983,7 +4013,7 @@
         <v>969.95</v>
       </c>
       <c r="L69" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4015,7 +4045,7 @@
         <v>1007.3</v>
       </c>
       <c r="L70" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4047,7 +4077,7 @@
         <v>981.14</v>
       </c>
       <c r="L71" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4079,7 +4109,7 @@
         <v>807.54</v>
       </c>
       <c r="L72" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4111,7 +4141,7 @@
         <v>295.56</v>
       </c>
       <c r="L73" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4143,7 +4173,7 @@
         <v>551.98</v>
       </c>
       <c r="L74" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4175,7 +4205,7 @@
         <v>897.27</v>
       </c>
       <c r="L75" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4207,7 +4237,7 @@
         <v>795.14</v>
       </c>
       <c r="L76" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4239,7 +4269,7 @@
         <v>526.13</v>
       </c>
       <c r="L77" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4271,7 +4301,7 @@
         <v>242.31</v>
       </c>
       <c r="L78" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4303,7 +4333,7 @@
         <v>319.02</v>
       </c>
       <c r="L79" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4335,7 +4365,7 @@
         <v>886.34</v>
       </c>
       <c r="L80" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4367,7 +4397,7 @@
         <v>938.83</v>
       </c>
       <c r="L81" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4399,7 +4429,7 @@
         <v>870.4299999999999</v>
       </c>
       <c r="L82" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4431,7 +4461,7 @@
         <v>835.27</v>
       </c>
       <c r="L83" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4463,7 +4493,7 @@
         <v>846.5599999999999</v>
       </c>
       <c r="L84" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4495,7 +4525,7 @@
         <v>819.45</v>
       </c>
       <c r="L85" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4527,7 +4557,7 @@
         <v>796.08</v>
       </c>
       <c r="L86" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4559,7 +4589,7 @@
         <v>784.38</v>
       </c>
       <c r="L87" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4591,7 +4621,7 @@
         <v>764.2</v>
       </c>
       <c r="L88" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4623,7 +4653,7 @@
         <v>564.12</v>
       </c>
       <c r="L89" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4655,7 +4685,7 @@
         <v>646.97</v>
       </c>
       <c r="L90" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4687,7 +4717,7 @@
         <v>230.3</v>
       </c>
       <c r="L91" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4719,7 +4749,7 @@
         <v>99.84999999999999</v>
       </c>
       <c r="L92" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4751,7 +4781,7 @@
         <v>101.17</v>
       </c>
       <c r="L93" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4783,7 +4813,7 @@
         <v>106.93</v>
       </c>
       <c r="L94" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4815,7 +4845,7 @@
         <v>82</v>
       </c>
       <c r="L95" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4847,7 +4877,7 @@
         <v>89.70999999999999</v>
       </c>
       <c r="L96" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4879,7 +4909,7 @@
         <v>108.74</v>
       </c>
       <c r="L97" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4911,7 +4941,7 @@
         <v>129.87</v>
       </c>
       <c r="L98" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4943,7 +4973,7 @@
         <v>131.37</v>
       </c>
       <c r="L99" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4975,7 +5005,7 @@
         <v>101.26</v>
       </c>
       <c r="L100" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5007,7 +5037,7 @@
         <v>106.07</v>
       </c>
       <c r="L101" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5039,7 +5069,7 @@
         <v>87.97</v>
       </c>
       <c r="L102" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5071,7 +5101,7 @@
         <v>30.01</v>
       </c>
       <c r="L103" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5103,7 +5133,7 @@
         <v>15.95</v>
       </c>
       <c r="L104" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5135,7 +5165,7 @@
         <v>10.4</v>
       </c>
       <c r="L105" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5167,7 +5197,7 @@
         <v>6.59</v>
       </c>
       <c r="L106" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5199,7 +5229,7 @@
         <v>3.05</v>
       </c>
       <c r="L107" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5231,7 +5261,7 @@
         <v>0.46</v>
       </c>
       <c r="L108" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5263,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5295,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5327,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5359,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5391,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5423,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5455,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5487,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5519,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5551,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5583,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5615,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5647,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5679,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5711,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5743,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5775,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5807,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5839,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5871,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5903,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5935,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5967,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5999,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6031,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6063,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6095,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6127,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6159,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6191,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6223,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6255,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6287,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6319,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6351,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6383,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6415,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6447,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6479,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6511,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6543,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6575,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6607,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6639,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6671,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6703,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6735,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6767,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6799,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6831,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6863,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6895,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6927,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6959,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6991,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7023,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7055,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7087,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7119,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7151,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7183,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7215,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7247,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7279,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7311,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7343,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7375,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7407,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7439,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7471,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7503,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7535,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7567,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7599,7 +7629,7 @@
         <v>0.87</v>
       </c>
       <c r="L182" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7631,7 +7661,7 @@
         <v>4.68</v>
       </c>
       <c r="L183" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7663,7 +7693,7 @@
         <v>12.62</v>
       </c>
       <c r="L184" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7695,7 +7725,7 @@
         <v>22.44</v>
       </c>
       <c r="L185" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7727,7 +7757,7 @@
         <v>33.09</v>
       </c>
       <c r="L186" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7759,7 +7789,7 @@
         <v>43.42</v>
       </c>
       <c r="L187" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7791,7 +7821,7 @@
         <v>76.92</v>
       </c>
       <c r="L188" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -7823,7 +7853,7 @@
         <v>147</v>
       </c>
       <c r="L189" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -7855,7 +7885,7 @@
         <v>195.58</v>
       </c>
       <c r="L190" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7887,7 +7917,7 @@
         <v>240.17</v>
       </c>
       <c r="L191" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -7919,7 +7949,7 @@
         <v>279.83</v>
       </c>
       <c r="L192" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -7951,7 +7981,7 @@
         <v>327.68</v>
       </c>
       <c r="L193" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -7983,7 +8013,7 @@
         <v>378.09</v>
       </c>
       <c r="L194" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8015,7 +8045,7 @@
         <v>432.09</v>
       </c>
       <c r="L195" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8047,7 +8077,7 @@
         <v>353.59</v>
       </c>
       <c r="L196" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8079,7 +8109,7 @@
         <v>485.58</v>
       </c>
       <c r="L197" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8111,7 +8141,7 @@
         <v>535.52</v>
       </c>
       <c r="L198" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8143,7 +8173,7 @@
         <v>578.05</v>
       </c>
       <c r="L199" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8175,7 +8205,7 @@
         <v>607.88</v>
       </c>
       <c r="L200" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8207,7 +8237,7 @@
         <v>636.3200000000001</v>
       </c>
       <c r="L201" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8239,7 +8269,7 @@
         <v>672.75</v>
       </c>
       <c r="L202" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8271,7 +8301,7 @@
         <v>696.15</v>
       </c>
       <c r="L203" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8303,7 +8333,7 @@
         <v>720.6799999999999</v>
       </c>
       <c r="L204" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -8335,7 +8365,7 @@
         <v>758.4400000000001</v>
       </c>
       <c r="L205" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -8367,7 +8397,7 @@
         <v>783.58</v>
       </c>
       <c r="L206" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8399,7 +8429,7 @@
         <v>804.48</v>
       </c>
       <c r="L207" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8431,7 +8461,7 @@
         <v>839.86</v>
       </c>
       <c r="L208" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8463,7 +8493,7 @@
         <v>778.2</v>
       </c>
       <c r="L209" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -8495,7 +8525,7 @@
         <v>785.15</v>
       </c>
       <c r="L210" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -8527,7 +8557,7 @@
         <v>847.27</v>
       </c>
       <c r="L211" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -8559,7 +8589,7 @@
         <v>840.4400000000001</v>
       </c>
       <c r="L212" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -8591,7 +8621,7 @@
         <v>948.87</v>
       </c>
       <c r="L213" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -8623,7 +8653,7 @@
         <v>656.5599999999999</v>
       </c>
       <c r="L214" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -8655,7 +8685,7 @@
         <v>865.53</v>
       </c>
       <c r="L215" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -8687,7 +8717,7 @@
         <v>946.83</v>
       </c>
       <c r="L216" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -8719,7 +8749,7 @@
         <v>695.91</v>
       </c>
       <c r="L217" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -8751,7 +8781,7 @@
         <v>825.52</v>
       </c>
       <c r="L218" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -8783,7 +8813,7 @@
         <v>576.63</v>
       </c>
       <c r="L219" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -8815,7 +8845,7 @@
         <v>571.11</v>
       </c>
       <c r="L220" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -8847,7 +8877,7 @@
         <v>803.71</v>
       </c>
       <c r="L221" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -8879,7 +8909,7 @@
         <v>672.0700000000001</v>
       </c>
       <c r="L222" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8911,7 +8941,7 @@
         <v>749.97</v>
       </c>
       <c r="L223" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -8943,7 +8973,7 @@
         <v>591.75</v>
       </c>
       <c r="L224" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -8975,7 +9005,7 @@
         <v>634.12</v>
       </c>
       <c r="L225" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -9007,7 +9037,7 @@
         <v>298.12</v>
       </c>
       <c r="L226" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -9039,7 +9069,7 @@
         <v>127.07</v>
       </c>
       <c r="L227" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -9071,7 +9101,7 @@
         <v>80.23</v>
       </c>
       <c r="L228" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -9103,7 +9133,7 @@
         <v>61.93</v>
       </c>
       <c r="L229" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -9135,7 +9165,7 @@
         <v>65.86</v>
       </c>
       <c r="L230" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -9167,7 +9197,7 @@
         <v>79.79000000000001</v>
       </c>
       <c r="L231" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -9199,7 +9229,7 @@
         <v>144.32</v>
       </c>
       <c r="L232" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -9231,7 +9261,7 @@
         <v>258.86</v>
       </c>
       <c r="L233" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -9263,7 +9293,7 @@
         <v>224.9</v>
       </c>
       <c r="L234" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -9295,7 +9325,7 @@
         <v>257.49</v>
       </c>
       <c r="L235" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -9327,7 +9357,7 @@
         <v>224.31</v>
       </c>
       <c r="L236" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9359,7 +9389,7 @@
         <v>122.31</v>
       </c>
       <c r="L237" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9391,7 +9421,7 @@
         <v>116.56</v>
       </c>
       <c r="L238" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9423,7 +9453,7 @@
         <v>193.67</v>
       </c>
       <c r="L239" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -9455,7 +9485,7 @@
         <v>337.23</v>
       </c>
       <c r="L240" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9487,7 +9517,7 @@
         <v>396.38</v>
       </c>
       <c r="L241" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9519,7 +9549,7 @@
         <v>363.34</v>
       </c>
       <c r="L242" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9551,7 +9581,7 @@
         <v>339.02</v>
       </c>
       <c r="L243" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9583,7 +9613,7 @@
         <v>254.54</v>
       </c>
       <c r="L244" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9615,7 +9645,7 @@
         <v>215.3</v>
       </c>
       <c r="L245" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9647,7 +9677,7 @@
         <v>175.78</v>
       </c>
       <c r="L246" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9679,7 +9709,7 @@
         <v>122.15</v>
       </c>
       <c r="L247" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9711,7 +9741,7 @@
         <v>81.73999999999999</v>
       </c>
       <c r="L248" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9743,7 +9773,7 @@
         <v>38.8</v>
       </c>
       <c r="L249" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9775,7 +9805,7 @@
         <v>26.35</v>
       </c>
       <c r="L250" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9807,7 +9837,7 @@
         <v>14.53</v>
       </c>
       <c r="L251" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9839,7 +9869,7 @@
         <v>5.59</v>
       </c>
       <c r="L252" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9871,7 +9901,7 @@
         <v>0.5</v>
       </c>
       <c r="L253" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -9903,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -9935,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -9967,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -9999,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -10031,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -10063,7 +10093,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10095,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10127,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -10159,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -10191,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -10223,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -10255,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -10287,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -10319,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10351,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10383,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10415,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10447,7 +10477,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10479,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10511,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10543,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10575,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10607,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10639,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10671,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10703,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10735,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -10767,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -10799,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -10831,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -10863,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -10895,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -10927,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -10959,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -10991,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -11023,7 +11053,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -11055,7 +11085,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -11087,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -11119,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -11151,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -11183,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -11215,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -11247,7 +11277,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -11279,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -11311,7 +11341,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -11343,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -11375,7 +11405,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -11407,7 +11437,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -11439,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -11471,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -11503,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11535,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11567,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11599,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11631,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11663,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11695,7 +11725,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -11727,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -11759,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -11791,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -11823,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -11855,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -11887,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -11919,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -11951,7 +11981,7 @@
         <v>0.02</v>
       </c>
       <c r="L318" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -11983,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -12015,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -12047,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -12079,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -12111,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -12143,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -12175,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="L325" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -12207,7 +12237,7 @@
         <v>0.16</v>
       </c>
       <c r="L326" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -12239,7 +12269,7 @@
         <v>2.72</v>
       </c>
       <c r="L327" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -12271,7 +12301,7 @@
         <v>7.97</v>
       </c>
       <c r="L328" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -12303,7 +12333,7 @@
         <v>16.43</v>
       </c>
       <c r="L329" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -12335,7 +12365,7 @@
         <v>29.57</v>
       </c>
       <c r="L330" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -12367,7 +12397,7 @@
         <v>49.31</v>
       </c>
       <c r="L331" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -12399,7 +12429,7 @@
         <v>56.77</v>
       </c>
       <c r="L332" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -12431,7 +12461,7 @@
         <v>74.65000000000001</v>
       </c>
       <c r="L333" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -12463,7 +12493,7 @@
         <v>89.79000000000001</v>
       </c>
       <c r="L334" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -12495,7 +12525,7 @@
         <v>132.61</v>
       </c>
       <c r="L335" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -12527,7 +12557,7 @@
         <v>183.45</v>
       </c>
       <c r="L336" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -12559,7 +12589,7 @@
         <v>285.93</v>
       </c>
       <c r="L337" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -12591,7 +12621,7 @@
         <v>289.84</v>
       </c>
       <c r="L338" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -12623,7 +12653,7 @@
         <v>276.9</v>
       </c>
       <c r="L339" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -12655,7 +12685,7 @@
         <v>260.09</v>
       </c>
       <c r="L340" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -12687,7 +12717,7 @@
         <v>283.28</v>
       </c>
       <c r="L341" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -12719,7 +12749,7 @@
         <v>328.52</v>
       </c>
       <c r="L342" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -12751,7 +12781,7 @@
         <v>266.12</v>
       </c>
       <c r="L343" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -12783,7 +12813,7 @@
         <v>390.5</v>
       </c>
       <c r="L344" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -12815,7 +12845,7 @@
         <v>673.77</v>
       </c>
       <c r="L345" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -12847,7 +12877,7 @@
         <v>711.9</v>
       </c>
       <c r="L346" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -12879,7 +12909,7 @@
         <v>739.46</v>
       </c>
       <c r="L347" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -12911,7 +12941,7 @@
         <v>775.8099999999999</v>
       </c>
       <c r="L348" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -12943,7 +12973,7 @@
         <v>808.3200000000001</v>
       </c>
       <c r="L349" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -12975,7 +13005,7 @@
         <v>804.04</v>
       </c>
       <c r="L350" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -13007,7 +13037,7 @@
         <v>854.51</v>
       </c>
       <c r="L351" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -13039,7 +13069,7 @@
         <v>792.17</v>
       </c>
       <c r="L352" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -13071,7 +13101,7 @@
         <v>504.18</v>
       </c>
       <c r="L353" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -13103,7 +13133,7 @@
         <v>370.77</v>
       </c>
       <c r="L354" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -13135,7 +13165,7 @@
         <v>352.5</v>
       </c>
       <c r="L355" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -13167,7 +13197,7 @@
         <v>323.36</v>
       </c>
       <c r="L356" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -13199,7 +13229,7 @@
         <v>283.18</v>
       </c>
       <c r="L357" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -13231,7 +13261,7 @@
         <v>356.01</v>
       </c>
       <c r="L358" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -13263,7 +13293,7 @@
         <v>525.59</v>
       </c>
       <c r="L359" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -13295,7 +13325,7 @@
         <v>742.11</v>
       </c>
       <c r="L360" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -13327,7 +13357,7 @@
         <v>1052.22</v>
       </c>
       <c r="L361" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -13359,7 +13389,7 @@
         <v>833.59</v>
       </c>
       <c r="L362" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -13391,7 +13421,7 @@
         <v>996.8099999999999</v>
       </c>
       <c r="L363" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -13423,7 +13453,7 @@
         <v>925.02</v>
       </c>
       <c r="L364" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -13455,7 +13485,7 @@
         <v>1002.57</v>
       </c>
       <c r="L365" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -13487,7 +13517,7 @@
         <v>789.84</v>
       </c>
       <c r="L366" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -13519,7 +13549,7 @@
         <v>619.3</v>
       </c>
       <c r="L367" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -13551,7 +13581,7 @@
         <v>494.59</v>
       </c>
       <c r="L368" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -13583,7 +13613,7 @@
         <v>843.3099999999999</v>
       </c>
       <c r="L369" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -13615,7 +13645,7 @@
         <v>863.73</v>
       </c>
       <c r="L370" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -13647,7 +13677,7 @@
         <v>923.96</v>
       </c>
       <c r="L371" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -13679,7 +13709,7 @@
         <v>875.39</v>
       </c>
       <c r="L372" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -13711,7 +13741,7 @@
         <v>673.11</v>
       </c>
       <c r="L373" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -13743,7 +13773,7 @@
         <v>749.1900000000001</v>
       </c>
       <c r="L374" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -13775,7 +13805,7 @@
         <v>367.41</v>
       </c>
       <c r="L375" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -13807,7 +13837,7 @@
         <v>160.58</v>
       </c>
       <c r="L376" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -13839,7 +13869,7 @@
         <v>193.86</v>
       </c>
       <c r="L377" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -13871,7 +13901,7 @@
         <v>247.32</v>
       </c>
       <c r="L378" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -13903,7 +13933,7 @@
         <v>488.15</v>
       </c>
       <c r="L379" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -13935,7 +13965,7 @@
         <v>532.72</v>
       </c>
       <c r="L380" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -13967,7 +13997,7 @@
         <v>394.36</v>
       </c>
       <c r="L381" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -13999,7 +14029,7 @@
         <v>357.79</v>
       </c>
       <c r="L382" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -14031,7 +14061,7 @@
         <v>316.3</v>
       </c>
       <c r="L383" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -14063,7 +14093,7 @@
         <v>399.92</v>
       </c>
       <c r="L384" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -14095,7 +14125,7 @@
         <v>345.58</v>
       </c>
       <c r="L385" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -14127,7 +14157,7 @@
         <v>310.09</v>
       </c>
       <c r="L386" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -14159,7 +14189,7 @@
         <v>225.21</v>
       </c>
       <c r="L387" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -14191,7 +14221,7 @@
         <v>149.3</v>
       </c>
       <c r="L388" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -14223,7 +14253,7 @@
         <v>109.35</v>
       </c>
       <c r="L389" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -14255,7 +14285,7 @@
         <v>66.45999999999999</v>
       </c>
       <c r="L390" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -14287,7 +14317,7 @@
         <v>50.73</v>
       </c>
       <c r="L391" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -14319,7 +14349,7 @@
         <v>36.24</v>
       </c>
       <c r="L392" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -14351,7 +14381,7 @@
         <v>30.44</v>
       </c>
       <c r="L393" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -14383,7 +14413,7 @@
         <v>27.33</v>
       </c>
       <c r="L394" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -14415,7 +14445,7 @@
         <v>9.6</v>
       </c>
       <c r="L395" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -14447,7 +14477,7 @@
         <v>0.96</v>
       </c>
       <c r="L396" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -14479,7 +14509,7 @@
         <v>0.23</v>
       </c>
       <c r="L397" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -14511,7 +14541,7 @@
         <v>0</v>
       </c>
       <c r="L398" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -14543,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="L399" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -14575,7 +14605,7 @@
         <v>0</v>
       </c>
       <c r="L400" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -14607,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="L401" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -14639,7 +14669,7 @@
         <v>0</v>
       </c>
       <c r="L402" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -14671,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="L403" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -14703,7 +14733,7 @@
         <v>0</v>
       </c>
       <c r="L404" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -14735,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="L405" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -14767,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="L406" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -14799,7 +14829,7 @@
         <v>0</v>
       </c>
       <c r="L407" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -14831,7 +14861,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -14863,7 +14893,7 @@
         <v>0</v>
       </c>
       <c r="L409" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -14895,7 +14925,7 @@
         <v>0</v>
       </c>
       <c r="L410" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -14927,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="L411" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -14959,7 +14989,7 @@
         <v>0</v>
       </c>
       <c r="L412" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -14991,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="L413" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -15023,7 +15053,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -15055,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="L415" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -15087,7 +15117,7 @@
         <v>0</v>
       </c>
       <c r="L416" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -15119,7 +15149,7 @@
         <v>0</v>
       </c>
       <c r="L417" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -15151,7 +15181,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -15183,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="L419" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -15215,7 +15245,7 @@
         <v>0</v>
       </c>
       <c r="L420" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -15247,7 +15277,7 @@
         <v>0</v>
       </c>
       <c r="L421" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -15279,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="L422" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -15311,7 +15341,7 @@
         <v>0</v>
       </c>
       <c r="L423" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -15343,7 +15373,7 @@
         <v>0</v>
       </c>
       <c r="L424" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -15375,7 +15405,7 @@
         <v>0</v>
       </c>
       <c r="L425" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -15407,7 +15437,7 @@
         <v>0</v>
       </c>
       <c r="L426" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -15439,7 +15469,7 @@
         <v>0</v>
       </c>
       <c r="L427" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -15471,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="L428" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -15503,7 +15533,7 @@
         <v>0</v>
       </c>
       <c r="L429" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -15535,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="L430" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -15567,7 +15597,7 @@
         <v>0</v>
       </c>
       <c r="L431" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -15599,7 +15629,7 @@
         <v>0</v>
       </c>
       <c r="L432" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -15631,7 +15661,7 @@
         <v>0</v>
       </c>
       <c r="L433" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -15663,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="L434" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -15695,7 +15725,7 @@
         <v>0</v>
       </c>
       <c r="L435" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -15727,7 +15757,7 @@
         <v>0</v>
       </c>
       <c r="L436" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -15759,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="L437" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -15791,7 +15821,7 @@
         <v>0</v>
       </c>
       <c r="L438" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -15823,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="L439" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -15855,7 +15885,7 @@
         <v>0</v>
       </c>
       <c r="L440" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -15887,7 +15917,7 @@
         <v>0</v>
       </c>
       <c r="L441" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -15919,7 +15949,7 @@
         <v>0</v>
       </c>
       <c r="L442" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -15951,7 +15981,7 @@
         <v>0</v>
       </c>
       <c r="L443" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -15983,7 +16013,7 @@
         <v>0</v>
       </c>
       <c r="L444" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -16015,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="L445" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -16047,7 +16077,7 @@
         <v>0</v>
       </c>
       <c r="L446" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -16079,7 +16109,7 @@
         <v>0</v>
       </c>
       <c r="L447" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -16111,7 +16141,7 @@
         <v>0</v>
       </c>
       <c r="L448" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -16143,7 +16173,7 @@
         <v>0</v>
       </c>
       <c r="L449" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -16175,7 +16205,7 @@
         <v>0</v>
       </c>
       <c r="L450" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -16207,7 +16237,7 @@
         <v>0</v>
       </c>
       <c r="L451" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -16239,7 +16269,7 @@
         <v>0</v>
       </c>
       <c r="L452" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -16271,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="L453" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -16303,7 +16333,7 @@
         <v>0</v>
       </c>
       <c r="L454" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -16335,7 +16365,327 @@
         <v>0</v>
       </c>
       <c r="L455" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
         <v>465</v>
+      </c>
+      <c r="C456">
+        <v>12.93</v>
+      </c>
+      <c r="D456">
+        <v>92.52</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+      <c r="F456">
+        <v>19.78</v>
+      </c>
+      <c r="H456">
+        <v>18.52</v>
+      </c>
+      <c r="I456">
+        <v>-0.02</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="L456" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>466</v>
+      </c>
+      <c r="C457">
+        <v>12.93</v>
+      </c>
+      <c r="D457">
+        <v>93.25</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>19.61</v>
+      </c>
+      <c r="H457">
+        <v>18.49</v>
+      </c>
+      <c r="I457">
+        <v>-0.05</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="L457" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>467</v>
+      </c>
+      <c r="C458">
+        <v>12.92</v>
+      </c>
+      <c r="D458">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>19.47</v>
+      </c>
+      <c r="H458">
+        <v>18.57</v>
+      </c>
+      <c r="I458">
+        <v>-0.02</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="L458" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>468</v>
+      </c>
+      <c r="C459">
+        <v>12.92</v>
+      </c>
+      <c r="D459">
+        <v>94.98</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>19.37</v>
+      </c>
+      <c r="H459">
+        <v>18.54</v>
+      </c>
+      <c r="I459">
+        <v>0.22</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="L459" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>469</v>
+      </c>
+      <c r="C460">
+        <v>12.91</v>
+      </c>
+      <c r="D460">
+        <v>95.79000000000001</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>19.25</v>
+      </c>
+      <c r="H460">
+        <v>18.56</v>
+      </c>
+      <c r="I460">
+        <v>-0.01</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="L460" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>470</v>
+      </c>
+      <c r="C461">
+        <v>12.91</v>
+      </c>
+      <c r="D461">
+        <v>96.06</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>19.32</v>
+      </c>
+      <c r="H461">
+        <v>18.67</v>
+      </c>
+      <c r="I461">
+        <v>0.02</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="L461" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>471</v>
+      </c>
+      <c r="C462">
+        <v>12.9</v>
+      </c>
+      <c r="D462">
+        <v>93.09</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>19.73</v>
+      </c>
+      <c r="H462">
+        <v>18.58</v>
+      </c>
+      <c r="I462">
+        <v>0.01</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="L462" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>472</v>
+      </c>
+      <c r="C463">
+        <v>12.9</v>
+      </c>
+      <c r="D463">
+        <v>91.31</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>19.93</v>
+      </c>
+      <c r="H463">
+        <v>18.46</v>
+      </c>
+      <c r="I463">
+        <v>0.01</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="L463" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>473</v>
+      </c>
+      <c r="C464">
+        <v>12.89</v>
+      </c>
+      <c r="D464">
+        <v>85.77</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+      <c r="F464">
+        <v>20.3</v>
+      </c>
+      <c r="H464">
+        <v>17.81</v>
+      </c>
+      <c r="I464">
+        <v>-0.01</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="L464" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>474</v>
+      </c>
+      <c r="C465">
+        <v>12.89</v>
+      </c>
+      <c r="D465">
+        <v>84.7</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+      <c r="F465">
+        <v>20.42</v>
+      </c>
+      <c r="H465">
+        <v>17.73</v>
+      </c>
+      <c r="I465">
+        <v>-0.03</v>
+      </c>
+      <c r="J465">
+        <v>0</v>
+      </c>
+      <c r="L465" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
+++ b/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="485">
   <si>
     <t>Fecha</t>
   </si>
@@ -1439,6 +1439,33 @@
   </si>
   <si>
     <t>11/17/2020 5:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:40:00 AM</t>
   </si>
   <si>
     <t>ANTIGUA GUATEMALA</t>
@@ -1799,7 +1826,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L465"/>
+  <dimension ref="A1:L474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1869,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1901,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1933,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1965,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1997,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2029,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2061,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2093,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2125,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2157,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2189,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2221,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2253,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2285,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2317,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2349,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2381,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2413,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2445,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2477,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2509,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2541,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2573,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2605,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2637,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2669,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2701,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2733,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2765,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2797,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2829,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2861,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2893,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2925,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2957,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2989,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3021,7 +3048,7 @@
         <v>0.95</v>
       </c>
       <c r="L38" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3053,7 +3080,7 @@
         <v>5.29</v>
       </c>
       <c r="L39" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3085,7 +3112,7 @@
         <v>12.48</v>
       </c>
       <c r="L40" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3117,7 +3144,7 @@
         <v>20.11</v>
       </c>
       <c r="L41" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3149,7 +3176,7 @@
         <v>28.44</v>
       </c>
       <c r="L42" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3181,7 +3208,7 @@
         <v>38.38</v>
       </c>
       <c r="L43" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3213,7 +3240,7 @@
         <v>95.87</v>
       </c>
       <c r="L44" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3245,7 +3272,7 @@
         <v>196.71</v>
       </c>
       <c r="L45" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3277,7 +3304,7 @@
         <v>246.93</v>
       </c>
       <c r="L46" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3309,7 +3336,7 @@
         <v>289.17</v>
       </c>
       <c r="L47" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3341,7 +3368,7 @@
         <v>321.93</v>
       </c>
       <c r="L48" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3373,7 +3400,7 @@
         <v>358.4</v>
       </c>
       <c r="L49" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3405,7 +3432,7 @@
         <v>403.91</v>
       </c>
       <c r="L50" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3437,7 +3464,7 @@
         <v>448.97</v>
       </c>
       <c r="L51" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3469,7 +3496,7 @@
         <v>383.21</v>
       </c>
       <c r="L52" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3501,7 +3528,7 @@
         <v>469.81</v>
       </c>
       <c r="L53" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3533,7 +3560,7 @@
         <v>566.09</v>
       </c>
       <c r="L54" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3565,7 +3592,7 @@
         <v>600.95</v>
       </c>
       <c r="L55" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3597,7 +3624,7 @@
         <v>636.4400000000001</v>
       </c>
       <c r="L56" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3629,7 +3656,7 @@
         <v>672.87</v>
       </c>
       <c r="L57" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3661,7 +3688,7 @@
         <v>701.8</v>
       </c>
       <c r="L58" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3693,7 +3720,7 @@
         <v>732.86</v>
       </c>
       <c r="L59" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3725,7 +3752,7 @@
         <v>755.4400000000001</v>
       </c>
       <c r="L60" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3757,7 +3784,7 @@
         <v>781.85</v>
       </c>
       <c r="L61" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3789,7 +3816,7 @@
         <v>843.09</v>
       </c>
       <c r="L62" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3821,7 +3848,7 @@
         <v>891.74</v>
       </c>
       <c r="L63" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3853,7 +3880,7 @@
         <v>824.09</v>
       </c>
       <c r="L64" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3885,7 +3912,7 @@
         <v>574.41</v>
       </c>
       <c r="L65" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3917,7 +3944,7 @@
         <v>255.46</v>
       </c>
       <c r="L66" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3949,7 +3976,7 @@
         <v>794.48</v>
       </c>
       <c r="L67" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3981,7 +4008,7 @@
         <v>952.9400000000001</v>
       </c>
       <c r="L68" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4013,7 +4040,7 @@
         <v>969.95</v>
       </c>
       <c r="L69" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4045,7 +4072,7 @@
         <v>1007.3</v>
       </c>
       <c r="L70" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4077,7 +4104,7 @@
         <v>981.14</v>
       </c>
       <c r="L71" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4109,7 +4136,7 @@
         <v>807.54</v>
       </c>
       <c r="L72" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4141,7 +4168,7 @@
         <v>295.56</v>
       </c>
       <c r="L73" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4173,7 +4200,7 @@
         <v>551.98</v>
       </c>
       <c r="L74" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4205,7 +4232,7 @@
         <v>897.27</v>
       </c>
       <c r="L75" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4237,7 +4264,7 @@
         <v>795.14</v>
       </c>
       <c r="L76" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4269,7 +4296,7 @@
         <v>526.13</v>
       </c>
       <c r="L77" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4301,7 +4328,7 @@
         <v>242.31</v>
       </c>
       <c r="L78" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4333,7 +4360,7 @@
         <v>319.02</v>
       </c>
       <c r="L79" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4365,7 +4392,7 @@
         <v>886.34</v>
       </c>
       <c r="L80" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4397,7 +4424,7 @@
         <v>938.83</v>
       </c>
       <c r="L81" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4429,7 +4456,7 @@
         <v>870.4299999999999</v>
       </c>
       <c r="L82" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4461,7 +4488,7 @@
         <v>835.27</v>
       </c>
       <c r="L83" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4493,7 +4520,7 @@
         <v>846.5599999999999</v>
       </c>
       <c r="L84" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4525,7 +4552,7 @@
         <v>819.45</v>
       </c>
       <c r="L85" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4557,7 +4584,7 @@
         <v>796.08</v>
       </c>
       <c r="L86" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4589,7 +4616,7 @@
         <v>784.38</v>
       </c>
       <c r="L87" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4621,7 +4648,7 @@
         <v>764.2</v>
       </c>
       <c r="L88" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4653,7 +4680,7 @@
         <v>564.12</v>
       </c>
       <c r="L89" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4685,7 +4712,7 @@
         <v>646.97</v>
       </c>
       <c r="L90" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4717,7 +4744,7 @@
         <v>230.3</v>
       </c>
       <c r="L91" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4749,7 +4776,7 @@
         <v>99.84999999999999</v>
       </c>
       <c r="L92" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4781,7 +4808,7 @@
         <v>101.17</v>
       </c>
       <c r="L93" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4813,7 +4840,7 @@
         <v>106.93</v>
       </c>
       <c r="L94" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4845,7 +4872,7 @@
         <v>82</v>
       </c>
       <c r="L95" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4877,7 +4904,7 @@
         <v>89.70999999999999</v>
       </c>
       <c r="L96" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4909,7 +4936,7 @@
         <v>108.74</v>
       </c>
       <c r="L97" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4941,7 +4968,7 @@
         <v>129.87</v>
       </c>
       <c r="L98" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4973,7 +5000,7 @@
         <v>131.37</v>
       </c>
       <c r="L99" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5005,7 +5032,7 @@
         <v>101.26</v>
       </c>
       <c r="L100" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5037,7 +5064,7 @@
         <v>106.07</v>
       </c>
       <c r="L101" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5069,7 +5096,7 @@
         <v>87.97</v>
       </c>
       <c r="L102" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5101,7 +5128,7 @@
         <v>30.01</v>
       </c>
       <c r="L103" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5133,7 +5160,7 @@
         <v>15.95</v>
       </c>
       <c r="L104" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5165,7 +5192,7 @@
         <v>10.4</v>
       </c>
       <c r="L105" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5197,7 +5224,7 @@
         <v>6.59</v>
       </c>
       <c r="L106" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5229,7 +5256,7 @@
         <v>3.05</v>
       </c>
       <c r="L107" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5261,7 +5288,7 @@
         <v>0.46</v>
       </c>
       <c r="L108" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5293,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5325,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5357,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5389,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5421,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5453,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5485,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5517,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5549,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5581,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5613,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5645,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5677,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5709,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5741,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5773,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5805,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5837,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5869,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5901,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5933,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5965,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5997,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6029,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6061,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6093,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6125,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6157,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6189,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6221,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6253,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6285,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6317,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6349,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6381,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6413,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6445,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6477,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6509,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6541,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6573,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6605,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6637,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6669,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6701,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6733,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6765,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6797,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6829,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6861,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6893,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6925,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6957,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6989,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7021,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7053,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7085,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7117,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7149,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7181,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7213,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7245,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7277,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7309,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7341,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7373,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7405,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7437,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7469,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7501,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7533,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7565,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7597,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7629,7 +7656,7 @@
         <v>0.87</v>
       </c>
       <c r="L182" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7661,7 +7688,7 @@
         <v>4.68</v>
       </c>
       <c r="L183" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7693,7 +7720,7 @@
         <v>12.62</v>
       </c>
       <c r="L184" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7725,7 +7752,7 @@
         <v>22.44</v>
       </c>
       <c r="L185" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7757,7 +7784,7 @@
         <v>33.09</v>
       </c>
       <c r="L186" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7789,7 +7816,7 @@
         <v>43.42</v>
       </c>
       <c r="L187" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7821,7 +7848,7 @@
         <v>76.92</v>
       </c>
       <c r="L188" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -7853,7 +7880,7 @@
         <v>147</v>
       </c>
       <c r="L189" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -7885,7 +7912,7 @@
         <v>195.58</v>
       </c>
       <c r="L190" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7917,7 +7944,7 @@
         <v>240.17</v>
       </c>
       <c r="L191" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -7949,7 +7976,7 @@
         <v>279.83</v>
       </c>
       <c r="L192" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -7981,7 +8008,7 @@
         <v>327.68</v>
       </c>
       <c r="L193" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8013,7 +8040,7 @@
         <v>378.09</v>
       </c>
       <c r="L194" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8045,7 +8072,7 @@
         <v>432.09</v>
       </c>
       <c r="L195" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8077,7 +8104,7 @@
         <v>353.59</v>
       </c>
       <c r="L196" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8109,7 +8136,7 @@
         <v>485.58</v>
       </c>
       <c r="L197" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8141,7 +8168,7 @@
         <v>535.52</v>
       </c>
       <c r="L198" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8173,7 +8200,7 @@
         <v>578.05</v>
       </c>
       <c r="L199" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8205,7 +8232,7 @@
         <v>607.88</v>
       </c>
       <c r="L200" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8237,7 +8264,7 @@
         <v>636.3200000000001</v>
       </c>
       <c r="L201" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8269,7 +8296,7 @@
         <v>672.75</v>
       </c>
       <c r="L202" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8301,7 +8328,7 @@
         <v>696.15</v>
       </c>
       <c r="L203" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8333,7 +8360,7 @@
         <v>720.6799999999999</v>
       </c>
       <c r="L204" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -8365,7 +8392,7 @@
         <v>758.4400000000001</v>
       </c>
       <c r="L205" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -8397,7 +8424,7 @@
         <v>783.58</v>
       </c>
       <c r="L206" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8429,7 +8456,7 @@
         <v>804.48</v>
       </c>
       <c r="L207" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8461,7 +8488,7 @@
         <v>839.86</v>
       </c>
       <c r="L208" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8493,7 +8520,7 @@
         <v>778.2</v>
       </c>
       <c r="L209" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -8525,7 +8552,7 @@
         <v>785.15</v>
       </c>
       <c r="L210" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -8557,7 +8584,7 @@
         <v>847.27</v>
       </c>
       <c r="L211" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -8589,7 +8616,7 @@
         <v>840.4400000000001</v>
       </c>
       <c r="L212" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -8621,7 +8648,7 @@
         <v>948.87</v>
       </c>
       <c r="L213" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -8653,7 +8680,7 @@
         <v>656.5599999999999</v>
       </c>
       <c r="L214" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -8685,7 +8712,7 @@
         <v>865.53</v>
       </c>
       <c r="L215" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -8717,7 +8744,7 @@
         <v>946.83</v>
       </c>
       <c r="L216" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -8749,7 +8776,7 @@
         <v>695.91</v>
       </c>
       <c r="L217" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -8781,7 +8808,7 @@
         <v>825.52</v>
       </c>
       <c r="L218" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -8813,7 +8840,7 @@
         <v>576.63</v>
       </c>
       <c r="L219" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -8845,7 +8872,7 @@
         <v>571.11</v>
       </c>
       <c r="L220" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -8877,7 +8904,7 @@
         <v>803.71</v>
       </c>
       <c r="L221" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -8909,7 +8936,7 @@
         <v>672.0700000000001</v>
       </c>
       <c r="L222" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8941,7 +8968,7 @@
         <v>749.97</v>
       </c>
       <c r="L223" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -8973,7 +9000,7 @@
         <v>591.75</v>
       </c>
       <c r="L224" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -9005,7 +9032,7 @@
         <v>634.12</v>
       </c>
       <c r="L225" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -9037,7 +9064,7 @@
         <v>298.12</v>
       </c>
       <c r="L226" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -9069,7 +9096,7 @@
         <v>127.07</v>
       </c>
       <c r="L227" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -9101,7 +9128,7 @@
         <v>80.23</v>
       </c>
       <c r="L228" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -9133,7 +9160,7 @@
         <v>61.93</v>
       </c>
       <c r="L229" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -9165,7 +9192,7 @@
         <v>65.86</v>
       </c>
       <c r="L230" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -9197,7 +9224,7 @@
         <v>79.79000000000001</v>
       </c>
       <c r="L231" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -9229,7 +9256,7 @@
         <v>144.32</v>
       </c>
       <c r="L232" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -9261,7 +9288,7 @@
         <v>258.86</v>
       </c>
       <c r="L233" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -9293,7 +9320,7 @@
         <v>224.9</v>
       </c>
       <c r="L234" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -9325,7 +9352,7 @@
         <v>257.49</v>
       </c>
       <c r="L235" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -9357,7 +9384,7 @@
         <v>224.31</v>
       </c>
       <c r="L236" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9389,7 +9416,7 @@
         <v>122.31</v>
       </c>
       <c r="L237" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9421,7 +9448,7 @@
         <v>116.56</v>
       </c>
       <c r="L238" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9453,7 +9480,7 @@
         <v>193.67</v>
       </c>
       <c r="L239" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -9485,7 +9512,7 @@
         <v>337.23</v>
       </c>
       <c r="L240" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9517,7 +9544,7 @@
         <v>396.38</v>
       </c>
       <c r="L241" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9549,7 +9576,7 @@
         <v>363.34</v>
       </c>
       <c r="L242" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9581,7 +9608,7 @@
         <v>339.02</v>
       </c>
       <c r="L243" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9613,7 +9640,7 @@
         <v>254.54</v>
       </c>
       <c r="L244" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9645,7 +9672,7 @@
         <v>215.3</v>
       </c>
       <c r="L245" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9677,7 +9704,7 @@
         <v>175.78</v>
       </c>
       <c r="L246" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9709,7 +9736,7 @@
         <v>122.15</v>
       </c>
       <c r="L247" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9741,7 +9768,7 @@
         <v>81.73999999999999</v>
       </c>
       <c r="L248" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9773,7 +9800,7 @@
         <v>38.8</v>
       </c>
       <c r="L249" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9805,7 +9832,7 @@
         <v>26.35</v>
       </c>
       <c r="L250" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9837,7 +9864,7 @@
         <v>14.53</v>
       </c>
       <c r="L251" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9869,7 +9896,7 @@
         <v>5.59</v>
       </c>
       <c r="L252" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9901,7 +9928,7 @@
         <v>0.5</v>
       </c>
       <c r="L253" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -9933,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -9965,7 +9992,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -9997,7 +10024,7 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -10029,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -10061,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -10093,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10125,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10157,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -10189,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -10221,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -10253,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -10285,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -10317,7 +10344,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -10349,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10381,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10413,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10445,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10477,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10509,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10541,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10573,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10605,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10637,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10669,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10701,7 +10728,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10733,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10765,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -10797,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -10829,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -10861,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -10893,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -10925,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -10957,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -10989,7 +11016,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -11021,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -11053,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -11085,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -11117,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -11149,7 +11176,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -11181,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -11213,7 +11240,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -11245,7 +11272,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -11277,7 +11304,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -11309,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -11341,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -11373,7 +11400,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -11405,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -11437,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -11469,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -11501,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -11533,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11565,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11597,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11629,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11661,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11693,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11725,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -11757,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -11789,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -11821,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -11853,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -11885,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -11917,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -11949,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -11981,7 +12008,7 @@
         <v>0.02</v>
       </c>
       <c r="L318" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -12013,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -12045,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -12077,7 +12104,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -12109,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -12141,7 +12168,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -12173,7 +12200,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -12205,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="L325" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -12237,7 +12264,7 @@
         <v>0.16</v>
       </c>
       <c r="L326" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -12269,7 +12296,7 @@
         <v>2.72</v>
       </c>
       <c r="L327" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -12301,7 +12328,7 @@
         <v>7.97</v>
       </c>
       <c r="L328" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -12333,7 +12360,7 @@
         <v>16.43</v>
       </c>
       <c r="L329" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -12365,7 +12392,7 @@
         <v>29.57</v>
       </c>
       <c r="L330" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -12397,7 +12424,7 @@
         <v>49.31</v>
       </c>
       <c r="L331" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -12429,7 +12456,7 @@
         <v>56.77</v>
       </c>
       <c r="L332" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -12461,7 +12488,7 @@
         <v>74.65000000000001</v>
       </c>
       <c r="L333" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -12493,7 +12520,7 @@
         <v>89.79000000000001</v>
       </c>
       <c r="L334" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -12525,7 +12552,7 @@
         <v>132.61</v>
       </c>
       <c r="L335" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -12557,7 +12584,7 @@
         <v>183.45</v>
       </c>
       <c r="L336" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -12589,7 +12616,7 @@
         <v>285.93</v>
       </c>
       <c r="L337" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -12621,7 +12648,7 @@
         <v>289.84</v>
       </c>
       <c r="L338" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -12653,7 +12680,7 @@
         <v>276.9</v>
       </c>
       <c r="L339" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -12685,7 +12712,7 @@
         <v>260.09</v>
       </c>
       <c r="L340" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -12717,7 +12744,7 @@
         <v>283.28</v>
       </c>
       <c r="L341" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -12749,7 +12776,7 @@
         <v>328.52</v>
       </c>
       <c r="L342" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -12781,7 +12808,7 @@
         <v>266.12</v>
       </c>
       <c r="L343" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -12813,7 +12840,7 @@
         <v>390.5</v>
       </c>
       <c r="L344" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -12845,7 +12872,7 @@
         <v>673.77</v>
       </c>
       <c r="L345" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -12877,7 +12904,7 @@
         <v>711.9</v>
       </c>
       <c r="L346" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -12909,7 +12936,7 @@
         <v>739.46</v>
       </c>
       <c r="L347" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -12941,7 +12968,7 @@
         <v>775.8099999999999</v>
       </c>
       <c r="L348" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -12973,7 +13000,7 @@
         <v>808.3200000000001</v>
       </c>
       <c r="L349" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -13005,7 +13032,7 @@
         <v>804.04</v>
       </c>
       <c r="L350" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -13037,7 +13064,7 @@
         <v>854.51</v>
       </c>
       <c r="L351" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -13069,7 +13096,7 @@
         <v>792.17</v>
       </c>
       <c r="L352" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -13101,7 +13128,7 @@
         <v>504.18</v>
       </c>
       <c r="L353" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -13133,7 +13160,7 @@
         <v>370.77</v>
       </c>
       <c r="L354" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -13165,7 +13192,7 @@
         <v>352.5</v>
       </c>
       <c r="L355" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -13197,7 +13224,7 @@
         <v>323.36</v>
       </c>
       <c r="L356" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -13229,7 +13256,7 @@
         <v>283.18</v>
       </c>
       <c r="L357" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -13261,7 +13288,7 @@
         <v>356.01</v>
       </c>
       <c r="L358" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -13293,7 +13320,7 @@
         <v>525.59</v>
       </c>
       <c r="L359" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -13325,7 +13352,7 @@
         <v>742.11</v>
       </c>
       <c r="L360" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -13357,7 +13384,7 @@
         <v>1052.22</v>
       </c>
       <c r="L361" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -13389,7 +13416,7 @@
         <v>833.59</v>
       </c>
       <c r="L362" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -13421,7 +13448,7 @@
         <v>996.8099999999999</v>
       </c>
       <c r="L363" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -13453,7 +13480,7 @@
         <v>925.02</v>
       </c>
       <c r="L364" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -13485,7 +13512,7 @@
         <v>1002.57</v>
       </c>
       <c r="L365" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -13517,7 +13544,7 @@
         <v>789.84</v>
       </c>
       <c r="L366" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -13549,7 +13576,7 @@
         <v>619.3</v>
       </c>
       <c r="L367" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -13581,7 +13608,7 @@
         <v>494.59</v>
       </c>
       <c r="L368" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -13613,7 +13640,7 @@
         <v>843.3099999999999</v>
       </c>
       <c r="L369" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -13645,7 +13672,7 @@
         <v>863.73</v>
       </c>
       <c r="L370" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -13677,7 +13704,7 @@
         <v>923.96</v>
       </c>
       <c r="L371" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -13709,7 +13736,7 @@
         <v>875.39</v>
       </c>
       <c r="L372" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -13741,7 +13768,7 @@
         <v>673.11</v>
       </c>
       <c r="L373" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -13773,7 +13800,7 @@
         <v>749.1900000000001</v>
       </c>
       <c r="L374" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -13805,7 +13832,7 @@
         <v>367.41</v>
       </c>
       <c r="L375" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -13837,7 +13864,7 @@
         <v>160.58</v>
       </c>
       <c r="L376" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -13869,7 +13896,7 @@
         <v>193.86</v>
       </c>
       <c r="L377" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -13901,7 +13928,7 @@
         <v>247.32</v>
       </c>
       <c r="L378" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -13933,7 +13960,7 @@
         <v>488.15</v>
       </c>
       <c r="L379" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -13965,7 +13992,7 @@
         <v>532.72</v>
       </c>
       <c r="L380" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -13997,7 +14024,7 @@
         <v>394.36</v>
       </c>
       <c r="L381" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -14029,7 +14056,7 @@
         <v>357.79</v>
       </c>
       <c r="L382" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -14061,7 +14088,7 @@
         <v>316.3</v>
       </c>
       <c r="L383" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -14093,7 +14120,7 @@
         <v>399.92</v>
       </c>
       <c r="L384" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -14125,7 +14152,7 @@
         <v>345.58</v>
       </c>
       <c r="L385" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -14157,7 +14184,7 @@
         <v>310.09</v>
       </c>
       <c r="L386" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -14189,7 +14216,7 @@
         <v>225.21</v>
       </c>
       <c r="L387" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -14221,7 +14248,7 @@
         <v>149.3</v>
       </c>
       <c r="L388" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -14253,7 +14280,7 @@
         <v>109.35</v>
       </c>
       <c r="L389" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -14285,7 +14312,7 @@
         <v>66.45999999999999</v>
       </c>
       <c r="L390" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -14317,7 +14344,7 @@
         <v>50.73</v>
       </c>
       <c r="L391" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -14349,7 +14376,7 @@
         <v>36.24</v>
       </c>
       <c r="L392" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -14381,7 +14408,7 @@
         <v>30.44</v>
       </c>
       <c r="L393" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -14413,7 +14440,7 @@
         <v>27.33</v>
       </c>
       <c r="L394" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -14445,7 +14472,7 @@
         <v>9.6</v>
       </c>
       <c r="L395" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -14477,7 +14504,7 @@
         <v>0.96</v>
       </c>
       <c r="L396" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -14509,7 +14536,7 @@
         <v>0.23</v>
       </c>
       <c r="L397" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -14541,7 +14568,7 @@
         <v>0</v>
       </c>
       <c r="L398" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -14573,7 +14600,7 @@
         <v>0</v>
       </c>
       <c r="L399" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -14605,7 +14632,7 @@
         <v>0</v>
       </c>
       <c r="L400" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -14637,7 +14664,7 @@
         <v>0</v>
       </c>
       <c r="L401" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -14669,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="L402" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -14701,7 +14728,7 @@
         <v>0</v>
       </c>
       <c r="L403" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -14733,7 +14760,7 @@
         <v>0</v>
       </c>
       <c r="L404" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -14765,7 +14792,7 @@
         <v>0</v>
       </c>
       <c r="L405" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -14797,7 +14824,7 @@
         <v>0</v>
       </c>
       <c r="L406" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -14829,7 +14856,7 @@
         <v>0</v>
       </c>
       <c r="L407" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -14861,7 +14888,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -14893,7 +14920,7 @@
         <v>0</v>
       </c>
       <c r="L409" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -14925,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="L410" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -14957,7 +14984,7 @@
         <v>0</v>
       </c>
       <c r="L411" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -14989,7 +15016,7 @@
         <v>0</v>
       </c>
       <c r="L412" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -15021,7 +15048,7 @@
         <v>0</v>
       </c>
       <c r="L413" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -15053,7 +15080,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -15085,7 +15112,7 @@
         <v>0</v>
       </c>
       <c r="L415" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -15117,7 +15144,7 @@
         <v>0</v>
       </c>
       <c r="L416" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -15149,7 +15176,7 @@
         <v>0</v>
       </c>
       <c r="L417" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -15181,7 +15208,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -15213,7 +15240,7 @@
         <v>0</v>
       </c>
       <c r="L419" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -15245,7 +15272,7 @@
         <v>0</v>
       </c>
       <c r="L420" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -15277,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="L421" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -15309,7 +15336,7 @@
         <v>0</v>
       </c>
       <c r="L422" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -15341,7 +15368,7 @@
         <v>0</v>
       </c>
       <c r="L423" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -15373,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="L424" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -15405,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="L425" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -15437,7 +15464,7 @@
         <v>0</v>
       </c>
       <c r="L426" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -15469,7 +15496,7 @@
         <v>0</v>
       </c>
       <c r="L427" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -15501,7 +15528,7 @@
         <v>0</v>
       </c>
       <c r="L428" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -15533,7 +15560,7 @@
         <v>0</v>
       </c>
       <c r="L429" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -15565,7 +15592,7 @@
         <v>0</v>
       </c>
       <c r="L430" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -15597,7 +15624,7 @@
         <v>0</v>
       </c>
       <c r="L431" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -15629,7 +15656,7 @@
         <v>0</v>
       </c>
       <c r="L432" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -15661,7 +15688,7 @@
         <v>0</v>
       </c>
       <c r="L433" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -15693,7 +15720,7 @@
         <v>0</v>
       </c>
       <c r="L434" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -15725,7 +15752,7 @@
         <v>0</v>
       </c>
       <c r="L435" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -15757,7 +15784,7 @@
         <v>0</v>
       </c>
       <c r="L436" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -15789,7 +15816,7 @@
         <v>0</v>
       </c>
       <c r="L437" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -15821,7 +15848,7 @@
         <v>0</v>
       </c>
       <c r="L438" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -15853,7 +15880,7 @@
         <v>0</v>
       </c>
       <c r="L439" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -15885,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="L440" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -15917,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="L441" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -15949,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="L442" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -15981,7 +16008,7 @@
         <v>0</v>
       </c>
       <c r="L443" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -16013,7 +16040,7 @@
         <v>0</v>
       </c>
       <c r="L444" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -16045,7 +16072,7 @@
         <v>0</v>
       </c>
       <c r="L445" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -16077,7 +16104,7 @@
         <v>0</v>
       </c>
       <c r="L446" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -16109,7 +16136,7 @@
         <v>0</v>
       </c>
       <c r="L447" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -16141,7 +16168,7 @@
         <v>0</v>
       </c>
       <c r="L448" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -16173,7 +16200,7 @@
         <v>0</v>
       </c>
       <c r="L449" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -16205,7 +16232,7 @@
         <v>0</v>
       </c>
       <c r="L450" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -16237,7 +16264,7 @@
         <v>0</v>
       </c>
       <c r="L451" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -16269,7 +16296,7 @@
         <v>0</v>
       </c>
       <c r="L452" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -16301,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="L453" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -16333,7 +16360,7 @@
         <v>0</v>
       </c>
       <c r="L454" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -16365,7 +16392,7 @@
         <v>0</v>
       </c>
       <c r="L455" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -16397,7 +16424,7 @@
         <v>0</v>
       </c>
       <c r="L456" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -16429,7 +16456,7 @@
         <v>0</v>
       </c>
       <c r="L457" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -16461,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="L458" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -16493,7 +16520,7 @@
         <v>0</v>
       </c>
       <c r="L459" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -16525,7 +16552,7 @@
         <v>0</v>
       </c>
       <c r="L460" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -16557,7 +16584,7 @@
         <v>0</v>
       </c>
       <c r="L461" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -16589,7 +16616,7 @@
         <v>0</v>
       </c>
       <c r="L462" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -16621,7 +16648,7 @@
         <v>0</v>
       </c>
       <c r="L463" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -16653,7 +16680,7 @@
         <v>0</v>
       </c>
       <c r="L464" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -16685,7 +16712,295 @@
         <v>0</v>
       </c>
       <c r="L465" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
         <v>475</v>
+      </c>
+      <c r="C466">
+        <v>12.88</v>
+      </c>
+      <c r="D466">
+        <v>86.98999999999999</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>20.24</v>
+      </c>
+      <c r="H466">
+        <v>17.99</v>
+      </c>
+      <c r="I466">
+        <v>0.01</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="L466" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>476</v>
+      </c>
+      <c r="C467">
+        <v>12.88</v>
+      </c>
+      <c r="D467">
+        <v>87.92</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>20.16</v>
+      </c>
+      <c r="H467">
+        <v>18.07</v>
+      </c>
+      <c r="I467">
+        <v>0.05</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="L467" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>477</v>
+      </c>
+      <c r="C468">
+        <v>12.85</v>
+      </c>
+      <c r="D468">
+        <v>80.08</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>20.8</v>
+      </c>
+      <c r="H468">
+        <v>17.21</v>
+      </c>
+      <c r="I468">
+        <v>-0.03</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="L468" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>478</v>
+      </c>
+      <c r="C469">
+        <v>12.86</v>
+      </c>
+      <c r="D469">
+        <v>82.95</v>
+      </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>20.64</v>
+      </c>
+      <c r="H469">
+        <v>17.62</v>
+      </c>
+      <c r="I469">
+        <v>-0.03</v>
+      </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="L469" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>479</v>
+      </c>
+      <c r="C470">
+        <v>12.86</v>
+      </c>
+      <c r="D470">
+        <v>80.04000000000001</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>20.71</v>
+      </c>
+      <c r="H470">
+        <v>17.11</v>
+      </c>
+      <c r="I470">
+        <v>0.04</v>
+      </c>
+      <c r="J470">
+        <v>0</v>
+      </c>
+      <c r="L470" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>480</v>
+      </c>
+      <c r="C471">
+        <v>12.86</v>
+      </c>
+      <c r="D471">
+        <v>79.01000000000001</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>20.9</v>
+      </c>
+      <c r="H471">
+        <v>17.1</v>
+      </c>
+      <c r="I471">
+        <v>0.03</v>
+      </c>
+      <c r="J471">
+        <v>2.65</v>
+      </c>
+      <c r="L471" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>481</v>
+      </c>
+      <c r="C472">
+        <v>12.88</v>
+      </c>
+      <c r="D472">
+        <v>78.08</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>20.97</v>
+      </c>
+      <c r="H472">
+        <v>16.96</v>
+      </c>
+      <c r="I472">
+        <v>0.04</v>
+      </c>
+      <c r="J472">
+        <v>6.55</v>
+      </c>
+      <c r="L472" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>482</v>
+      </c>
+      <c r="C473">
+        <v>12.98</v>
+      </c>
+      <c r="D473">
+        <v>79.38</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>20.88</v>
+      </c>
+      <c r="H473">
+        <v>17.15</v>
+      </c>
+      <c r="I473">
+        <v>0.06</v>
+      </c>
+      <c r="J473">
+        <v>17.82</v>
+      </c>
+      <c r="L473" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>483</v>
+      </c>
+      <c r="C474">
+        <v>13.25</v>
+      </c>
+      <c r="D474">
+        <v>74.95999999999999</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>21.16</v>
+      </c>
+      <c r="H474">
+        <v>16.52</v>
+      </c>
+      <c r="I474">
+        <v>0.03</v>
+      </c>
+      <c r="J474">
+        <v>35.86</v>
+      </c>
+      <c r="L474" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
+++ b/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="494">
   <si>
     <t>Fecha</t>
   </si>
@@ -1466,6 +1466,33 @@
   </si>
   <si>
     <t>11/17/2020 6:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:10:00 AM</t>
   </si>
   <si>
     <t>ANTIGUA GUATEMALA</t>
@@ -1826,7 +1853,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L474"/>
+  <dimension ref="A1:L483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1896,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1928,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1960,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1992,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2024,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2056,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2088,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2120,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2152,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2184,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2216,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2248,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2280,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2312,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2344,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2376,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2408,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2440,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2472,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2504,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2536,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2568,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2600,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2632,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2664,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2696,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2728,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2760,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2792,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2824,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2856,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2888,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2920,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2952,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2984,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3016,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3048,7 +3075,7 @@
         <v>0.95</v>
       </c>
       <c r="L38" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3080,7 +3107,7 @@
         <v>5.29</v>
       </c>
       <c r="L39" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3112,7 +3139,7 @@
         <v>12.48</v>
       </c>
       <c r="L40" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3144,7 +3171,7 @@
         <v>20.11</v>
       </c>
       <c r="L41" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3176,7 +3203,7 @@
         <v>28.44</v>
       </c>
       <c r="L42" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3208,7 +3235,7 @@
         <v>38.38</v>
       </c>
       <c r="L43" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3240,7 +3267,7 @@
         <v>95.87</v>
       </c>
       <c r="L44" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3272,7 +3299,7 @@
         <v>196.71</v>
       </c>
       <c r="L45" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3304,7 +3331,7 @@
         <v>246.93</v>
       </c>
       <c r="L46" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3336,7 +3363,7 @@
         <v>289.17</v>
       </c>
       <c r="L47" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3368,7 +3395,7 @@
         <v>321.93</v>
       </c>
       <c r="L48" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3400,7 +3427,7 @@
         <v>358.4</v>
       </c>
       <c r="L49" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3432,7 +3459,7 @@
         <v>403.91</v>
       </c>
       <c r="L50" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3464,7 +3491,7 @@
         <v>448.97</v>
       </c>
       <c r="L51" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3496,7 +3523,7 @@
         <v>383.21</v>
       </c>
       <c r="L52" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3528,7 +3555,7 @@
         <v>469.81</v>
       </c>
       <c r="L53" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3560,7 +3587,7 @@
         <v>566.09</v>
       </c>
       <c r="L54" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3592,7 +3619,7 @@
         <v>600.95</v>
       </c>
       <c r="L55" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3624,7 +3651,7 @@
         <v>636.4400000000001</v>
       </c>
       <c r="L56" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3656,7 +3683,7 @@
         <v>672.87</v>
       </c>
       <c r="L57" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3688,7 +3715,7 @@
         <v>701.8</v>
       </c>
       <c r="L58" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3720,7 +3747,7 @@
         <v>732.86</v>
       </c>
       <c r="L59" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3752,7 +3779,7 @@
         <v>755.4400000000001</v>
       </c>
       <c r="L60" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3784,7 +3811,7 @@
         <v>781.85</v>
       </c>
       <c r="L61" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3816,7 +3843,7 @@
         <v>843.09</v>
       </c>
       <c r="L62" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3848,7 +3875,7 @@
         <v>891.74</v>
       </c>
       <c r="L63" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3880,7 +3907,7 @@
         <v>824.09</v>
       </c>
       <c r="L64" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3912,7 +3939,7 @@
         <v>574.41</v>
       </c>
       <c r="L65" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3944,7 +3971,7 @@
         <v>255.46</v>
       </c>
       <c r="L66" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3976,7 +4003,7 @@
         <v>794.48</v>
       </c>
       <c r="L67" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4008,7 +4035,7 @@
         <v>952.9400000000001</v>
       </c>
       <c r="L68" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4040,7 +4067,7 @@
         <v>969.95</v>
       </c>
       <c r="L69" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4072,7 +4099,7 @@
         <v>1007.3</v>
       </c>
       <c r="L70" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4104,7 +4131,7 @@
         <v>981.14</v>
       </c>
       <c r="L71" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4136,7 +4163,7 @@
         <v>807.54</v>
       </c>
       <c r="L72" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4168,7 +4195,7 @@
         <v>295.56</v>
       </c>
       <c r="L73" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4200,7 +4227,7 @@
         <v>551.98</v>
       </c>
       <c r="L74" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4232,7 +4259,7 @@
         <v>897.27</v>
       </c>
       <c r="L75" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4264,7 +4291,7 @@
         <v>795.14</v>
       </c>
       <c r="L76" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4296,7 +4323,7 @@
         <v>526.13</v>
       </c>
       <c r="L77" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4328,7 +4355,7 @@
         <v>242.31</v>
       </c>
       <c r="L78" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4360,7 +4387,7 @@
         <v>319.02</v>
       </c>
       <c r="L79" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4392,7 +4419,7 @@
         <v>886.34</v>
       </c>
       <c r="L80" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4424,7 +4451,7 @@
         <v>938.83</v>
       </c>
       <c r="L81" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4456,7 +4483,7 @@
         <v>870.4299999999999</v>
       </c>
       <c r="L82" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4488,7 +4515,7 @@
         <v>835.27</v>
       </c>
       <c r="L83" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4520,7 +4547,7 @@
         <v>846.5599999999999</v>
       </c>
       <c r="L84" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4552,7 +4579,7 @@
         <v>819.45</v>
       </c>
       <c r="L85" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4584,7 +4611,7 @@
         <v>796.08</v>
       </c>
       <c r="L86" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4616,7 +4643,7 @@
         <v>784.38</v>
       </c>
       <c r="L87" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4648,7 +4675,7 @@
         <v>764.2</v>
       </c>
       <c r="L88" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4680,7 +4707,7 @@
         <v>564.12</v>
       </c>
       <c r="L89" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4712,7 +4739,7 @@
         <v>646.97</v>
       </c>
       <c r="L90" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4744,7 +4771,7 @@
         <v>230.3</v>
       </c>
       <c r="L91" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4776,7 +4803,7 @@
         <v>99.84999999999999</v>
       </c>
       <c r="L92" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4808,7 +4835,7 @@
         <v>101.17</v>
       </c>
       <c r="L93" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4840,7 +4867,7 @@
         <v>106.93</v>
       </c>
       <c r="L94" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4872,7 +4899,7 @@
         <v>82</v>
       </c>
       <c r="L95" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4904,7 +4931,7 @@
         <v>89.70999999999999</v>
       </c>
       <c r="L96" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4936,7 +4963,7 @@
         <v>108.74</v>
       </c>
       <c r="L97" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4968,7 +4995,7 @@
         <v>129.87</v>
       </c>
       <c r="L98" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5000,7 +5027,7 @@
         <v>131.37</v>
       </c>
       <c r="L99" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5032,7 +5059,7 @@
         <v>101.26</v>
       </c>
       <c r="L100" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5064,7 +5091,7 @@
         <v>106.07</v>
       </c>
       <c r="L101" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5096,7 +5123,7 @@
         <v>87.97</v>
       </c>
       <c r="L102" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5128,7 +5155,7 @@
         <v>30.01</v>
       </c>
       <c r="L103" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5160,7 +5187,7 @@
         <v>15.95</v>
       </c>
       <c r="L104" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5192,7 +5219,7 @@
         <v>10.4</v>
       </c>
       <c r="L105" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5224,7 +5251,7 @@
         <v>6.59</v>
       </c>
       <c r="L106" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5256,7 +5283,7 @@
         <v>3.05</v>
       </c>
       <c r="L107" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5288,7 +5315,7 @@
         <v>0.46</v>
       </c>
       <c r="L108" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5320,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5352,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5384,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5416,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5448,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5480,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5512,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5544,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5576,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5608,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5640,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5672,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5704,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5736,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5768,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5800,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5832,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5864,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5896,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5928,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5960,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5992,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6024,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6056,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6088,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6120,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6152,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6184,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6216,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6248,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6280,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6312,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6344,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6376,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6408,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6440,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6472,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6504,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6536,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6568,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6600,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6632,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6664,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6696,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6728,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6760,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6792,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6824,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6856,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6888,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6920,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6952,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6984,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7016,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7048,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7080,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7112,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7144,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7176,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7208,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7240,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7272,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7304,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7336,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7368,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7400,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7432,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7464,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7496,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7528,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7560,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7592,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7624,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7656,7 +7683,7 @@
         <v>0.87</v>
       </c>
       <c r="L182" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7688,7 +7715,7 @@
         <v>4.68</v>
       </c>
       <c r="L183" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7720,7 +7747,7 @@
         <v>12.62</v>
       </c>
       <c r="L184" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7752,7 +7779,7 @@
         <v>22.44</v>
       </c>
       <c r="L185" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7784,7 +7811,7 @@
         <v>33.09</v>
       </c>
       <c r="L186" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7816,7 +7843,7 @@
         <v>43.42</v>
       </c>
       <c r="L187" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7848,7 +7875,7 @@
         <v>76.92</v>
       </c>
       <c r="L188" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -7880,7 +7907,7 @@
         <v>147</v>
       </c>
       <c r="L189" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -7912,7 +7939,7 @@
         <v>195.58</v>
       </c>
       <c r="L190" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7944,7 +7971,7 @@
         <v>240.17</v>
       </c>
       <c r="L191" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -7976,7 +8003,7 @@
         <v>279.83</v>
       </c>
       <c r="L192" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -8008,7 +8035,7 @@
         <v>327.68</v>
       </c>
       <c r="L193" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8040,7 +8067,7 @@
         <v>378.09</v>
       </c>
       <c r="L194" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8072,7 +8099,7 @@
         <v>432.09</v>
       </c>
       <c r="L195" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8104,7 +8131,7 @@
         <v>353.59</v>
       </c>
       <c r="L196" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8136,7 +8163,7 @@
         <v>485.58</v>
       </c>
       <c r="L197" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8168,7 +8195,7 @@
         <v>535.52</v>
       </c>
       <c r="L198" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8200,7 +8227,7 @@
         <v>578.05</v>
       </c>
       <c r="L199" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8232,7 +8259,7 @@
         <v>607.88</v>
       </c>
       <c r="L200" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8264,7 +8291,7 @@
         <v>636.3200000000001</v>
       </c>
       <c r="L201" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8296,7 +8323,7 @@
         <v>672.75</v>
       </c>
       <c r="L202" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8328,7 +8355,7 @@
         <v>696.15</v>
       </c>
       <c r="L203" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8360,7 +8387,7 @@
         <v>720.6799999999999</v>
       </c>
       <c r="L204" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -8392,7 +8419,7 @@
         <v>758.4400000000001</v>
       </c>
       <c r="L205" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -8424,7 +8451,7 @@
         <v>783.58</v>
       </c>
       <c r="L206" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8456,7 +8483,7 @@
         <v>804.48</v>
       </c>
       <c r="L207" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8488,7 +8515,7 @@
         <v>839.86</v>
       </c>
       <c r="L208" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8520,7 +8547,7 @@
         <v>778.2</v>
       </c>
       <c r="L209" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -8552,7 +8579,7 @@
         <v>785.15</v>
       </c>
       <c r="L210" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -8584,7 +8611,7 @@
         <v>847.27</v>
       </c>
       <c r="L211" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -8616,7 +8643,7 @@
         <v>840.4400000000001</v>
       </c>
       <c r="L212" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -8648,7 +8675,7 @@
         <v>948.87</v>
       </c>
       <c r="L213" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -8680,7 +8707,7 @@
         <v>656.5599999999999</v>
       </c>
       <c r="L214" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -8712,7 +8739,7 @@
         <v>865.53</v>
       </c>
       <c r="L215" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -8744,7 +8771,7 @@
         <v>946.83</v>
       </c>
       <c r="L216" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -8776,7 +8803,7 @@
         <v>695.91</v>
       </c>
       <c r="L217" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -8808,7 +8835,7 @@
         <v>825.52</v>
       </c>
       <c r="L218" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -8840,7 +8867,7 @@
         <v>576.63</v>
       </c>
       <c r="L219" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -8872,7 +8899,7 @@
         <v>571.11</v>
       </c>
       <c r="L220" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -8904,7 +8931,7 @@
         <v>803.71</v>
       </c>
       <c r="L221" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -8936,7 +8963,7 @@
         <v>672.0700000000001</v>
       </c>
       <c r="L222" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8968,7 +8995,7 @@
         <v>749.97</v>
       </c>
       <c r="L223" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -9000,7 +9027,7 @@
         <v>591.75</v>
       </c>
       <c r="L224" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -9032,7 +9059,7 @@
         <v>634.12</v>
       </c>
       <c r="L225" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -9064,7 +9091,7 @@
         <v>298.12</v>
       </c>
       <c r="L226" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -9096,7 +9123,7 @@
         <v>127.07</v>
       </c>
       <c r="L227" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -9128,7 +9155,7 @@
         <v>80.23</v>
       </c>
       <c r="L228" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -9160,7 +9187,7 @@
         <v>61.93</v>
       </c>
       <c r="L229" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -9192,7 +9219,7 @@
         <v>65.86</v>
       </c>
       <c r="L230" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -9224,7 +9251,7 @@
         <v>79.79000000000001</v>
       </c>
       <c r="L231" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -9256,7 +9283,7 @@
         <v>144.32</v>
       </c>
       <c r="L232" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -9288,7 +9315,7 @@
         <v>258.86</v>
       </c>
       <c r="L233" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -9320,7 +9347,7 @@
         <v>224.9</v>
       </c>
       <c r="L234" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -9352,7 +9379,7 @@
         <v>257.49</v>
       </c>
       <c r="L235" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -9384,7 +9411,7 @@
         <v>224.31</v>
       </c>
       <c r="L236" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9416,7 +9443,7 @@
         <v>122.31</v>
       </c>
       <c r="L237" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9448,7 +9475,7 @@
         <v>116.56</v>
       </c>
       <c r="L238" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9480,7 +9507,7 @@
         <v>193.67</v>
       </c>
       <c r="L239" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -9512,7 +9539,7 @@
         <v>337.23</v>
       </c>
       <c r="L240" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9544,7 +9571,7 @@
         <v>396.38</v>
       </c>
       <c r="L241" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9576,7 +9603,7 @@
         <v>363.34</v>
       </c>
       <c r="L242" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9608,7 +9635,7 @@
         <v>339.02</v>
       </c>
       <c r="L243" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9640,7 +9667,7 @@
         <v>254.54</v>
       </c>
       <c r="L244" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9672,7 +9699,7 @@
         <v>215.3</v>
       </c>
       <c r="L245" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9704,7 +9731,7 @@
         <v>175.78</v>
       </c>
       <c r="L246" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9736,7 +9763,7 @@
         <v>122.15</v>
       </c>
       <c r="L247" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9768,7 +9795,7 @@
         <v>81.73999999999999</v>
       </c>
       <c r="L248" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9800,7 +9827,7 @@
         <v>38.8</v>
       </c>
       <c r="L249" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9832,7 +9859,7 @@
         <v>26.35</v>
       </c>
       <c r="L250" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9864,7 +9891,7 @@
         <v>14.53</v>
       </c>
       <c r="L251" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9896,7 +9923,7 @@
         <v>5.59</v>
       </c>
       <c r="L252" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9928,7 +9955,7 @@
         <v>0.5</v>
       </c>
       <c r="L253" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -9960,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -9992,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -10024,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -10056,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -10088,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -10120,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10152,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10184,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -10216,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -10248,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -10280,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -10312,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -10344,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -10376,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10408,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10440,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10472,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10504,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10536,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10568,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10600,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10632,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10664,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10696,7 +10723,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10728,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10760,7 +10787,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10792,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -10824,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -10856,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -10888,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -10920,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -10952,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -10984,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -11016,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -11048,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -11080,7 +11107,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -11112,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -11144,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -11176,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -11208,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -11240,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -11272,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -11304,7 +11331,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -11336,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -11368,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -11400,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -11432,7 +11459,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -11464,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -11496,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -11528,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -11560,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11592,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11624,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11656,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11688,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11720,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11752,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -11784,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -11816,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -11848,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -11880,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -11912,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -11944,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -11976,7 +12003,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -12008,7 +12035,7 @@
         <v>0.02</v>
       </c>
       <c r="L318" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -12040,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -12072,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -12104,7 +12131,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -12136,7 +12163,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -12168,7 +12195,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -12200,7 +12227,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -12232,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="L325" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -12264,7 +12291,7 @@
         <v>0.16</v>
       </c>
       <c r="L326" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -12296,7 +12323,7 @@
         <v>2.72</v>
       </c>
       <c r="L327" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -12328,7 +12355,7 @@
         <v>7.97</v>
       </c>
       <c r="L328" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -12360,7 +12387,7 @@
         <v>16.43</v>
       </c>
       <c r="L329" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -12392,7 +12419,7 @@
         <v>29.57</v>
       </c>
       <c r="L330" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -12424,7 +12451,7 @@
         <v>49.31</v>
       </c>
       <c r="L331" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -12456,7 +12483,7 @@
         <v>56.77</v>
       </c>
       <c r="L332" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -12488,7 +12515,7 @@
         <v>74.65000000000001</v>
       </c>
       <c r="L333" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -12520,7 +12547,7 @@
         <v>89.79000000000001</v>
       </c>
       <c r="L334" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -12552,7 +12579,7 @@
         <v>132.61</v>
       </c>
       <c r="L335" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -12584,7 +12611,7 @@
         <v>183.45</v>
       </c>
       <c r="L336" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -12616,7 +12643,7 @@
         <v>285.93</v>
       </c>
       <c r="L337" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -12648,7 +12675,7 @@
         <v>289.84</v>
       </c>
       <c r="L338" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -12680,7 +12707,7 @@
         <v>276.9</v>
       </c>
       <c r="L339" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -12712,7 +12739,7 @@
         <v>260.09</v>
       </c>
       <c r="L340" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -12744,7 +12771,7 @@
         <v>283.28</v>
       </c>
       <c r="L341" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -12776,7 +12803,7 @@
         <v>328.52</v>
       </c>
       <c r="L342" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -12808,7 +12835,7 @@
         <v>266.12</v>
       </c>
       <c r="L343" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -12840,7 +12867,7 @@
         <v>390.5</v>
       </c>
       <c r="L344" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -12872,7 +12899,7 @@
         <v>673.77</v>
       </c>
       <c r="L345" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -12904,7 +12931,7 @@
         <v>711.9</v>
       </c>
       <c r="L346" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -12936,7 +12963,7 @@
         <v>739.46</v>
       </c>
       <c r="L347" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -12968,7 +12995,7 @@
         <v>775.8099999999999</v>
       </c>
       <c r="L348" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -13000,7 +13027,7 @@
         <v>808.3200000000001</v>
       </c>
       <c r="L349" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -13032,7 +13059,7 @@
         <v>804.04</v>
       </c>
       <c r="L350" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -13064,7 +13091,7 @@
         <v>854.51</v>
       </c>
       <c r="L351" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -13096,7 +13123,7 @@
         <v>792.17</v>
       </c>
       <c r="L352" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -13128,7 +13155,7 @@
         <v>504.18</v>
       </c>
       <c r="L353" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -13160,7 +13187,7 @@
         <v>370.77</v>
       </c>
       <c r="L354" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -13192,7 +13219,7 @@
         <v>352.5</v>
       </c>
       <c r="L355" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -13224,7 +13251,7 @@
         <v>323.36</v>
       </c>
       <c r="L356" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -13256,7 +13283,7 @@
         <v>283.18</v>
       </c>
       <c r="L357" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -13288,7 +13315,7 @@
         <v>356.01</v>
       </c>
       <c r="L358" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -13320,7 +13347,7 @@
         <v>525.59</v>
       </c>
       <c r="L359" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -13352,7 +13379,7 @@
         <v>742.11</v>
       </c>
       <c r="L360" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -13384,7 +13411,7 @@
         <v>1052.22</v>
       </c>
       <c r="L361" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -13416,7 +13443,7 @@
         <v>833.59</v>
       </c>
       <c r="L362" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -13448,7 +13475,7 @@
         <v>996.8099999999999</v>
       </c>
       <c r="L363" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -13480,7 +13507,7 @@
         <v>925.02</v>
       </c>
       <c r="L364" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -13512,7 +13539,7 @@
         <v>1002.57</v>
       </c>
       <c r="L365" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -13544,7 +13571,7 @@
         <v>789.84</v>
       </c>
       <c r="L366" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -13576,7 +13603,7 @@
         <v>619.3</v>
       </c>
       <c r="L367" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -13608,7 +13635,7 @@
         <v>494.59</v>
       </c>
       <c r="L368" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -13640,7 +13667,7 @@
         <v>843.3099999999999</v>
       </c>
       <c r="L369" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -13672,7 +13699,7 @@
         <v>863.73</v>
       </c>
       <c r="L370" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -13704,7 +13731,7 @@
         <v>923.96</v>
       </c>
       <c r="L371" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -13736,7 +13763,7 @@
         <v>875.39</v>
       </c>
       <c r="L372" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -13768,7 +13795,7 @@
         <v>673.11</v>
       </c>
       <c r="L373" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -13800,7 +13827,7 @@
         <v>749.1900000000001</v>
       </c>
       <c r="L374" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -13832,7 +13859,7 @@
         <v>367.41</v>
       </c>
       <c r="L375" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -13864,7 +13891,7 @@
         <v>160.58</v>
       </c>
       <c r="L376" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -13896,7 +13923,7 @@
         <v>193.86</v>
       </c>
       <c r="L377" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -13928,7 +13955,7 @@
         <v>247.32</v>
       </c>
       <c r="L378" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -13960,7 +13987,7 @@
         <v>488.15</v>
       </c>
       <c r="L379" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -13992,7 +14019,7 @@
         <v>532.72</v>
       </c>
       <c r="L380" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -14024,7 +14051,7 @@
         <v>394.36</v>
       </c>
       <c r="L381" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -14056,7 +14083,7 @@
         <v>357.79</v>
       </c>
       <c r="L382" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -14088,7 +14115,7 @@
         <v>316.3</v>
       </c>
       <c r="L383" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -14120,7 +14147,7 @@
         <v>399.92</v>
       </c>
       <c r="L384" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -14152,7 +14179,7 @@
         <v>345.58</v>
       </c>
       <c r="L385" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -14184,7 +14211,7 @@
         <v>310.09</v>
       </c>
       <c r="L386" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -14216,7 +14243,7 @@
         <v>225.21</v>
       </c>
       <c r="L387" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -14248,7 +14275,7 @@
         <v>149.3</v>
       </c>
       <c r="L388" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -14280,7 +14307,7 @@
         <v>109.35</v>
       </c>
       <c r="L389" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -14312,7 +14339,7 @@
         <v>66.45999999999999</v>
       </c>
       <c r="L390" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -14344,7 +14371,7 @@
         <v>50.73</v>
       </c>
       <c r="L391" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -14376,7 +14403,7 @@
         <v>36.24</v>
       </c>
       <c r="L392" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -14408,7 +14435,7 @@
         <v>30.44</v>
       </c>
       <c r="L393" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -14440,7 +14467,7 @@
         <v>27.33</v>
       </c>
       <c r="L394" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -14472,7 +14499,7 @@
         <v>9.6</v>
       </c>
       <c r="L395" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -14504,7 +14531,7 @@
         <v>0.96</v>
       </c>
       <c r="L396" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -14536,7 +14563,7 @@
         <v>0.23</v>
       </c>
       <c r="L397" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -14568,7 +14595,7 @@
         <v>0</v>
       </c>
       <c r="L398" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -14600,7 +14627,7 @@
         <v>0</v>
       </c>
       <c r="L399" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -14632,7 +14659,7 @@
         <v>0</v>
       </c>
       <c r="L400" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -14664,7 +14691,7 @@
         <v>0</v>
       </c>
       <c r="L401" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -14696,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="L402" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -14728,7 +14755,7 @@
         <v>0</v>
       </c>
       <c r="L403" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -14760,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="L404" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -14792,7 +14819,7 @@
         <v>0</v>
       </c>
       <c r="L405" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -14824,7 +14851,7 @@
         <v>0</v>
       </c>
       <c r="L406" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -14856,7 +14883,7 @@
         <v>0</v>
       </c>
       <c r="L407" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -14888,7 +14915,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -14920,7 +14947,7 @@
         <v>0</v>
       </c>
       <c r="L409" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -14952,7 +14979,7 @@
         <v>0</v>
       </c>
       <c r="L410" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -14984,7 +15011,7 @@
         <v>0</v>
       </c>
       <c r="L411" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -15016,7 +15043,7 @@
         <v>0</v>
       </c>
       <c r="L412" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -15048,7 +15075,7 @@
         <v>0</v>
       </c>
       <c r="L413" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -15080,7 +15107,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -15112,7 +15139,7 @@
         <v>0</v>
       </c>
       <c r="L415" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -15144,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="L416" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -15176,7 +15203,7 @@
         <v>0</v>
       </c>
       <c r="L417" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -15208,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -15240,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="L419" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -15272,7 +15299,7 @@
         <v>0</v>
       </c>
       <c r="L420" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -15304,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="L421" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -15336,7 +15363,7 @@
         <v>0</v>
       </c>
       <c r="L422" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -15368,7 +15395,7 @@
         <v>0</v>
       </c>
       <c r="L423" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -15400,7 +15427,7 @@
         <v>0</v>
       </c>
       <c r="L424" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -15432,7 +15459,7 @@
         <v>0</v>
       </c>
       <c r="L425" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -15464,7 +15491,7 @@
         <v>0</v>
       </c>
       <c r="L426" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -15496,7 +15523,7 @@
         <v>0</v>
       </c>
       <c r="L427" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -15528,7 +15555,7 @@
         <v>0</v>
       </c>
       <c r="L428" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -15560,7 +15587,7 @@
         <v>0</v>
       </c>
       <c r="L429" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -15592,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="L430" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -15624,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="L431" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -15656,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="L432" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -15688,7 +15715,7 @@
         <v>0</v>
       </c>
       <c r="L433" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -15720,7 +15747,7 @@
         <v>0</v>
       </c>
       <c r="L434" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -15752,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="L435" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -15784,7 +15811,7 @@
         <v>0</v>
       </c>
       <c r="L436" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -15816,7 +15843,7 @@
         <v>0</v>
       </c>
       <c r="L437" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -15848,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="L438" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -15880,7 +15907,7 @@
         <v>0</v>
       </c>
       <c r="L439" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -15912,7 +15939,7 @@
         <v>0</v>
       </c>
       <c r="L440" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -15944,7 +15971,7 @@
         <v>0</v>
       </c>
       <c r="L441" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -15976,7 +16003,7 @@
         <v>0</v>
       </c>
       <c r="L442" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -16008,7 +16035,7 @@
         <v>0</v>
       </c>
       <c r="L443" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -16040,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="L444" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -16072,7 +16099,7 @@
         <v>0</v>
       </c>
       <c r="L445" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -16104,7 +16131,7 @@
         <v>0</v>
       </c>
       <c r="L446" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -16136,7 +16163,7 @@
         <v>0</v>
       </c>
       <c r="L447" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -16168,7 +16195,7 @@
         <v>0</v>
       </c>
       <c r="L448" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -16200,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="L449" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -16232,7 +16259,7 @@
         <v>0</v>
       </c>
       <c r="L450" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -16264,7 +16291,7 @@
         <v>0</v>
       </c>
       <c r="L451" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -16296,7 +16323,7 @@
         <v>0</v>
       </c>
       <c r="L452" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -16328,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="L453" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -16360,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="L454" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -16392,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="L455" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -16424,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="L456" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -16456,7 +16483,7 @@
         <v>0</v>
       </c>
       <c r="L457" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -16488,7 +16515,7 @@
         <v>0</v>
       </c>
       <c r="L458" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -16520,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="L459" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -16552,7 +16579,7 @@
         <v>0</v>
       </c>
       <c r="L460" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -16584,7 +16611,7 @@
         <v>0</v>
       </c>
       <c r="L461" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -16616,7 +16643,7 @@
         <v>0</v>
       </c>
       <c r="L462" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -16648,7 +16675,7 @@
         <v>0</v>
       </c>
       <c r="L463" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -16680,7 +16707,7 @@
         <v>0</v>
       </c>
       <c r="L464" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -16712,7 +16739,7 @@
         <v>0</v>
       </c>
       <c r="L465" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -16744,7 +16771,7 @@
         <v>0</v>
       </c>
       <c r="L466" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -16776,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="L467" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -16808,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="L468" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -16840,7 +16867,7 @@
         <v>0</v>
       </c>
       <c r="L469" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -16872,7 +16899,7 @@
         <v>0</v>
       </c>
       <c r="L470" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -16904,7 +16931,7 @@
         <v>2.65</v>
       </c>
       <c r="L471" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -16936,7 +16963,7 @@
         <v>6.55</v>
       </c>
       <c r="L472" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -16968,7 +16995,7 @@
         <v>17.82</v>
       </c>
       <c r="L473" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -17000,7 +17027,295 @@
         <v>35.86</v>
       </c>
       <c r="L474" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
         <v>484</v>
+      </c>
+      <c r="C475">
+        <v>13.64</v>
+      </c>
+      <c r="D475">
+        <v>75.18000000000001</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>21.16</v>
+      </c>
+      <c r="H475">
+        <v>16.56</v>
+      </c>
+      <c r="I475">
+        <v>-0.01</v>
+      </c>
+      <c r="J475">
+        <v>54.07</v>
+      </c>
+      <c r="L475" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>485</v>
+      </c>
+      <c r="C476">
+        <v>13.7</v>
+      </c>
+      <c r="D476">
+        <v>72.69</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>21.33</v>
+      </c>
+      <c r="H476">
+        <v>16.19</v>
+      </c>
+      <c r="I476">
+        <v>-0.02</v>
+      </c>
+      <c r="J476">
+        <v>62.25</v>
+      </c>
+      <c r="L476" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>486</v>
+      </c>
+      <c r="C477">
+        <v>13.7</v>
+      </c>
+      <c r="D477">
+        <v>70.8</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>21.48</v>
+      </c>
+      <c r="H477">
+        <v>15.92</v>
+      </c>
+      <c r="I477">
+        <v>-0.02</v>
+      </c>
+      <c r="J477">
+        <v>77.91</v>
+      </c>
+      <c r="L477" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>487</v>
+      </c>
+      <c r="C478">
+        <v>13.7</v>
+      </c>
+      <c r="D478">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>21.51</v>
+      </c>
+      <c r="H478">
+        <v>16.02</v>
+      </c>
+      <c r="I478">
+        <v>0</v>
+      </c>
+      <c r="J478">
+        <v>82.69</v>
+      </c>
+      <c r="L478" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>488</v>
+      </c>
+      <c r="C479">
+        <v>13.71</v>
+      </c>
+      <c r="D479">
+        <v>70.25</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>21.65</v>
+      </c>
+      <c r="H479">
+        <v>15.97</v>
+      </c>
+      <c r="I479">
+        <v>-0.03</v>
+      </c>
+      <c r="J479">
+        <v>133.26</v>
+      </c>
+      <c r="L479" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>489</v>
+      </c>
+      <c r="C480">
+        <v>13.7</v>
+      </c>
+      <c r="D480">
+        <v>70.95</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>21.82</v>
+      </c>
+      <c r="H480">
+        <v>16.29</v>
+      </c>
+      <c r="I480">
+        <v>0</v>
+      </c>
+      <c r="J480">
+        <v>144.69</v>
+      </c>
+      <c r="L480" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>490</v>
+      </c>
+      <c r="C481">
+        <v>13.71</v>
+      </c>
+      <c r="D481">
+        <v>69.36</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481">
+        <v>22.04</v>
+      </c>
+      <c r="H481">
+        <v>16.13</v>
+      </c>
+      <c r="I481">
+        <v>0.03</v>
+      </c>
+      <c r="J481">
+        <v>190.97</v>
+      </c>
+      <c r="L481" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>491</v>
+      </c>
+      <c r="C482">
+        <v>13.72</v>
+      </c>
+      <c r="D482">
+        <v>62.5</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>22.84</v>
+      </c>
+      <c r="H482">
+        <v>15.26</v>
+      </c>
+      <c r="I482">
+        <v>0.06</v>
+      </c>
+      <c r="J482">
+        <v>411.43</v>
+      </c>
+      <c r="L482" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>492</v>
+      </c>
+      <c r="C483">
+        <v>13.72</v>
+      </c>
+      <c r="D483">
+        <v>60.92</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>22.79</v>
+      </c>
+      <c r="H483">
+        <v>14.82</v>
+      </c>
+      <c r="I483">
+        <v>-0.01</v>
+      </c>
+      <c r="J483">
+        <v>270.08</v>
+      </c>
+      <c r="L483" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
+++ b/tablas_insivumeh/ANTIGUA GUATEMALA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="505">
   <si>
     <t>Fecha</t>
   </si>
@@ -1493,6 +1493,39 @@
   </si>
   <si>
     <t>11/17/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 10:00:00 AM</t>
   </si>
   <si>
     <t>ANTIGUA GUATEMALA</t>
@@ -1853,7 +1886,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L483"/>
+  <dimension ref="A1:L494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1923,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1955,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1987,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2019,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2051,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2083,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2115,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2147,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2179,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2211,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2243,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2275,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2307,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2339,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2371,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2403,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2435,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2467,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2499,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2531,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2563,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2595,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2627,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2659,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2691,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2723,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2755,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2787,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2819,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2851,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2883,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2915,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2947,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2979,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3011,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3043,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3075,7 +3108,7 @@
         <v>0.95</v>
       </c>
       <c r="L38" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3107,7 +3140,7 @@
         <v>5.29</v>
       </c>
       <c r="L39" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3139,7 +3172,7 @@
         <v>12.48</v>
       </c>
       <c r="L40" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3171,7 +3204,7 @@
         <v>20.11</v>
       </c>
       <c r="L41" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3203,7 +3236,7 @@
         <v>28.44</v>
       </c>
       <c r="L42" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3235,7 +3268,7 @@
         <v>38.38</v>
       </c>
       <c r="L43" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3267,7 +3300,7 @@
         <v>95.87</v>
       </c>
       <c r="L44" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3299,7 +3332,7 @@
         <v>196.71</v>
       </c>
       <c r="L45" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3331,7 +3364,7 @@
         <v>246.93</v>
       </c>
       <c r="L46" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3363,7 +3396,7 @@
         <v>289.17</v>
       </c>
       <c r="L47" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3395,7 +3428,7 @@
         <v>321.93</v>
       </c>
       <c r="L48" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3427,7 +3460,7 @@
         <v>358.4</v>
       </c>
       <c r="L49" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3459,7 +3492,7 @@
         <v>403.91</v>
       </c>
       <c r="L50" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3491,7 +3524,7 @@
         <v>448.97</v>
       </c>
       <c r="L51" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3523,7 +3556,7 @@
         <v>383.21</v>
       </c>
       <c r="L52" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3555,7 +3588,7 @@
         <v>469.81</v>
       </c>
       <c r="L53" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3587,7 +3620,7 @@
         <v>566.09</v>
       </c>
       <c r="L54" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3619,7 +3652,7 @@
         <v>600.95</v>
       </c>
       <c r="L55" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3651,7 +3684,7 @@
         <v>636.4400000000001</v>
       </c>
       <c r="L56" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3683,7 +3716,7 @@
         <v>672.87</v>
       </c>
       <c r="L57" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3715,7 +3748,7 @@
         <v>701.8</v>
       </c>
       <c r="L58" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3747,7 +3780,7 @@
         <v>732.86</v>
       </c>
       <c r="L59" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3779,7 +3812,7 @@
         <v>755.4400000000001</v>
       </c>
       <c r="L60" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3811,7 +3844,7 @@
         <v>781.85</v>
       </c>
       <c r="L61" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3843,7 +3876,7 @@
         <v>843.09</v>
       </c>
       <c r="L62" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3875,7 +3908,7 @@
         <v>891.74</v>
       </c>
       <c r="L63" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3907,7 +3940,7 @@
         <v>824.09</v>
       </c>
       <c r="L64" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3939,7 +3972,7 @@
         <v>574.41</v>
       </c>
       <c r="L65" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3971,7 +4004,7 @@
         <v>255.46</v>
       </c>
       <c r="L66" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4003,7 +4036,7 @@
         <v>794.48</v>
       </c>
       <c r="L67" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4035,7 +4068,7 @@
         <v>952.9400000000001</v>
       </c>
       <c r="L68" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4067,7 +4100,7 @@
         <v>969.95</v>
       </c>
       <c r="L69" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4099,7 +4132,7 @@
         <v>1007.3</v>
       </c>
       <c r="L70" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4131,7 +4164,7 @@
         <v>981.14</v>
       </c>
       <c r="L71" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4163,7 +4196,7 @@
         <v>807.54</v>
       </c>
       <c r="L72" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4195,7 +4228,7 @@
         <v>295.56</v>
       </c>
       <c r="L73" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4227,7 +4260,7 @@
         <v>551.98</v>
       </c>
       <c r="L74" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4259,7 +4292,7 @@
         <v>897.27</v>
       </c>
       <c r="L75" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4291,7 +4324,7 @@
         <v>795.14</v>
       </c>
       <c r="L76" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4323,7 +4356,7 @@
         <v>526.13</v>
       </c>
       <c r="L77" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4355,7 +4388,7 @@
         <v>242.31</v>
       </c>
       <c r="L78" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4387,7 +4420,7 @@
         <v>319.02</v>
       </c>
       <c r="L79" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4419,7 +4452,7 @@
         <v>886.34</v>
       </c>
       <c r="L80" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4451,7 +4484,7 @@
         <v>938.83</v>
       </c>
       <c r="L81" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4483,7 +4516,7 @@
         <v>870.4299999999999</v>
       </c>
       <c r="L82" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4515,7 +4548,7 @@
         <v>835.27</v>
       </c>
       <c r="L83" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4547,7 +4580,7 @@
         <v>846.5599999999999</v>
       </c>
       <c r="L84" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4579,7 +4612,7 @@
         <v>819.45</v>
       </c>
       <c r="L85" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4611,7 +4644,7 @@
         <v>796.08</v>
       </c>
       <c r="L86" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4643,7 +4676,7 @@
         <v>784.38</v>
       </c>
       <c r="L87" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4675,7 +4708,7 @@
         <v>764.2</v>
       </c>
       <c r="L88" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4707,7 +4740,7 @@
         <v>564.12</v>
       </c>
       <c r="L89" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4739,7 +4772,7 @@
         <v>646.97</v>
       </c>
       <c r="L90" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4771,7 +4804,7 @@
         <v>230.3</v>
       </c>
       <c r="L91" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4803,7 +4836,7 @@
         <v>99.84999999999999</v>
       </c>
       <c r="L92" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4835,7 +4868,7 @@
         <v>101.17</v>
       </c>
       <c r="L93" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4867,7 +4900,7 @@
         <v>106.93</v>
       </c>
       <c r="L94" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4899,7 +4932,7 @@
         <v>82</v>
       </c>
       <c r="L95" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4931,7 +4964,7 @@
         <v>89.70999999999999</v>
       </c>
       <c r="L96" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4963,7 +4996,7 @@
         <v>108.74</v>
       </c>
       <c r="L97" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4995,7 +5028,7 @@
         <v>129.87</v>
       </c>
       <c r="L98" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5027,7 +5060,7 @@
         <v>131.37</v>
       </c>
       <c r="L99" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5059,7 +5092,7 @@
         <v>101.26</v>
       </c>
       <c r="L100" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5091,7 +5124,7 @@
         <v>106.07</v>
       </c>
       <c r="L101" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5123,7 +5156,7 @@
         <v>87.97</v>
       </c>
       <c r="L102" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5155,7 +5188,7 @@
         <v>30.01</v>
       </c>
       <c r="L103" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5187,7 +5220,7 @@
         <v>15.95</v>
       </c>
       <c r="L104" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5219,7 +5252,7 @@
         <v>10.4</v>
       </c>
       <c r="L105" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5251,7 +5284,7 @@
         <v>6.59</v>
       </c>
       <c r="L106" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5283,7 +5316,7 @@
         <v>3.05</v>
       </c>
       <c r="L107" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5315,7 +5348,7 @@
         <v>0.46</v>
       </c>
       <c r="L108" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5347,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5379,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5411,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5443,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5475,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5507,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5539,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5571,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5603,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5635,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5667,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5699,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -5731,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5763,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5795,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5827,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5859,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5891,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5923,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5955,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5987,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6019,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6051,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6083,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6115,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6147,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6179,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6211,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6243,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6275,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6307,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6339,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6371,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6403,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6435,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6467,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6499,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6531,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6563,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6595,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6627,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6659,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6691,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6723,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6755,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6787,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6819,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6851,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6883,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6915,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6947,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6979,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7011,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7043,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7075,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7107,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7139,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7171,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -7203,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -7235,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -7267,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -7299,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -7331,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -7363,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -7395,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -7427,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -7459,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -7491,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -7523,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -7555,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -7587,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -7619,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -7651,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -7683,7 +7716,7 @@
         <v>0.87</v>
       </c>
       <c r="L182" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -7715,7 +7748,7 @@
         <v>4.68</v>
       </c>
       <c r="L183" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -7747,7 +7780,7 @@
         <v>12.62</v>
       </c>
       <c r="L184" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -7779,7 +7812,7 @@
         <v>22.44</v>
       </c>
       <c r="L185" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -7811,7 +7844,7 @@
         <v>33.09</v>
       </c>
       <c r="L186" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -7843,7 +7876,7 @@
         <v>43.42</v>
       </c>
       <c r="L187" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -7875,7 +7908,7 @@
         <v>76.92</v>
       </c>
       <c r="L188" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -7907,7 +7940,7 @@
         <v>147</v>
       </c>
       <c r="L189" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -7939,7 +7972,7 @@
         <v>195.58</v>
       </c>
       <c r="L190" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -7971,7 +8004,7 @@
         <v>240.17</v>
       </c>
       <c r="L191" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -8003,7 +8036,7 @@
         <v>279.83</v>
       </c>
       <c r="L192" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -8035,7 +8068,7 @@
         <v>327.68</v>
       </c>
       <c r="L193" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8067,7 +8100,7 @@
         <v>378.09</v>
       </c>
       <c r="L194" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8099,7 +8132,7 @@
         <v>432.09</v>
       </c>
       <c r="L195" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8131,7 +8164,7 @@
         <v>353.59</v>
       </c>
       <c r="L196" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -8163,7 +8196,7 @@
         <v>485.58</v>
       </c>
       <c r="L197" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8195,7 +8228,7 @@
         <v>535.52</v>
       </c>
       <c r="L198" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8227,7 +8260,7 @@
         <v>578.05</v>
       </c>
       <c r="L199" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8259,7 +8292,7 @@
         <v>607.88</v>
       </c>
       <c r="L200" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -8291,7 +8324,7 @@
         <v>636.3200000000001</v>
       </c>
       <c r="L201" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -8323,7 +8356,7 @@
         <v>672.75</v>
       </c>
       <c r="L202" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -8355,7 +8388,7 @@
         <v>696.15</v>
       </c>
       <c r="L203" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -8387,7 +8420,7 @@
         <v>720.6799999999999</v>
       </c>
       <c r="L204" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -8419,7 +8452,7 @@
         <v>758.4400000000001</v>
       </c>
       <c r="L205" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -8451,7 +8484,7 @@
         <v>783.58</v>
       </c>
       <c r="L206" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -8483,7 +8516,7 @@
         <v>804.48</v>
       </c>
       <c r="L207" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -8515,7 +8548,7 @@
         <v>839.86</v>
       </c>
       <c r="L208" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -8547,7 +8580,7 @@
         <v>778.2</v>
       </c>
       <c r="L209" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -8579,7 +8612,7 @@
         <v>785.15</v>
       </c>
       <c r="L210" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -8611,7 +8644,7 @@
         <v>847.27</v>
       </c>
       <c r="L211" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -8643,7 +8676,7 @@
         <v>840.4400000000001</v>
       </c>
       <c r="L212" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -8675,7 +8708,7 @@
         <v>948.87</v>
       </c>
       <c r="L213" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -8707,7 +8740,7 @@
         <v>656.5599999999999</v>
       </c>
       <c r="L214" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -8739,7 +8772,7 @@
         <v>865.53</v>
       </c>
       <c r="L215" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -8771,7 +8804,7 @@
         <v>946.83</v>
       </c>
       <c r="L216" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -8803,7 +8836,7 @@
         <v>695.91</v>
       </c>
       <c r="L217" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -8835,7 +8868,7 @@
         <v>825.52</v>
       </c>
       <c r="L218" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -8867,7 +8900,7 @@
         <v>576.63</v>
       </c>
       <c r="L219" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -8899,7 +8932,7 @@
         <v>571.11</v>
       </c>
       <c r="L220" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -8931,7 +8964,7 @@
         <v>803.71</v>
       </c>
       <c r="L221" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -8963,7 +8996,7 @@
         <v>672.0700000000001</v>
       </c>
       <c r="L222" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8995,7 +9028,7 @@
         <v>749.97</v>
       </c>
       <c r="L223" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -9027,7 +9060,7 @@
         <v>591.75</v>
       </c>
       <c r="L224" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -9059,7 +9092,7 @@
         <v>634.12</v>
       </c>
       <c r="L225" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -9091,7 +9124,7 @@
         <v>298.12</v>
       </c>
       <c r="L226" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -9123,7 +9156,7 @@
         <v>127.07</v>
       </c>
       <c r="L227" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -9155,7 +9188,7 @@
         <v>80.23</v>
       </c>
       <c r="L228" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -9187,7 +9220,7 @@
         <v>61.93</v>
       </c>
       <c r="L229" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -9219,7 +9252,7 @@
         <v>65.86</v>
       </c>
       <c r="L230" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -9251,7 +9284,7 @@
         <v>79.79000000000001</v>
       </c>
       <c r="L231" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -9283,7 +9316,7 @@
         <v>144.32</v>
       </c>
       <c r="L232" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -9315,7 +9348,7 @@
         <v>258.86</v>
       </c>
       <c r="L233" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -9347,7 +9380,7 @@
         <v>224.9</v>
       </c>
       <c r="L234" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -9379,7 +9412,7 @@
         <v>257.49</v>
       </c>
       <c r="L235" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -9411,7 +9444,7 @@
         <v>224.31</v>
       </c>
       <c r="L236" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -9443,7 +9476,7 @@
         <v>122.31</v>
       </c>
       <c r="L237" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -9475,7 +9508,7 @@
         <v>116.56</v>
       </c>
       <c r="L238" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -9507,7 +9540,7 @@
         <v>193.67</v>
       </c>
       <c r="L239" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -9539,7 +9572,7 @@
         <v>337.23</v>
       </c>
       <c r="L240" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -9571,7 +9604,7 @@
         <v>396.38</v>
       </c>
       <c r="L241" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -9603,7 +9636,7 @@
         <v>363.34</v>
       </c>
       <c r="L242" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -9635,7 +9668,7 @@
         <v>339.02</v>
       </c>
       <c r="L243" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -9667,7 +9700,7 @@
         <v>254.54</v>
       </c>
       <c r="L244" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -9699,7 +9732,7 @@
         <v>215.3</v>
       </c>
       <c r="L245" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -9731,7 +9764,7 @@
         <v>175.78</v>
       </c>
       <c r="L246" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -9763,7 +9796,7 @@
         <v>122.15</v>
       </c>
       <c r="L247" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9795,7 +9828,7 @@
         <v>81.73999999999999</v>
       </c>
       <c r="L248" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9827,7 +9860,7 @@
         <v>38.8</v>
       </c>
       <c r="L249" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9859,7 +9892,7 @@
         <v>26.35</v>
       </c>
       <c r="L250" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9891,7 +9924,7 @@
         <v>14.53</v>
       </c>
       <c r="L251" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9923,7 +9956,7 @@
         <v>5.59</v>
       </c>
       <c r="L252" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9955,7 +9988,7 @@
         <v>0.5</v>
       </c>
       <c r="L253" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -9987,7 +10020,7 @@
         <v>0</v>
       </c>
       <c r="L254" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -10019,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="L255" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -10051,7 +10084,7 @@
         <v>0</v>
       </c>
       <c r="L256" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -10083,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="L257" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -10115,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="L258" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -10147,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="L259" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -10179,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="L260" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -10211,7 +10244,7 @@
         <v>0</v>
       </c>
       <c r="L261" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -10243,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="L262" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -10275,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="L263" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -10307,7 +10340,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -10339,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="L265" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -10371,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="L266" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -10403,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="L267" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -10435,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="L268" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -10467,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="L269" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -10499,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="L270" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -10531,7 +10564,7 @@
         <v>0</v>
       </c>
       <c r="L271" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -10563,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="L272" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -10595,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="L273" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -10627,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="L274" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -10659,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="L275" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -10691,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="L276" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -10723,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="L277" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -10755,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="L278" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -10787,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="L279" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -10819,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="L280" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -10851,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="L281" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -10883,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="L282" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -10915,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="L283" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -10947,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="L284" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -10979,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="L285" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -11011,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="L286" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -11043,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="L287" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -11075,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="L288" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -11107,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="L289" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -11139,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="L290" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -11171,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="L291" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -11203,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="L292" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -11235,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="L293" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -11267,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L294" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -11299,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="L295" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -11331,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="L296" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -11363,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -11395,7 +11428,7 @@
         <v>0</v>
       </c>
       <c r="L298" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -11427,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="L299" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -11459,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -11491,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="L301" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -11523,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="L302" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -11555,7 +11588,7 @@
         <v>0</v>
       </c>
       <c r="L303" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -11587,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -11619,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -11651,7 +11684,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -11683,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -11715,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -11747,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -11779,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -11811,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -11843,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -11875,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -11907,7 +11940,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -11939,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -11971,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -12003,7 +12036,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -12035,7 +12068,7 @@
         <v>0.02</v>
       </c>
       <c r="L318" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -12067,7 +12100,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -12099,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -12131,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -12163,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -12195,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -12227,7 +12260,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -12259,7 +12292,7 @@
         <v>0</v>
       </c>
       <c r="L325" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -12291,7 +12324,7 @@
         <v>0.16</v>
       </c>
       <c r="L326" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -12323,7 +12356,7 @@
         <v>2.72</v>
       </c>
       <c r="L327" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -12355,7 +12388,7 @@
         <v>7.97</v>
       </c>
       <c r="L328" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -12387,7 +12420,7 @@
         <v>16.43</v>
       </c>
       <c r="L329" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -12419,7 +12452,7 @@
         <v>29.57</v>
       </c>
       <c r="L330" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -12451,7 +12484,7 @@
         <v>49.31</v>
       </c>
       <c r="L331" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -12483,7 +12516,7 @@
         <v>56.77</v>
       </c>
       <c r="L332" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -12515,7 +12548,7 @@
         <v>74.65000000000001</v>
       </c>
       <c r="L333" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -12547,7 +12580,7 @@
         <v>89.79000000000001</v>
       </c>
       <c r="L334" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -12579,7 +12612,7 @@
         <v>132.61</v>
       </c>
       <c r="L335" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -12611,7 +12644,7 @@
         <v>183.45</v>
       </c>
       <c r="L336" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -12643,7 +12676,7 @@
         <v>285.93</v>
       </c>
       <c r="L337" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -12675,7 +12708,7 @@
         <v>289.84</v>
       </c>
       <c r="L338" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -12707,7 +12740,7 @@
         <v>276.9</v>
       </c>
       <c r="L339" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -12739,7 +12772,7 @@
         <v>260.09</v>
       </c>
       <c r="L340" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -12771,7 +12804,7 @@
         <v>283.28</v>
       </c>
       <c r="L341" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -12803,7 +12836,7 @@
         <v>328.52</v>
       </c>
       <c r="L342" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -12835,7 +12868,7 @@
         <v>266.12</v>
       </c>
       <c r="L343" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -12867,7 +12900,7 @@
         <v>390.5</v>
       </c>
       <c r="L344" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -12899,7 +12932,7 @@
         <v>673.77</v>
       </c>
       <c r="L345" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -12931,7 +12964,7 @@
         <v>711.9</v>
       </c>
       <c r="L346" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -12963,7 +12996,7 @@
         <v>739.46</v>
       </c>
       <c r="L347" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -12995,7 +13028,7 @@
         <v>775.8099999999999</v>
       </c>
       <c r="L348" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -13027,7 +13060,7 @@
         <v>808.3200000000001</v>
       </c>
       <c r="L349" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -13059,7 +13092,7 @@
         <v>804.04</v>
       </c>
       <c r="L350" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -13091,7 +13124,7 @@
         <v>854.51</v>
       </c>
       <c r="L351" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -13123,7 +13156,7 @@
         <v>792.17</v>
       </c>
       <c r="L352" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -13155,7 +13188,7 @@
         <v>504.18</v>
       </c>
       <c r="L353" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -13187,7 +13220,7 @@
         <v>370.77</v>
       </c>
       <c r="L354" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -13219,7 +13252,7 @@
         <v>352.5</v>
       </c>
       <c r="L355" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -13251,7 +13284,7 @@
         <v>323.36</v>
       </c>
       <c r="L356" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -13283,7 +13316,7 @@
         <v>283.18</v>
       </c>
       <c r="L357" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -13315,7 +13348,7 @@
         <v>356.01</v>
       </c>
       <c r="L358" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -13347,7 +13380,7 @@
         <v>525.59</v>
       </c>
       <c r="L359" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -13379,7 +13412,7 @@
         <v>742.11</v>
       </c>
       <c r="L360" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -13411,7 +13444,7 @@
         <v>1052.22</v>
       </c>
       <c r="L361" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -13443,7 +13476,7 @@
         <v>833.59</v>
       </c>
       <c r="L362" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -13475,7 +13508,7 @@
         <v>996.8099999999999</v>
       </c>
       <c r="L363" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -13507,7 +13540,7 @@
         <v>925.02</v>
       </c>
       <c r="L364" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -13539,7 +13572,7 @@
         <v>1002.57</v>
       </c>
       <c r="L365" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -13571,7 +13604,7 @@
         <v>789.84</v>
       </c>
       <c r="L366" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -13603,7 +13636,7 @@
         <v>619.3</v>
       </c>
       <c r="L367" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -13635,7 +13668,7 @@
         <v>494.59</v>
       </c>
       <c r="L368" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -13667,7 +13700,7 @@
         <v>843.3099999999999</v>
       </c>
       <c r="L369" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -13699,7 +13732,7 @@
         <v>863.73</v>
       </c>
       <c r="L370" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -13731,7 +13764,7 @@
         <v>923.96</v>
       </c>
       <c r="L371" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -13763,7 +13796,7 @@
         <v>875.39</v>
       </c>
       <c r="L372" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -13795,7 +13828,7 @@
         <v>673.11</v>
       </c>
       <c r="L373" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -13827,7 +13860,7 @@
         <v>749.1900000000001</v>
       </c>
       <c r="L374" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -13859,7 +13892,7 @@
         <v>367.41</v>
       </c>
       <c r="L375" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -13891,7 +13924,7 @@
         <v>160.58</v>
       </c>
       <c r="L376" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -13923,7 +13956,7 @@
         <v>193.86</v>
       </c>
       <c r="L377" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -13955,7 +13988,7 @@
         <v>247.32</v>
       </c>
       <c r="L378" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -13987,7 +14020,7 @@
         <v>488.15</v>
       </c>
       <c r="L379" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -14019,7 +14052,7 @@
         <v>532.72</v>
       </c>
       <c r="L380" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -14051,7 +14084,7 @@
         <v>394.36</v>
       </c>
       <c r="L381" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -14083,7 +14116,7 @@
         <v>357.79</v>
       </c>
       <c r="L382" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -14115,7 +14148,7 @@
         <v>316.3</v>
       </c>
       <c r="L383" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -14147,7 +14180,7 @@
         <v>399.92</v>
       </c>
       <c r="L384" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -14179,7 +14212,7 @@
         <v>345.58</v>
       </c>
       <c r="L385" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -14211,7 +14244,7 @@
         <v>310.09</v>
       </c>
       <c r="L386" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -14243,7 +14276,7 @@
         <v>225.21</v>
       </c>
       <c r="L387" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -14275,7 +14308,7 @@
         <v>149.3</v>
       </c>
       <c r="L388" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -14307,7 +14340,7 @@
         <v>109.35</v>
       </c>
       <c r="L389" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -14339,7 +14372,7 @@
         <v>66.45999999999999</v>
       </c>
       <c r="L390" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -14371,7 +14404,7 @@
         <v>50.73</v>
       </c>
       <c r="L391" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -14403,7 +14436,7 @@
         <v>36.24</v>
       </c>
       <c r="L392" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -14435,7 +14468,7 @@
         <v>30.44</v>
       </c>
       <c r="L393" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -14467,7 +14500,7 @@
         <v>27.33</v>
       </c>
       <c r="L394" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -14499,7 +14532,7 @@
         <v>9.6</v>
       </c>
       <c r="L395" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -14531,7 +14564,7 @@
         <v>0.96</v>
       </c>
       <c r="L396" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -14563,7 +14596,7 @@
         <v>0.23</v>
       </c>
       <c r="L397" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -14595,7 +14628,7 @@
         <v>0</v>
       </c>
       <c r="L398" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -14627,7 +14660,7 @@
         <v>0</v>
       </c>
       <c r="L399" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -14659,7 +14692,7 @@
         <v>0</v>
       </c>
       <c r="L400" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -14691,7 +14724,7 @@
         <v>0</v>
       </c>
       <c r="L401" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -14723,7 +14756,7 @@
         <v>0</v>
       </c>
       <c r="L402" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -14755,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="L403" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -14787,7 +14820,7 @@
         <v>0</v>
       </c>
       <c r="L404" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -14819,7 +14852,7 @@
         <v>0</v>
       </c>
       <c r="L405" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -14851,7 +14884,7 @@
         <v>0</v>
       </c>
       <c r="L406" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -14883,7 +14916,7 @@
         <v>0</v>
       </c>
       <c r="L407" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -14915,7 +14948,7 @@
         <v>0</v>
       </c>
       <c r="L408" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -14947,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="L409" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -14979,7 +15012,7 @@
         <v>0</v>
       </c>
       <c r="L410" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -15011,7 +15044,7 @@
         <v>0</v>
       </c>
       <c r="L411" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -15043,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="L412" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -15075,7 +15108,7 @@
         <v>0</v>
       </c>
       <c r="L413" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -15107,7 +15140,7 @@
         <v>0</v>
       </c>
       <c r="L414" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -15139,7 +15172,7 @@
         <v>0</v>
       </c>
       <c r="L415" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -15171,7 +15204,7 @@
         <v>0</v>
       </c>
       <c r="L416" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -15203,7 +15236,7 @@
         <v>0</v>
       </c>
       <c r="L417" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -15235,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="L418" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -15267,7 +15300,7 @@
         <v>0</v>
       </c>
       <c r="L419" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -15299,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="L420" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -15331,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="L421" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -15363,7 +15396,7 @@
         <v>0</v>
       </c>
       <c r="L422" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -15395,7 +15428,7 @@
         <v>0</v>
       </c>
       <c r="L423" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -15427,7 +15460,7 @@
         <v>0</v>
       </c>
       <c r="L424" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -15459,7 +15492,7 @@
         <v>0</v>
       </c>
       <c r="L425" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -15491,7 +15524,7 @@
         <v>0</v>
       </c>
       <c r="L426" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -15523,7 +15556,7 @@
         <v>0</v>
       </c>
       <c r="L427" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -15555,7 +15588,7 @@
         <v>0</v>
       </c>
       <c r="L428" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -15587,7 +15620,7 @@
         <v>0</v>
       </c>
       <c r="L429" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -15619,7 +15652,7 @@
         <v>0</v>
       </c>
       <c r="L430" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -15651,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="L431" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -15683,7 +15716,7 @@
         <v>0</v>
       </c>
       <c r="L432" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -15715,7 +15748,7 @@
         <v>0</v>
       </c>
       <c r="L433" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -15747,7 +15780,7 @@
         <v>0</v>
       </c>
       <c r="L434" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -15779,7 +15812,7 @@
         <v>0</v>
       </c>
       <c r="L435" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -15811,7 +15844,7 @@
         <v>0</v>
       </c>
       <c r="L436" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -15843,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="L437" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -15875,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="L438" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -15907,7 +15940,7 @@
         <v>0</v>
       </c>
       <c r="L439" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -15939,7 +15972,7 @@
         <v>0</v>
       </c>
       <c r="L440" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -15971,7 +16004,7 @@
         <v>0</v>
       </c>
       <c r="L441" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -16003,7 +16036,7 @@
         <v>0</v>
       </c>
       <c r="L442" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -16035,7 +16068,7 @@
         <v>0</v>
       </c>
       <c r="L443" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -16067,7 +16100,7 @@
         <v>0</v>
       </c>
       <c r="L444" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -16099,7 +16132,7 @@
         <v>0</v>
       </c>
       <c r="L445" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -16131,7 +16164,7 @@
         <v>0</v>
       </c>
       <c r="L446" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -16163,7 +16196,7 @@
         <v>0</v>
       </c>
       <c r="L447" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -16195,7 +16228,7 @@
         <v>0</v>
       </c>
       <c r="L448" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -16227,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="L449" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -16259,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="L450" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -16291,7 +16324,7 @@
         <v>0</v>
       </c>
       <c r="L451" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -16323,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="L452" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -16355,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="L453" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -16387,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="L454" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -16419,7 +16452,7 @@
         <v>0</v>
       </c>
       <c r="L455" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -16451,7 +16484,7 @@
         <v>0</v>
       </c>
       <c r="L456" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -16483,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="L457" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -16515,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="L458" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -16547,7 +16580,7 @@
         <v>0</v>
       </c>
       <c r="L459" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -16579,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="L460" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -16611,7 +16644,7 @@
         <v>0</v>
       </c>
       <c r="L461" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -16643,7 +16676,7 @@
         <v>0</v>
       </c>
       <c r="L462" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -16675,7 +16708,7 @@
         <v>0</v>
       </c>
       <c r="L463" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -16707,7 +16740,7 @@
         <v>0</v>
       </c>
       <c r="L464" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -16739,7 +16772,7 @@
         <v>0</v>
       </c>
       <c r="L465" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -16771,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="L466" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -16803,7 +16836,7 @@
         <v>0</v>
       </c>
       <c r="L467" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -16835,7 +16868,7 @@
         <v>0</v>
       </c>
       <c r="L468" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -16867,7 +16900,7 @@
         <v>0</v>
       </c>
       <c r="L469" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -16899,7 +16932,7 @@
         <v>0</v>
       </c>
       <c r="L470" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -16931,7 +16964,7 @@
         <v>2.65</v>
       </c>
       <c r="L471" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -16963,7 +16996,7 @@
         <v>6.55</v>
       </c>
       <c r="L472" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -16995,7 +17028,7 @@
         <v>17.82</v>
       </c>
       <c r="L473" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -17027,7 +17060,7 @@
         <v>35.86</v>
       </c>
       <c r="L474" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -17059,7 +17092,7 @@
         <v>54.07</v>
       </c>
       <c r="L475" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -17091,7 +17124,7 @@
         <v>62.25</v>
       </c>
       <c r="L476" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -17123,7 +17156,7 @@
         <v>77.91</v>
       </c>
       <c r="L477" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -17155,7 +17188,7 @@
         <v>82.69</v>
       </c>
       <c r="L478" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -17187,7 +17220,7 @@
         <v>133.26</v>
       </c>
       <c r="L479" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -17219,7 +17252,7 @@
         <v>144.69</v>
       </c>
       <c r="L480" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -17251,7 +17284,7 @@
         <v>190.97</v>
       </c>
       <c r="L481" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -17283,7 +17316,7 @@
         <v>411.43</v>
       </c>
       <c r="L482" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -17315,7 +17348,359 @@
         <v>270.08</v>
       </c>
       <c r="L483" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
         <v>493</v>
+      </c>
+      <c r="C484">
+        <v>13.73</v>
+      </c>
+      <c r="D484">
+        <v>64.23999999999999</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>22.52</v>
+      </c>
+      <c r="H484">
+        <v>15.4</v>
+      </c>
+      <c r="I484">
+        <v>-0.03</v>
+      </c>
+      <c r="J484">
+        <v>221.11</v>
+      </c>
+      <c r="L484" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>494</v>
+      </c>
+      <c r="C485">
+        <v>13.73</v>
+      </c>
+      <c r="D485">
+        <v>59.88</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>23.2</v>
+      </c>
+      <c r="H485">
+        <v>14.94</v>
+      </c>
+      <c r="I485">
+        <v>-0.03</v>
+      </c>
+      <c r="J485">
+        <v>544.74</v>
+      </c>
+      <c r="L485" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>495</v>
+      </c>
+      <c r="C486">
+        <v>13.73</v>
+      </c>
+      <c r="D486">
+        <v>60.59</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>23.06</v>
+      </c>
+      <c r="H486">
+        <v>14.99</v>
+      </c>
+      <c r="I486">
+        <v>0.01</v>
+      </c>
+      <c r="J486">
+        <v>315.07</v>
+      </c>
+      <c r="L486" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>496</v>
+      </c>
+      <c r="C487">
+        <v>13.73</v>
+      </c>
+      <c r="D487">
+        <v>65.47</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>22.34</v>
+      </c>
+      <c r="H487">
+        <v>15.52</v>
+      </c>
+      <c r="I487">
+        <v>-0.03</v>
+      </c>
+      <c r="J487">
+        <v>193.23</v>
+      </c>
+      <c r="L487" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>497</v>
+      </c>
+      <c r="C488">
+        <v>13.73</v>
+      </c>
+      <c r="D488">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>22.42</v>
+      </c>
+      <c r="H488">
+        <v>15.7</v>
+      </c>
+      <c r="I488">
+        <v>0.01</v>
+      </c>
+      <c r="J488">
+        <v>182.15</v>
+      </c>
+      <c r="L488" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>498</v>
+      </c>
+      <c r="C489">
+        <v>13.73</v>
+      </c>
+      <c r="D489">
+        <v>67.03</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>22.46</v>
+      </c>
+      <c r="H489">
+        <v>16</v>
+      </c>
+      <c r="I489">
+        <v>0.05</v>
+      </c>
+      <c r="J489">
+        <v>258.39</v>
+      </c>
+      <c r="L489" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>499</v>
+      </c>
+      <c r="C490">
+        <v>13.73</v>
+      </c>
+      <c r="D490">
+        <v>64.77</v>
+      </c>
+      <c r="E490">
+        <v>0</v>
+      </c>
+      <c r="F490">
+        <v>22.86</v>
+      </c>
+      <c r="H490">
+        <v>15.85</v>
+      </c>
+      <c r="I490">
+        <v>-0.04</v>
+      </c>
+      <c r="J490">
+        <v>347.75</v>
+      </c>
+      <c r="L490" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>500</v>
+      </c>
+      <c r="C491">
+        <v>13.74</v>
+      </c>
+      <c r="D491">
+        <v>65.86</v>
+      </c>
+      <c r="E491">
+        <v>0</v>
+      </c>
+      <c r="F491">
+        <v>22.67</v>
+      </c>
+      <c r="H491">
+        <v>15.93</v>
+      </c>
+      <c r="I491">
+        <v>-0.05</v>
+      </c>
+      <c r="J491">
+        <v>229.51</v>
+      </c>
+      <c r="L491" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>501</v>
+      </c>
+      <c r="C492">
+        <v>13.73</v>
+      </c>
+      <c r="D492">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="E492">
+        <v>0</v>
+      </c>
+      <c r="F492">
+        <v>22.67</v>
+      </c>
+      <c r="H492">
+        <v>15.92</v>
+      </c>
+      <c r="I492">
+        <v>-0.02</v>
+      </c>
+      <c r="J492">
+        <v>233.2</v>
+      </c>
+      <c r="L492" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>502</v>
+      </c>
+      <c r="C493">
+        <v>13.73</v>
+      </c>
+      <c r="D493">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E493">
+        <v>0</v>
+      </c>
+      <c r="F493">
+        <v>22.68</v>
+      </c>
+      <c r="H493">
+        <v>16.19</v>
+      </c>
+      <c r="I493">
+        <v>-0.04</v>
+      </c>
+      <c r="J493">
+        <v>195.61</v>
+      </c>
+      <c r="L493" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>503</v>
+      </c>
+      <c r="C494">
+        <v>13.74</v>
+      </c>
+      <c r="D494">
+        <v>66.88</v>
+      </c>
+      <c r="E494">
+        <v>0</v>
+      </c>
+      <c r="F494">
+        <v>22.63</v>
+      </c>
+      <c r="H494">
+        <v>16.14</v>
+      </c>
+      <c r="I494">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J494">
+        <v>178.76</v>
+      </c>
+      <c r="L494" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
